--- a/resources/data-imports/items/weapons.xlsx
+++ b/resources/data-imports/items/weapons.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/items/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA61EF47-89B5-B44F-99AE-73B792425596}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -199,6 +183,21 @@
   </si>
   <si>
     <t>drop_location_id</t>
+  </si>
+  <si>
+    <t>xp_bonus</t>
+  </si>
+  <si>
+    <t>ignores_caps</t>
+  </si>
+  <si>
+    <t>can_use_on_other_items</t>
+  </si>
+  <si>
+    <t>holy_level</t>
+  </si>
+  <si>
+    <t>holy_stacks</t>
   </si>
   <si>
     <t>Broken Dagger</t>
@@ -900,9 +899,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -917,33 +921,21 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1233,68 +1225,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:BI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F88" workbookViewId="0">
-      <selection activeCell="J113" sqref="J113:J117"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="221" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="47" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="221" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="56" max="56" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1463,16 +1469,31 @@
       <c r="BD1" t="s">
         <v>55</v>
       </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61">
       <c r="D2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1493,7 +1514,7 @@
         <v>5</v>
       </c>
       <c r="AC2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -1543,16 +1564,19 @@
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61">
       <c r="D3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H3">
         <v>8</v>
@@ -1594,7 +1618,7 @@
         <v>8</v>
       </c>
       <c r="AC3" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1644,16 +1668,19 @@
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61">
       <c r="D4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H4">
         <v>40</v>
@@ -1695,7 +1722,7 @@
         <v>20</v>
       </c>
       <c r="AC4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1745,16 +1772,19 @@
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BI4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61">
       <c r="D5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="H5">
         <v>80</v>
@@ -1796,7 +1826,7 @@
         <v>36</v>
       </c>
       <c r="AC5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1846,16 +1876,19 @@
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BI5">
+        <v>2</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61">
       <c r="D6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H6">
         <v>120</v>
@@ -1897,7 +1930,7 @@
         <v>40</v>
       </c>
       <c r="AC6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1947,16 +1980,19 @@
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BI6">
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61">
       <c r="D7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H7">
         <v>160</v>
@@ -1995,7 +2031,7 @@
         <v>60</v>
       </c>
       <c r="AC7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -2045,16 +2081,19 @@
       <c r="BC7">
         <v>0</v>
       </c>
+      <c r="BI7">
+        <v>3</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61">
       <c r="D8" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H8">
         <v>190</v>
@@ -2093,7 +2132,7 @@
         <v>70</v>
       </c>
       <c r="AC8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -2143,16 +2182,19 @@
       <c r="BC8">
         <v>0</v>
       </c>
+      <c r="BI8">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61">
       <c r="D9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H9">
         <v>220</v>
@@ -2191,7 +2233,7 @@
         <v>78</v>
       </c>
       <c r="AC9" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -2241,16 +2283,19 @@
       <c r="BC9">
         <v>0</v>
       </c>
+      <c r="BI9">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61">
       <c r="D10" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F10" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H10">
         <v>250</v>
@@ -2289,7 +2334,7 @@
         <v>78</v>
       </c>
       <c r="AC10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -2339,16 +2384,19 @@
       <c r="BC10">
         <v>0</v>
       </c>
+      <c r="BI10">
+        <v>4</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61">
       <c r="D11" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H11">
         <v>280</v>
@@ -2357,13 +2405,13 @@
         <v>7000</v>
       </c>
       <c r="Q11">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2387,7 +2435,7 @@
         <v>100</v>
       </c>
       <c r="AC11" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -2437,16 +2485,19 @@
       <c r="BC11">
         <v>0</v>
       </c>
+      <c r="BI11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61">
       <c r="D12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F12" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H12">
         <v>340</v>
@@ -2485,7 +2536,7 @@
         <v>110</v>
       </c>
       <c r="AC12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2535,16 +2586,19 @@
       <c r="BC12">
         <v>0</v>
       </c>
+      <c r="BI12">
+        <v>6</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61">
       <c r="D13" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H13">
         <v>380</v>
@@ -2583,7 +2637,7 @@
         <v>130</v>
       </c>
       <c r="AC13" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2633,16 +2687,19 @@
       <c r="BC13">
         <v>0</v>
       </c>
+      <c r="BI13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61">
       <c r="D14" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H14">
         <v>450</v>
@@ -2681,7 +2738,7 @@
         <v>150</v>
       </c>
       <c r="AC14" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -2731,16 +2788,19 @@
       <c r="BC14">
         <v>0</v>
       </c>
+      <c r="BI14">
+        <v>8</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61">
       <c r="D15" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="H15">
         <v>475</v>
@@ -2776,10 +2836,10 @@
         <v>75</v>
       </c>
       <c r="AB15">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="AC15" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -2829,16 +2889,19 @@
       <c r="BC15">
         <v>0</v>
       </c>
+      <c r="BI15">
+        <v>8</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61">
       <c r="D16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="H16">
         <v>490</v>
@@ -2877,7 +2940,7 @@
         <v>190</v>
       </c>
       <c r="AC16" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -2927,16 +2990,19 @@
       <c r="BC16">
         <v>0</v>
       </c>
+      <c r="BI16">
+        <v>10</v>
+      </c>
     </row>
-    <row r="17" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61">
       <c r="D17" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H17">
         <v>520</v>
@@ -2975,7 +3041,7 @@
         <v>190</v>
       </c>
       <c r="AC17" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3025,16 +3091,19 @@
       <c r="BC17">
         <v>0</v>
       </c>
+      <c r="BI17">
+        <v>10</v>
+      </c>
     </row>
-    <row r="18" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61">
       <c r="D18" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H18">
         <v>540</v>
@@ -3073,7 +3142,7 @@
         <v>200</v>
       </c>
       <c r="AC18" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -3123,16 +3192,19 @@
       <c r="BC18">
         <v>0</v>
       </c>
+      <c r="BI18">
+        <v>10</v>
+      </c>
     </row>
-    <row r="19" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61">
       <c r="D19" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F19" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H19">
         <v>560</v>
@@ -3171,7 +3243,7 @@
         <v>200</v>
       </c>
       <c r="AC19" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -3221,16 +3293,19 @@
       <c r="BC19">
         <v>0</v>
       </c>
+      <c r="BI19">
+        <v>10</v>
+      </c>
     </row>
-    <row r="20" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61">
       <c r="D20" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H20">
         <v>580</v>
@@ -3269,7 +3344,7 @@
         <v>200</v>
       </c>
       <c r="AC20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -3319,16 +3394,19 @@
       <c r="BC20">
         <v>0</v>
       </c>
+      <c r="BI20">
+        <v>10</v>
+      </c>
     </row>
-    <row r="21" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61">
       <c r="D21" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -3367,7 +3445,7 @@
         <v>200</v>
       </c>
       <c r="AC21" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -3417,16 +3495,19 @@
       <c r="BC21">
         <v>0</v>
       </c>
+      <c r="BI21">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61">
       <c r="D22" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H22">
         <v>620</v>
@@ -3435,13 +3516,13 @@
         <v>1000000</v>
       </c>
       <c r="Q22">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -3465,7 +3546,7 @@
         <v>200</v>
       </c>
       <c r="AC22" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -3515,16 +3596,19 @@
       <c r="BC22">
         <v>0</v>
       </c>
+      <c r="BI22">
+        <v>10</v>
+      </c>
     </row>
-    <row r="23" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61">
       <c r="D23" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="H23">
         <v>630</v>
@@ -3533,13 +3617,13 @@
         <v>10000000</v>
       </c>
       <c r="Q23">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3563,7 +3647,7 @@
         <v>200</v>
       </c>
       <c r="AC23" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -3613,16 +3697,19 @@
       <c r="BC23">
         <v>0</v>
       </c>
+      <c r="BI23">
+        <v>10</v>
+      </c>
     </row>
-    <row r="24" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61">
       <c r="D24" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F24" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="H24">
         <v>640</v>
@@ -3661,7 +3748,7 @@
         <v>200</v>
       </c>
       <c r="AC24" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -3711,16 +3798,19 @@
       <c r="BC24">
         <v>0</v>
       </c>
+      <c r="BI24">
+        <v>10</v>
+      </c>
     </row>
-    <row r="25" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61">
       <c r="D25" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="H25">
         <v>660</v>
@@ -3759,7 +3849,7 @@
         <v>200</v>
       </c>
       <c r="AC25" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -3809,16 +3899,19 @@
       <c r="BC25">
         <v>0</v>
       </c>
+      <c r="BI25">
+        <v>10</v>
+      </c>
     </row>
-    <row r="26" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61">
       <c r="D26" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F26" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H26">
         <v>680</v>
@@ -3857,7 +3950,7 @@
         <v>200</v>
       </c>
       <c r="AC26" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3907,16 +4000,19 @@
       <c r="BC26">
         <v>0</v>
       </c>
+      <c r="BI26">
+        <v>10</v>
+      </c>
     </row>
-    <row r="27" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61">
       <c r="D27" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H27">
         <v>700</v>
@@ -3955,7 +4051,7 @@
         <v>200</v>
       </c>
       <c r="AC27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -4005,16 +4101,19 @@
       <c r="BC27">
         <v>0</v>
       </c>
+      <c r="BI27">
+        <v>10</v>
+      </c>
     </row>
-    <row r="28" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61">
       <c r="D28" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H28">
         <v>720</v>
@@ -4053,7 +4152,7 @@
         <v>200</v>
       </c>
       <c r="AC28" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -4103,16 +4202,19 @@
       <c r="BC28">
         <v>0</v>
       </c>
+      <c r="BI28">
+        <v>10</v>
+      </c>
     </row>
-    <row r="29" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61">
       <c r="D29" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F29" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H29">
         <v>730</v>
@@ -4151,7 +4253,7 @@
         <v>210</v>
       </c>
       <c r="AC29" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -4201,16 +4303,19 @@
       <c r="BC29">
         <v>0</v>
       </c>
+      <c r="BI29">
+        <v>11</v>
+      </c>
     </row>
-    <row r="30" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61">
       <c r="D30" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F30" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H30">
         <v>740</v>
@@ -4249,7 +4354,7 @@
         <v>220</v>
       </c>
       <c r="AC30" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -4299,16 +4404,19 @@
       <c r="BC30">
         <v>0</v>
       </c>
+      <c r="BI30">
+        <v>11</v>
+      </c>
     </row>
-    <row r="31" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61">
       <c r="D31" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F31" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H31">
         <v>800</v>
@@ -4347,7 +4455,7 @@
         <v>220</v>
       </c>
       <c r="AC31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -4397,16 +4505,19 @@
       <c r="BC31">
         <v>0</v>
       </c>
+      <c r="BI31">
+        <v>11</v>
+      </c>
     </row>
-    <row r="32" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:61">
       <c r="D32" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="H32">
         <v>845</v>
@@ -4445,7 +4556,7 @@
         <v>225</v>
       </c>
       <c r="AC32" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -4495,16 +4606,19 @@
       <c r="BC32">
         <v>0</v>
       </c>
+      <c r="BI32">
+        <v>11</v>
+      </c>
     </row>
-    <row r="33" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:61">
       <c r="D33" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H33">
         <v>900</v>
@@ -4512,6 +4626,12 @@
       <c r="K33">
         <v>2100000000</v>
       </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
       <c r="Q33">
         <v>1</v>
       </c>
@@ -4543,7 +4663,7 @@
         <v>228</v>
       </c>
       <c r="AC33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -4596,16 +4716,19 @@
       <c r="BC33">
         <v>0</v>
       </c>
+      <c r="BI33">
+        <v>11</v>
+      </c>
     </row>
-    <row r="34" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:61">
       <c r="D34" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F34" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="H34">
         <v>950</v>
@@ -4613,6 +4736,12 @@
       <c r="K34">
         <v>2200000000</v>
       </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
       <c r="Q34">
         <v>1.05</v>
       </c>
@@ -4644,7 +4773,7 @@
         <v>232</v>
       </c>
       <c r="AC34" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -4697,16 +4826,19 @@
       <c r="BC34">
         <v>0</v>
       </c>
+      <c r="BI34">
+        <v>12</v>
+      </c>
     </row>
-    <row r="35" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:61">
       <c r="D35" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F35" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H35">
         <v>1000</v>
@@ -4714,14 +4846,20 @@
       <c r="K35">
         <v>2300000000</v>
       </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
       <c r="Q35">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -4745,7 +4883,7 @@
         <v>250</v>
       </c>
       <c r="AC35" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -4798,16 +4936,19 @@
       <c r="BC35">
         <v>0</v>
       </c>
+      <c r="BI35">
+        <v>13</v>
+      </c>
     </row>
-    <row r="36" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:61">
       <c r="D36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H36">
         <v>1100</v>
@@ -4815,14 +4956,20 @@
       <c r="K36">
         <v>2400000000</v>
       </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
       <c r="Q36">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -4846,7 +4993,7 @@
         <v>250</v>
       </c>
       <c r="AC36" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -4899,16 +5046,19 @@
       <c r="BC36">
         <v>0</v>
       </c>
+      <c r="BI36">
+        <v>13</v>
+      </c>
     </row>
-    <row r="37" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:61">
       <c r="D37" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="H37">
         <v>1200</v>
@@ -4916,6 +5066,12 @@
       <c r="K37">
         <v>2800000000</v>
       </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
       <c r="Q37">
         <v>1.2</v>
       </c>
@@ -4947,7 +5103,7 @@
         <v>270</v>
       </c>
       <c r="AC37" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF37">
         <v>0</v>
@@ -5000,16 +5156,19 @@
       <c r="BC37">
         <v>0</v>
       </c>
+      <c r="BI37">
+        <v>14</v>
+      </c>
     </row>
-    <row r="38" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:61">
       <c r="D38" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H38">
         <v>1300</v>
@@ -5017,6 +5176,12 @@
       <c r="K38">
         <v>3200000000</v>
       </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
       <c r="Q38">
         <v>1.35</v>
       </c>
@@ -5048,7 +5213,7 @@
         <v>270</v>
       </c>
       <c r="AC38" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -5101,16 +5266,19 @@
       <c r="BC38">
         <v>0</v>
       </c>
+      <c r="BI38">
+        <v>14</v>
+      </c>
     </row>
-    <row r="39" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:61">
       <c r="D39" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="E39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H39">
         <v>1400</v>
@@ -5118,6 +5286,12 @@
       <c r="K39">
         <v>3300000000</v>
       </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
       <c r="Q39">
         <v>1.4</v>
       </c>
@@ -5149,7 +5323,7 @@
         <v>270</v>
       </c>
       <c r="AC39" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -5202,16 +5376,19 @@
       <c r="BC39">
         <v>0</v>
       </c>
+      <c r="BI39">
+        <v>14</v>
+      </c>
     </row>
-    <row r="40" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:61">
       <c r="D40" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F40" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="H40">
         <v>1500</v>
@@ -5219,6 +5396,12 @@
       <c r="K40">
         <v>3500000000</v>
       </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
       <c r="Q40">
         <v>1.43</v>
       </c>
@@ -5250,7 +5433,7 @@
         <v>270</v>
       </c>
       <c r="AC40" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -5303,16 +5486,19 @@
       <c r="BC40">
         <v>0</v>
       </c>
+      <c r="BI40">
+        <v>14</v>
+      </c>
     </row>
-    <row r="41" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:61">
       <c r="D41" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H41">
         <v>1600</v>
@@ -5320,6 +5506,12 @@
       <c r="K41">
         <v>3700000000</v>
       </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
       <c r="Q41">
         <v>1.47</v>
       </c>
@@ -5351,7 +5543,7 @@
         <v>280</v>
       </c>
       <c r="AC41" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF41">
         <v>0</v>
@@ -5404,16 +5596,19 @@
       <c r="BC41">
         <v>0</v>
       </c>
+      <c r="BI41">
+        <v>14</v>
+      </c>
     </row>
-    <row r="42" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:61">
       <c r="D42" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H42">
         <v>1700</v>
@@ -5421,6 +5616,12 @@
       <c r="K42">
         <v>4200000000</v>
       </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
       <c r="Q42">
         <v>1.5</v>
       </c>
@@ -5452,7 +5653,7 @@
         <v>290</v>
       </c>
       <c r="AC42" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF42">
         <v>0</v>
@@ -5505,16 +5706,19 @@
       <c r="BC42">
         <v>0</v>
       </c>
+      <c r="BI42">
+        <v>15</v>
+      </c>
     </row>
-    <row r="43" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:61">
       <c r="D43" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H43">
         <v>1800</v>
@@ -5522,6 +5726,12 @@
       <c r="K43">
         <v>4400000000</v>
       </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
       <c r="Q43">
         <v>1.55</v>
       </c>
@@ -5553,7 +5763,7 @@
         <v>300</v>
       </c>
       <c r="AC43" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF43">
         <v>0</v>
@@ -5606,16 +5816,19 @@
       <c r="BC43">
         <v>0</v>
       </c>
+      <c r="BI43">
+        <v>15</v>
+      </c>
     </row>
-    <row r="44" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:61">
       <c r="D44" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F44" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="H44">
         <v>1900</v>
@@ -5623,6 +5836,12 @@
       <c r="K44">
         <v>4600000000</v>
       </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
       <c r="Q44">
         <v>1.63</v>
       </c>
@@ -5654,7 +5873,7 @@
         <v>310</v>
       </c>
       <c r="AC44" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -5707,16 +5926,19 @@
       <c r="BC44">
         <v>0</v>
       </c>
+      <c r="BI44">
+        <v>16</v>
+      </c>
     </row>
-    <row r="45" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:61">
       <c r="D45" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="H45">
         <v>2000</v>
@@ -5724,6 +5946,12 @@
       <c r="K45">
         <v>5000000000</v>
       </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
       <c r="Q45">
         <v>1.68</v>
       </c>
@@ -5755,7 +5983,7 @@
         <v>320</v>
       </c>
       <c r="AC45" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF45">
         <v>0</v>
@@ -5808,16 +6036,19 @@
       <c r="BC45">
         <v>0</v>
       </c>
+      <c r="BI45">
+        <v>16</v>
+      </c>
     </row>
-    <row r="46" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:61">
       <c r="D46" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F46" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="H46">
         <v>2100</v>
@@ -5825,6 +6056,12 @@
       <c r="K46">
         <v>5300000000</v>
       </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
       <c r="Q46">
         <v>1.73</v>
       </c>
@@ -5856,7 +6093,7 @@
         <v>320</v>
       </c>
       <c r="AC46" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF46">
         <v>0</v>
@@ -5909,16 +6146,19 @@
       <c r="BC46">
         <v>0</v>
       </c>
+      <c r="BI46">
+        <v>16</v>
+      </c>
     </row>
-    <row r="47" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:61">
       <c r="D47" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H47">
         <v>2200</v>
@@ -5926,6 +6166,12 @@
       <c r="K47">
         <v>5600000000</v>
       </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
       <c r="Q47">
         <v>1.76</v>
       </c>
@@ -5957,7 +6203,7 @@
         <v>330</v>
       </c>
       <c r="AC47" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF47">
         <v>0</v>
@@ -6010,16 +6256,19 @@
       <c r="BC47">
         <v>0</v>
       </c>
+      <c r="BI47">
+        <v>17</v>
+      </c>
     </row>
-    <row r="48" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:61">
       <c r="D48" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F48" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="H48">
         <v>2300</v>
@@ -6027,6 +6276,12 @@
       <c r="K48">
         <v>5800000000</v>
       </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
       <c r="Q48">
         <v>1.8</v>
       </c>
@@ -6058,7 +6313,7 @@
         <v>340</v>
       </c>
       <c r="AC48" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF48">
         <v>0</v>
@@ -6111,16 +6366,19 @@
       <c r="BC48">
         <v>0</v>
       </c>
+      <c r="BI48">
+        <v>17</v>
+      </c>
     </row>
-    <row r="49" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:61">
       <c r="D49" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="E49" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F49" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="H49">
         <v>2400</v>
@@ -6128,6 +6386,12 @@
       <c r="K49">
         <v>6000000000</v>
       </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
       <c r="Q49">
         <v>1.87</v>
       </c>
@@ -6159,7 +6423,7 @@
         <v>350</v>
       </c>
       <c r="AC49" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF49">
         <v>0</v>
@@ -6212,16 +6476,19 @@
       <c r="BC49">
         <v>0</v>
       </c>
+      <c r="BI49">
+        <v>18</v>
+      </c>
     </row>
-    <row r="50" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:61">
       <c r="D50" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="E50" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F50" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H50">
         <v>2600</v>
@@ -6229,6 +6496,12 @@
       <c r="K50">
         <v>10000000000</v>
       </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
       <c r="Q50">
         <v>2.08</v>
       </c>
@@ -6260,7 +6533,7 @@
         <v>370</v>
       </c>
       <c r="AC50" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF50">
         <v>0</v>
@@ -6313,16 +6586,19 @@
       <c r="BC50">
         <v>0</v>
       </c>
+      <c r="BI50">
+        <v>19</v>
+      </c>
     </row>
-    <row r="51" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:61">
       <c r="D51" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E51" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="H51">
         <v>2700</v>
@@ -6330,6 +6606,12 @@
       <c r="K51">
         <v>12000000000</v>
       </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
       <c r="Q51">
         <v>2.12</v>
       </c>
@@ -6361,7 +6643,7 @@
         <v>380</v>
       </c>
       <c r="AC51" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF51">
         <v>0</v>
@@ -6414,16 +6696,19 @@
       <c r="BC51">
         <v>0</v>
       </c>
+      <c r="BI51">
+        <v>19</v>
+      </c>
     </row>
-    <row r="52" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:61">
       <c r="D52" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F52" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="H52">
         <v>2800</v>
@@ -6431,6 +6716,12 @@
       <c r="K52">
         <v>16000000000</v>
       </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
       <c r="Q52">
         <v>2.16</v>
       </c>
@@ -6453,7 +6744,7 @@
         <v>380</v>
       </c>
       <c r="AC52" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF52">
         <v>0</v>
@@ -6506,16 +6797,19 @@
       <c r="BC52">
         <v>0</v>
       </c>
+      <c r="BI52">
+        <v>19</v>
+      </c>
     </row>
-    <row r="53" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:61">
       <c r="D53" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F53" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H53">
         <v>2900</v>
@@ -6523,11 +6817,17 @@
       <c r="K53">
         <v>18000000000</v>
       </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
       <c r="Q53">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="S53">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -6545,7 +6845,7 @@
         <v>380</v>
       </c>
       <c r="AC53" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -6598,16 +6898,19 @@
       <c r="BC53">
         <v>0</v>
       </c>
+      <c r="BI53">
+        <v>19</v>
+      </c>
     </row>
-    <row r="54" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:61">
       <c r="D54" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F54" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H54">
         <v>3000</v>
@@ -6615,11 +6918,17 @@
       <c r="K54">
         <v>22000000000</v>
       </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
       <c r="Q54">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="S54">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -6637,7 +6946,7 @@
         <v>380</v>
       </c>
       <c r="AC54" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF54">
         <v>0</v>
@@ -6690,16 +6999,19 @@
       <c r="BC54">
         <v>0</v>
       </c>
+      <c r="BI54">
+        <v>19</v>
+      </c>
     </row>
-    <row r="55" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:61">
       <c r="D55" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E55" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F55" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="H55">
         <v>3100</v>
@@ -6707,11 +7019,17 @@
       <c r="K55">
         <v>24000000000</v>
       </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
       <c r="Q55">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="S55">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -6729,7 +7047,7 @@
         <v>380</v>
       </c>
       <c r="AC55" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF55">
         <v>0</v>
@@ -6782,16 +7100,19 @@
       <c r="BC55">
         <v>0</v>
       </c>
+      <c r="BI55">
+        <v>19</v>
+      </c>
     </row>
-    <row r="56" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:61">
       <c r="D56" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E56" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F56" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="H56">
         <v>3200</v>
@@ -6799,11 +7120,17 @@
       <c r="K56">
         <v>26000000000</v>
       </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
       <c r="Q56">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="S56">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -6821,7 +7148,7 @@
         <v>385</v>
       </c>
       <c r="AC56" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF56">
         <v>0</v>
@@ -6874,16 +7201,19 @@
       <c r="BC56">
         <v>0</v>
       </c>
+      <c r="BI56">
+        <v>19</v>
+      </c>
     </row>
-    <row r="57" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:61">
       <c r="D57" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="E57" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F57" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H57">
         <v>3300</v>
@@ -6891,11 +7221,17 @@
       <c r="K57">
         <v>28000000000</v>
       </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
       <c r="Q57">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="S57">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -6913,7 +7249,7 @@
         <v>385</v>
       </c>
       <c r="AC57" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -6966,16 +7302,19 @@
       <c r="BC57">
         <v>0</v>
       </c>
+      <c r="BI57">
+        <v>19</v>
+      </c>
     </row>
-    <row r="58" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:61">
       <c r="D58" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="E58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="H58">
         <v>3400</v>
@@ -6983,6 +7322,12 @@
       <c r="K58">
         <v>30000000000</v>
       </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
       <c r="Q58">
         <v>2.34</v>
       </c>
@@ -7005,7 +7350,7 @@
         <v>390</v>
       </c>
       <c r="AC58" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF58">
         <v>0</v>
@@ -7058,16 +7403,19 @@
       <c r="BC58">
         <v>0</v>
       </c>
+      <c r="BI58">
+        <v>20</v>
+      </c>
     </row>
-    <row r="59" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:61">
       <c r="D59" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F59" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H59">
         <v>3500</v>
@@ -7075,6 +7423,12 @@
       <c r="K59">
         <v>32000000000</v>
       </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
       <c r="Q59">
         <v>2.36</v>
       </c>
@@ -7097,7 +7451,7 @@
         <v>395</v>
       </c>
       <c r="AC59" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF59">
         <v>0</v>
@@ -7150,16 +7504,19 @@
       <c r="BC59">
         <v>0</v>
       </c>
+      <c r="BI59">
+        <v>20</v>
+      </c>
     </row>
-    <row r="60" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:61">
       <c r="D60" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F60" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="H60">
         <v>3600</v>
@@ -7167,6 +7524,12 @@
       <c r="K60">
         <v>34000000000</v>
       </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
       <c r="Q60">
         <v>2.38</v>
       </c>
@@ -7189,7 +7552,7 @@
         <v>399</v>
       </c>
       <c r="AC60" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -7242,16 +7605,19 @@
       <c r="BC60">
         <v>0</v>
       </c>
+      <c r="BI60">
+        <v>20</v>
+      </c>
     </row>
-    <row r="61" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:61">
       <c r="D61" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="H61">
         <v>3700</v>
@@ -7259,6 +7625,12 @@
       <c r="K61">
         <v>36000000000</v>
       </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
       <c r="Q61">
         <v>2.4</v>
       </c>
@@ -7281,7 +7653,7 @@
         <v>401</v>
       </c>
       <c r="AC61" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -7334,19 +7706,22 @@
       <c r="BC61">
         <v>0</v>
       </c>
+      <c r="BI61">
+        <v>20</v>
+      </c>
     </row>
-    <row r="62" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:61">
       <c r="D62" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E62" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F62" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="G62" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H62">
         <v>4</v>
@@ -7354,6 +7729,12 @@
       <c r="K62">
         <v>10</v>
       </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
       <c r="Q62">
         <v>0</v>
       </c>
@@ -7388,7 +7769,7 @@
         <v>5</v>
       </c>
       <c r="AC62" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF62">
         <v>0</v>
@@ -7438,19 +7819,22 @@
       <c r="BC62">
         <v>0</v>
       </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
     </row>
-    <row r="63" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:61">
       <c r="D63" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E63" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F63" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G63" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H63">
         <v>8</v>
@@ -7458,6 +7842,12 @@
       <c r="K63">
         <v>25</v>
       </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
       <c r="S63">
         <v>0.05</v>
       </c>
@@ -7477,10 +7867,10 @@
         <v>8</v>
       </c>
       <c r="AC63" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF63">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AG63">
         <v>0</v>
@@ -7489,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AI63">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -7527,19 +7917,22 @@
       <c r="BC63">
         <v>0</v>
       </c>
+      <c r="BI63">
+        <v>0</v>
+      </c>
     </row>
-    <row r="64" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:61">
       <c r="D64" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="E64" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F64" t="s">
+        <v>188</v>
+      </c>
+      <c r="G64" t="s">
         <v>183</v>
-      </c>
-      <c r="G64" t="s">
-        <v>178</v>
       </c>
       <c r="H64">
         <v>16</v>
@@ -7547,6 +7940,12 @@
       <c r="K64">
         <v>75</v>
       </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
       <c r="S64">
         <v>0.08</v>
       </c>
@@ -7566,10 +7965,10 @@
         <v>12</v>
       </c>
       <c r="AC64" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF64">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -7578,7 +7977,7 @@
         <v>0</v>
       </c>
       <c r="AI64">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="AJ64">
         <v>0</v>
@@ -7616,19 +8015,22 @@
       <c r="BC64">
         <v>0</v>
       </c>
+      <c r="BI64">
+        <v>0</v>
+      </c>
     </row>
-    <row r="65" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:61">
       <c r="D65" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F65" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="G65" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H65">
         <v>40</v>
@@ -7636,6 +8038,12 @@
       <c r="K65">
         <v>150</v>
       </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
       <c r="S65">
         <v>0.16</v>
       </c>
@@ -7655,10 +8063,10 @@
         <v>20</v>
       </c>
       <c r="AC65" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF65">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -7667,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="AI65">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -7705,19 +8113,22 @@
       <c r="BC65">
         <v>0</v>
       </c>
+      <c r="BI65">
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:61">
       <c r="D66" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F66" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="G66" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H66">
         <v>80</v>
@@ -7725,6 +8136,12 @@
       <c r="K66">
         <v>250</v>
       </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
       <c r="S66">
         <v>0.18</v>
       </c>
@@ -7744,10 +8161,10 @@
         <v>36</v>
       </c>
       <c r="AC66" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF66">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="AG66">
         <v>0</v>
@@ -7756,7 +8173,7 @@
         <v>0</v>
       </c>
       <c r="AI66">
-        <v>8.9999999999999998E-4</v>
+        <v>0.0009</v>
       </c>
       <c r="AJ66">
         <v>0</v>
@@ -7794,19 +8211,22 @@
       <c r="BC66">
         <v>0</v>
       </c>
+      <c r="BI66">
+        <v>2</v>
+      </c>
     </row>
-    <row r="67" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:61">
       <c r="D67" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E67" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F67" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G67" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H67">
         <v>120</v>
@@ -7814,6 +8234,12 @@
       <c r="K67">
         <v>500</v>
       </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
       <c r="S67">
         <v>0.19</v>
       </c>
@@ -7833,10 +8259,10 @@
         <v>40</v>
       </c>
       <c r="AC67" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF67">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -7845,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="AI67">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AJ67">
         <v>0</v>
@@ -7883,19 +8309,22 @@
       <c r="BC67">
         <v>0</v>
       </c>
+      <c r="BI67">
+        <v>2</v>
+      </c>
     </row>
-    <row r="68" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:61">
       <c r="D68" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E68" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F68" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="G68" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H68">
         <v>145</v>
@@ -7922,7 +8351,7 @@
         <v>50</v>
       </c>
       <c r="AC68" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF68">
         <v>0.02</v>
@@ -7934,7 +8363,7 @@
         <v>0</v>
       </c>
       <c r="AI68">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AJ68">
         <v>0</v>
@@ -7963,19 +8392,22 @@
       <c r="BC68">
         <v>0</v>
       </c>
+      <c r="BI68">
+        <v>3</v>
+      </c>
     </row>
-    <row r="69" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:61">
       <c r="D69" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="E69" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F69" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G69" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H69">
         <v>160</v>
@@ -7999,10 +8431,10 @@
         <v>60</v>
       </c>
       <c r="AC69" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF69">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="AG69">
         <v>0</v>
@@ -8011,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="AI69">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AJ69">
         <v>0</v>
@@ -8049,19 +8481,22 @@
       <c r="BC69">
         <v>0</v>
       </c>
+      <c r="BI69">
+        <v>3</v>
+      </c>
     </row>
-    <row r="70" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:61">
       <c r="D70" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E70" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F70" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G70" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H70">
         <v>190</v>
@@ -8085,10 +8520,10 @@
         <v>70</v>
       </c>
       <c r="AC70" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF70">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -8097,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="AI70">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AJ70">
         <v>0</v>
@@ -8135,19 +8570,22 @@
       <c r="BC70">
         <v>0</v>
       </c>
+      <c r="BI70">
+        <v>4</v>
+      </c>
     </row>
-    <row r="71" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:61">
       <c r="D71" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E71" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F71" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G71" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H71">
         <v>220</v>
@@ -8171,10 +8609,10 @@
         <v>78</v>
       </c>
       <c r="AC71" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF71">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="AG71">
         <v>0</v>
@@ -8183,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AJ71">
         <v>0</v>
@@ -8221,19 +8659,22 @@
       <c r="BC71">
         <v>0</v>
       </c>
+      <c r="BI71">
+        <v>4</v>
+      </c>
     </row>
-    <row r="72" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:61">
       <c r="D72" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="E72" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F72" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="G72" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H72">
         <v>250</v>
@@ -8257,10 +8698,10 @@
         <v>78</v>
       </c>
       <c r="AC72" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF72">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="AG72">
         <v>0</v>
@@ -8269,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="AJ72">
         <v>0</v>
@@ -8307,19 +8748,22 @@
       <c r="BC72">
         <v>0</v>
       </c>
+      <c r="BI72">
+        <v>4</v>
+      </c>
     </row>
-    <row r="73" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:61">
       <c r="D73" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="E73" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F73" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G73" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H73">
         <v>280</v>
@@ -8328,10 +8772,10 @@
         <v>7000</v>
       </c>
       <c r="S73">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="V73">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Y73">
         <v>1</v>
@@ -8343,10 +8787,10 @@
         <v>100</v>
       </c>
       <c r="AC73" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF73">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="AG73">
         <v>0</v>
@@ -8355,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="AJ73">
         <v>0</v>
@@ -8393,19 +8837,22 @@
       <c r="BC73">
         <v>0</v>
       </c>
+      <c r="BI73">
+        <v>5</v>
+      </c>
     </row>
-    <row r="74" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:61">
       <c r="D74" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E74" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F74" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G74" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H74">
         <v>340</v>
@@ -8429,10 +8876,10 @@
         <v>110</v>
       </c>
       <c r="AC74" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF74">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AG74">
         <v>0</v>
@@ -8441,7 +8888,7 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AJ74">
         <v>0</v>
@@ -8479,19 +8926,22 @@
       <c r="BC74">
         <v>0</v>
       </c>
+      <c r="BI74">
+        <v>6</v>
+      </c>
     </row>
-    <row r="75" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:61">
       <c r="D75" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E75" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F75" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G75" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H75">
         <v>380</v>
@@ -8515,10 +8965,10 @@
         <v>130</v>
       </c>
       <c r="AC75" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF75">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="AG75">
         <v>0</v>
@@ -8527,7 +8977,7 @@
         <v>0</v>
       </c>
       <c r="AI75">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="AJ75">
         <v>0</v>
@@ -8565,19 +9015,22 @@
       <c r="BC75">
         <v>0</v>
       </c>
+      <c r="BI75">
+        <v>7</v>
+      </c>
     </row>
-    <row r="76" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:61">
       <c r="D76" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E76" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F76" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G76" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H76">
         <v>450</v>
@@ -8601,10 +9054,10 @@
         <v>150</v>
       </c>
       <c r="AC76" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF76">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="AG76">
         <v>0</v>
@@ -8651,19 +9104,22 @@
       <c r="BC76">
         <v>0</v>
       </c>
+      <c r="BI76">
+        <v>8</v>
+      </c>
     </row>
-    <row r="77" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:61">
       <c r="D77" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F77" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G77" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H77">
         <v>475</v>
@@ -8687,10 +9143,10 @@
         <v>180</v>
       </c>
       <c r="AC77" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF77">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="AG77">
         <v>0</v>
@@ -8699,7 +9155,7 @@
         <v>0</v>
       </c>
       <c r="AI77">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="AJ77">
         <v>0</v>
@@ -8728,19 +9184,22 @@
       <c r="BC77">
         <v>0</v>
       </c>
+      <c r="BI77">
+        <v>9</v>
+      </c>
     </row>
-    <row r="78" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:61">
       <c r="D78" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="E78" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F78" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G78" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H78">
         <v>490</v>
@@ -8764,7 +9223,7 @@
         <v>190</v>
       </c>
       <c r="AC78" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF78">
         <v>0.06</v>
@@ -8776,7 +9235,7 @@
         <v>0</v>
       </c>
       <c r="AI78">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="AJ78">
         <v>0</v>
@@ -8814,19 +9273,22 @@
       <c r="BC78">
         <v>0</v>
       </c>
+      <c r="BI78">
+        <v>10</v>
+      </c>
     </row>
-    <row r="79" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:61">
       <c r="D79" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E79" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F79" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G79" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H79">
         <v>520</v>
@@ -8850,10 +9312,10 @@
         <v>190</v>
       </c>
       <c r="AC79" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF79">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="AG79">
         <v>0</v>
@@ -8862,7 +9324,7 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="AJ79">
         <v>0</v>
@@ -8900,19 +9362,22 @@
       <c r="BC79">
         <v>0</v>
       </c>
+      <c r="BI79">
+        <v>10</v>
+      </c>
     </row>
-    <row r="80" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:61">
       <c r="D80" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E80" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F80" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="G80" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H80">
         <v>540</v>
@@ -8936,10 +9401,10 @@
         <v>200</v>
       </c>
       <c r="AC80" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF80">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AG80">
         <v>0</v>
@@ -8948,7 +9413,7 @@
         <v>0</v>
       </c>
       <c r="AI80">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="AJ80">
         <v>0</v>
@@ -8977,19 +9442,22 @@
       <c r="BC80">
         <v>0</v>
       </c>
+      <c r="BI80">
+        <v>10</v>
+      </c>
     </row>
-    <row r="81" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:61">
       <c r="D81" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E81" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F81" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G81" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H81">
         <v>560</v>
@@ -9013,10 +9481,10 @@
         <v>200</v>
       </c>
       <c r="AC81" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF81">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="AG81">
         <v>0</v>
@@ -9063,19 +9531,22 @@
       <c r="BC81">
         <v>0</v>
       </c>
+      <c r="BI81">
+        <v>10</v>
+      </c>
     </row>
-    <row r="82" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:61">
       <c r="D82" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="E82" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F82" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="G82" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H82">
         <v>580</v>
@@ -9099,10 +9570,10 @@
         <v>200</v>
       </c>
       <c r="AC82" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF82">
-        <v>7.8E-2</v>
+        <v>0.078</v>
       </c>
       <c r="AG82">
         <v>0</v>
@@ -9111,7 +9582,7 @@
         <v>0</v>
       </c>
       <c r="AI82">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="AJ82">
         <v>0</v>
@@ -9149,19 +9620,22 @@
       <c r="BC82">
         <v>0</v>
       </c>
+      <c r="BI82">
+        <v>10</v>
+      </c>
     </row>
-    <row r="83" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:61">
       <c r="D83" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E83" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F83" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="G83" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -9185,10 +9659,10 @@
         <v>200</v>
       </c>
       <c r="AC83" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF83">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="AG83">
         <v>0</v>
@@ -9197,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="AI83">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AJ83">
         <v>0</v>
@@ -9235,19 +9709,22 @@
       <c r="BC83">
         <v>0</v>
       </c>
+      <c r="BI83">
+        <v>10</v>
+      </c>
     </row>
-    <row r="84" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:61">
       <c r="D84" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F84" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G84" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H84">
         <v>620</v>
@@ -9256,10 +9733,10 @@
         <v>1000000</v>
       </c>
       <c r="S84">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V84">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y84">
         <v>1</v>
@@ -9271,10 +9748,10 @@
         <v>200</v>
       </c>
       <c r="AC84" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF84">
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="AG84">
         <v>0</v>
@@ -9283,7 +9760,7 @@
         <v>0</v>
       </c>
       <c r="AI84">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="AJ84">
         <v>0</v>
@@ -9321,19 +9798,22 @@
       <c r="BC84">
         <v>0</v>
       </c>
+      <c r="BI84">
+        <v>10</v>
+      </c>
     </row>
-    <row r="85" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:61">
       <c r="D85" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E85" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G85" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H85">
         <v>630</v>
@@ -9342,10 +9822,10 @@
         <v>10000000</v>
       </c>
       <c r="S85">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V85">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y85">
         <v>1</v>
@@ -9357,10 +9837,10 @@
         <v>200</v>
       </c>
       <c r="AC85" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF85">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="AG85">
         <v>0</v>
@@ -9369,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="AI85">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="AJ85">
         <v>0</v>
@@ -9407,19 +9887,22 @@
       <c r="BC85">
         <v>0</v>
       </c>
+      <c r="BI85">
+        <v>10</v>
+      </c>
     </row>
-    <row r="86" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:61">
       <c r="D86" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E86" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F86" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="G86" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H86">
         <v>640</v>
@@ -9446,7 +9929,7 @@
         <v>200</v>
       </c>
       <c r="AC86" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF86">
         <v>0.1</v>
@@ -9496,19 +9979,22 @@
       <c r="BC86">
         <v>0</v>
       </c>
+      <c r="BI86">
+        <v>10</v>
+      </c>
     </row>
-    <row r="87" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:61">
       <c r="D87" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E87" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F87" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="G87" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H87">
         <v>660</v>
@@ -9532,7 +10018,7 @@
         <v>200</v>
       </c>
       <c r="AC87" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF87">
         <v>0.15</v>
@@ -9544,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="AJ87">
         <v>0</v>
@@ -9582,19 +10068,22 @@
       <c r="BC87">
         <v>0</v>
       </c>
+      <c r="BI87">
+        <v>10</v>
+      </c>
     </row>
-    <row r="88" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:61">
       <c r="D88" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E88" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F88" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="G88" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H88">
         <v>680</v>
@@ -9618,7 +10107,7 @@
         <v>200</v>
       </c>
       <c r="AC88" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF88">
         <v>0.2</v>
@@ -9630,7 +10119,7 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="AJ88">
         <v>0</v>
@@ -9668,19 +10157,22 @@
       <c r="BC88">
         <v>0</v>
       </c>
+      <c r="BI88">
+        <v>10</v>
+      </c>
     </row>
-    <row r="89" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:61">
       <c r="D89" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E89" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F89" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G89" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H89">
         <v>700</v>
@@ -9704,7 +10196,7 @@
         <v>200</v>
       </c>
       <c r="AC89" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF89">
         <v>0.25</v>
@@ -9716,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="AJ89">
         <v>0</v>
@@ -9754,19 +10246,22 @@
       <c r="BC89">
         <v>0</v>
       </c>
+      <c r="BI89">
+        <v>10</v>
+      </c>
     </row>
-    <row r="90" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:61">
       <c r="D90" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="E90" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F90" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G90" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H90">
         <v>720</v>
@@ -9790,7 +10285,7 @@
         <v>200</v>
       </c>
       <c r="AC90" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF90">
         <v>0.3</v>
@@ -9802,7 +10297,7 @@
         <v>0</v>
       </c>
       <c r="AI90">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="AJ90">
         <v>0</v>
@@ -9831,19 +10326,22 @@
       <c r="BC90">
         <v>0</v>
       </c>
+      <c r="BI90">
+        <v>10</v>
+      </c>
     </row>
-    <row r="91" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:61">
       <c r="D91" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="E91" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F91" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="G91" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H91">
         <v>730</v>
@@ -9867,7 +10365,7 @@
         <v>210</v>
       </c>
       <c r="AC91" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF91">
         <v>0.35</v>
@@ -9917,19 +10415,22 @@
       <c r="BC91">
         <v>0</v>
       </c>
+      <c r="BI91">
+        <v>11</v>
+      </c>
     </row>
-    <row r="92" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:61">
       <c r="D92" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E92" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F92" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G92" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H92">
         <v>800</v>
@@ -9953,7 +10454,7 @@
         <v>220</v>
       </c>
       <c r="AC92" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF92">
         <v>0.42</v>
@@ -9965,7 +10466,7 @@
         <v>0</v>
       </c>
       <c r="AI92">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AJ92">
         <v>0</v>
@@ -10003,19 +10504,22 @@
       <c r="BC92">
         <v>0</v>
       </c>
+      <c r="BI92">
+        <v>11</v>
+      </c>
     </row>
-    <row r="93" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:61">
       <c r="D93" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E93" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G93" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H93">
         <v>845</v>
@@ -10039,7 +10543,7 @@
         <v>225</v>
       </c>
       <c r="AC93" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF93">
         <v>0.5</v>
@@ -10051,7 +10555,7 @@
         <v>0</v>
       </c>
       <c r="AI93">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="AJ93">
         <v>0</v>
@@ -10089,19 +10593,22 @@
       <c r="BC93">
         <v>0</v>
       </c>
+      <c r="BI93">
+        <v>11</v>
+      </c>
     </row>
-    <row r="94" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:61">
       <c r="D94" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E94" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G94" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H94">
         <v>900</v>
@@ -10131,7 +10638,7 @@
         <v>228</v>
       </c>
       <c r="AC94" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF94">
         <v>0.53</v>
@@ -10143,7 +10650,7 @@
         <v>0</v>
       </c>
       <c r="AI94">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="AJ94">
         <v>0</v>
@@ -10184,19 +10691,22 @@
       <c r="BC94">
         <v>0</v>
       </c>
+      <c r="BI94">
+        <v>11</v>
+      </c>
     </row>
-    <row r="95" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:61">
       <c r="D95" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="E95" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G95" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H95">
         <v>950</v>
@@ -10226,10 +10736,10 @@
         <v>232</v>
       </c>
       <c r="AC95" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF95">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="AG95">
         <v>0</v>
@@ -10279,19 +10789,22 @@
       <c r="BC95">
         <v>0</v>
       </c>
+      <c r="BI95">
+        <v>12</v>
+      </c>
     </row>
-    <row r="96" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:61">
       <c r="D96" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E96" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="G96" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H96">
         <v>1000</v>
@@ -10306,10 +10819,10 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="V96">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y96">
         <v>1</v>
@@ -10321,10 +10834,10 @@
         <v>250</v>
       </c>
       <c r="AC96" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF96">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="AG96">
         <v>0</v>
@@ -10333,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="AI96">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="AJ96">
         <v>0</v>
@@ -10374,19 +10887,22 @@
       <c r="BC96">
         <v>0</v>
       </c>
+      <c r="BI96">
+        <v>13</v>
+      </c>
     </row>
-    <row r="97" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:61">
       <c r="D97" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="E97" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F97" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="G97" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H97">
         <v>1100</v>
@@ -10401,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="V97">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Y97">
         <v>1</v>
@@ -10416,7 +10932,7 @@
         <v>250</v>
       </c>
       <c r="AC97" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF97">
         <v>0.63</v>
@@ -10428,7 +10944,7 @@
         <v>0</v>
       </c>
       <c r="AI97">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="AJ97">
         <v>0</v>
@@ -10469,19 +10985,22 @@
       <c r="BC97">
         <v>0</v>
       </c>
+      <c r="BI97">
+        <v>13</v>
+      </c>
     </row>
-    <row r="98" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:61">
       <c r="D98" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E98" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F98" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G98" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H98">
         <v>1200</v>
@@ -10514,7 +11033,7 @@
         <v>270</v>
       </c>
       <c r="AC98" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF98">
         <v>0.68</v>
@@ -10526,7 +11045,7 @@
         <v>0</v>
       </c>
       <c r="AI98">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="AJ98">
         <v>0</v>
@@ -10558,19 +11077,22 @@
       <c r="BC98">
         <v>0</v>
       </c>
+      <c r="BI98">
+        <v>14</v>
+      </c>
     </row>
-    <row r="99" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:61">
       <c r="D99" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="E99" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G99" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H99">
         <v>1400</v>
@@ -10603,7 +11125,7 @@
         <v>270</v>
       </c>
       <c r="AC99" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF99">
         <v>0.78</v>
@@ -10615,7 +11137,7 @@
         <v>0</v>
       </c>
       <c r="AI99">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="AJ99">
         <v>0</v>
@@ -10656,19 +11178,22 @@
       <c r="BC99">
         <v>0</v>
       </c>
+      <c r="BI99">
+        <v>14</v>
+      </c>
     </row>
-    <row r="100" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:61">
       <c r="D100" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="E100" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F100" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="G100" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H100">
         <v>1500</v>
@@ -10701,7 +11226,7 @@
         <v>270</v>
       </c>
       <c r="AC100" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF100">
         <v>0.8</v>
@@ -10713,7 +11238,7 @@
         <v>0</v>
       </c>
       <c r="AI100">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="AJ100">
         <v>0</v>
@@ -10754,19 +11279,22 @@
       <c r="BC100">
         <v>0</v>
       </c>
+      <c r="BI100">
+        <v>14</v>
+      </c>
     </row>
-    <row r="101" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:61">
       <c r="D101" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F101" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G101" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H101">
         <v>1600</v>
@@ -10799,7 +11327,7 @@
         <v>280</v>
       </c>
       <c r="AC101" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF101">
         <v>0.85</v>
@@ -10811,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="AI101">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="AJ101">
         <v>0</v>
@@ -10852,19 +11380,22 @@
       <c r="BC101">
         <v>0</v>
       </c>
+      <c r="BI101">
+        <v>14</v>
+      </c>
     </row>
-    <row r="102" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:61">
       <c r="D102" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="E102" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F102" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G102" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H102">
         <v>1700</v>
@@ -10897,7 +11428,7 @@
         <v>290</v>
       </c>
       <c r="AC102" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF102">
         <v>0.93</v>
@@ -10909,7 +11440,7 @@
         <v>0</v>
       </c>
       <c r="AI102">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="AJ102">
         <v>0</v>
@@ -10950,19 +11481,22 @@
       <c r="BC102">
         <v>0</v>
       </c>
+      <c r="BI102">
+        <v>15</v>
+      </c>
     </row>
-    <row r="103" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:61">
       <c r="D103" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E103" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F103" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G103" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H103">
         <v>1800</v>
@@ -10995,7 +11529,7 @@
         <v>300</v>
       </c>
       <c r="AC103" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF103">
         <v>0.98</v>
@@ -11007,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="AI103">
-        <v>7.8E-2</v>
+        <v>0.078</v>
       </c>
       <c r="AJ103">
         <v>0</v>
@@ -11048,19 +11582,22 @@
       <c r="BC103">
         <v>0</v>
       </c>
+      <c r="BI103">
+        <v>15</v>
+      </c>
     </row>
-    <row r="104" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:61">
       <c r="D104" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E104" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F104" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="G104" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H104">
         <v>1900</v>
@@ -11093,7 +11630,7 @@
         <v>310</v>
       </c>
       <c r="AC104" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF104">
         <v>1.02</v>
@@ -11105,7 +11642,7 @@
         <v>0</v>
       </c>
       <c r="AI104">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="AJ104">
         <v>0</v>
@@ -11137,19 +11674,22 @@
       <c r="BC104">
         <v>0</v>
       </c>
+      <c r="BI104">
+        <v>16</v>
+      </c>
     </row>
-    <row r="105" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:61">
       <c r="D105" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="E105" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F105" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G105" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H105">
         <v>2000</v>
@@ -11182,7 +11722,7 @@
         <v>320</v>
       </c>
       <c r="AC105" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF105">
         <v>1.05</v>
@@ -11194,7 +11734,7 @@
         <v>0</v>
       </c>
       <c r="AI105">
-        <v>8.2000000000000003E-2</v>
+        <v>0.082</v>
       </c>
       <c r="AJ105">
         <v>0</v>
@@ -11235,19 +11775,22 @@
       <c r="BC105">
         <v>0</v>
       </c>
+      <c r="BI105">
+        <v>16</v>
+      </c>
     </row>
-    <row r="106" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:61">
       <c r="D106" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="E106" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F106" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G106" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H106">
         <v>2100</v>
@@ -11280,7 +11823,7 @@
         <v>320</v>
       </c>
       <c r="AC106" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF106">
         <v>1.08</v>
@@ -11292,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="AI106">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="AJ106">
         <v>0</v>
@@ -11333,19 +11876,22 @@
       <c r="BC106">
         <v>0</v>
       </c>
+      <c r="BI106">
+        <v>16</v>
+      </c>
     </row>
-    <row r="107" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:61">
       <c r="D107" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="E107" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F107" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="G107" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H107">
         <v>2200</v>
@@ -11378,10 +11924,10 @@
         <v>330</v>
       </c>
       <c r="AC107" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF107">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AG107">
         <v>0</v>
@@ -11390,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="AI107">
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="AJ107">
         <v>0</v>
@@ -11431,19 +11977,22 @@
       <c r="BC107">
         <v>0</v>
       </c>
+      <c r="BI107">
+        <v>17</v>
+      </c>
     </row>
-    <row r="108" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:61">
       <c r="D108" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="E108" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F108" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G108" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H108">
         <v>2300</v>
@@ -11476,10 +12025,10 @@
         <v>340</v>
       </c>
       <c r="AC108" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF108">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="AG108">
         <v>0</v>
@@ -11488,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="AI108">
-        <v>9.1999999999999998E-2</v>
+        <v>0.092</v>
       </c>
       <c r="AJ108">
         <v>0</v>
@@ -11520,19 +12069,22 @@
       <c r="BC108">
         <v>0</v>
       </c>
+      <c r="BI108">
+        <v>17</v>
+      </c>
     </row>
-    <row r="109" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:61">
       <c r="D109" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F109" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G109" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H109">
         <v>2400</v>
@@ -11565,10 +12117,10 @@
         <v>350</v>
       </c>
       <c r="AC109" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF109">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AG109">
         <v>0</v>
@@ -11577,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="AI109">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -11618,19 +12170,22 @@
       <c r="BC109">
         <v>0</v>
       </c>
+      <c r="BI109">
+        <v>18</v>
+      </c>
     </row>
-    <row r="110" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:61">
       <c r="D110" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="E110" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F110" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G110" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H110">
         <v>2500</v>
@@ -11644,9 +12199,21 @@
       <c r="M110">
         <v>0</v>
       </c>
+      <c r="Q110">
+        <v>1.9</v>
+      </c>
+      <c r="R110">
+        <v>0</v>
+      </c>
       <c r="S110">
         <v>1.9</v>
       </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
       <c r="V110">
         <v>1.9</v>
       </c>
@@ -11663,7 +12230,7 @@
         <v>360</v>
       </c>
       <c r="AC110" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF110">
         <v>1.18</v>
@@ -11675,7 +12242,7 @@
         <v>0</v>
       </c>
       <c r="AI110">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="AJ110">
         <v>0</v>
@@ -11716,19 +12283,22 @@
       <c r="BC110">
         <v>0</v>
       </c>
+      <c r="BI110">
+        <v>18</v>
+      </c>
     </row>
-    <row r="111" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:61">
       <c r="D111" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="E111" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F111" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G111" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H111">
         <v>2600</v>
@@ -11761,7 +12331,7 @@
         <v>370</v>
       </c>
       <c r="AC111" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF111">
         <v>1.2</v>
@@ -11773,7 +12343,7 @@
         <v>0</v>
       </c>
       <c r="AI111">
-        <v>9.8000000000000004E-2</v>
+        <v>0.098</v>
       </c>
       <c r="AJ111">
         <v>0</v>
@@ -11814,19 +12384,22 @@
       <c r="BC111">
         <v>0</v>
       </c>
+      <c r="BI111">
+        <v>19</v>
+      </c>
     </row>
-    <row r="112" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:61">
       <c r="D112" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="E112" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F112" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G112" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H112">
         <v>2700</v>
@@ -11859,7 +12432,7 @@
         <v>380</v>
       </c>
       <c r="AC112" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF112">
         <v>1.25</v>
@@ -11912,19 +12485,22 @@
       <c r="BC112">
         <v>0</v>
       </c>
+      <c r="BI112">
+        <v>19</v>
+      </c>
     </row>
-    <row r="113" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:61">
       <c r="D113" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="E113" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F113" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="G113" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H113">
         <v>2800</v>
@@ -11954,7 +12530,7 @@
         <v>380</v>
       </c>
       <c r="AC113" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF113">
         <v>1.28</v>
@@ -12007,19 +12583,22 @@
       <c r="BC113">
         <v>0</v>
       </c>
+      <c r="BI113">
+        <v>19</v>
+      </c>
     </row>
-    <row r="114" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:61">
       <c r="D114" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E114" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F114" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G114" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H114">
         <v>2900</v>
@@ -12031,10 +12610,10 @@
         <v>18000000000</v>
       </c>
       <c r="S114">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="V114">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -12049,7 +12628,7 @@
         <v>380</v>
       </c>
       <c r="AC114" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF114">
         <v>1.3</v>
@@ -12102,19 +12681,22 @@
       <c r="BC114">
         <v>0</v>
       </c>
+      <c r="BI114">
+        <v>19</v>
+      </c>
     </row>
-    <row r="115" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:61">
       <c r="D115" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="E115" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F115" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G115" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H115">
         <v>3000</v>
@@ -12126,10 +12708,10 @@
         <v>22000000000</v>
       </c>
       <c r="S115">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="V115">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -12144,7 +12726,7 @@
         <v>390</v>
       </c>
       <c r="AC115" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF115">
         <v>1.33</v>
@@ -12197,19 +12779,22 @@
       <c r="BC115">
         <v>0</v>
       </c>
+      <c r="BI115">
+        <v>20</v>
+      </c>
     </row>
-    <row r="116" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:61">
       <c r="D116" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="E116" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F116" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="G116" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H116">
         <v>3100</v>
@@ -12221,10 +12806,10 @@
         <v>24000000000</v>
       </c>
       <c r="S116">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="V116">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="W116">
         <v>0</v>
@@ -12239,7 +12824,7 @@
         <v>400</v>
       </c>
       <c r="AC116" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF116">
         <v>1.35</v>
@@ -12292,19 +12877,22 @@
       <c r="BC116">
         <v>0</v>
       </c>
+      <c r="BI116">
+        <v>20</v>
+      </c>
     </row>
-    <row r="117" spans="4:55" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:61">
       <c r="D117" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E117" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="F117" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="G117" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H117">
         <v>3200</v>
@@ -12316,10 +12904,10 @@
         <v>26000000000</v>
       </c>
       <c r="S117">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="V117">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="W117">
         <v>0</v>
@@ -12334,7 +12922,7 @@
         <v>401</v>
       </c>
       <c r="AC117" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="AF117">
         <v>1.38</v>
@@ -12387,10 +12975,22 @@
       <c r="BC117">
         <v>0</v>
       </c>
+      <c r="BI117">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/items/weapons.xlsx
+++ b/resources/data-imports/items/weapons.xlsx
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BI2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:61">
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="BI3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:61">
@@ -7820,7 +7820,7 @@
         <v>0</v>
       </c>
       <c r="BI62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:61">
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="BI63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:61">
@@ -8016,7 +8016,7 @@
         <v>0</v>
       </c>
       <c r="BI64">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:61">

--- a/resources/data-imports/items/weapons.xlsx
+++ b/resources/data-imports/items/weapons.xlsx
@@ -1486,6 +1486,9 @@
       </c>
     </row>
     <row r="2" spans="1:61">
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
@@ -1569,6 +1572,9 @@
       </c>
     </row>
     <row r="3" spans="1:61">
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>64</v>
       </c>
@@ -1673,6 +1679,9 @@
       </c>
     </row>
     <row r="4" spans="1:61">
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>66</v>
       </c>
@@ -1777,6 +1786,9 @@
       </c>
     </row>
     <row r="5" spans="1:61">
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>68</v>
       </c>
@@ -1881,6 +1893,9 @@
       </c>
     </row>
     <row r="6" spans="1:61">
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>70</v>
       </c>
@@ -1985,6 +2000,9 @@
       </c>
     </row>
     <row r="7" spans="1:61">
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>72</v>
       </c>
@@ -2086,6 +2104,9 @@
       </c>
     </row>
     <row r="8" spans="1:61">
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>74</v>
       </c>
@@ -2187,6 +2208,9 @@
       </c>
     </row>
     <row r="9" spans="1:61">
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
         <v>76</v>
       </c>
@@ -2288,6 +2312,9 @@
       </c>
     </row>
     <row r="10" spans="1:61">
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="D10" t="s">
         <v>78</v>
       </c>
@@ -2389,6 +2416,9 @@
       </c>
     </row>
     <row r="11" spans="1:61">
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11" t="s">
         <v>80</v>
       </c>
@@ -2490,6 +2520,9 @@
       </c>
     </row>
     <row r="12" spans="1:61">
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12" t="s">
         <v>82</v>
       </c>
@@ -2591,6 +2624,9 @@
       </c>
     </row>
     <row r="13" spans="1:61">
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="D13" t="s">
         <v>84</v>
       </c>
@@ -2692,6 +2728,9 @@
       </c>
     </row>
     <row r="14" spans="1:61">
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14" t="s">
         <v>86</v>
       </c>
@@ -2793,6 +2832,9 @@
       </c>
     </row>
     <row r="15" spans="1:61">
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15" t="s">
         <v>88</v>
       </c>
@@ -2894,6 +2936,9 @@
       </c>
     </row>
     <row r="16" spans="1:61">
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="D16" t="s">
         <v>90</v>
       </c>
@@ -2995,6 +3040,9 @@
       </c>
     </row>
     <row r="17" spans="1:61">
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="D17" t="s">
         <v>92</v>
       </c>
@@ -3096,6 +3144,9 @@
       </c>
     </row>
     <row r="18" spans="1:61">
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18" t="s">
         <v>94</v>
       </c>
@@ -3197,6 +3248,9 @@
       </c>
     </row>
     <row r="19" spans="1:61">
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="D19" t="s">
         <v>96</v>
       </c>
@@ -3298,6 +3352,9 @@
       </c>
     </row>
     <row r="20" spans="1:61">
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="D20" t="s">
         <v>98</v>
       </c>
@@ -3399,6 +3456,9 @@
       </c>
     </row>
     <row r="21" spans="1:61">
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="D21" t="s">
         <v>100</v>
       </c>
@@ -3500,6 +3560,9 @@
       </c>
     </row>
     <row r="22" spans="1:61">
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="D22" t="s">
         <v>102</v>
       </c>
@@ -3601,6 +3664,9 @@
       </c>
     </row>
     <row r="23" spans="1:61">
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23" t="s">
         <v>104</v>
       </c>
@@ -3702,6 +3768,9 @@
       </c>
     </row>
     <row r="24" spans="1:61">
+      <c r="C24">
+        <v>1</v>
+      </c>
       <c r="D24" t="s">
         <v>106</v>
       </c>
@@ -3803,6 +3872,9 @@
       </c>
     </row>
     <row r="25" spans="1:61">
+      <c r="C25">
+        <v>1</v>
+      </c>
       <c r="D25" t="s">
         <v>108</v>
       </c>
@@ -3904,6 +3976,9 @@
       </c>
     </row>
     <row r="26" spans="1:61">
+      <c r="C26">
+        <v>1</v>
+      </c>
       <c r="D26" t="s">
         <v>110</v>
       </c>
@@ -4005,6 +4080,9 @@
       </c>
     </row>
     <row r="27" spans="1:61">
+      <c r="C27">
+        <v>1</v>
+      </c>
       <c r="D27" t="s">
         <v>112</v>
       </c>
@@ -4106,6 +4184,9 @@
       </c>
     </row>
     <row r="28" spans="1:61">
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="D28" t="s">
         <v>114</v>
       </c>
@@ -4207,6 +4288,9 @@
       </c>
     </row>
     <row r="29" spans="1:61">
+      <c r="C29">
+        <v>1</v>
+      </c>
       <c r="D29" t="s">
         <v>116</v>
       </c>
@@ -4308,6 +4392,9 @@
       </c>
     </row>
     <row r="30" spans="1:61">
+      <c r="C30">
+        <v>1</v>
+      </c>
       <c r="D30" t="s">
         <v>118</v>
       </c>
@@ -4409,6 +4496,9 @@
       </c>
     </row>
     <row r="31" spans="1:61">
+      <c r="C31">
+        <v>1</v>
+      </c>
       <c r="D31" t="s">
         <v>120</v>
       </c>
@@ -4510,6 +4600,9 @@
       </c>
     </row>
     <row r="32" spans="1:61">
+      <c r="C32">
+        <v>1</v>
+      </c>
       <c r="D32" t="s">
         <v>122</v>
       </c>
@@ -4611,6 +4704,9 @@
       </c>
     </row>
     <row r="33" spans="1:61">
+      <c r="C33">
+        <v>1</v>
+      </c>
       <c r="D33" t="s">
         <v>124</v>
       </c>
@@ -4721,6 +4817,9 @@
       </c>
     </row>
     <row r="34" spans="1:61">
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34" t="s">
         <v>126</v>
       </c>
@@ -4831,6 +4930,9 @@
       </c>
     </row>
     <row r="35" spans="1:61">
+      <c r="C35">
+        <v>1</v>
+      </c>
       <c r="D35" t="s">
         <v>128</v>
       </c>
@@ -4941,6 +5043,9 @@
       </c>
     </row>
     <row r="36" spans="1:61">
+      <c r="C36">
+        <v>1</v>
+      </c>
       <c r="D36" t="s">
         <v>130</v>
       </c>
@@ -5051,6 +5156,9 @@
       </c>
     </row>
     <row r="37" spans="1:61">
+      <c r="C37">
+        <v>1</v>
+      </c>
       <c r="D37" t="s">
         <v>132</v>
       </c>
@@ -5161,6 +5269,9 @@
       </c>
     </row>
     <row r="38" spans="1:61">
+      <c r="C38">
+        <v>1</v>
+      </c>
       <c r="D38" t="s">
         <v>134</v>
       </c>
@@ -5271,6 +5382,9 @@
       </c>
     </row>
     <row r="39" spans="1:61">
+      <c r="C39">
+        <v>1</v>
+      </c>
       <c r="D39" t="s">
         <v>136</v>
       </c>
@@ -5381,6 +5495,9 @@
       </c>
     </row>
     <row r="40" spans="1:61">
+      <c r="C40">
+        <v>1</v>
+      </c>
       <c r="D40" t="s">
         <v>138</v>
       </c>
@@ -5491,6 +5608,9 @@
       </c>
     </row>
     <row r="41" spans="1:61">
+      <c r="C41">
+        <v>1</v>
+      </c>
       <c r="D41" t="s">
         <v>140</v>
       </c>
@@ -5601,6 +5721,9 @@
       </c>
     </row>
     <row r="42" spans="1:61">
+      <c r="C42">
+        <v>1</v>
+      </c>
       <c r="D42" t="s">
         <v>142</v>
       </c>
@@ -5711,6 +5834,9 @@
       </c>
     </row>
     <row r="43" spans="1:61">
+      <c r="C43">
+        <v>1</v>
+      </c>
       <c r="D43" t="s">
         <v>144</v>
       </c>
@@ -5821,6 +5947,9 @@
       </c>
     </row>
     <row r="44" spans="1:61">
+      <c r="C44">
+        <v>1</v>
+      </c>
       <c r="D44" t="s">
         <v>146</v>
       </c>
@@ -5931,6 +6060,9 @@
       </c>
     </row>
     <row r="45" spans="1:61">
+      <c r="C45">
+        <v>1</v>
+      </c>
       <c r="D45" t="s">
         <v>148</v>
       </c>
@@ -6041,6 +6173,9 @@
       </c>
     </row>
     <row r="46" spans="1:61">
+      <c r="C46">
+        <v>1</v>
+      </c>
       <c r="D46" t="s">
         <v>150</v>
       </c>
@@ -6151,6 +6286,9 @@
       </c>
     </row>
     <row r="47" spans="1:61">
+      <c r="C47">
+        <v>1</v>
+      </c>
       <c r="D47" t="s">
         <v>152</v>
       </c>
@@ -6261,6 +6399,9 @@
       </c>
     </row>
     <row r="48" spans="1:61">
+      <c r="C48">
+        <v>1</v>
+      </c>
       <c r="D48" t="s">
         <v>154</v>
       </c>
@@ -6371,6 +6512,9 @@
       </c>
     </row>
     <row r="49" spans="1:61">
+      <c r="C49">
+        <v>1</v>
+      </c>
       <c r="D49" t="s">
         <v>156</v>
       </c>
@@ -6481,6 +6625,9 @@
       </c>
     </row>
     <row r="50" spans="1:61">
+      <c r="C50">
+        <v>1</v>
+      </c>
       <c r="D50" t="s">
         <v>158</v>
       </c>
@@ -6591,6 +6738,9 @@
       </c>
     </row>
     <row r="51" spans="1:61">
+      <c r="C51">
+        <v>1</v>
+      </c>
       <c r="D51" t="s">
         <v>160</v>
       </c>
@@ -6701,6 +6851,9 @@
       </c>
     </row>
     <row r="52" spans="1:61">
+      <c r="C52">
+        <v>1</v>
+      </c>
       <c r="D52" t="s">
         <v>162</v>
       </c>
@@ -6802,6 +6955,9 @@
       </c>
     </row>
     <row r="53" spans="1:61">
+      <c r="C53">
+        <v>1</v>
+      </c>
       <c r="D53" t="s">
         <v>164</v>
       </c>
@@ -6903,6 +7059,9 @@
       </c>
     </row>
     <row r="54" spans="1:61">
+      <c r="C54">
+        <v>1</v>
+      </c>
       <c r="D54" t="s">
         <v>166</v>
       </c>
@@ -7004,6 +7163,9 @@
       </c>
     </row>
     <row r="55" spans="1:61">
+      <c r="C55">
+        <v>1</v>
+      </c>
       <c r="D55" t="s">
         <v>168</v>
       </c>
@@ -7105,6 +7267,9 @@
       </c>
     </row>
     <row r="56" spans="1:61">
+      <c r="C56">
+        <v>1</v>
+      </c>
       <c r="D56" t="s">
         <v>170</v>
       </c>
@@ -7206,6 +7371,9 @@
       </c>
     </row>
     <row r="57" spans="1:61">
+      <c r="C57">
+        <v>1</v>
+      </c>
       <c r="D57" t="s">
         <v>172</v>
       </c>
@@ -7307,6 +7475,9 @@
       </c>
     </row>
     <row r="58" spans="1:61">
+      <c r="C58">
+        <v>1</v>
+      </c>
       <c r="D58" t="s">
         <v>174</v>
       </c>
@@ -7408,6 +7579,9 @@
       </c>
     </row>
     <row r="59" spans="1:61">
+      <c r="C59">
+        <v>1</v>
+      </c>
       <c r="D59" t="s">
         <v>176</v>
       </c>
@@ -7509,6 +7683,9 @@
       </c>
     </row>
     <row r="60" spans="1:61">
+      <c r="C60">
+        <v>1</v>
+      </c>
       <c r="D60" t="s">
         <v>178</v>
       </c>
@@ -7610,6 +7787,9 @@
       </c>
     </row>
     <row r="61" spans="1:61">
+      <c r="C61">
+        <v>1</v>
+      </c>
       <c r="D61" t="s">
         <v>180</v>
       </c>
@@ -7711,6 +7891,9 @@
       </c>
     </row>
     <row r="62" spans="1:61">
+      <c r="C62">
+        <v>1</v>
+      </c>
       <c r="D62" t="s">
         <v>182</v>
       </c>
@@ -7824,6 +8007,9 @@
       </c>
     </row>
     <row r="63" spans="1:61">
+      <c r="C63">
+        <v>1</v>
+      </c>
       <c r="D63" t="s">
         <v>185</v>
       </c>
@@ -7922,6 +8108,9 @@
       </c>
     </row>
     <row r="64" spans="1:61">
+      <c r="C64">
+        <v>1</v>
+      </c>
       <c r="D64" t="s">
         <v>187</v>
       </c>
@@ -8020,6 +8209,9 @@
       </c>
     </row>
     <row r="65" spans="1:61">
+      <c r="C65">
+        <v>1</v>
+      </c>
       <c r="D65" t="s">
         <v>189</v>
       </c>
@@ -8118,6 +8310,9 @@
       </c>
     </row>
     <row r="66" spans="1:61">
+      <c r="C66">
+        <v>1</v>
+      </c>
       <c r="D66" t="s">
         <v>191</v>
       </c>
@@ -8216,6 +8411,9 @@
       </c>
     </row>
     <row r="67" spans="1:61">
+      <c r="C67">
+        <v>1</v>
+      </c>
       <c r="D67" t="s">
         <v>193</v>
       </c>
@@ -8314,6 +8512,9 @@
       </c>
     </row>
     <row r="68" spans="1:61">
+      <c r="C68">
+        <v>1</v>
+      </c>
       <c r="D68" t="s">
         <v>195</v>
       </c>
@@ -8397,6 +8598,9 @@
       </c>
     </row>
     <row r="69" spans="1:61">
+      <c r="C69">
+        <v>1</v>
+      </c>
       <c r="D69" t="s">
         <v>197</v>
       </c>
@@ -8486,6 +8690,9 @@
       </c>
     </row>
     <row r="70" spans="1:61">
+      <c r="C70">
+        <v>1</v>
+      </c>
       <c r="D70" t="s">
         <v>199</v>
       </c>
@@ -8575,6 +8782,9 @@
       </c>
     </row>
     <row r="71" spans="1:61">
+      <c r="C71">
+        <v>1</v>
+      </c>
       <c r="D71" t="s">
         <v>201</v>
       </c>
@@ -8664,6 +8874,9 @@
       </c>
     </row>
     <row r="72" spans="1:61">
+      <c r="C72">
+        <v>1</v>
+      </c>
       <c r="D72" t="s">
         <v>203</v>
       </c>
@@ -8753,6 +8966,9 @@
       </c>
     </row>
     <row r="73" spans="1:61">
+      <c r="C73">
+        <v>1</v>
+      </c>
       <c r="D73" t="s">
         <v>205</v>
       </c>
@@ -8842,6 +9058,9 @@
       </c>
     </row>
     <row r="74" spans="1:61">
+      <c r="C74">
+        <v>1</v>
+      </c>
       <c r="D74" t="s">
         <v>207</v>
       </c>
@@ -8931,6 +9150,9 @@
       </c>
     </row>
     <row r="75" spans="1:61">
+      <c r="C75">
+        <v>1</v>
+      </c>
       <c r="D75" t="s">
         <v>209</v>
       </c>
@@ -9020,6 +9242,9 @@
       </c>
     </row>
     <row r="76" spans="1:61">
+      <c r="C76">
+        <v>1</v>
+      </c>
       <c r="D76" t="s">
         <v>211</v>
       </c>
@@ -9109,6 +9334,9 @@
       </c>
     </row>
     <row r="77" spans="1:61">
+      <c r="C77">
+        <v>1</v>
+      </c>
       <c r="D77" t="s">
         <v>213</v>
       </c>
@@ -9189,6 +9417,9 @@
       </c>
     </row>
     <row r="78" spans="1:61">
+      <c r="C78">
+        <v>1</v>
+      </c>
       <c r="D78" t="s">
         <v>215</v>
       </c>
@@ -9278,6 +9509,9 @@
       </c>
     </row>
     <row r="79" spans="1:61">
+      <c r="C79">
+        <v>1</v>
+      </c>
       <c r="D79" t="s">
         <v>217</v>
       </c>
@@ -9367,6 +9601,9 @@
       </c>
     </row>
     <row r="80" spans="1:61">
+      <c r="C80">
+        <v>1</v>
+      </c>
       <c r="D80" t="s">
         <v>219</v>
       </c>
@@ -9447,6 +9684,9 @@
       </c>
     </row>
     <row r="81" spans="1:61">
+      <c r="C81">
+        <v>1</v>
+      </c>
       <c r="D81" t="s">
         <v>221</v>
       </c>
@@ -9536,6 +9776,9 @@
       </c>
     </row>
     <row r="82" spans="1:61">
+      <c r="C82">
+        <v>1</v>
+      </c>
       <c r="D82" t="s">
         <v>223</v>
       </c>
@@ -9625,6 +9868,9 @@
       </c>
     </row>
     <row r="83" spans="1:61">
+      <c r="C83">
+        <v>1</v>
+      </c>
       <c r="D83" t="s">
         <v>225</v>
       </c>
@@ -9714,6 +9960,9 @@
       </c>
     </row>
     <row r="84" spans="1:61">
+      <c r="C84">
+        <v>1</v>
+      </c>
       <c r="D84" t="s">
         <v>227</v>
       </c>
@@ -9803,6 +10052,9 @@
       </c>
     </row>
     <row r="85" spans="1:61">
+      <c r="C85">
+        <v>1</v>
+      </c>
       <c r="D85" t="s">
         <v>229</v>
       </c>
@@ -9892,6 +10144,9 @@
       </c>
     </row>
     <row r="86" spans="1:61">
+      <c r="C86">
+        <v>1</v>
+      </c>
       <c r="D86" t="s">
         <v>230</v>
       </c>
@@ -9984,6 +10239,9 @@
       </c>
     </row>
     <row r="87" spans="1:61">
+      <c r="C87">
+        <v>1</v>
+      </c>
       <c r="D87" t="s">
         <v>232</v>
       </c>
@@ -10073,6 +10331,9 @@
       </c>
     </row>
     <row r="88" spans="1:61">
+      <c r="C88">
+        <v>1</v>
+      </c>
       <c r="D88" t="s">
         <v>234</v>
       </c>
@@ -10162,6 +10423,9 @@
       </c>
     </row>
     <row r="89" spans="1:61">
+      <c r="C89">
+        <v>1</v>
+      </c>
       <c r="D89" t="s">
         <v>236</v>
       </c>
@@ -10251,6 +10515,9 @@
       </c>
     </row>
     <row r="90" spans="1:61">
+      <c r="C90">
+        <v>1</v>
+      </c>
       <c r="D90" t="s">
         <v>238</v>
       </c>
@@ -10331,6 +10598,9 @@
       </c>
     </row>
     <row r="91" spans="1:61">
+      <c r="C91">
+        <v>1</v>
+      </c>
       <c r="D91" t="s">
         <v>240</v>
       </c>
@@ -10420,6 +10690,9 @@
       </c>
     </row>
     <row r="92" spans="1:61">
+      <c r="C92">
+        <v>1</v>
+      </c>
       <c r="D92" t="s">
         <v>242</v>
       </c>
@@ -10509,6 +10782,9 @@
       </c>
     </row>
     <row r="93" spans="1:61">
+      <c r="C93">
+        <v>1</v>
+      </c>
       <c r="D93" t="s">
         <v>244</v>
       </c>
@@ -10598,6 +10874,9 @@
       </c>
     </row>
     <row r="94" spans="1:61">
+      <c r="C94">
+        <v>1</v>
+      </c>
       <c r="D94" t="s">
         <v>246</v>
       </c>
@@ -10696,6 +10975,9 @@
       </c>
     </row>
     <row r="95" spans="1:61">
+      <c r="C95">
+        <v>1</v>
+      </c>
       <c r="D95" t="s">
         <v>248</v>
       </c>
@@ -10794,6 +11076,9 @@
       </c>
     </row>
     <row r="96" spans="1:61">
+      <c r="C96">
+        <v>1</v>
+      </c>
       <c r="D96" t="s">
         <v>250</v>
       </c>
@@ -10892,6 +11177,9 @@
       </c>
     </row>
     <row r="97" spans="1:61">
+      <c r="C97">
+        <v>1</v>
+      </c>
       <c r="D97" t="s">
         <v>252</v>
       </c>
@@ -10990,6 +11278,9 @@
       </c>
     </row>
     <row r="98" spans="1:61">
+      <c r="C98">
+        <v>1</v>
+      </c>
       <c r="D98" t="s">
         <v>254</v>
       </c>
@@ -11082,6 +11373,9 @@
       </c>
     </row>
     <row r="99" spans="1:61">
+      <c r="C99">
+        <v>1</v>
+      </c>
       <c r="D99" t="s">
         <v>256</v>
       </c>
@@ -11183,6 +11477,9 @@
       </c>
     </row>
     <row r="100" spans="1:61">
+      <c r="C100">
+        <v>1</v>
+      </c>
       <c r="D100" t="s">
         <v>258</v>
       </c>
@@ -11284,6 +11581,9 @@
       </c>
     </row>
     <row r="101" spans="1:61">
+      <c r="C101">
+        <v>1</v>
+      </c>
       <c r="D101" t="s">
         <v>260</v>
       </c>
@@ -11385,6 +11685,9 @@
       </c>
     </row>
     <row r="102" spans="1:61">
+      <c r="C102">
+        <v>1</v>
+      </c>
       <c r="D102" t="s">
         <v>262</v>
       </c>
@@ -11486,6 +11789,9 @@
       </c>
     </row>
     <row r="103" spans="1:61">
+      <c r="C103">
+        <v>1</v>
+      </c>
       <c r="D103" t="s">
         <v>264</v>
       </c>
@@ -11587,6 +11893,9 @@
       </c>
     </row>
     <row r="104" spans="1:61">
+      <c r="C104">
+        <v>1</v>
+      </c>
       <c r="D104" t="s">
         <v>266</v>
       </c>
@@ -11679,6 +11988,9 @@
       </c>
     </row>
     <row r="105" spans="1:61">
+      <c r="C105">
+        <v>1</v>
+      </c>
       <c r="D105" t="s">
         <v>268</v>
       </c>
@@ -11780,6 +12092,9 @@
       </c>
     </row>
     <row r="106" spans="1:61">
+      <c r="C106">
+        <v>1</v>
+      </c>
       <c r="D106" t="s">
         <v>270</v>
       </c>
@@ -11881,6 +12196,9 @@
       </c>
     </row>
     <row r="107" spans="1:61">
+      <c r="C107">
+        <v>1</v>
+      </c>
       <c r="D107" t="s">
         <v>272</v>
       </c>
@@ -11982,6 +12300,9 @@
       </c>
     </row>
     <row r="108" spans="1:61">
+      <c r="C108">
+        <v>1</v>
+      </c>
       <c r="D108" t="s">
         <v>274</v>
       </c>
@@ -12074,6 +12395,9 @@
       </c>
     </row>
     <row r="109" spans="1:61">
+      <c r="C109">
+        <v>1</v>
+      </c>
       <c r="D109" t="s">
         <v>276</v>
       </c>
@@ -12175,6 +12499,9 @@
       </c>
     </row>
     <row r="110" spans="1:61">
+      <c r="C110">
+        <v>1</v>
+      </c>
       <c r="D110" t="s">
         <v>278</v>
       </c>
@@ -12288,6 +12615,9 @@
       </c>
     </row>
     <row r="111" spans="1:61">
+      <c r="C111">
+        <v>1</v>
+      </c>
       <c r="D111" t="s">
         <v>280</v>
       </c>
@@ -12389,6 +12719,9 @@
       </c>
     </row>
     <row r="112" spans="1:61">
+      <c r="C112">
+        <v>1</v>
+      </c>
       <c r="D112" t="s">
         <v>282</v>
       </c>
@@ -12490,6 +12823,9 @@
       </c>
     </row>
     <row r="113" spans="1:61">
+      <c r="C113">
+        <v>1</v>
+      </c>
       <c r="D113" t="s">
         <v>283</v>
       </c>
@@ -12588,6 +12924,9 @@
       </c>
     </row>
     <row r="114" spans="1:61">
+      <c r="C114">
+        <v>1</v>
+      </c>
       <c r="D114" t="s">
         <v>285</v>
       </c>
@@ -12686,6 +13025,9 @@
       </c>
     </row>
     <row r="115" spans="1:61">
+      <c r="C115">
+        <v>1</v>
+      </c>
       <c r="D115" t="s">
         <v>287</v>
       </c>
@@ -12784,6 +13126,9 @@
       </c>
     </row>
     <row r="116" spans="1:61">
+      <c r="C116">
+        <v>1</v>
+      </c>
       <c r="D116" t="s">
         <v>289</v>
       </c>
@@ -12882,6 +13227,9 @@
       </c>
     </row>
     <row r="117" spans="1:61">
+      <c r="C117">
+        <v>1</v>
+      </c>
       <c r="D117" t="s">
         <v>291</v>
       </c>

--- a/resources/data-imports/items/weapons.xlsx
+++ b/resources/data-imports/items/weapons.xlsx
@@ -1,21 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/items/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5474E46-1C95-7F46-AA15-C54533EF66C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId4"/>
+    <sheet name="Items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
+  <calcPr calcId="191029" forceFullCalc="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="406">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -894,19 +911,353 @@
   </si>
   <si>
     <t>The string of this bown is made of steel, it should last for almost, ever.</t>
+  </si>
+  <si>
+    <t>hammer</t>
+  </si>
+  <si>
+    <t>Broken Hammer</t>
+  </si>
+  <si>
+    <t>Copper Hammer</t>
+  </si>
+  <si>
+    <t>Iron Hammer</t>
+  </si>
+  <si>
+    <t>Oak Hammer of Faith</t>
+  </si>
+  <si>
+    <t>Fated Hammer of the Stars</t>
+  </si>
+  <si>
+    <t>Clerics War Hammer of Devotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blacksmiths Apprentice Silver Hammer </t>
+  </si>
+  <si>
+    <t>Shadow War Hammer</t>
+  </si>
+  <si>
+    <t>Spiked Hammer of Blood</t>
+  </si>
+  <si>
+    <t>Chipped Diamond Hammer</t>
+  </si>
+  <si>
+    <t>Stone Cold Ice War Hammer</t>
+  </si>
+  <si>
+    <t>Natures Twined Hammer</t>
+  </si>
+  <si>
+    <t>Goblin Smiths Hammer</t>
+  </si>
+  <si>
+    <t>Hells Faceless Hammer</t>
+  </si>
+  <si>
+    <t>Clock work Hammer of Machinery</t>
+  </si>
+  <si>
+    <t>Deaths Shadow Iron Hammer</t>
+  </si>
+  <si>
+    <t>Faceless Emotional Childs Hammer</t>
+  </si>
+  <si>
+    <t>Dragon Mithril Hammer</t>
+  </si>
+  <si>
+    <t>Enchanted Rune War Hammer</t>
+  </si>
+  <si>
+    <t>Prophets Hammer of Faith</t>
+  </si>
+  <si>
+    <t>Magically Enchanted Goblin Smasher</t>
+  </si>
+  <si>
+    <t>Dragon Bone Crusher</t>
+  </si>
+  <si>
+    <t>Magma War Hammer</t>
+  </si>
+  <si>
+    <t>Hated Demonic War Hammer</t>
+  </si>
+  <si>
+    <t>Bone Crusher of Man</t>
+  </si>
+  <si>
+    <t>Vampric Hammer of Purgatory</t>
+  </si>
+  <si>
+    <t>Time Mages Hammer of the past</t>
+  </si>
+  <si>
+    <t>Shadow Ice Hammer</t>
+  </si>
+  <si>
+    <t>Earths Stone War Hammer</t>
+  </si>
+  <si>
+    <t>Devils Double Edged Hammer of Satan</t>
+  </si>
+  <si>
+    <t>Angelic Feather Hammer</t>
+  </si>
+  <si>
+    <t>Tarrasque Tooth hammer</t>
+  </si>
+  <si>
+    <t>Necromancers Faith Smasher</t>
+  </si>
+  <si>
+    <t>Life Stealer Hammer</t>
+  </si>
+  <si>
+    <t>The White Witches Dragon Hammer</t>
+  </si>
+  <si>
+    <t>Corrupted Hammer of The Creator</t>
+  </si>
+  <si>
+    <t>Galixious Hammer of the Stars</t>
+  </si>
+  <si>
+    <t>Celestial Blood Hammer</t>
+  </si>
+  <si>
+    <t>Double Faces War Hammer</t>
+  </si>
+  <si>
+    <t>Heretical Stone Hammer</t>
+  </si>
+  <si>
+    <t>Thieves Feast Hammer</t>
+  </si>
+  <si>
+    <t>Hammer of Shattered Bones</t>
+  </si>
+  <si>
+    <t>War Hammer of Fratured Reality</t>
+  </si>
+  <si>
+    <t>Darkin Hammer of Justice</t>
+  </si>
+  <si>
+    <t>Purgatory Copper Laced Silver Chain Hammer</t>
+  </si>
+  <si>
+    <t>Ogres Diamond King War Lords Hammer</t>
+  </si>
+  <si>
+    <t>Sould Crusher of Fear</t>
+  </si>
+  <si>
+    <t>Fated Aspiration of  the Death Smasher</t>
+  </si>
+  <si>
+    <t>Reality War Breaker</t>
+  </si>
+  <si>
+    <t>Cosmic Hammer of Choice</t>
+  </si>
+  <si>
+    <t>Cursed Hell Shard Hammer</t>
+  </si>
+  <si>
+    <t>Queen of Hearts Lost Hammer of Love</t>
+  </si>
+  <si>
+    <t>Soldiers War Hammer of the Quest</t>
+  </si>
+  <si>
+    <t>A very broken, but still usable as a blunt weapon hammer.</t>
+  </si>
+  <si>
+    <t>Made from copper this hamer is a bit better quality.</t>
+  </si>
+  <si>
+    <t>Here we go child! A much better hammer then what we had before no? Copper is so yesterday!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A hammer with an oak shaft that’s been blessed by The Church</t>
+  </si>
+  <si>
+    <t>It is said this hammer was made from an astroid that landed some where on Surface decades ago</t>
+  </si>
+  <si>
+    <t>A devoted cleric created and blessed this war hammer.</t>
+  </si>
+  <si>
+    <t>An apprentice hammer that was laced with and decoared with silver. Not much use, but you never know.</t>
+  </si>
+  <si>
+    <t>Made from the fabled shadow stone of the Shadow Planes, this hammer is fading in an our of reality.</t>
+  </si>
+  <si>
+    <t>Someone put spikes on this hammer and covered it in the blood of their enemies.</t>
+  </si>
+  <si>
+    <t>It is a glorious, albiet chipper hammer.</t>
+  </si>
+  <si>
+    <t>This is made with a form of alchemical ice that is that shaped through magics unknown into a stone that can be crafted into a head of hammer.</t>
+  </si>
+  <si>
+    <t>The vines, trees and branches of earth comes together to create a weapon only nature could have forged.</t>
+  </si>
+  <si>
+    <t>Goblins have smiths too. We just stole their hammer.</t>
+  </si>
+  <si>
+    <t>Creaafted in Hell by the mysterious Faceless Man.</t>
+  </si>
+  <si>
+    <t>There are moving paerts to this giant hammer. It was created by the Clockwork mages of Kalintar</t>
+  </si>
+  <si>
+    <t>Death seems to have many weapons and items, made fom shadow iron which is found only on the Shadow Plane, this hammer glows wth the radience of death.</t>
+  </si>
+  <si>
+    <t>An emeotional and faithlesss child created this. I have no idea if it's any good, but they poured them selves into it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dragons once had Mythril scales, these are cosmic and celestial dragons of hope. But alas they are all dead and this is one of the last </t>
+  </si>
+  <si>
+    <t>An enchanted rune  has been turned into a Giant War Hammer</t>
+  </si>
+  <si>
+    <t>A prophet, much like clerics, decided to create a hammer they could use in battle, alas they are better with weapons.</t>
+  </si>
+  <si>
+    <t>An old hammer that was enchanted to have the unique name of Goblin Smasher.</t>
+  </si>
+  <si>
+    <t>Named after the knight who used this hammer to smash the bones of already dead and forgotten dragons.</t>
+  </si>
+  <si>
+    <t>Made from the magma of Hell</t>
+  </si>
+  <si>
+    <t>Demons of war would march against the Angelic hordes of Heaven.</t>
+  </si>
+  <si>
+    <t>Crush the bones of your fellow man!</t>
+  </si>
+  <si>
+    <t>Vampires have tried to weild hammers as their core weapons, but they gave it up for the mobility of their movement.</t>
+  </si>
+  <si>
+    <t>A hammer from the past created by the Time Mages of Tralixious</t>
+  </si>
+  <si>
+    <t>The ice of the Shadow Plane Oceans was used to create this hammer. The oceans are frozen to a depth unknowable by man.</t>
+  </si>
+  <si>
+    <t>Made from the stone of the Earth who has blessed the hammer.</t>
+  </si>
+  <si>
+    <t>Flame War Hammer</t>
+  </si>
+  <si>
+    <t>How are you even holding this item? It's made out of complete fire that has been magically shapped to a hammer.</t>
+  </si>
+  <si>
+    <t>Satan him self created this hammer of the double edge, which is like double sided war axe. Smash one way, smash another. Smash everything.</t>
+  </si>
+  <si>
+    <t>Made of Angelic Feathers. This hammer is feather light to pick up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hammer made from a Tarrasque Tooth </t>
+  </si>
+  <si>
+    <t>Created to smash the faith of those who value life.</t>
+  </si>
+  <si>
+    <t>A hammer of life stealing, but the magics to steal the life is missing from this.</t>
+  </si>
+  <si>
+    <t>The White Which of the Dragon Kind created a hammer to banish those who would defial the dragons so she dearly loved.</t>
+  </si>
+  <si>
+    <t>This hammer has been corrupted by The Creator</t>
+  </si>
+  <si>
+    <t>A hammer of the Stars, created on a another plannet by a man named Galxious</t>
+  </si>
+  <si>
+    <t>A hammer infused withn Celestial Blood</t>
+  </si>
+  <si>
+    <t>Made from the stone a Heretic was killed on, this hammer is said to have magical properties, but what? I have no idea.</t>
+  </si>
+  <si>
+    <t>A hammer with two faces, one on each side, which depicts a man laughing and crying.</t>
+  </si>
+  <si>
+    <t>A Thief stole this hammer, but alas does not have the strength to use it. Maybe you do?</t>
+  </si>
+  <si>
+    <t>Made from shattered bones, this hammer holds the secrets to death and life.</t>
+  </si>
+  <si>
+    <t>Created in a dimension where the realities are colidiing and facturing this hammer is neither here nor there.</t>
+  </si>
+  <si>
+    <t>Darkin was a great Judge of the Labyrinth Courts in 1789CE, but his hammer of justice was stolen from him and he was quickly assassinated.</t>
+  </si>
+  <si>
+    <t>War Hammer of the Anvil</t>
+  </si>
+  <si>
+    <t>Made on the anvil of life, this hammer holds th keys to the worlds problems.</t>
+  </si>
+  <si>
+    <t>A copper hammer created in purgatory and laced with corrupted silver.</t>
+  </si>
+  <si>
+    <t>This is an oddly named hammer. The king whole stole it from the oger just applied his title over top part of the original title, so now its two titles coverged into one. What a mess.</t>
+  </si>
+  <si>
+    <t>Instill fear into your enemies as you crush their soul.</t>
+  </si>
+  <si>
+    <t>I do not know the history of this hammer child. I have never even seen it before.</t>
+  </si>
+  <si>
+    <t>Breaks reality and causes wars between distant realities in time and space.</t>
+  </si>
+  <si>
+    <t>This hammer was created in the Cosmic Bowl of Choice which is a Plane no living entitiy could ever reach or survive on.</t>
+  </si>
+  <si>
+    <t>Purgatories Smith Hammer of Malice</t>
+  </si>
+  <si>
+    <t>The Smith of Purgatory pured all his unjust malice into the ore that created this hammer.</t>
+  </si>
+  <si>
+    <t>Created from cursed Hell Shards.</t>
+  </si>
+  <si>
+    <t>The Queen of Hearts Lost Hammer which she imbued with her love.</t>
+  </si>
+  <si>
+    <t>The soldier has a hammer that he has replicated to sell, which hold the Q insignia to repersent quests.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -921,21 +1272,33 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1225,82 +1588,73 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:BI117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BI173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B93" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="47" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="221" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="30" max="30" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
-    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
-    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
-    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
-    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
-    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
-    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
-    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
-    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
-    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
-    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
-    <col min="56" max="56" width="19" bestFit="true" customWidth="true" style="0"/>
-    <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
-    <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
-    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
-    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
-    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="221" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="26" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1839,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>1</v>
       </c>
@@ -1571,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:61">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C3">
         <v>1</v>
       </c>
@@ -1678,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:61">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C4">
         <v>1</v>
       </c>
@@ -1785,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C5">
         <v>1</v>
       </c>
@@ -1892,7 +2246,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C6">
         <v>1</v>
       </c>
@@ -1999,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C7">
         <v>1</v>
       </c>
@@ -2103,7 +2457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>1</v>
       </c>
@@ -2207,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2311,7 +2665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>1</v>
       </c>
@@ -2415,7 +2769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>1</v>
       </c>
@@ -2435,13 +2789,13 @@
         <v>7000</v>
       </c>
       <c r="Q11">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2519,7 +2873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>1</v>
       </c>
@@ -2623,7 +2977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:61">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>1</v>
       </c>
@@ -2727,7 +3081,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:61">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>1</v>
       </c>
@@ -2831,7 +3185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:61">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C15">
         <v>1</v>
       </c>
@@ -2935,7 +3289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:61">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
       <c r="C16">
         <v>1</v>
       </c>
@@ -3039,7 +3393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:61">
+    <row r="17" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C17">
         <v>1</v>
       </c>
@@ -3143,7 +3497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:61">
+    <row r="18" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C18">
         <v>1</v>
       </c>
@@ -3247,7 +3601,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:61">
+    <row r="19" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C19">
         <v>1</v>
       </c>
@@ -3351,7 +3705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:61">
+    <row r="20" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C20">
         <v>1</v>
       </c>
@@ -3455,7 +3809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:61">
+    <row r="21" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C21">
         <v>1</v>
       </c>
@@ -3559,7 +3913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:61">
+    <row r="22" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C22">
         <v>1</v>
       </c>
@@ -3579,13 +3933,13 @@
         <v>1000000</v>
       </c>
       <c r="Q22">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -3663,7 +4017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:61">
+    <row r="23" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C23">
         <v>1</v>
       </c>
@@ -3683,13 +4037,13 @@
         <v>10000000</v>
       </c>
       <c r="Q23">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -3767,7 +4121,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:61">
+    <row r="24" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C24">
         <v>1</v>
       </c>
@@ -3871,7 +4225,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:61">
+    <row r="25" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C25">
         <v>1</v>
       </c>
@@ -3975,7 +4329,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:61">
+    <row r="26" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C26">
         <v>1</v>
       </c>
@@ -4079,7 +4433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:61">
+    <row r="27" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C27">
         <v>1</v>
       </c>
@@ -4183,7 +4537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:61">
+    <row r="28" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C28">
         <v>1</v>
       </c>
@@ -4287,7 +4641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:61">
+    <row r="29" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C29">
         <v>1</v>
       </c>
@@ -4391,7 +4745,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:61">
+    <row r="30" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C30">
         <v>1</v>
       </c>
@@ -4495,7 +4849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:61">
+    <row r="31" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C31">
         <v>1</v>
       </c>
@@ -4599,7 +4953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:61">
+    <row r="32" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C32">
         <v>1</v>
       </c>
@@ -4703,7 +5057,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:61">
+    <row r="33" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C33">
         <v>1</v>
       </c>
@@ -4816,7 +5170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:61">
+    <row r="34" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C34">
         <v>1</v>
       </c>
@@ -4929,7 +5283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:61">
+    <row r="35" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C35">
         <v>1</v>
       </c>
@@ -4955,13 +5309,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -5042,7 +5396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:61">
+    <row r="36" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C36">
         <v>1</v>
       </c>
@@ -5068,13 +5422,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -5155,7 +5509,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:61">
+    <row r="37" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C37">
         <v>1</v>
       </c>
@@ -5268,7 +5622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:61">
+    <row r="38" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C38">
         <v>1</v>
       </c>
@@ -5381,7 +5735,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:61">
+    <row r="39" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C39">
         <v>1</v>
       </c>
@@ -5494,7 +5848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:61">
+    <row r="40" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C40">
         <v>1</v>
       </c>
@@ -5607,7 +5961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:61">
+    <row r="41" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C41">
         <v>1</v>
       </c>
@@ -5720,7 +6074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:61">
+    <row r="42" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C42">
         <v>1</v>
       </c>
@@ -5833,7 +6187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:61">
+    <row r="43" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C43">
         <v>1</v>
       </c>
@@ -5946,7 +6300,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:61">
+    <row r="44" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C44">
         <v>1</v>
       </c>
@@ -6059,7 +6413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:61">
+    <row r="45" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C45">
         <v>1</v>
       </c>
@@ -6172,7 +6526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:61">
+    <row r="46" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C46">
         <v>1</v>
       </c>
@@ -6285,7 +6639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:61">
+    <row r="47" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C47">
         <v>1</v>
       </c>
@@ -6398,7 +6752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:61">
+    <row r="48" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C48">
         <v>1</v>
       </c>
@@ -6511,7 +6865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:61">
+    <row r="49" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C49">
         <v>1</v>
       </c>
@@ -6624,7 +6978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:61">
+    <row r="50" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C50">
         <v>1</v>
       </c>
@@ -6737,7 +7091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="1:61">
+    <row r="51" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C51">
         <v>1</v>
       </c>
@@ -6850,7 +7204,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:61">
+    <row r="52" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C52">
         <v>1</v>
       </c>
@@ -6954,7 +7308,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:61">
+    <row r="53" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C53">
         <v>1</v>
       </c>
@@ -6980,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="S53">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -7058,7 +7412,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:61">
+    <row r="54" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C54">
         <v>1</v>
       </c>
@@ -7084,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="S54">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -7162,7 +7516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:61">
+    <row r="55" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C55">
         <v>1</v>
       </c>
@@ -7188,10 +7542,10 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="S55">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -7266,7 +7620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:61">
+    <row r="56" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C56">
         <v>1</v>
       </c>
@@ -7292,10 +7646,10 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="S56">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -7370,7 +7724,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:61">
+    <row r="57" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C57">
         <v>1</v>
       </c>
@@ -7396,10 +7750,10 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="S57">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -7474,7 +7828,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="1:61">
+    <row r="58" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C58">
         <v>1</v>
       </c>
@@ -7578,7 +7932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:61">
+    <row r="59" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C59">
         <v>1</v>
       </c>
@@ -7682,7 +8036,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:61">
+    <row r="60" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C60">
         <v>1</v>
       </c>
@@ -7786,7 +8140,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:61">
+    <row r="61" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C61">
         <v>1</v>
       </c>
@@ -7890,7 +8244,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:61">
+    <row r="62" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C62">
         <v>1</v>
       </c>
@@ -8006,7 +8360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:61">
+    <row r="63" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C63">
         <v>1</v>
       </c>
@@ -8056,7 +8410,7 @@
         <v>62</v>
       </c>
       <c r="AF63">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AG63">
         <v>0</v>
@@ -8065,7 +8419,7 @@
         <v>0</v>
       </c>
       <c r="AI63">
-        <v>0.0002</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -8107,7 +8461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:61">
+    <row r="64" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C64">
         <v>1</v>
       </c>
@@ -8157,7 +8511,7 @@
         <v>62</v>
       </c>
       <c r="AF64">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -8166,7 +8520,7 @@
         <v>0</v>
       </c>
       <c r="AI64">
-        <v>0.0005</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AJ64">
         <v>0</v>
@@ -8208,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:61">
+    <row r="65" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C65">
         <v>1</v>
       </c>
@@ -8258,7 +8612,7 @@
         <v>62</v>
       </c>
       <c r="AF65">
-        <v>0.016</v>
+        <v>1.6E-2</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -8267,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="AI65">
-        <v>0.0008</v>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -8309,7 +8663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:61">
+    <row r="66" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C66">
         <v>1</v>
       </c>
@@ -8359,7 +8713,7 @@
         <v>62</v>
       </c>
       <c r="AF66">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AG66">
         <v>0</v>
@@ -8368,7 +8722,7 @@
         <v>0</v>
       </c>
       <c r="AI66">
-        <v>0.0009</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="AJ66">
         <v>0</v>
@@ -8410,7 +8764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:61">
+    <row r="67" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C67">
         <v>1</v>
       </c>
@@ -8460,7 +8814,7 @@
         <v>62</v>
       </c>
       <c r="AF67">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -8469,7 +8823,7 @@
         <v>0</v>
       </c>
       <c r="AI67">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="AJ67">
         <v>0</v>
@@ -8511,7 +8865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:61">
+    <row r="68" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C68">
         <v>1</v>
       </c>
@@ -8564,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="AI68">
-        <v>0.002</v>
+        <v>2E-3</v>
       </c>
       <c r="AJ68">
         <v>0</v>
@@ -8597,7 +8951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:61">
+    <row r="69" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C69">
         <v>1</v>
       </c>
@@ -8638,7 +8992,7 @@
         <v>62</v>
       </c>
       <c r="AF69">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AG69">
         <v>0</v>
@@ -8647,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="AI69">
-        <v>0.003</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="AJ69">
         <v>0</v>
@@ -8689,7 +9043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:61">
+    <row r="70" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C70">
         <v>1</v>
       </c>
@@ -8730,7 +9084,7 @@
         <v>62</v>
       </c>
       <c r="AF70">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -8739,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="AI70">
-        <v>0.004</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AJ70">
         <v>0</v>
@@ -8781,7 +9135,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:61">
+    <row r="71" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C71">
         <v>1</v>
       </c>
@@ -8822,7 +9176,7 @@
         <v>62</v>
       </c>
       <c r="AF71">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AG71">
         <v>0</v>
@@ -8831,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>0.005</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="AJ71">
         <v>0</v>
@@ -8873,7 +9227,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:61">
+    <row r="72" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C72">
         <v>1</v>
       </c>
@@ -8914,7 +9268,7 @@
         <v>62</v>
       </c>
       <c r="AF72">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AG72">
         <v>0</v>
@@ -8923,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>0.006</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AJ72">
         <v>0</v>
@@ -8965,7 +9319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:61">
+    <row r="73" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C73">
         <v>1</v>
       </c>
@@ -8988,10 +9342,10 @@
         <v>7000</v>
       </c>
       <c r="S73">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="V73">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Y73">
         <v>1</v>
@@ -9006,7 +9360,7 @@
         <v>62</v>
       </c>
       <c r="AF73">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AG73">
         <v>0</v>
@@ -9015,7 +9369,7 @@
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>0.007</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="AJ73">
         <v>0</v>
@@ -9057,7 +9411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:61">
+    <row r="74" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C74">
         <v>1</v>
       </c>
@@ -9098,7 +9452,7 @@
         <v>62</v>
       </c>
       <c r="AF74">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AG74">
         <v>0</v>
@@ -9107,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="AJ74">
         <v>0</v>
@@ -9149,7 +9503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:61">
+    <row r="75" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C75">
         <v>1</v>
       </c>
@@ -9190,7 +9544,7 @@
         <v>62</v>
       </c>
       <c r="AF75">
-        <v>0.045</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="AG75">
         <v>0</v>
@@ -9199,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="AI75">
-        <v>0.009</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="AJ75">
         <v>0</v>
@@ -9241,7 +9595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:61">
+    <row r="76" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C76">
         <v>1</v>
       </c>
@@ -9282,7 +9636,7 @@
         <v>62</v>
       </c>
       <c r="AF76">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AG76">
         <v>0</v>
@@ -9333,7 +9687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:61">
+    <row r="77" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C77">
         <v>1</v>
       </c>
@@ -9374,7 +9728,7 @@
         <v>62</v>
       </c>
       <c r="AF77">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AG77">
         <v>0</v>
@@ -9383,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="AI77">
-        <v>0.013</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="AJ77">
         <v>0</v>
@@ -9416,7 +9770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:61">
+    <row r="78" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C78">
         <v>1</v>
       </c>
@@ -9466,7 +9820,7 @@
         <v>0</v>
       </c>
       <c r="AI78">
-        <v>0.015</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="AJ78">
         <v>0</v>
@@ -9508,7 +9862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:61">
+    <row r="79" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C79">
         <v>1</v>
       </c>
@@ -9549,7 +9903,7 @@
         <v>62</v>
       </c>
       <c r="AF79">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AG79">
         <v>0</v>
@@ -9558,7 +9912,7 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>0.018</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="AJ79">
         <v>0</v>
@@ -9600,7 +9954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:61">
+    <row r="80" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C80">
         <v>1</v>
       </c>
@@ -9641,7 +9995,7 @@
         <v>62</v>
       </c>
       <c r="AF80">
-        <v>0.07</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="AG80">
         <v>0</v>
@@ -9650,7 +10004,7 @@
         <v>0</v>
       </c>
       <c r="AI80">
-        <v>0.019</v>
+        <v>1.9E-2</v>
       </c>
       <c r="AJ80">
         <v>0</v>
@@ -9683,7 +10037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:61">
+    <row r="81" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C81">
         <v>1</v>
       </c>
@@ -9724,7 +10078,7 @@
         <v>62</v>
       </c>
       <c r="AF81">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AG81">
         <v>0</v>
@@ -9775,7 +10129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:61">
+    <row r="82" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C82">
         <v>1</v>
       </c>
@@ -9816,7 +10170,7 @@
         <v>62</v>
       </c>
       <c r="AF82">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AG82">
         <v>0</v>
@@ -9825,7 +10179,7 @@
         <v>0</v>
       </c>
       <c r="AI82">
-        <v>0.022</v>
+        <v>2.1999999999999999E-2</v>
       </c>
       <c r="AJ82">
         <v>0</v>
@@ -9867,7 +10221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:61">
+    <row r="83" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C83">
         <v>1</v>
       </c>
@@ -9908,7 +10262,7 @@
         <v>62</v>
       </c>
       <c r="AF83">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AG83">
         <v>0</v>
@@ -9917,7 +10271,7 @@
         <v>0</v>
       </c>
       <c r="AI83">
-        <v>0.025</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="AJ83">
         <v>0</v>
@@ -9959,7 +10313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:61">
+    <row r="84" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C84">
         <v>1</v>
       </c>
@@ -9982,10 +10336,10 @@
         <v>1000000</v>
       </c>
       <c r="S84">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V84">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y84">
         <v>1</v>
@@ -10000,7 +10354,7 @@
         <v>62</v>
       </c>
       <c r="AF84">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AG84">
         <v>0</v>
@@ -10009,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AI84">
-        <v>0.027</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AJ84">
         <v>0</v>
@@ -10051,7 +10405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:61">
+    <row r="85" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C85">
         <v>1</v>
       </c>
@@ -10074,10 +10428,10 @@
         <v>10000000</v>
       </c>
       <c r="S85">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V85">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="Y85">
         <v>1</v>
@@ -10092,7 +10446,7 @@
         <v>62</v>
       </c>
       <c r="AF85">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AG85">
         <v>0</v>
@@ -10101,7 +10455,7 @@
         <v>0</v>
       </c>
       <c r="AI85">
-        <v>0.029</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="AJ85">
         <v>0</v>
@@ -10143,7 +10497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:61">
+    <row r="86" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C86">
         <v>1</v>
       </c>
@@ -10238,7 +10592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:61">
+    <row r="87" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C87">
         <v>1</v>
       </c>
@@ -10288,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>0.031</v>
+        <v>3.1E-2</v>
       </c>
       <c r="AJ87">
         <v>0</v>
@@ -10330,7 +10684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:61">
+    <row r="88" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C88">
         <v>1</v>
       </c>
@@ -10380,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>0.032</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="AJ88">
         <v>0</v>
@@ -10422,7 +10776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:61">
+    <row r="89" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C89">
         <v>1</v>
       </c>
@@ -10472,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>0.035</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="AJ89">
         <v>0</v>
@@ -10514,7 +10868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:61">
+    <row r="90" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C90">
         <v>1</v>
       </c>
@@ -10564,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="AI90">
-        <v>0.038</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="AJ90">
         <v>0</v>
@@ -10597,7 +10951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:61">
+    <row r="91" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C91">
         <v>1</v>
       </c>
@@ -10689,7 +11043,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:61">
+    <row r="92" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C92">
         <v>1</v>
       </c>
@@ -10739,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="AI92">
-        <v>0.042</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="AJ92">
         <v>0</v>
@@ -10781,7 +11135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:61">
+    <row r="93" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C93">
         <v>1</v>
       </c>
@@ -10831,7 +11185,7 @@
         <v>0</v>
       </c>
       <c r="AI93">
-        <v>0.044</v>
+        <v>4.3999999999999997E-2</v>
       </c>
       <c r="AJ93">
         <v>0</v>
@@ -10873,7 +11227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:61">
+    <row r="94" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C94">
         <v>1</v>
       </c>
@@ -10929,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="AI94">
-        <v>0.048</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AJ94">
         <v>0</v>
@@ -10974,7 +11328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:61">
+    <row r="95" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C95">
         <v>1</v>
       </c>
@@ -11021,7 +11375,7 @@
         <v>62</v>
       </c>
       <c r="AF95">
-        <v>0.56</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AG95">
         <v>0</v>
@@ -11075,7 +11429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="1:61">
+    <row r="96" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C96">
         <v>1</v>
       </c>
@@ -11104,10 +11458,10 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V96">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y96">
         <v>1</v>
@@ -11122,7 +11476,7 @@
         <v>62</v>
       </c>
       <c r="AF96">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AG96">
         <v>0</v>
@@ -11131,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="AI96">
-        <v>0.052</v>
+        <v>5.1999999999999998E-2</v>
       </c>
       <c r="AJ96">
         <v>0</v>
@@ -11176,7 +11530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:61">
+    <row r="97" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C97">
         <v>1</v>
       </c>
@@ -11205,10 +11559,10 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="V97">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="Y97">
         <v>1</v>
@@ -11232,7 +11586,7 @@
         <v>0</v>
       </c>
       <c r="AI97">
-        <v>0.054</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="AJ97">
         <v>0</v>
@@ -11277,7 +11631,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:61">
+    <row r="98" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C98">
         <v>1</v>
       </c>
@@ -11336,7 +11690,7 @@
         <v>0</v>
       </c>
       <c r="AI98">
-        <v>0.058</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="AJ98">
         <v>0</v>
@@ -11372,7 +11726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:61">
+    <row r="99" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C99">
         <v>1</v>
       </c>
@@ -11431,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="AI99">
-        <v>0.065</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AJ99">
         <v>0</v>
@@ -11476,7 +11830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:61">
+    <row r="100" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C100">
         <v>1</v>
       </c>
@@ -11535,7 +11889,7 @@
         <v>0</v>
       </c>
       <c r="AI100">
-        <v>0.068</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="AJ100">
         <v>0</v>
@@ -11580,7 +11934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:61">
+    <row r="101" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C101">
         <v>1</v>
       </c>
@@ -11639,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AI101">
-        <v>0.073</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="AJ101">
         <v>0</v>
@@ -11684,7 +12038,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:61">
+    <row r="102" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C102">
         <v>1</v>
       </c>
@@ -11743,7 +12097,7 @@
         <v>0</v>
       </c>
       <c r="AI102">
-        <v>0.075</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="AJ102">
         <v>0</v>
@@ -11788,7 +12142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:61">
+    <row r="103" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C103">
         <v>1</v>
       </c>
@@ -11847,7 +12201,7 @@
         <v>0</v>
       </c>
       <c r="AI103">
-        <v>0.078</v>
+        <v>7.8E-2</v>
       </c>
       <c r="AJ103">
         <v>0</v>
@@ -11892,7 +12246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="1:61">
+    <row r="104" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C104">
         <v>1</v>
       </c>
@@ -11951,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="AI104">
-        <v>0.083</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="AJ104">
         <v>0</v>
@@ -11987,7 +12341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:61">
+    <row r="105" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C105">
         <v>1</v>
       </c>
@@ -12046,7 +12400,7 @@
         <v>0</v>
       </c>
       <c r="AI105">
-        <v>0.082</v>
+        <v>8.2000000000000003E-2</v>
       </c>
       <c r="AJ105">
         <v>0</v>
@@ -12091,7 +12445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:61">
+    <row r="106" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C106">
         <v>1</v>
       </c>
@@ -12150,7 +12504,7 @@
         <v>0</v>
       </c>
       <c r="AI106">
-        <v>0.084</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="AJ106">
         <v>0</v>
@@ -12195,7 +12549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:61">
+    <row r="107" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C107">
         <v>1</v>
       </c>
@@ -12245,7 +12599,7 @@
         <v>62</v>
       </c>
       <c r="AF107">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG107">
         <v>0</v>
@@ -12254,7 +12608,7 @@
         <v>0</v>
       </c>
       <c r="AI107">
-        <v>0.088</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AJ107">
         <v>0</v>
@@ -12299,7 +12653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:61">
+    <row r="108" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C108">
         <v>1</v>
       </c>
@@ -12349,7 +12703,7 @@
         <v>62</v>
       </c>
       <c r="AF108">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="AG108">
         <v>0</v>
@@ -12358,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="AI108">
-        <v>0.092</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="AJ108">
         <v>0</v>
@@ -12394,7 +12748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:61">
+    <row r="109" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C109">
         <v>1</v>
       </c>
@@ -12444,7 +12798,7 @@
         <v>62</v>
       </c>
       <c r="AF109">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="AG109">
         <v>0</v>
@@ -12453,7 +12807,7 @@
         <v>0</v>
       </c>
       <c r="AI109">
-        <v>0.094</v>
+        <v>9.4E-2</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -12498,7 +12852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:61">
+    <row r="110" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C110">
         <v>1</v>
       </c>
@@ -12569,7 +12923,7 @@
         <v>0</v>
       </c>
       <c r="AI110">
-        <v>0.096</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="AJ110">
         <v>0</v>
@@ -12614,7 +12968,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:61">
+    <row r="111" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C111">
         <v>1</v>
       </c>
@@ -12673,7 +13027,7 @@
         <v>0</v>
       </c>
       <c r="AI111">
-        <v>0.098</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="AJ111">
         <v>0</v>
@@ -12718,7 +13072,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:61">
+    <row r="112" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C112">
         <v>1</v>
       </c>
@@ -12822,7 +13176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:61">
+    <row r="113" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C113">
         <v>1</v>
       </c>
@@ -12923,7 +13277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:61">
+    <row r="114" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C114">
         <v>1</v>
       </c>
@@ -12949,10 +13303,10 @@
         <v>18000000000</v>
       </c>
       <c r="S114">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="V114">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -13024,7 +13378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:61">
+    <row r="115" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C115">
         <v>1</v>
       </c>
@@ -13050,10 +13404,10 @@
         <v>22000000000</v>
       </c>
       <c r="S115">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="V115">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -13125,7 +13479,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:61">
+    <row r="116" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C116">
         <v>1</v>
       </c>
@@ -13151,10 +13505,10 @@
         <v>24000000000</v>
       </c>
       <c r="S116">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="V116">
-        <v>2.26</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="W116">
         <v>0</v>
@@ -13226,7 +13580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:61">
+    <row r="117" spans="3:61" x14ac:dyDescent="0.2">
       <c r="C117">
         <v>1</v>
       </c>
@@ -13252,10 +13606,10 @@
         <v>26000000000</v>
       </c>
       <c r="S117">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="V117">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="W117">
         <v>0</v>
@@ -13327,18 +13681,5278 @@
         <v>20</v>
       </c>
     </row>
+    <row r="118" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>294</v>
+      </c>
+      <c r="E118" t="s">
+        <v>293</v>
+      </c>
+      <c r="F118" t="s">
+        <v>347</v>
+      </c>
+      <c r="G118" t="s">
+        <v>293</v>
+      </c>
+      <c r="H118">
+        <v>4</v>
+      </c>
+      <c r="K118">
+        <v>10</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>0</v>
+      </c>
+      <c r="S118">
+        <v>0</v>
+      </c>
+      <c r="T118">
+        <v>0</v>
+      </c>
+      <c r="U118">
+        <v>0</v>
+      </c>
+      <c r="V118">
+        <v>0</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>1</v>
+      </c>
+      <c r="Z118">
+        <v>1</v>
+      </c>
+      <c r="AA118">
+        <v>1</v>
+      </c>
+      <c r="AB118">
+        <v>5</v>
+      </c>
+      <c r="AC118" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>0</v>
+      </c>
+      <c r="AH118">
+        <v>0</v>
+      </c>
+      <c r="AJ118">
+        <v>0</v>
+      </c>
+      <c r="AO118">
+        <v>0</v>
+      </c>
+      <c r="AR118">
+        <v>0</v>
+      </c>
+      <c r="AT118">
+        <v>0</v>
+      </c>
+      <c r="AU118">
+        <v>0</v>
+      </c>
+      <c r="AW118">
+        <v>0</v>
+      </c>
+      <c r="AX118">
+        <v>0</v>
+      </c>
+      <c r="AY118">
+        <v>0</v>
+      </c>
+      <c r="AZ118">
+        <v>0</v>
+      </c>
+      <c r="BA118">
+        <v>0</v>
+      </c>
+      <c r="BB118">
+        <v>0</v>
+      </c>
+      <c r="BC118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>295</v>
+      </c>
+      <c r="E119" t="s">
+        <v>293</v>
+      </c>
+      <c r="F119" t="s">
+        <v>348</v>
+      </c>
+      <c r="G119" t="s">
+        <v>293</v>
+      </c>
+      <c r="H119">
+        <v>8</v>
+      </c>
+      <c r="K119">
+        <v>25</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="S119">
+        <v>0.05</v>
+      </c>
+      <c r="V119">
+        <v>0.05</v>
+      </c>
+      <c r="Y119">
+        <v>1</v>
+      </c>
+      <c r="Z119">
+        <v>1</v>
+      </c>
+      <c r="AA119">
+        <v>3</v>
+      </c>
+      <c r="AB119">
+        <v>8</v>
+      </c>
+      <c r="AC119" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF119">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="AG119">
+        <v>0</v>
+      </c>
+      <c r="AH119">
+        <v>0</v>
+      </c>
+      <c r="AJ119">
+        <v>0</v>
+      </c>
+      <c r="AO119">
+        <v>0</v>
+      </c>
+      <c r="AR119">
+        <v>0</v>
+      </c>
+      <c r="AT119">
+        <v>0</v>
+      </c>
+      <c r="AU119">
+        <v>0</v>
+      </c>
+      <c r="AW119">
+        <v>0</v>
+      </c>
+      <c r="AX119">
+        <v>0</v>
+      </c>
+      <c r="AY119">
+        <v>0</v>
+      </c>
+      <c r="AZ119">
+        <v>0</v>
+      </c>
+      <c r="BA119">
+        <v>0</v>
+      </c>
+      <c r="BB119">
+        <v>0</v>
+      </c>
+      <c r="BC119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>296</v>
+      </c>
+      <c r="E120" t="s">
+        <v>293</v>
+      </c>
+      <c r="F120" t="s">
+        <v>349</v>
+      </c>
+      <c r="G120" t="s">
+        <v>293</v>
+      </c>
+      <c r="H120">
+        <v>16</v>
+      </c>
+      <c r="K120">
+        <v>75</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="S120">
+        <v>0.08</v>
+      </c>
+      <c r="V120">
+        <v>0.08</v>
+      </c>
+      <c r="Y120">
+        <v>1</v>
+      </c>
+      <c r="Z120">
+        <v>1</v>
+      </c>
+      <c r="AA120">
+        <v>6</v>
+      </c>
+      <c r="AB120">
+        <v>12</v>
+      </c>
+      <c r="AC120" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF120">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AG120">
+        <v>0</v>
+      </c>
+      <c r="AH120">
+        <v>0</v>
+      </c>
+      <c r="AJ120">
+        <v>0</v>
+      </c>
+      <c r="AO120">
+        <v>0</v>
+      </c>
+      <c r="AR120">
+        <v>0</v>
+      </c>
+      <c r="AT120">
+        <v>0</v>
+      </c>
+      <c r="AU120">
+        <v>0</v>
+      </c>
+      <c r="AW120">
+        <v>0</v>
+      </c>
+      <c r="AX120">
+        <v>0</v>
+      </c>
+      <c r="AY120">
+        <v>0</v>
+      </c>
+      <c r="AZ120">
+        <v>0</v>
+      </c>
+      <c r="BA120">
+        <v>0</v>
+      </c>
+      <c r="BB120">
+        <v>0</v>
+      </c>
+      <c r="BC120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>297</v>
+      </c>
+      <c r="E121" t="s">
+        <v>293</v>
+      </c>
+      <c r="F121" t="s">
+        <v>350</v>
+      </c>
+      <c r="G121" t="s">
+        <v>293</v>
+      </c>
+      <c r="H121">
+        <v>40</v>
+      </c>
+      <c r="K121">
+        <v>150</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="S121">
+        <v>0.16</v>
+      </c>
+      <c r="V121">
+        <v>0.16</v>
+      </c>
+      <c r="Y121">
+        <v>1</v>
+      </c>
+      <c r="Z121">
+        <v>1</v>
+      </c>
+      <c r="AA121">
+        <v>10</v>
+      </c>
+      <c r="AB121">
+        <v>20</v>
+      </c>
+      <c r="AC121" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF121">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AG121">
+        <v>0</v>
+      </c>
+      <c r="AH121">
+        <v>0</v>
+      </c>
+      <c r="AJ121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0</v>
+      </c>
+      <c r="AR121">
+        <v>0</v>
+      </c>
+      <c r="AT121">
+        <v>0</v>
+      </c>
+      <c r="AU121">
+        <v>0</v>
+      </c>
+      <c r="AW121">
+        <v>0</v>
+      </c>
+      <c r="AX121">
+        <v>0</v>
+      </c>
+      <c r="AY121">
+        <v>0</v>
+      </c>
+      <c r="AZ121">
+        <v>0</v>
+      </c>
+      <c r="BA121">
+        <v>0</v>
+      </c>
+      <c r="BB121">
+        <v>0</v>
+      </c>
+      <c r="BC121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>298</v>
+      </c>
+      <c r="E122" t="s">
+        <v>293</v>
+      </c>
+      <c r="F122" t="s">
+        <v>351</v>
+      </c>
+      <c r="G122" t="s">
+        <v>293</v>
+      </c>
+      <c r="H122">
+        <v>80</v>
+      </c>
+      <c r="K122">
+        <v>250</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="S122">
+        <v>0.18</v>
+      </c>
+      <c r="V122">
+        <v>0.18</v>
+      </c>
+      <c r="Y122">
+        <v>1</v>
+      </c>
+      <c r="Z122">
+        <v>1</v>
+      </c>
+      <c r="AA122">
+        <v>18</v>
+      </c>
+      <c r="AB122">
+        <v>36</v>
+      </c>
+      <c r="AC122" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF122">
+        <v>0.02</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AR122">
+        <v>0</v>
+      </c>
+      <c r="AT122">
+        <v>0</v>
+      </c>
+      <c r="AU122">
+        <v>0</v>
+      </c>
+      <c r="AW122">
+        <v>0</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>299</v>
+      </c>
+      <c r="E123" t="s">
+        <v>293</v>
+      </c>
+      <c r="F123" t="s">
+        <v>352</v>
+      </c>
+      <c r="G123" t="s">
+        <v>293</v>
+      </c>
+      <c r="H123">
+        <v>120</v>
+      </c>
+      <c r="K123">
+        <v>500</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="S123">
+        <v>0.19</v>
+      </c>
+      <c r="V123">
+        <v>0.19</v>
+      </c>
+      <c r="Y123">
+        <v>1</v>
+      </c>
+      <c r="Z123">
+        <v>1</v>
+      </c>
+      <c r="AA123">
+        <v>24</v>
+      </c>
+      <c r="AB123">
+        <v>40</v>
+      </c>
+      <c r="AC123" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF123">
+        <v>0.03</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AR123">
+        <v>0</v>
+      </c>
+      <c r="AT123">
+        <v>0</v>
+      </c>
+      <c r="AU123">
+        <v>0</v>
+      </c>
+      <c r="AW123">
+        <v>0</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>300</v>
+      </c>
+      <c r="E124" t="s">
+        <v>293</v>
+      </c>
+      <c r="F124" t="s">
+        <v>353</v>
+      </c>
+      <c r="G124" t="s">
+        <v>293</v>
+      </c>
+      <c r="H124">
+        <v>145</v>
+      </c>
+      <c r="K124">
+        <v>750</v>
+      </c>
+      <c r="S124">
+        <v>0.2</v>
+      </c>
+      <c r="V124">
+        <v>0.2</v>
+      </c>
+      <c r="Y124">
+        <v>1</v>
+      </c>
+      <c r="Z124">
+        <v>1</v>
+      </c>
+      <c r="AA124">
+        <v>28</v>
+      </c>
+      <c r="AB124">
+        <v>50</v>
+      </c>
+      <c r="AC124" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF124">
+        <v>0.04</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AW124">
+        <v>0</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>301</v>
+      </c>
+      <c r="E125" t="s">
+        <v>293</v>
+      </c>
+      <c r="F125" t="s">
+        <v>354</v>
+      </c>
+      <c r="G125" t="s">
+        <v>293</v>
+      </c>
+      <c r="H125">
+        <v>160</v>
+      </c>
+      <c r="K125">
+        <v>1000</v>
+      </c>
+      <c r="S125">
+        <v>0.22</v>
+      </c>
+      <c r="V125">
+        <v>0.22</v>
+      </c>
+      <c r="Y125">
+        <v>1</v>
+      </c>
+      <c r="AA125">
+        <v>30</v>
+      </c>
+      <c r="AB125">
+        <v>60</v>
+      </c>
+      <c r="AC125" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF125">
+        <v>0.08</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>0</v>
+      </c>
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AR125">
+        <v>0</v>
+      </c>
+      <c r="AT125">
+        <v>0</v>
+      </c>
+      <c r="AU125">
+        <v>0</v>
+      </c>
+      <c r="AW125">
+        <v>0</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>302</v>
+      </c>
+      <c r="E126" t="s">
+        <v>293</v>
+      </c>
+      <c r="F126" t="s">
+        <v>355</v>
+      </c>
+      <c r="G126" t="s">
+        <v>293</v>
+      </c>
+      <c r="H126">
+        <v>190</v>
+      </c>
+      <c r="K126">
+        <v>1500</v>
+      </c>
+      <c r="S126">
+        <v>0.25</v>
+      </c>
+      <c r="V126">
+        <v>0.25</v>
+      </c>
+      <c r="Y126">
+        <v>1</v>
+      </c>
+      <c r="AA126">
+        <v>36</v>
+      </c>
+      <c r="AB126">
+        <v>70</v>
+      </c>
+      <c r="AC126" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF126">
+        <v>0.12</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AR126">
+        <v>0</v>
+      </c>
+      <c r="AT126">
+        <v>0</v>
+      </c>
+      <c r="AU126">
+        <v>0</v>
+      </c>
+      <c r="AW126">
+        <v>0</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>303</v>
+      </c>
+      <c r="E127" t="s">
+        <v>293</v>
+      </c>
+      <c r="F127" t="s">
+        <v>356</v>
+      </c>
+      <c r="G127" t="s">
+        <v>293</v>
+      </c>
+      <c r="H127">
+        <v>220</v>
+      </c>
+      <c r="K127">
+        <v>3000</v>
+      </c>
+      <c r="S127">
+        <v>0.27</v>
+      </c>
+      <c r="V127">
+        <v>0.27</v>
+      </c>
+      <c r="Y127">
+        <v>1</v>
+      </c>
+      <c r="AA127">
+        <v>40</v>
+      </c>
+      <c r="AB127">
+        <v>78</v>
+      </c>
+      <c r="AC127" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF127">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AR127">
+        <v>0</v>
+      </c>
+      <c r="AT127">
+        <v>0</v>
+      </c>
+      <c r="AU127">
+        <v>0</v>
+      </c>
+      <c r="AW127">
+        <v>0</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>304</v>
+      </c>
+      <c r="E128" t="s">
+        <v>293</v>
+      </c>
+      <c r="F128" t="s">
+        <v>357</v>
+      </c>
+      <c r="G128" t="s">
+        <v>293</v>
+      </c>
+      <c r="H128">
+        <v>250</v>
+      </c>
+      <c r="K128">
+        <v>5000</v>
+      </c>
+      <c r="S128">
+        <v>0.27</v>
+      </c>
+      <c r="V128">
+        <v>0.27</v>
+      </c>
+      <c r="Y128">
+        <v>1</v>
+      </c>
+      <c r="AA128">
+        <v>43</v>
+      </c>
+      <c r="AB128">
+        <v>78</v>
+      </c>
+      <c r="AC128" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF128">
+        <v>0.16</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>0</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AR128">
+        <v>0</v>
+      </c>
+      <c r="AT128">
+        <v>0</v>
+      </c>
+      <c r="AU128">
+        <v>0</v>
+      </c>
+      <c r="AW128">
+        <v>0</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>305</v>
+      </c>
+      <c r="E129" t="s">
+        <v>293</v>
+      </c>
+      <c r="F129" t="s">
+        <v>358</v>
+      </c>
+      <c r="G129" t="s">
+        <v>293</v>
+      </c>
+      <c r="H129">
+        <v>280</v>
+      </c>
+      <c r="K129">
+        <v>7000</v>
+      </c>
+      <c r="S129">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="V129">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="Y129">
+        <v>1</v>
+      </c>
+      <c r="AA129">
+        <v>50</v>
+      </c>
+      <c r="AB129">
+        <v>100</v>
+      </c>
+      <c r="AC129" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF129">
+        <v>0.18</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>0</v>
+      </c>
+      <c r="AO129">
+        <v>0</v>
+      </c>
+      <c r="AR129">
+        <v>0</v>
+      </c>
+      <c r="AT129">
+        <v>0</v>
+      </c>
+      <c r="AU129">
+        <v>0</v>
+      </c>
+      <c r="AW129">
+        <v>0</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>0</v>
+      </c>
+      <c r="BI129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>306</v>
+      </c>
+      <c r="E130" t="s">
+        <v>293</v>
+      </c>
+      <c r="F130" t="s">
+        <v>359</v>
+      </c>
+      <c r="G130" t="s">
+        <v>293</v>
+      </c>
+      <c r="H130">
+        <v>340</v>
+      </c>
+      <c r="K130">
+        <v>10000</v>
+      </c>
+      <c r="S130">
+        <v>0.3</v>
+      </c>
+      <c r="V130">
+        <v>0.3</v>
+      </c>
+      <c r="Y130">
+        <v>1</v>
+      </c>
+      <c r="AA130">
+        <v>55</v>
+      </c>
+      <c r="AB130">
+        <v>110</v>
+      </c>
+      <c r="AC130" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF130">
+        <v>0.24</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AR130">
+        <v>0</v>
+      </c>
+      <c r="AT130">
+        <v>0</v>
+      </c>
+      <c r="AU130">
+        <v>0</v>
+      </c>
+      <c r="AW130">
+        <v>0</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>307</v>
+      </c>
+      <c r="E131" t="s">
+        <v>293</v>
+      </c>
+      <c r="F131" t="s">
+        <v>360</v>
+      </c>
+      <c r="G131" t="s">
+        <v>293</v>
+      </c>
+      <c r="H131">
+        <v>380</v>
+      </c>
+      <c r="K131">
+        <v>15000</v>
+      </c>
+      <c r="S131">
+        <v>0.35</v>
+      </c>
+      <c r="V131">
+        <v>0.35</v>
+      </c>
+      <c r="Y131">
+        <v>1</v>
+      </c>
+      <c r="AA131">
+        <v>60</v>
+      </c>
+      <c r="AB131">
+        <v>130</v>
+      </c>
+      <c r="AC131" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF131">
+        <v>0.252</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AR131">
+        <v>0</v>
+      </c>
+      <c r="AT131">
+        <v>0</v>
+      </c>
+      <c r="AU131">
+        <v>0</v>
+      </c>
+      <c r="AW131">
+        <v>0</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>308</v>
+      </c>
+      <c r="E132" t="s">
+        <v>293</v>
+      </c>
+      <c r="F132" t="s">
+        <v>361</v>
+      </c>
+      <c r="G132" t="s">
+        <v>293</v>
+      </c>
+      <c r="H132">
+        <v>450</v>
+      </c>
+      <c r="K132">
+        <v>30000</v>
+      </c>
+      <c r="S132">
+        <v>0.37</v>
+      </c>
+      <c r="V132">
+        <v>0.37</v>
+      </c>
+      <c r="Y132">
+        <v>1</v>
+      </c>
+      <c r="AA132">
+        <v>70</v>
+      </c>
+      <c r="AB132">
+        <v>150</v>
+      </c>
+      <c r="AC132" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF132">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AR132">
+        <v>0</v>
+      </c>
+      <c r="AT132">
+        <v>0</v>
+      </c>
+      <c r="AU132">
+        <v>0</v>
+      </c>
+      <c r="AW132">
+        <v>0</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>309</v>
+      </c>
+      <c r="E133" t="s">
+        <v>293</v>
+      </c>
+      <c r="F133" t="s">
+        <v>362</v>
+      </c>
+      <c r="G133" t="s">
+        <v>293</v>
+      </c>
+      <c r="H133">
+        <v>475</v>
+      </c>
+      <c r="K133">
+        <v>60000</v>
+      </c>
+      <c r="S133">
+        <v>0.38</v>
+      </c>
+      <c r="V133">
+        <v>0.38</v>
+      </c>
+      <c r="Y133">
+        <v>1</v>
+      </c>
+      <c r="AA133">
+        <v>75</v>
+      </c>
+      <c r="AB133">
+        <v>180</v>
+      </c>
+      <c r="AC133" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF133">
+        <v>0.308</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AW133">
+        <v>0</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>310</v>
+      </c>
+      <c r="E134" t="s">
+        <v>293</v>
+      </c>
+      <c r="F134" t="s">
+        <v>363</v>
+      </c>
+      <c r="G134" t="s">
+        <v>293</v>
+      </c>
+      <c r="H134">
+        <v>490</v>
+      </c>
+      <c r="K134">
+        <v>120000</v>
+      </c>
+      <c r="S134">
+        <v>0.38</v>
+      </c>
+      <c r="V134">
+        <v>0.38</v>
+      </c>
+      <c r="Y134">
+        <v>1</v>
+      </c>
+      <c r="AA134">
+        <v>80</v>
+      </c>
+      <c r="AB134">
+        <v>190</v>
+      </c>
+      <c r="AC134" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF134">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>0</v>
+      </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
+      <c r="AR134">
+        <v>0</v>
+      </c>
+      <c r="AT134">
+        <v>0</v>
+      </c>
+      <c r="AU134">
+        <v>0</v>
+      </c>
+      <c r="AW134">
+        <v>0</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>311</v>
+      </c>
+      <c r="E135" t="s">
+        <v>293</v>
+      </c>
+      <c r="F135" t="s">
+        <v>364</v>
+      </c>
+      <c r="G135" t="s">
+        <v>293</v>
+      </c>
+      <c r="H135">
+        <v>520</v>
+      </c>
+      <c r="K135">
+        <v>180000</v>
+      </c>
+      <c r="S135">
+        <v>0.42</v>
+      </c>
+      <c r="V135">
+        <v>0.42</v>
+      </c>
+      <c r="Y135">
+        <v>1</v>
+      </c>
+      <c r="AA135">
+        <v>85</v>
+      </c>
+      <c r="AB135">
+        <v>190</v>
+      </c>
+      <c r="AC135" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF135">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AR135">
+        <v>0</v>
+      </c>
+      <c r="AT135">
+        <v>0</v>
+      </c>
+      <c r="AU135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>0</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>312</v>
+      </c>
+      <c r="E136" t="s">
+        <v>293</v>
+      </c>
+      <c r="F136" t="s">
+        <v>365</v>
+      </c>
+      <c r="G136" t="s">
+        <v>293</v>
+      </c>
+      <c r="H136">
+        <v>540</v>
+      </c>
+      <c r="K136">
+        <v>240000</v>
+      </c>
+      <c r="S136">
+        <v>0.45</v>
+      </c>
+      <c r="V136">
+        <v>0.45</v>
+      </c>
+      <c r="Y136">
+        <v>1</v>
+      </c>
+      <c r="AA136">
+        <v>90</v>
+      </c>
+      <c r="AB136">
+        <v>200</v>
+      </c>
+      <c r="AC136" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF136">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>0</v>
+      </c>
+      <c r="AO136">
+        <v>0</v>
+      </c>
+      <c r="AW136">
+        <v>0</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>313</v>
+      </c>
+      <c r="E137" t="s">
+        <v>293</v>
+      </c>
+      <c r="F137" t="s">
+        <v>366</v>
+      </c>
+      <c r="G137" t="s">
+        <v>293</v>
+      </c>
+      <c r="H137">
+        <v>560</v>
+      </c>
+      <c r="K137">
+        <v>260000</v>
+      </c>
+      <c r="S137">
+        <v>0.48</v>
+      </c>
+      <c r="V137">
+        <v>0.48</v>
+      </c>
+      <c r="Y137">
+        <v>1</v>
+      </c>
+      <c r="AA137">
+        <v>100</v>
+      </c>
+      <c r="AB137">
+        <v>200</v>
+      </c>
+      <c r="AC137" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF137">
+        <v>0.42</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AR137">
+        <v>0</v>
+      </c>
+      <c r="AT137">
+        <v>0</v>
+      </c>
+      <c r="AU137">
+        <v>0</v>
+      </c>
+      <c r="AW137">
+        <v>0</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>314</v>
+      </c>
+      <c r="E138" t="s">
+        <v>293</v>
+      </c>
+      <c r="F138" t="s">
+        <v>367</v>
+      </c>
+      <c r="G138" t="s">
+        <v>293</v>
+      </c>
+      <c r="H138">
+        <v>580</v>
+      </c>
+      <c r="K138">
+        <v>350000</v>
+      </c>
+      <c r="S138">
+        <v>0.5</v>
+      </c>
+      <c r="V138">
+        <v>0.5</v>
+      </c>
+      <c r="Y138">
+        <v>1</v>
+      </c>
+      <c r="AA138">
+        <v>110</v>
+      </c>
+      <c r="AB138">
+        <v>200</v>
+      </c>
+      <c r="AC138" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF138">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AO138">
+        <v>0</v>
+      </c>
+      <c r="AR138">
+        <v>0</v>
+      </c>
+      <c r="AT138">
+        <v>0</v>
+      </c>
+      <c r="AU138">
+        <v>0</v>
+      </c>
+      <c r="AW138">
+        <v>0</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>315</v>
+      </c>
+      <c r="E139" t="s">
+        <v>293</v>
+      </c>
+      <c r="F139" t="s">
+        <v>368</v>
+      </c>
+      <c r="G139" t="s">
+        <v>293</v>
+      </c>
+      <c r="H139">
+        <v>600</v>
+      </c>
+      <c r="K139">
+        <v>500000</v>
+      </c>
+      <c r="S139">
+        <v>0.53</v>
+      </c>
+      <c r="V139">
+        <v>0.53</v>
+      </c>
+      <c r="Y139">
+        <v>1</v>
+      </c>
+      <c r="AA139">
+        <v>120</v>
+      </c>
+      <c r="AB139">
+        <v>200</v>
+      </c>
+      <c r="AC139" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF139">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AR139">
+        <v>0</v>
+      </c>
+      <c r="AT139">
+        <v>0</v>
+      </c>
+      <c r="AU139">
+        <v>0</v>
+      </c>
+      <c r="AW139">
+        <v>0</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>316</v>
+      </c>
+      <c r="E140" t="s">
+        <v>293</v>
+      </c>
+      <c r="F140" t="s">
+        <v>369</v>
+      </c>
+      <c r="G140" t="s">
+        <v>293</v>
+      </c>
+      <c r="H140">
+        <v>620</v>
+      </c>
+      <c r="K140">
+        <v>1000000</v>
+      </c>
+      <c r="S140">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V140">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y140">
+        <v>1</v>
+      </c>
+      <c r="AA140">
+        <v>130</v>
+      </c>
+      <c r="AB140">
+        <v>200</v>
+      </c>
+      <c r="AC140" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF140">
+        <v>0.504</v>
+      </c>
+      <c r="AG140">
+        <v>0</v>
+      </c>
+      <c r="AH140">
+        <v>0</v>
+      </c>
+      <c r="AJ140">
+        <v>0</v>
+      </c>
+      <c r="AO140">
+        <v>0</v>
+      </c>
+      <c r="AR140">
+        <v>0</v>
+      </c>
+      <c r="AT140">
+        <v>0</v>
+      </c>
+      <c r="AU140">
+        <v>0</v>
+      </c>
+      <c r="AW140">
+        <v>0</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>0</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>317</v>
+      </c>
+      <c r="E141" t="s">
+        <v>293</v>
+      </c>
+      <c r="F141" t="s">
+        <v>370</v>
+      </c>
+      <c r="G141" t="s">
+        <v>293</v>
+      </c>
+      <c r="H141">
+        <v>630</v>
+      </c>
+      <c r="K141">
+        <v>10000000</v>
+      </c>
+      <c r="S141">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="V141">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y141">
+        <v>1</v>
+      </c>
+      <c r="AA141">
+        <v>140</v>
+      </c>
+      <c r="AB141">
+        <v>200</v>
+      </c>
+      <c r="AC141" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF141">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>0</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AR141">
+        <v>0</v>
+      </c>
+      <c r="AT141">
+        <v>0</v>
+      </c>
+      <c r="AU141">
+        <v>0</v>
+      </c>
+      <c r="AW141">
+        <v>0</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>318</v>
+      </c>
+      <c r="E142" t="s">
+        <v>293</v>
+      </c>
+      <c r="F142" t="s">
+        <v>371</v>
+      </c>
+      <c r="G142" t="s">
+        <v>293</v>
+      </c>
+      <c r="H142">
+        <v>640</v>
+      </c>
+      <c r="K142">
+        <v>25000000</v>
+      </c>
+      <c r="S142">
+        <v>0.62</v>
+      </c>
+      <c r="V142">
+        <v>0.62</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>1</v>
+      </c>
+      <c r="AA142">
+        <v>150</v>
+      </c>
+      <c r="AB142">
+        <v>200</v>
+      </c>
+      <c r="AC142" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF142">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AG142">
+        <v>0</v>
+      </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>0</v>
+      </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
+      <c r="AR142">
+        <v>0</v>
+      </c>
+      <c r="AT142">
+        <v>0</v>
+      </c>
+      <c r="AU142">
+        <v>0</v>
+      </c>
+      <c r="AW142">
+        <v>0</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>319</v>
+      </c>
+      <c r="E143" t="s">
+        <v>293</v>
+      </c>
+      <c r="F143" t="s">
+        <v>372</v>
+      </c>
+      <c r="G143" t="s">
+        <v>293</v>
+      </c>
+      <c r="H143">
+        <v>660</v>
+      </c>
+      <c r="K143">
+        <v>40000000</v>
+      </c>
+      <c r="S143">
+        <v>0.65</v>
+      </c>
+      <c r="V143">
+        <v>0.65</v>
+      </c>
+      <c r="Y143">
+        <v>1</v>
+      </c>
+      <c r="AA143">
+        <v>160</v>
+      </c>
+      <c r="AB143">
+        <v>200</v>
+      </c>
+      <c r="AC143" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF143">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>0</v>
+      </c>
+      <c r="AO143">
+        <v>0</v>
+      </c>
+      <c r="AR143">
+        <v>0</v>
+      </c>
+      <c r="AT143">
+        <v>0</v>
+      </c>
+      <c r="AU143">
+        <v>0</v>
+      </c>
+      <c r="AW143">
+        <v>0</v>
+      </c>
+      <c r="AX143">
+        <v>0</v>
+      </c>
+      <c r="AY143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>0</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>0</v>
+      </c>
+      <c r="BI143">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>320</v>
+      </c>
+      <c r="E144" t="s">
+        <v>293</v>
+      </c>
+      <c r="F144" t="s">
+        <v>373</v>
+      </c>
+      <c r="G144" t="s">
+        <v>293</v>
+      </c>
+      <c r="H144">
+        <v>680</v>
+      </c>
+      <c r="K144">
+        <v>65000000</v>
+      </c>
+      <c r="S144">
+        <v>0.68</v>
+      </c>
+      <c r="V144">
+        <v>0.68</v>
+      </c>
+      <c r="Y144">
+        <v>1</v>
+      </c>
+      <c r="AA144">
+        <v>170</v>
+      </c>
+      <c r="AB144">
+        <v>200</v>
+      </c>
+      <c r="AC144" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF144">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="AG144">
+        <v>0</v>
+      </c>
+      <c r="AH144">
+        <v>0</v>
+      </c>
+      <c r="AJ144">
+        <v>0</v>
+      </c>
+      <c r="AO144">
+        <v>0</v>
+      </c>
+      <c r="AR144">
+        <v>0</v>
+      </c>
+      <c r="AT144">
+        <v>0</v>
+      </c>
+      <c r="AU144">
+        <v>0</v>
+      </c>
+      <c r="AW144">
+        <v>0</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>0</v>
+      </c>
+      <c r="BC144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>321</v>
+      </c>
+      <c r="E145" t="s">
+        <v>293</v>
+      </c>
+      <c r="F145" t="s">
+        <v>374</v>
+      </c>
+      <c r="G145" t="s">
+        <v>293</v>
+      </c>
+      <c r="H145">
+        <v>700</v>
+      </c>
+      <c r="K145">
+        <v>100000000</v>
+      </c>
+      <c r="S145">
+        <v>0.73</v>
+      </c>
+      <c r="V145">
+        <v>0.73</v>
+      </c>
+      <c r="Y145">
+        <v>1</v>
+      </c>
+      <c r="AA145">
+        <v>180</v>
+      </c>
+      <c r="AB145">
+        <v>200</v>
+      </c>
+      <c r="AC145" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF145">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="AG145">
+        <v>0</v>
+      </c>
+      <c r="AH145">
+        <v>0</v>
+      </c>
+      <c r="AJ145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>0</v>
+      </c>
+      <c r="AR145">
+        <v>0</v>
+      </c>
+      <c r="AT145">
+        <v>0</v>
+      </c>
+      <c r="AU145">
+        <v>0</v>
+      </c>
+      <c r="AW145">
+        <v>0</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>0</v>
+      </c>
+      <c r="BI145">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>322</v>
+      </c>
+      <c r="E146" t="s">
+        <v>293</v>
+      </c>
+      <c r="F146" t="s">
+        <v>375</v>
+      </c>
+      <c r="G146" t="s">
+        <v>293</v>
+      </c>
+      <c r="H146">
+        <v>720</v>
+      </c>
+      <c r="K146">
+        <v>160000000</v>
+      </c>
+      <c r="S146">
+        <v>0.75</v>
+      </c>
+      <c r="V146">
+        <v>0.75</v>
+      </c>
+      <c r="Y146">
+        <v>1</v>
+      </c>
+      <c r="AA146">
+        <v>190</v>
+      </c>
+      <c r="AB146">
+        <v>200</v>
+      </c>
+      <c r="AC146" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF146">
+        <v>0.67200000000000004</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>0</v>
+      </c>
+      <c r="AO146">
+        <v>0</v>
+      </c>
+      <c r="AW146">
+        <v>0</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>376</v>
+      </c>
+      <c r="E147" t="s">
+        <v>293</v>
+      </c>
+      <c r="F147" t="s">
+        <v>377</v>
+      </c>
+      <c r="G147" t="s">
+        <v>293</v>
+      </c>
+      <c r="H147">
+        <v>730</v>
+      </c>
+      <c r="K147">
+        <v>250000000</v>
+      </c>
+      <c r="S147">
+        <v>0.8</v>
+      </c>
+      <c r="V147">
+        <v>0.8</v>
+      </c>
+      <c r="Y147">
+        <v>1</v>
+      </c>
+      <c r="AA147">
+        <v>200</v>
+      </c>
+      <c r="AB147">
+        <v>210</v>
+      </c>
+      <c r="AC147" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF147">
+        <v>0.7</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>0</v>
+      </c>
+      <c r="AO147">
+        <v>0</v>
+      </c>
+      <c r="AR147">
+        <v>0</v>
+      </c>
+      <c r="AT147">
+        <v>0</v>
+      </c>
+      <c r="AU147">
+        <v>0</v>
+      </c>
+      <c r="AW147">
+        <v>0</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>323</v>
+      </c>
+      <c r="E148" t="s">
+        <v>293</v>
+      </c>
+      <c r="F148" t="s">
+        <v>378</v>
+      </c>
+      <c r="G148" t="s">
+        <v>293</v>
+      </c>
+      <c r="H148">
+        <v>800</v>
+      </c>
+      <c r="K148">
+        <v>1000000000</v>
+      </c>
+      <c r="S148">
+        <v>0.86</v>
+      </c>
+      <c r="V148">
+        <v>0.86</v>
+      </c>
+      <c r="Y148">
+        <v>1</v>
+      </c>
+      <c r="AA148">
+        <v>215</v>
+      </c>
+      <c r="AB148">
+        <v>220</v>
+      </c>
+      <c r="AC148" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF148">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="AG148">
+        <v>0</v>
+      </c>
+      <c r="AH148">
+        <v>0</v>
+      </c>
+      <c r="AJ148">
+        <v>0</v>
+      </c>
+      <c r="AO148">
+        <v>0</v>
+      </c>
+      <c r="AR148">
+        <v>0</v>
+      </c>
+      <c r="AT148">
+        <v>0</v>
+      </c>
+      <c r="AU148">
+        <v>0</v>
+      </c>
+      <c r="AW148">
+        <v>0</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C149">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>324</v>
+      </c>
+      <c r="E149" t="s">
+        <v>293</v>
+      </c>
+      <c r="F149" t="s">
+        <v>379</v>
+      </c>
+      <c r="G149" t="s">
+        <v>293</v>
+      </c>
+      <c r="H149">
+        <v>845</v>
+      </c>
+      <c r="K149">
+        <v>2000000000</v>
+      </c>
+      <c r="S149">
+        <v>0.9</v>
+      </c>
+      <c r="V149">
+        <v>0.9</v>
+      </c>
+      <c r="Y149">
+        <v>1</v>
+      </c>
+      <c r="AA149">
+        <v>220</v>
+      </c>
+      <c r="AB149">
+        <v>225</v>
+      </c>
+      <c r="AC149" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF149">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="AG149">
+        <v>0</v>
+      </c>
+      <c r="AH149">
+        <v>0</v>
+      </c>
+      <c r="AJ149">
+        <v>0</v>
+      </c>
+      <c r="AO149">
+        <v>0</v>
+      </c>
+      <c r="AR149">
+        <v>0</v>
+      </c>
+      <c r="AT149">
+        <v>0</v>
+      </c>
+      <c r="AU149">
+        <v>0</v>
+      </c>
+      <c r="AW149">
+        <v>0</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>0</v>
+      </c>
+      <c r="AZ149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>0</v>
+      </c>
+      <c r="BC149">
+        <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>325</v>
+      </c>
+      <c r="E150" t="s">
+        <v>293</v>
+      </c>
+      <c r="F150" t="s">
+        <v>380</v>
+      </c>
+      <c r="G150" t="s">
+        <v>293</v>
+      </c>
+      <c r="H150">
+        <v>900</v>
+      </c>
+      <c r="K150">
+        <v>2100000000</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="S150">
+        <v>1</v>
+      </c>
+      <c r="V150">
+        <v>1</v>
+      </c>
+      <c r="Y150">
+        <v>1</v>
+      </c>
+      <c r="AA150">
+        <v>225</v>
+      </c>
+      <c r="AB150">
+        <v>228</v>
+      </c>
+      <c r="AC150" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF150">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="AG150">
+        <v>0</v>
+      </c>
+      <c r="AH150">
+        <v>0</v>
+      </c>
+      <c r="AJ150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>1</v>
+      </c>
+      <c r="AO150">
+        <v>0</v>
+      </c>
+      <c r="AR150">
+        <v>0</v>
+      </c>
+      <c r="AT150">
+        <v>0</v>
+      </c>
+      <c r="AU150">
+        <v>0</v>
+      </c>
+      <c r="AW150">
+        <v>0</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>326</v>
+      </c>
+      <c r="E151" t="s">
+        <v>293</v>
+      </c>
+      <c r="F151" t="s">
+        <v>381</v>
+      </c>
+      <c r="G151" t="s">
+        <v>293</v>
+      </c>
+      <c r="H151">
+        <v>950</v>
+      </c>
+      <c r="K151">
+        <v>2200000000</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="S151">
+        <v>1.05</v>
+      </c>
+      <c r="V151">
+        <v>1.05</v>
+      </c>
+      <c r="Y151">
+        <v>1</v>
+      </c>
+      <c r="AA151">
+        <v>228</v>
+      </c>
+      <c r="AB151">
+        <v>232</v>
+      </c>
+      <c r="AC151" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF151">
+        <v>0.81200000000000006</v>
+      </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
+      <c r="AH151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
+      <c r="AR151">
+        <v>0</v>
+      </c>
+      <c r="AT151">
+        <v>0</v>
+      </c>
+      <c r="AU151">
+        <v>0</v>
+      </c>
+      <c r="AW151">
+        <v>0</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>327</v>
+      </c>
+      <c r="E152" t="s">
+        <v>293</v>
+      </c>
+      <c r="F152" t="s">
+        <v>382</v>
+      </c>
+      <c r="G152" t="s">
+        <v>293</v>
+      </c>
+      <c r="H152">
+        <v>1000</v>
+      </c>
+      <c r="K152">
+        <v>2300000000</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="S152">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V152">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y152">
+        <v>1</v>
+      </c>
+      <c r="AA152">
+        <v>232</v>
+      </c>
+      <c r="AB152">
+        <v>250</v>
+      </c>
+      <c r="AC152" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF152">
+        <v>0.84</v>
+      </c>
+      <c r="AG152">
+        <v>0</v>
+      </c>
+      <c r="AH152">
+        <v>0</v>
+      </c>
+      <c r="AJ152">
+        <v>0</v>
+      </c>
+      <c r="AL152">
+        <v>1</v>
+      </c>
+      <c r="AO152">
+        <v>0</v>
+      </c>
+      <c r="AR152">
+        <v>0</v>
+      </c>
+      <c r="AT152">
+        <v>0</v>
+      </c>
+      <c r="AU152">
+        <v>0</v>
+      </c>
+      <c r="AW152">
+        <v>0</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>0</v>
+      </c>
+      <c r="BB152">
+        <v>0</v>
+      </c>
+      <c r="BC152">
+        <v>0</v>
+      </c>
+      <c r="BI152">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="153" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>328</v>
+      </c>
+      <c r="E153" t="s">
+        <v>293</v>
+      </c>
+      <c r="F153" t="s">
+        <v>383</v>
+      </c>
+      <c r="G153" t="s">
+        <v>293</v>
+      </c>
+      <c r="H153">
+        <v>1100</v>
+      </c>
+      <c r="K153">
+        <v>2400000000</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="S153">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="V153">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="Y153">
+        <v>1</v>
+      </c>
+      <c r="AA153">
+        <v>235</v>
+      </c>
+      <c r="AB153">
+        <v>250</v>
+      </c>
+      <c r="AC153" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF153">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="AG153">
+        <v>0</v>
+      </c>
+      <c r="AH153">
+        <v>0</v>
+      </c>
+      <c r="AJ153">
+        <v>0</v>
+      </c>
+      <c r="AL153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
+        <v>0</v>
+      </c>
+      <c r="AR153">
+        <v>0</v>
+      </c>
+      <c r="AT153">
+        <v>0</v>
+      </c>
+      <c r="AU153">
+        <v>0</v>
+      </c>
+      <c r="AW153">
+        <v>0</v>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153">
+        <v>0</v>
+      </c>
+      <c r="AZ153">
+        <v>0</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>0</v>
+      </c>
+      <c r="BI153">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="154" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C154">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>329</v>
+      </c>
+      <c r="E154" t="s">
+        <v>293</v>
+      </c>
+      <c r="F154" t="s">
+        <v>384</v>
+      </c>
+      <c r="G154" t="s">
+        <v>293</v>
+      </c>
+      <c r="H154">
+        <v>1200</v>
+      </c>
+      <c r="K154">
+        <v>2800000000</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="S154">
+        <v>1.2</v>
+      </c>
+      <c r="V154">
+        <v>1.2</v>
+      </c>
+      <c r="W154">
+        <v>0</v>
+      </c>
+      <c r="Y154">
+        <v>1</v>
+      </c>
+      <c r="AA154">
+        <v>240</v>
+      </c>
+      <c r="AB154">
+        <v>270</v>
+      </c>
+      <c r="AC154" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF154">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="AG154">
+        <v>0</v>
+      </c>
+      <c r="AH154">
+        <v>0</v>
+      </c>
+      <c r="AJ154">
+        <v>0</v>
+      </c>
+      <c r="AL154">
+        <v>1</v>
+      </c>
+      <c r="AO154">
+        <v>0</v>
+      </c>
+      <c r="AW154">
+        <v>0</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>0</v>
+      </c>
+      <c r="AZ154">
+        <v>0</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
+        <v>0</v>
+      </c>
+      <c r="BI154">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="155" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>330</v>
+      </c>
+      <c r="E155" t="s">
+        <v>293</v>
+      </c>
+      <c r="F155" t="s">
+        <v>385</v>
+      </c>
+      <c r="G155" t="s">
+        <v>293</v>
+      </c>
+      <c r="H155">
+        <v>1400</v>
+      </c>
+      <c r="K155">
+        <v>3300000000</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="S155">
+        <v>1.4</v>
+      </c>
+      <c r="V155">
+        <v>1.4</v>
+      </c>
+      <c r="W155">
+        <v>0</v>
+      </c>
+      <c r="Y155">
+        <v>1</v>
+      </c>
+      <c r="AA155">
+        <v>253</v>
+      </c>
+      <c r="AB155">
+        <v>270</v>
+      </c>
+      <c r="AC155" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF155">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="AG155">
+        <v>0</v>
+      </c>
+      <c r="AH155">
+        <v>0</v>
+      </c>
+      <c r="AJ155">
+        <v>0</v>
+      </c>
+      <c r="AL155">
+        <v>1</v>
+      </c>
+      <c r="AO155">
+        <v>0</v>
+      </c>
+      <c r="AR155">
+        <v>0</v>
+      </c>
+      <c r="AT155">
+        <v>0</v>
+      </c>
+      <c r="AU155">
+        <v>0</v>
+      </c>
+      <c r="AW155">
+        <v>0</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="AZ155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BI155">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>331</v>
+      </c>
+      <c r="E156" t="s">
+        <v>293</v>
+      </c>
+      <c r="F156" t="s">
+        <v>386</v>
+      </c>
+      <c r="G156" t="s">
+        <v>293</v>
+      </c>
+      <c r="H156">
+        <v>1500</v>
+      </c>
+      <c r="K156">
+        <v>3500000000</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>1.43</v>
+      </c>
+      <c r="V156">
+        <v>1.43</v>
+      </c>
+      <c r="W156">
+        <v>0</v>
+      </c>
+      <c r="Y156">
+        <v>1</v>
+      </c>
+      <c r="AA156">
+        <v>260</v>
+      </c>
+      <c r="AB156">
+        <v>270</v>
+      </c>
+      <c r="AC156" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF156">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="AG156">
+        <v>0</v>
+      </c>
+      <c r="AH156">
+        <v>0</v>
+      </c>
+      <c r="AJ156">
+        <v>0</v>
+      </c>
+      <c r="AL156">
+        <v>1</v>
+      </c>
+      <c r="AO156">
+        <v>0</v>
+      </c>
+      <c r="AR156">
+        <v>0</v>
+      </c>
+      <c r="AT156">
+        <v>0</v>
+      </c>
+      <c r="AU156">
+        <v>0</v>
+      </c>
+      <c r="AW156">
+        <v>0</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>0</v>
+      </c>
+      <c r="BI156">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>332</v>
+      </c>
+      <c r="E157" t="s">
+        <v>293</v>
+      </c>
+      <c r="F157" t="s">
+        <v>388</v>
+      </c>
+      <c r="G157" t="s">
+        <v>293</v>
+      </c>
+      <c r="H157">
+        <v>1600</v>
+      </c>
+      <c r="K157">
+        <v>3700000000</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="S157">
+        <v>1.47</v>
+      </c>
+      <c r="V157">
+        <v>1.47</v>
+      </c>
+      <c r="W157">
+        <v>0</v>
+      </c>
+      <c r="Y157">
+        <v>1</v>
+      </c>
+      <c r="AA157">
+        <v>265</v>
+      </c>
+      <c r="AB157">
+        <v>280</v>
+      </c>
+      <c r="AC157" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF157">
+        <v>0.98</v>
+      </c>
+      <c r="AG157">
+        <v>0</v>
+      </c>
+      <c r="AH157">
+        <v>0</v>
+      </c>
+      <c r="AJ157">
+        <v>0</v>
+      </c>
+      <c r="AL157">
+        <v>1</v>
+      </c>
+      <c r="AO157">
+        <v>0</v>
+      </c>
+      <c r="AR157">
+        <v>0</v>
+      </c>
+      <c r="AT157">
+        <v>0</v>
+      </c>
+      <c r="AU157">
+        <v>0</v>
+      </c>
+      <c r="AW157">
+        <v>0</v>
+      </c>
+      <c r="AX157">
+        <v>0</v>
+      </c>
+      <c r="AY157">
+        <v>0</v>
+      </c>
+      <c r="AZ157">
+        <v>0</v>
+      </c>
+      <c r="BA157">
+        <v>0</v>
+      </c>
+      <c r="BB157">
+        <v>0</v>
+      </c>
+      <c r="BC157">
+        <v>0</v>
+      </c>
+      <c r="BI157">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>333</v>
+      </c>
+      <c r="E158" t="s">
+        <v>293</v>
+      </c>
+      <c r="F158" t="s">
+        <v>387</v>
+      </c>
+      <c r="G158" t="s">
+        <v>293</v>
+      </c>
+      <c r="H158">
+        <v>1700</v>
+      </c>
+      <c r="K158">
+        <v>4200000000</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="S158">
+        <v>1.5</v>
+      </c>
+      <c r="V158">
+        <v>1.5</v>
+      </c>
+      <c r="W158">
+        <v>0</v>
+      </c>
+      <c r="Y158">
+        <v>1</v>
+      </c>
+      <c r="AA158">
+        <v>270</v>
+      </c>
+      <c r="AB158">
+        <v>290</v>
+      </c>
+      <c r="AC158" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF158">
+        <v>1.008</v>
+      </c>
+      <c r="AG158">
+        <v>0</v>
+      </c>
+      <c r="AH158">
+        <v>0</v>
+      </c>
+      <c r="AJ158">
+        <v>0</v>
+      </c>
+      <c r="AL158">
+        <v>1</v>
+      </c>
+      <c r="AO158">
+        <v>0</v>
+      </c>
+      <c r="AR158">
+        <v>0</v>
+      </c>
+      <c r="AT158">
+        <v>0</v>
+      </c>
+      <c r="AU158">
+        <v>0</v>
+      </c>
+      <c r="AW158">
+        <v>0</v>
+      </c>
+      <c r="AX158">
+        <v>0</v>
+      </c>
+      <c r="AY158">
+        <v>0</v>
+      </c>
+      <c r="AZ158">
+        <v>0</v>
+      </c>
+      <c r="BA158">
+        <v>0</v>
+      </c>
+      <c r="BB158">
+        <v>0</v>
+      </c>
+      <c r="BC158">
+        <v>0</v>
+      </c>
+      <c r="BI158">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>334</v>
+      </c>
+      <c r="E159" t="s">
+        <v>293</v>
+      </c>
+      <c r="F159" t="s">
+        <v>389</v>
+      </c>
+      <c r="G159" t="s">
+        <v>293</v>
+      </c>
+      <c r="H159">
+        <v>1800</v>
+      </c>
+      <c r="K159">
+        <v>4400000000</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="S159">
+        <v>1.55</v>
+      </c>
+      <c r="V159">
+        <v>1.55</v>
+      </c>
+      <c r="W159">
+        <v>0</v>
+      </c>
+      <c r="Y159">
+        <v>1</v>
+      </c>
+      <c r="AA159">
+        <v>275</v>
+      </c>
+      <c r="AB159">
+        <v>300</v>
+      </c>
+      <c r="AC159" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF159">
+        <v>1.036</v>
+      </c>
+      <c r="AG159">
+        <v>0</v>
+      </c>
+      <c r="AH159">
+        <v>0</v>
+      </c>
+      <c r="AJ159">
+        <v>0</v>
+      </c>
+      <c r="AL159">
+        <v>1</v>
+      </c>
+      <c r="AO159">
+        <v>0</v>
+      </c>
+      <c r="AR159">
+        <v>0</v>
+      </c>
+      <c r="AT159">
+        <v>0</v>
+      </c>
+      <c r="AU159">
+        <v>0</v>
+      </c>
+      <c r="AW159">
+        <v>0</v>
+      </c>
+      <c r="AX159">
+        <v>0</v>
+      </c>
+      <c r="AY159">
+        <v>0</v>
+      </c>
+      <c r="AZ159">
+        <v>0</v>
+      </c>
+      <c r="BA159">
+        <v>0</v>
+      </c>
+      <c r="BB159">
+        <v>0</v>
+      </c>
+      <c r="BC159">
+        <v>0</v>
+      </c>
+      <c r="BI159">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>335</v>
+      </c>
+      <c r="E160" t="s">
+        <v>293</v>
+      </c>
+      <c r="F160" t="s">
+        <v>390</v>
+      </c>
+      <c r="G160" t="s">
+        <v>293</v>
+      </c>
+      <c r="H160">
+        <v>1900</v>
+      </c>
+      <c r="K160">
+        <v>4600000000</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="S160">
+        <v>1.63</v>
+      </c>
+      <c r="V160">
+        <v>1.63</v>
+      </c>
+      <c r="W160">
+        <v>0</v>
+      </c>
+      <c r="Y160">
+        <v>1</v>
+      </c>
+      <c r="AA160">
+        <v>280</v>
+      </c>
+      <c r="AB160">
+        <v>310</v>
+      </c>
+      <c r="AC160" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF160">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="AG160">
+        <v>0</v>
+      </c>
+      <c r="AH160">
+        <v>0</v>
+      </c>
+      <c r="AJ160">
+        <v>0</v>
+      </c>
+      <c r="AL160">
+        <v>1</v>
+      </c>
+      <c r="AO160">
+        <v>0</v>
+      </c>
+      <c r="AW160">
+        <v>0</v>
+      </c>
+      <c r="AX160">
+        <v>0</v>
+      </c>
+      <c r="AY160">
+        <v>0</v>
+      </c>
+      <c r="AZ160">
+        <v>0</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>0</v>
+      </c>
+      <c r="BC160">
+        <v>0</v>
+      </c>
+      <c r="BI160">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>336</v>
+      </c>
+      <c r="E161" t="s">
+        <v>293</v>
+      </c>
+      <c r="F161" t="s">
+        <v>391</v>
+      </c>
+      <c r="G161" t="s">
+        <v>293</v>
+      </c>
+      <c r="H161">
+        <v>2000</v>
+      </c>
+      <c r="K161">
+        <v>5000000000</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="S161">
+        <v>1.68</v>
+      </c>
+      <c r="V161">
+        <v>1.68</v>
+      </c>
+      <c r="W161">
+        <v>0</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
+        <v>290</v>
+      </c>
+      <c r="AB161">
+        <v>320</v>
+      </c>
+      <c r="AC161" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF161">
+        <v>1.0920000000000001</v>
+      </c>
+      <c r="AG161">
+        <v>0</v>
+      </c>
+      <c r="AH161">
+        <v>0</v>
+      </c>
+      <c r="AJ161">
+        <v>0</v>
+      </c>
+      <c r="AL161">
+        <v>1</v>
+      </c>
+      <c r="AO161">
+        <v>0</v>
+      </c>
+      <c r="AR161">
+        <v>0</v>
+      </c>
+      <c r="AT161">
+        <v>0</v>
+      </c>
+      <c r="AU161">
+        <v>0</v>
+      </c>
+      <c r="AW161">
+        <v>0</v>
+      </c>
+      <c r="AX161">
+        <v>0</v>
+      </c>
+      <c r="AY161">
+        <v>0</v>
+      </c>
+      <c r="AZ161">
+        <v>0</v>
+      </c>
+      <c r="BA161">
+        <v>0</v>
+      </c>
+      <c r="BB161">
+        <v>0</v>
+      </c>
+      <c r="BC161">
+        <v>0</v>
+      </c>
+      <c r="BI161">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>337</v>
+      </c>
+      <c r="E162" t="s">
+        <v>293</v>
+      </c>
+      <c r="F162" t="s">
+        <v>392</v>
+      </c>
+      <c r="G162" t="s">
+        <v>293</v>
+      </c>
+      <c r="H162">
+        <v>2100</v>
+      </c>
+      <c r="K162">
+        <v>5300000000</v>
+      </c>
+      <c r="L162">
+        <v>0</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="S162">
+        <v>1.73</v>
+      </c>
+      <c r="V162">
+        <v>1.73</v>
+      </c>
+      <c r="W162">
+        <v>0</v>
+      </c>
+      <c r="Y162">
+        <v>1</v>
+      </c>
+      <c r="AA162">
+        <v>300</v>
+      </c>
+      <c r="AB162">
+        <v>320</v>
+      </c>
+      <c r="AC162" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF162">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="AG162">
+        <v>0</v>
+      </c>
+      <c r="AH162">
+        <v>0</v>
+      </c>
+      <c r="AJ162">
+        <v>0</v>
+      </c>
+      <c r="AL162">
+        <v>1</v>
+      </c>
+      <c r="AO162">
+        <v>0</v>
+      </c>
+      <c r="AR162">
+        <v>0</v>
+      </c>
+      <c r="AT162">
+        <v>0</v>
+      </c>
+      <c r="AU162">
+        <v>0</v>
+      </c>
+      <c r="AW162">
+        <v>0</v>
+      </c>
+      <c r="AX162">
+        <v>0</v>
+      </c>
+      <c r="AY162">
+        <v>0</v>
+      </c>
+      <c r="AZ162">
+        <v>0</v>
+      </c>
+      <c r="BA162">
+        <v>0</v>
+      </c>
+      <c r="BB162">
+        <v>0</v>
+      </c>
+      <c r="BC162">
+        <v>0</v>
+      </c>
+      <c r="BI162">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>393</v>
+      </c>
+      <c r="E163" t="s">
+        <v>293</v>
+      </c>
+      <c r="F163" t="s">
+        <v>394</v>
+      </c>
+      <c r="G163" t="s">
+        <v>293</v>
+      </c>
+      <c r="H163">
+        <v>2200</v>
+      </c>
+      <c r="K163">
+        <v>5600000000</v>
+      </c>
+      <c r="L163">
+        <v>0</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="S163">
+        <v>1.76</v>
+      </c>
+      <c r="V163">
+        <v>1.76</v>
+      </c>
+      <c r="W163">
+        <v>0</v>
+      </c>
+      <c r="Y163">
+        <v>1</v>
+      </c>
+      <c r="AA163">
+        <v>310</v>
+      </c>
+      <c r="AB163">
+        <v>330</v>
+      </c>
+      <c r="AC163" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF163">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="AG163">
+        <v>0</v>
+      </c>
+      <c r="AH163">
+        <v>0</v>
+      </c>
+      <c r="AJ163">
+        <v>0</v>
+      </c>
+      <c r="AL163">
+        <v>1</v>
+      </c>
+      <c r="AO163">
+        <v>0</v>
+      </c>
+      <c r="AR163">
+        <v>0</v>
+      </c>
+      <c r="AT163">
+        <v>0</v>
+      </c>
+      <c r="AU163">
+        <v>0</v>
+      </c>
+      <c r="AW163">
+        <v>0</v>
+      </c>
+      <c r="AX163">
+        <v>0</v>
+      </c>
+      <c r="AY163">
+        <v>0</v>
+      </c>
+      <c r="AZ163">
+        <v>0</v>
+      </c>
+      <c r="BA163">
+        <v>0</v>
+      </c>
+      <c r="BB163">
+        <v>0</v>
+      </c>
+      <c r="BC163">
+        <v>0</v>
+      </c>
+      <c r="BI163">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>338</v>
+      </c>
+      <c r="E164" t="s">
+        <v>293</v>
+      </c>
+      <c r="F164" t="s">
+        <v>395</v>
+      </c>
+      <c r="G164" t="s">
+        <v>293</v>
+      </c>
+      <c r="H164">
+        <v>2300</v>
+      </c>
+      <c r="K164">
+        <v>5800000000</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="S164">
+        <v>1.8</v>
+      </c>
+      <c r="V164">
+        <v>1.8</v>
+      </c>
+      <c r="W164">
+        <v>0</v>
+      </c>
+      <c r="Y164">
+        <v>1</v>
+      </c>
+      <c r="AA164">
+        <v>318</v>
+      </c>
+      <c r="AB164">
+        <v>340</v>
+      </c>
+      <c r="AC164" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF164">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="AG164">
+        <v>0</v>
+      </c>
+      <c r="AH164">
+        <v>0</v>
+      </c>
+      <c r="AJ164">
+        <v>0</v>
+      </c>
+      <c r="AL164">
+        <v>1</v>
+      </c>
+      <c r="AO164">
+        <v>0</v>
+      </c>
+      <c r="AW164">
+        <v>0</v>
+      </c>
+      <c r="AX164">
+        <v>0</v>
+      </c>
+      <c r="AY164">
+        <v>0</v>
+      </c>
+      <c r="AZ164">
+        <v>0</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>0</v>
+      </c>
+      <c r="BI164">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C165">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>339</v>
+      </c>
+      <c r="E165" t="s">
+        <v>293</v>
+      </c>
+      <c r="F165" t="s">
+        <v>396</v>
+      </c>
+      <c r="G165" t="s">
+        <v>293</v>
+      </c>
+      <c r="H165">
+        <v>2400</v>
+      </c>
+      <c r="K165">
+        <v>6000000000</v>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>1.87</v>
+      </c>
+      <c r="V165">
+        <v>1.87</v>
+      </c>
+      <c r="W165">
+        <v>0</v>
+      </c>
+      <c r="Y165">
+        <v>1</v>
+      </c>
+      <c r="AA165">
+        <v>324</v>
+      </c>
+      <c r="AB165">
+        <v>350</v>
+      </c>
+      <c r="AC165" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF165">
+        <v>1.204</v>
+      </c>
+      <c r="AG165">
+        <v>0</v>
+      </c>
+      <c r="AH165">
+        <v>0</v>
+      </c>
+      <c r="AJ165">
+        <v>0</v>
+      </c>
+      <c r="AL165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
+        <v>0</v>
+      </c>
+      <c r="AR165">
+        <v>0</v>
+      </c>
+      <c r="AT165">
+        <v>0</v>
+      </c>
+      <c r="AU165">
+        <v>0</v>
+      </c>
+      <c r="AW165">
+        <v>0</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="AZ165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BI165">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="166" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>340</v>
+      </c>
+      <c r="E166" t="s">
+        <v>293</v>
+      </c>
+      <c r="F166" t="s">
+        <v>397</v>
+      </c>
+      <c r="G166" t="s">
+        <v>293</v>
+      </c>
+      <c r="H166">
+        <v>2500</v>
+      </c>
+      <c r="K166">
+        <v>6300000000</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="Q166">
+        <v>1.9</v>
+      </c>
+      <c r="R166">
+        <v>0</v>
+      </c>
+      <c r="S166">
+        <v>1.9</v>
+      </c>
+      <c r="T166">
+        <v>0</v>
+      </c>
+      <c r="U166">
+        <v>0</v>
+      </c>
+      <c r="V166">
+        <v>1.9</v>
+      </c>
+      <c r="W166">
+        <v>0</v>
+      </c>
+      <c r="Y166">
+        <v>1</v>
+      </c>
+      <c r="AA166">
+        <v>330</v>
+      </c>
+      <c r="AB166">
+        <v>360</v>
+      </c>
+      <c r="AC166" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF166">
+        <v>1.232</v>
+      </c>
+      <c r="AG166">
+        <v>0</v>
+      </c>
+      <c r="AH166">
+        <v>0</v>
+      </c>
+      <c r="AJ166">
+        <v>0</v>
+      </c>
+      <c r="AL166">
+        <v>1</v>
+      </c>
+      <c r="AO166">
+        <v>0</v>
+      </c>
+      <c r="AR166">
+        <v>0</v>
+      </c>
+      <c r="AT166">
+        <v>0</v>
+      </c>
+      <c r="AU166">
+        <v>0</v>
+      </c>
+      <c r="AW166">
+        <v>0</v>
+      </c>
+      <c r="AX166">
+        <v>0</v>
+      </c>
+      <c r="AY166">
+        <v>0</v>
+      </c>
+      <c r="AZ166">
+        <v>0</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>0</v>
+      </c>
+      <c r="BC166">
+        <v>0</v>
+      </c>
+      <c r="BI166">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="167" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C167">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>341</v>
+      </c>
+      <c r="E167" t="s">
+        <v>293</v>
+      </c>
+      <c r="F167" t="s">
+        <v>398</v>
+      </c>
+      <c r="G167" t="s">
+        <v>293</v>
+      </c>
+      <c r="H167">
+        <v>2600</v>
+      </c>
+      <c r="K167">
+        <v>10000000000</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="S167">
+        <v>2.08</v>
+      </c>
+      <c r="V167">
+        <v>2.08</v>
+      </c>
+      <c r="W167">
+        <v>0</v>
+      </c>
+      <c r="Y167">
+        <v>1</v>
+      </c>
+      <c r="AA167">
+        <v>340</v>
+      </c>
+      <c r="AB167">
+        <v>370</v>
+      </c>
+      <c r="AC167" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF167">
+        <v>1.26</v>
+      </c>
+      <c r="AG167">
+        <v>0</v>
+      </c>
+      <c r="AH167">
+        <v>0</v>
+      </c>
+      <c r="AJ167">
+        <v>0</v>
+      </c>
+      <c r="AL167">
+        <v>1</v>
+      </c>
+      <c r="AO167">
+        <v>0</v>
+      </c>
+      <c r="AR167">
+        <v>0</v>
+      </c>
+      <c r="AT167">
+        <v>0</v>
+      </c>
+      <c r="AU167">
+        <v>0</v>
+      </c>
+      <c r="AW167">
+        <v>0</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>0</v>
+      </c>
+      <c r="AZ167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="168" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>342</v>
+      </c>
+      <c r="E168" t="s">
+        <v>293</v>
+      </c>
+      <c r="F168" t="s">
+        <v>399</v>
+      </c>
+      <c r="G168" t="s">
+        <v>293</v>
+      </c>
+      <c r="H168">
+        <v>2700</v>
+      </c>
+      <c r="K168">
+        <v>12000000000</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="S168">
+        <v>2.12</v>
+      </c>
+      <c r="V168">
+        <v>2.12</v>
+      </c>
+      <c r="W168">
+        <v>0</v>
+      </c>
+      <c r="Y168">
+        <v>1</v>
+      </c>
+      <c r="AA168">
+        <v>350</v>
+      </c>
+      <c r="AB168">
+        <v>380</v>
+      </c>
+      <c r="AC168" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF168">
+        <v>1.288</v>
+      </c>
+      <c r="AG168">
+        <v>0</v>
+      </c>
+      <c r="AH168">
+        <v>0</v>
+      </c>
+      <c r="AJ168">
+        <v>0</v>
+      </c>
+      <c r="AL168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
+        <v>0</v>
+      </c>
+      <c r="AR168">
+        <v>0</v>
+      </c>
+      <c r="AT168">
+        <v>0</v>
+      </c>
+      <c r="AU168">
+        <v>0</v>
+      </c>
+      <c r="AW168">
+        <v>0</v>
+      </c>
+      <c r="AX168">
+        <v>0</v>
+      </c>
+      <c r="AY168">
+        <v>0</v>
+      </c>
+      <c r="AZ168">
+        <v>0</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>0</v>
+      </c>
+      <c r="BC168">
+        <v>0</v>
+      </c>
+      <c r="BI168">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="169" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C169">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>343</v>
+      </c>
+      <c r="E169" t="s">
+        <v>293</v>
+      </c>
+      <c r="F169" t="s">
+        <v>400</v>
+      </c>
+      <c r="G169" t="s">
+        <v>293</v>
+      </c>
+      <c r="H169">
+        <v>2800</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>16000000000</v>
+      </c>
+      <c r="S169">
+        <v>2.16</v>
+      </c>
+      <c r="V169">
+        <v>2.16</v>
+      </c>
+      <c r="W169">
+        <v>0</v>
+      </c>
+      <c r="Y169">
+        <v>1</v>
+      </c>
+      <c r="AA169">
+        <v>360</v>
+      </c>
+      <c r="AB169">
+        <v>380</v>
+      </c>
+      <c r="AC169" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF169">
+        <v>1.3160000000000001</v>
+      </c>
+      <c r="AG169">
+        <v>0</v>
+      </c>
+      <c r="AH169">
+        <v>0</v>
+      </c>
+      <c r="AJ169">
+        <v>0</v>
+      </c>
+      <c r="AL169">
+        <v>1</v>
+      </c>
+      <c r="AO169">
+        <v>0</v>
+      </c>
+      <c r="AR169">
+        <v>0</v>
+      </c>
+      <c r="AT169">
+        <v>0</v>
+      </c>
+      <c r="AU169">
+        <v>0</v>
+      </c>
+      <c r="AW169">
+        <v>0</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BI169">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>401</v>
+      </c>
+      <c r="E170" t="s">
+        <v>293</v>
+      </c>
+      <c r="F170" t="s">
+        <v>402</v>
+      </c>
+      <c r="G170" t="s">
+        <v>293</v>
+      </c>
+      <c r="H170">
+        <v>2900</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+      <c r="K170">
+        <v>18000000000</v>
+      </c>
+      <c r="S170">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="V170">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="W170">
+        <v>0</v>
+      </c>
+      <c r="Y170">
+        <v>1</v>
+      </c>
+      <c r="AA170">
+        <v>370</v>
+      </c>
+      <c r="AB170">
+        <v>380</v>
+      </c>
+      <c r="AC170" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF170">
+        <v>1.3440000000000001</v>
+      </c>
+      <c r="AG170">
+        <v>0</v>
+      </c>
+      <c r="AH170">
+        <v>0</v>
+      </c>
+      <c r="AJ170">
+        <v>0</v>
+      </c>
+      <c r="AL170">
+        <v>1</v>
+      </c>
+      <c r="AO170">
+        <v>0</v>
+      </c>
+      <c r="AR170">
+        <v>0</v>
+      </c>
+      <c r="AT170">
+        <v>0</v>
+      </c>
+      <c r="AU170">
+        <v>0</v>
+      </c>
+      <c r="AW170">
+        <v>0</v>
+      </c>
+      <c r="AX170">
+        <v>0</v>
+      </c>
+      <c r="AY170">
+        <v>0</v>
+      </c>
+      <c r="AZ170">
+        <v>0</v>
+      </c>
+      <c r="BA170">
+        <v>0</v>
+      </c>
+      <c r="BB170">
+        <v>0</v>
+      </c>
+      <c r="BC170">
+        <v>0</v>
+      </c>
+      <c r="BI170">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="171" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>344</v>
+      </c>
+      <c r="E171" t="s">
+        <v>293</v>
+      </c>
+      <c r="F171" t="s">
+        <v>403</v>
+      </c>
+      <c r="G171" t="s">
+        <v>293</v>
+      </c>
+      <c r="H171">
+        <v>3000</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+      <c r="K171">
+        <v>22000000000</v>
+      </c>
+      <c r="S171">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="V171">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="W171">
+        <v>0</v>
+      </c>
+      <c r="Y171">
+        <v>1</v>
+      </c>
+      <c r="AA171">
+        <v>380</v>
+      </c>
+      <c r="AB171">
+        <v>390</v>
+      </c>
+      <c r="AC171" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF171">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="AG171">
+        <v>0</v>
+      </c>
+      <c r="AH171">
+        <v>0</v>
+      </c>
+      <c r="AJ171">
+        <v>0</v>
+      </c>
+      <c r="AL171">
+        <v>1</v>
+      </c>
+      <c r="AO171">
+        <v>0</v>
+      </c>
+      <c r="AR171">
+        <v>0</v>
+      </c>
+      <c r="AT171">
+        <v>0</v>
+      </c>
+      <c r="AU171">
+        <v>0</v>
+      </c>
+      <c r="AW171">
+        <v>0</v>
+      </c>
+      <c r="AX171">
+        <v>0</v>
+      </c>
+      <c r="AY171">
+        <v>0</v>
+      </c>
+      <c r="AZ171">
+        <v>0</v>
+      </c>
+      <c r="BA171">
+        <v>0</v>
+      </c>
+      <c r="BB171">
+        <v>0</v>
+      </c>
+      <c r="BC171">
+        <v>0</v>
+      </c>
+      <c r="BI171">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>345</v>
+      </c>
+      <c r="E172" t="s">
+        <v>293</v>
+      </c>
+      <c r="F172" t="s">
+        <v>404</v>
+      </c>
+      <c r="G172" t="s">
+        <v>293</v>
+      </c>
+      <c r="H172">
+        <v>3100</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>24000000000</v>
+      </c>
+      <c r="S172">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="V172">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="W172">
+        <v>0</v>
+      </c>
+      <c r="Y172">
+        <v>1</v>
+      </c>
+      <c r="AA172">
+        <v>390</v>
+      </c>
+      <c r="AB172">
+        <v>400</v>
+      </c>
+      <c r="AC172" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF172">
+        <v>1.4</v>
+      </c>
+      <c r="AG172">
+        <v>0</v>
+      </c>
+      <c r="AH172">
+        <v>0</v>
+      </c>
+      <c r="AJ172">
+        <v>0</v>
+      </c>
+      <c r="AL172">
+        <v>1</v>
+      </c>
+      <c r="AO172">
+        <v>0</v>
+      </c>
+      <c r="AR172">
+        <v>0</v>
+      </c>
+      <c r="AT172">
+        <v>0</v>
+      </c>
+      <c r="AU172">
+        <v>0</v>
+      </c>
+      <c r="AW172">
+        <v>0</v>
+      </c>
+      <c r="AX172">
+        <v>0</v>
+      </c>
+      <c r="AY172">
+        <v>0</v>
+      </c>
+      <c r="AZ172">
+        <v>0</v>
+      </c>
+      <c r="BA172">
+        <v>0</v>
+      </c>
+      <c r="BB172">
+        <v>0</v>
+      </c>
+      <c r="BC172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="3:61" x14ac:dyDescent="0.2">
+      <c r="C173">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>346</v>
+      </c>
+      <c r="E173" t="s">
+        <v>293</v>
+      </c>
+      <c r="F173" t="s">
+        <v>405</v>
+      </c>
+      <c r="G173" t="s">
+        <v>293</v>
+      </c>
+      <c r="H173">
+        <v>3200</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>26000000000</v>
+      </c>
+      <c r="S173">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="V173">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="W173">
+        <v>0</v>
+      </c>
+      <c r="Y173">
+        <v>1</v>
+      </c>
+      <c r="AA173">
+        <v>400</v>
+      </c>
+      <c r="AB173">
+        <v>401</v>
+      </c>
+      <c r="AC173" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF173">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="AG173">
+        <v>0</v>
+      </c>
+      <c r="AH173">
+        <v>0</v>
+      </c>
+      <c r="AJ173">
+        <v>0</v>
+      </c>
+      <c r="AL173">
+        <v>1</v>
+      </c>
+      <c r="AO173">
+        <v>0</v>
+      </c>
+      <c r="AR173">
+        <v>0</v>
+      </c>
+      <c r="AT173">
+        <v>0</v>
+      </c>
+      <c r="AU173">
+        <v>0</v>
+      </c>
+      <c r="AW173">
+        <v>0</v>
+      </c>
+      <c r="AX173">
+        <v>0</v>
+      </c>
+      <c r="AY173">
+        <v>0</v>
+      </c>
+      <c r="AZ173">
+        <v>0</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>0</v>
+      </c>
+      <c r="BC173">
+        <v>0</v>
+      </c>
+      <c r="BI173">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/resources/data-imports/items/weapons.xlsx
+++ b/resources/data-imports/items/weapons.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/items/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5474E46-1C95-7F46-AA15-C54533EF66C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Items" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" forceFullCalc="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
   <si>
     <t>item_suffix_id</t>
   </si>
@@ -911,353 +894,19 @@
   </si>
   <si>
     <t>The string of this bown is made of steel, it should last for almost, ever.</t>
-  </si>
-  <si>
-    <t>hammer</t>
-  </si>
-  <si>
-    <t>Broken Hammer</t>
-  </si>
-  <si>
-    <t>Copper Hammer</t>
-  </si>
-  <si>
-    <t>Iron Hammer</t>
-  </si>
-  <si>
-    <t>Oak Hammer of Faith</t>
-  </si>
-  <si>
-    <t>Fated Hammer of the Stars</t>
-  </si>
-  <si>
-    <t>Clerics War Hammer of Devotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blacksmiths Apprentice Silver Hammer </t>
-  </si>
-  <si>
-    <t>Shadow War Hammer</t>
-  </si>
-  <si>
-    <t>Spiked Hammer of Blood</t>
-  </si>
-  <si>
-    <t>Chipped Diamond Hammer</t>
-  </si>
-  <si>
-    <t>Stone Cold Ice War Hammer</t>
-  </si>
-  <si>
-    <t>Natures Twined Hammer</t>
-  </si>
-  <si>
-    <t>Goblin Smiths Hammer</t>
-  </si>
-  <si>
-    <t>Hells Faceless Hammer</t>
-  </si>
-  <si>
-    <t>Clock work Hammer of Machinery</t>
-  </si>
-  <si>
-    <t>Deaths Shadow Iron Hammer</t>
-  </si>
-  <si>
-    <t>Faceless Emotional Childs Hammer</t>
-  </si>
-  <si>
-    <t>Dragon Mithril Hammer</t>
-  </si>
-  <si>
-    <t>Enchanted Rune War Hammer</t>
-  </si>
-  <si>
-    <t>Prophets Hammer of Faith</t>
-  </si>
-  <si>
-    <t>Magically Enchanted Goblin Smasher</t>
-  </si>
-  <si>
-    <t>Dragon Bone Crusher</t>
-  </si>
-  <si>
-    <t>Magma War Hammer</t>
-  </si>
-  <si>
-    <t>Hated Demonic War Hammer</t>
-  </si>
-  <si>
-    <t>Bone Crusher of Man</t>
-  </si>
-  <si>
-    <t>Vampric Hammer of Purgatory</t>
-  </si>
-  <si>
-    <t>Time Mages Hammer of the past</t>
-  </si>
-  <si>
-    <t>Shadow Ice Hammer</t>
-  </si>
-  <si>
-    <t>Earths Stone War Hammer</t>
-  </si>
-  <si>
-    <t>Devils Double Edged Hammer of Satan</t>
-  </si>
-  <si>
-    <t>Angelic Feather Hammer</t>
-  </si>
-  <si>
-    <t>Tarrasque Tooth hammer</t>
-  </si>
-  <si>
-    <t>Necromancers Faith Smasher</t>
-  </si>
-  <si>
-    <t>Life Stealer Hammer</t>
-  </si>
-  <si>
-    <t>The White Witches Dragon Hammer</t>
-  </si>
-  <si>
-    <t>Corrupted Hammer of The Creator</t>
-  </si>
-  <si>
-    <t>Galixious Hammer of the Stars</t>
-  </si>
-  <si>
-    <t>Celestial Blood Hammer</t>
-  </si>
-  <si>
-    <t>Double Faces War Hammer</t>
-  </si>
-  <si>
-    <t>Heretical Stone Hammer</t>
-  </si>
-  <si>
-    <t>Thieves Feast Hammer</t>
-  </si>
-  <si>
-    <t>Hammer of Shattered Bones</t>
-  </si>
-  <si>
-    <t>War Hammer of Fratured Reality</t>
-  </si>
-  <si>
-    <t>Darkin Hammer of Justice</t>
-  </si>
-  <si>
-    <t>Purgatory Copper Laced Silver Chain Hammer</t>
-  </si>
-  <si>
-    <t>Ogres Diamond King War Lords Hammer</t>
-  </si>
-  <si>
-    <t>Sould Crusher of Fear</t>
-  </si>
-  <si>
-    <t>Fated Aspiration of  the Death Smasher</t>
-  </si>
-  <si>
-    <t>Reality War Breaker</t>
-  </si>
-  <si>
-    <t>Cosmic Hammer of Choice</t>
-  </si>
-  <si>
-    <t>Cursed Hell Shard Hammer</t>
-  </si>
-  <si>
-    <t>Queen of Hearts Lost Hammer of Love</t>
-  </si>
-  <si>
-    <t>Soldiers War Hammer of the Quest</t>
-  </si>
-  <si>
-    <t>A very broken, but still usable as a blunt weapon hammer.</t>
-  </si>
-  <si>
-    <t>Made from copper this hamer is a bit better quality.</t>
-  </si>
-  <si>
-    <t>Here we go child! A much better hammer then what we had before no? Copper is so yesterday!</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> A hammer with an oak shaft that’s been blessed by The Church</t>
-  </si>
-  <si>
-    <t>It is said this hammer was made from an astroid that landed some where on Surface decades ago</t>
-  </si>
-  <si>
-    <t>A devoted cleric created and blessed this war hammer.</t>
-  </si>
-  <si>
-    <t>An apprentice hammer that was laced with and decoared with silver. Not much use, but you never know.</t>
-  </si>
-  <si>
-    <t>Made from the fabled shadow stone of the Shadow Planes, this hammer is fading in an our of reality.</t>
-  </si>
-  <si>
-    <t>Someone put spikes on this hammer and covered it in the blood of their enemies.</t>
-  </si>
-  <si>
-    <t>It is a glorious, albiet chipper hammer.</t>
-  </si>
-  <si>
-    <t>This is made with a form of alchemical ice that is that shaped through magics unknown into a stone that can be crafted into a head of hammer.</t>
-  </si>
-  <si>
-    <t>The vines, trees and branches of earth comes together to create a weapon only nature could have forged.</t>
-  </si>
-  <si>
-    <t>Goblins have smiths too. We just stole their hammer.</t>
-  </si>
-  <si>
-    <t>Creaafted in Hell by the mysterious Faceless Man.</t>
-  </si>
-  <si>
-    <t>There are moving paerts to this giant hammer. It was created by the Clockwork mages of Kalintar</t>
-  </si>
-  <si>
-    <t>Death seems to have many weapons and items, made fom shadow iron which is found only on the Shadow Plane, this hammer glows wth the radience of death.</t>
-  </si>
-  <si>
-    <t>An emeotional and faithlesss child created this. I have no idea if it's any good, but they poured them selves into it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dragons once had Mythril scales, these are cosmic and celestial dragons of hope. But alas they are all dead and this is one of the last </t>
-  </si>
-  <si>
-    <t>An enchanted rune  has been turned into a Giant War Hammer</t>
-  </si>
-  <si>
-    <t>A prophet, much like clerics, decided to create a hammer they could use in battle, alas they are better with weapons.</t>
-  </si>
-  <si>
-    <t>An old hammer that was enchanted to have the unique name of Goblin Smasher.</t>
-  </si>
-  <si>
-    <t>Named after the knight who used this hammer to smash the bones of already dead and forgotten dragons.</t>
-  </si>
-  <si>
-    <t>Made from the magma of Hell</t>
-  </si>
-  <si>
-    <t>Demons of war would march against the Angelic hordes of Heaven.</t>
-  </si>
-  <si>
-    <t>Crush the bones of your fellow man!</t>
-  </si>
-  <si>
-    <t>Vampires have tried to weild hammers as their core weapons, but they gave it up for the mobility of their movement.</t>
-  </si>
-  <si>
-    <t>A hammer from the past created by the Time Mages of Tralixious</t>
-  </si>
-  <si>
-    <t>The ice of the Shadow Plane Oceans was used to create this hammer. The oceans are frozen to a depth unknowable by man.</t>
-  </si>
-  <si>
-    <t>Made from the stone of the Earth who has blessed the hammer.</t>
-  </si>
-  <si>
-    <t>Flame War Hammer</t>
-  </si>
-  <si>
-    <t>How are you even holding this item? It's made out of complete fire that has been magically shapped to a hammer.</t>
-  </si>
-  <si>
-    <t>Satan him self created this hammer of the double edge, which is like double sided war axe. Smash one way, smash another. Smash everything.</t>
-  </si>
-  <si>
-    <t>Made of Angelic Feathers. This hammer is feather light to pick up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A hammer made from a Tarrasque Tooth </t>
-  </si>
-  <si>
-    <t>Created to smash the faith of those who value life.</t>
-  </si>
-  <si>
-    <t>A hammer of life stealing, but the magics to steal the life is missing from this.</t>
-  </si>
-  <si>
-    <t>The White Which of the Dragon Kind created a hammer to banish those who would defial the dragons so she dearly loved.</t>
-  </si>
-  <si>
-    <t>This hammer has been corrupted by The Creator</t>
-  </si>
-  <si>
-    <t>A hammer of the Stars, created on a another plannet by a man named Galxious</t>
-  </si>
-  <si>
-    <t>A hammer infused withn Celestial Blood</t>
-  </si>
-  <si>
-    <t>Made from the stone a Heretic was killed on, this hammer is said to have magical properties, but what? I have no idea.</t>
-  </si>
-  <si>
-    <t>A hammer with two faces, one on each side, which depicts a man laughing and crying.</t>
-  </si>
-  <si>
-    <t>A Thief stole this hammer, but alas does not have the strength to use it. Maybe you do?</t>
-  </si>
-  <si>
-    <t>Made from shattered bones, this hammer holds the secrets to death and life.</t>
-  </si>
-  <si>
-    <t>Created in a dimension where the realities are colidiing and facturing this hammer is neither here nor there.</t>
-  </si>
-  <si>
-    <t>Darkin was a great Judge of the Labyrinth Courts in 1789CE, but his hammer of justice was stolen from him and he was quickly assassinated.</t>
-  </si>
-  <si>
-    <t>War Hammer of the Anvil</t>
-  </si>
-  <si>
-    <t>Made on the anvil of life, this hammer holds th keys to the worlds problems.</t>
-  </si>
-  <si>
-    <t>A copper hammer created in purgatory and laced with corrupted silver.</t>
-  </si>
-  <si>
-    <t>This is an oddly named hammer. The king whole stole it from the oger just applied his title over top part of the original title, so now its two titles coverged into one. What a mess.</t>
-  </si>
-  <si>
-    <t>Instill fear into your enemies as you crush their soul.</t>
-  </si>
-  <si>
-    <t>I do not know the history of this hammer child. I have never even seen it before.</t>
-  </si>
-  <si>
-    <t>Breaks reality and causes wars between distant realities in time and space.</t>
-  </si>
-  <si>
-    <t>This hammer was created in the Cosmic Bowl of Choice which is a Plane no living entitiy could ever reach or survive on.</t>
-  </si>
-  <si>
-    <t>Purgatories Smith Hammer of Malice</t>
-  </si>
-  <si>
-    <t>The Smith of Purgatory pured all his unjust malice into the ore that created this hammer.</t>
-  </si>
-  <si>
-    <t>Created from cursed Hell Shards.</t>
-  </si>
-  <si>
-    <t>The Queen of Hearts Lost Hammer which she imbued with her love.</t>
-  </si>
-  <si>
-    <t>The soldier has a hammer that he has replicated to sell, which hold the Q insignia to repersent quests.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1272,33 +921,21 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -1588,73 +1225,82 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:BI117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B93" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="221" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="26" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="29" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="19" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="17" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="19" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="22" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="28" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="38" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="16" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="23" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="16" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="22" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="21" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="26" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="12" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="47" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="221" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="11" max="11" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="13" max="13" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="15" max="15" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="16" max="16" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="17" max="17" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="18" max="18" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="9" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="27" max="27" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="28" max="28" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="29" max="29" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="30" max="30" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="31" max="31" width="13" bestFit="true" customWidth="true" style="0"/>
+    <col min="32" max="32" width="25" bestFit="true" customWidth="true" style="0"/>
+    <col min="33" max="33" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="34" max="34" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="35" max="35" width="29" bestFit="true" customWidth="true" style="0"/>
+    <col min="36" max="36" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="37" max="37" width="24" bestFit="true" customWidth="true" style="0"/>
+    <col min="38" max="38" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="39" max="39" width="8" bestFit="true" customWidth="true" style="0"/>
+    <col min="40" max="40" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="41" max="41" width="17" bestFit="true" customWidth="true" style="0"/>
+    <col min="42" max="42" width="11" bestFit="true" customWidth="true" style="0"/>
+    <col min="43" max="43" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="44" max="44" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="45" max="45" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="46" max="46" width="28" bestFit="true" customWidth="true" style="0"/>
+    <col min="47" max="47" width="38" bestFit="true" customWidth="true" style="0"/>
+    <col min="48" max="48" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="49" max="49" width="23" bestFit="true" customWidth="true" style="0"/>
+    <col min="50" max="50" width="16" bestFit="true" customWidth="true" style="0"/>
+    <col min="51" max="51" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="52" max="52" width="21" bestFit="true" customWidth="true" style="0"/>
+    <col min="53" max="53" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="54" max="54" width="18" bestFit="true" customWidth="true" style="0"/>
+    <col min="55" max="55" width="22" bestFit="true" customWidth="true" style="0"/>
+    <col min="56" max="56" width="19" bestFit="true" customWidth="true" style="0"/>
+    <col min="57" max="57" width="10" bestFit="true" customWidth="true" style="0"/>
+    <col min="58" max="58" width="15" bestFit="true" customWidth="true" style="0"/>
+    <col min="59" max="59" width="26" bestFit="true" customWidth="true" style="0"/>
+    <col min="60" max="60" width="12" bestFit="true" customWidth="true" style="0"/>
+    <col min="61" max="61" width="13" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:61">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1485,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:61">
       <c r="C2">
         <v>1</v>
       </c>
@@ -1925,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:61">
       <c r="C3">
         <v>1</v>
       </c>
@@ -2032,7 +1678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:61">
       <c r="C4">
         <v>1</v>
       </c>
@@ -2139,7 +1785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:61">
       <c r="C5">
         <v>1</v>
       </c>
@@ -2246,7 +1892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:61">
       <c r="C6">
         <v>1</v>
       </c>
@@ -2353,7 +1999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:61">
       <c r="C7">
         <v>1</v>
       </c>
@@ -2457,7 +2103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:61">
       <c r="C8">
         <v>1</v>
       </c>
@@ -2561,7 +2207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:61">
       <c r="C9">
         <v>1</v>
       </c>
@@ -2665,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:61">
       <c r="C10">
         <v>1</v>
       </c>
@@ -2769,7 +2415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:61">
       <c r="C11">
         <v>1</v>
       </c>
@@ -2789,13 +2435,13 @@
         <v>7000</v>
       </c>
       <c r="Q11">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="R11">
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="T11">
         <v>0</v>
@@ -2873,7 +2519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:61">
       <c r="C12">
         <v>1</v>
       </c>
@@ -2977,7 +2623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:61">
       <c r="C13">
         <v>1</v>
       </c>
@@ -3081,7 +2727,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:61">
       <c r="C14">
         <v>1</v>
       </c>
@@ -3185,7 +2831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:61">
       <c r="C15">
         <v>1</v>
       </c>
@@ -3289,7 +2935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:61">
       <c r="C16">
         <v>1</v>
       </c>
@@ -3393,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:61">
       <c r="C17">
         <v>1</v>
       </c>
@@ -3497,7 +3143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:61">
       <c r="C18">
         <v>1</v>
       </c>
@@ -3601,7 +3247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:61">
       <c r="C19">
         <v>1</v>
       </c>
@@ -3705,7 +3351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:61">
       <c r="C20">
         <v>1</v>
       </c>
@@ -3809,7 +3455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:61">
       <c r="C21">
         <v>1</v>
       </c>
@@ -3913,7 +3559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:61">
       <c r="C22">
         <v>1</v>
       </c>
@@ -3933,13 +3579,13 @@
         <v>1000000</v>
       </c>
       <c r="Q22">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R22">
         <v>0</v>
       </c>
       <c r="S22">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -4017,7 +3663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:61">
       <c r="C23">
         <v>1</v>
       </c>
@@ -4037,13 +3683,13 @@
         <v>10000000</v>
       </c>
       <c r="Q23">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="R23">
         <v>0</v>
       </c>
       <c r="S23">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="T23">
         <v>0</v>
@@ -4121,7 +3767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:61">
       <c r="C24">
         <v>1</v>
       </c>
@@ -4225,7 +3871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:61">
       <c r="C25">
         <v>1</v>
       </c>
@@ -4329,7 +3975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:61">
       <c r="C26">
         <v>1</v>
       </c>
@@ -4433,7 +4079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:61">
       <c r="C27">
         <v>1</v>
       </c>
@@ -4537,7 +4183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:61">
       <c r="C28">
         <v>1</v>
       </c>
@@ -4641,7 +4287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:61">
       <c r="C29">
         <v>1</v>
       </c>
@@ -4745,7 +4391,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:61">
       <c r="C30">
         <v>1</v>
       </c>
@@ -4849,7 +4495,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:61">
       <c r="C31">
         <v>1</v>
       </c>
@@ -4953,7 +4599,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:61">
       <c r="C32">
         <v>1</v>
       </c>
@@ -5057,7 +4703,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:61">
       <c r="C33">
         <v>1</v>
       </c>
@@ -5170,7 +4816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:61">
       <c r="C34">
         <v>1</v>
       </c>
@@ -5283,7 +4929,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:61">
       <c r="C35">
         <v>1</v>
       </c>
@@ -5309,13 +4955,13 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="R35">
         <v>0</v>
       </c>
       <c r="S35">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -5396,7 +5042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:61">
       <c r="C36">
         <v>1</v>
       </c>
@@ -5422,13 +5068,13 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="R36">
         <v>0</v>
       </c>
       <c r="S36">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="T36">
         <v>0</v>
@@ -5509,7 +5155,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:61">
       <c r="C37">
         <v>1</v>
       </c>
@@ -5622,7 +5268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:61">
       <c r="C38">
         <v>1</v>
       </c>
@@ -5735,7 +5381,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:61">
       <c r="C39">
         <v>1</v>
       </c>
@@ -5848,7 +5494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:61">
       <c r="C40">
         <v>1</v>
       </c>
@@ -5961,7 +5607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:61">
       <c r="C41">
         <v>1</v>
       </c>
@@ -6074,7 +5720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:61">
       <c r="C42">
         <v>1</v>
       </c>
@@ -6187,7 +5833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:61">
       <c r="C43">
         <v>1</v>
       </c>
@@ -6300,7 +5946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:61">
       <c r="C44">
         <v>1</v>
       </c>
@@ -6413,7 +6059,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:61">
       <c r="C45">
         <v>1</v>
       </c>
@@ -6526,7 +6172,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:61">
       <c r="C46">
         <v>1</v>
       </c>
@@ -6639,7 +6285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:61">
       <c r="C47">
         <v>1</v>
       </c>
@@ -6752,7 +6398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:61">
       <c r="C48">
         <v>1</v>
       </c>
@@ -6865,7 +6511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:61">
       <c r="C49">
         <v>1</v>
       </c>
@@ -6978,7 +6624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:61">
       <c r="C50">
         <v>1</v>
       </c>
@@ -7091,7 +6737,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="51" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:61">
       <c r="C51">
         <v>1</v>
       </c>
@@ -7204,7 +6850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:61">
       <c r="C52">
         <v>1</v>
       </c>
@@ -7308,7 +6954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:61">
       <c r="C53">
         <v>1</v>
       </c>
@@ -7334,10 +6980,10 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="S53">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -7412,7 +7058,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:61">
       <c r="C54">
         <v>1</v>
       </c>
@@ -7438,10 +7084,10 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="S54">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -7516,7 +7162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:61">
       <c r="C55">
         <v>1</v>
       </c>
@@ -7542,10 +7188,10 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="S55">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -7620,7 +7266,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:61">
       <c r="C56">
         <v>1</v>
       </c>
@@ -7646,10 +7292,10 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="S56">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -7724,7 +7370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:61">
       <c r="C57">
         <v>1</v>
       </c>
@@ -7750,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="S57">
-        <v>2.3199999999999998</v>
+        <v>2.32</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -7828,7 +7474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="58" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:61">
       <c r="C58">
         <v>1</v>
       </c>
@@ -7932,7 +7578,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:61">
       <c r="C59">
         <v>1</v>
       </c>
@@ -8036,7 +7682,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:61">
       <c r="C60">
         <v>1</v>
       </c>
@@ -8140,7 +7786,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:61">
       <c r="C61">
         <v>1</v>
       </c>
@@ -8244,7 +7890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:61">
       <c r="C62">
         <v>1</v>
       </c>
@@ -8360,7 +8006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:61">
       <c r="C63">
         <v>1</v>
       </c>
@@ -8410,7 +8056,7 @@
         <v>62</v>
       </c>
       <c r="AF63">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AG63">
         <v>0</v>
@@ -8419,7 +8065,7 @@
         <v>0</v>
       </c>
       <c r="AI63">
-        <v>2.0000000000000001E-4</v>
+        <v>0.0002</v>
       </c>
       <c r="AJ63">
         <v>0</v>
@@ -8461,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:61">
       <c r="C64">
         <v>1</v>
       </c>
@@ -8511,7 +8157,7 @@
         <v>62</v>
       </c>
       <c r="AF64">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AG64">
         <v>0</v>
@@ -8520,7 +8166,7 @@
         <v>0</v>
       </c>
       <c r="AI64">
-        <v>5.0000000000000001E-4</v>
+        <v>0.0005</v>
       </c>
       <c r="AJ64">
         <v>0</v>
@@ -8562,7 +8208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:61">
       <c r="C65">
         <v>1</v>
       </c>
@@ -8612,7 +8258,7 @@
         <v>62</v>
       </c>
       <c r="AF65">
-        <v>1.6E-2</v>
+        <v>0.016</v>
       </c>
       <c r="AG65">
         <v>0</v>
@@ -8621,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="AI65">
-        <v>8.0000000000000004E-4</v>
+        <v>0.0008</v>
       </c>
       <c r="AJ65">
         <v>0</v>
@@ -8663,7 +8309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:61">
       <c r="C66">
         <v>1</v>
       </c>
@@ -8713,7 +8359,7 @@
         <v>62</v>
       </c>
       <c r="AF66">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="AG66">
         <v>0</v>
@@ -8722,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="AI66">
-        <v>8.9999999999999998E-4</v>
+        <v>0.0009</v>
       </c>
       <c r="AJ66">
         <v>0</v>
@@ -8764,7 +8410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:61">
       <c r="C67">
         <v>1</v>
       </c>
@@ -8814,7 +8460,7 @@
         <v>62</v>
       </c>
       <c r="AF67">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -8823,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="AI67">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="AJ67">
         <v>0</v>
@@ -8865,7 +8511,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:61">
       <c r="C68">
         <v>1</v>
       </c>
@@ -8918,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="AI68">
-        <v>2E-3</v>
+        <v>0.002</v>
       </c>
       <c r="AJ68">
         <v>0</v>
@@ -8951,7 +8597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:61">
       <c r="C69">
         <v>1</v>
       </c>
@@ -8992,7 +8638,7 @@
         <v>62</v>
       </c>
       <c r="AF69">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="AG69">
         <v>0</v>
@@ -9001,7 +8647,7 @@
         <v>0</v>
       </c>
       <c r="AI69">
-        <v>3.0000000000000001E-3</v>
+        <v>0.003</v>
       </c>
       <c r="AJ69">
         <v>0</v>
@@ -9043,7 +8689,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:61">
       <c r="C70">
         <v>1</v>
       </c>
@@ -9084,7 +8730,7 @@
         <v>62</v>
       </c>
       <c r="AF70">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -9093,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="AI70">
-        <v>4.0000000000000001E-3</v>
+        <v>0.004</v>
       </c>
       <c r="AJ70">
         <v>0</v>
@@ -9135,7 +8781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:61">
       <c r="C71">
         <v>1</v>
       </c>
@@ -9176,7 +8822,7 @@
         <v>62</v>
       </c>
       <c r="AF71">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="AG71">
         <v>0</v>
@@ -9185,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="AI71">
-        <v>5.0000000000000001E-3</v>
+        <v>0.005</v>
       </c>
       <c r="AJ71">
         <v>0</v>
@@ -9227,7 +8873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:61">
       <c r="C72">
         <v>1</v>
       </c>
@@ -9268,7 +8914,7 @@
         <v>62</v>
       </c>
       <c r="AF72">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="AG72">
         <v>0</v>
@@ -9277,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="AI72">
-        <v>6.0000000000000001E-3</v>
+        <v>0.006</v>
       </c>
       <c r="AJ72">
         <v>0</v>
@@ -9319,7 +8965,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:61">
       <c r="C73">
         <v>1</v>
       </c>
@@ -9342,10 +8988,10 @@
         <v>7000</v>
       </c>
       <c r="S73">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="V73">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="Y73">
         <v>1</v>
@@ -9360,7 +9006,7 @@
         <v>62</v>
       </c>
       <c r="AF73">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="AG73">
         <v>0</v>
@@ -9369,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="AI73">
-        <v>7.0000000000000001E-3</v>
+        <v>0.007</v>
       </c>
       <c r="AJ73">
         <v>0</v>
@@ -9411,7 +9057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:61">
       <c r="C74">
         <v>1</v>
       </c>
@@ -9452,7 +9098,7 @@
         <v>62</v>
       </c>
       <c r="AF74">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AG74">
         <v>0</v>
@@ -9461,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="AI74">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="AJ74">
         <v>0</v>
@@ -9503,7 +9149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:61">
       <c r="C75">
         <v>1</v>
       </c>
@@ -9544,7 +9190,7 @@
         <v>62</v>
       </c>
       <c r="AF75">
-        <v>4.4999999999999998E-2</v>
+        <v>0.045</v>
       </c>
       <c r="AG75">
         <v>0</v>
@@ -9553,7 +9199,7 @@
         <v>0</v>
       </c>
       <c r="AI75">
-        <v>8.9999999999999993E-3</v>
+        <v>0.009</v>
       </c>
       <c r="AJ75">
         <v>0</v>
@@ -9595,7 +9241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:61">
       <c r="C76">
         <v>1</v>
       </c>
@@ -9636,7 +9282,7 @@
         <v>62</v>
       </c>
       <c r="AF76">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="AG76">
         <v>0</v>
@@ -9687,7 +9333,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:61">
       <c r="C77">
         <v>1</v>
       </c>
@@ -9728,7 +9374,7 @@
         <v>62</v>
       </c>
       <c r="AF77">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="AG77">
         <v>0</v>
@@ -9737,7 +9383,7 @@
         <v>0</v>
       </c>
       <c r="AI77">
-        <v>1.2999999999999999E-2</v>
+        <v>0.013</v>
       </c>
       <c r="AJ77">
         <v>0</v>
@@ -9770,7 +9416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:61">
       <c r="C78">
         <v>1</v>
       </c>
@@ -9820,7 +9466,7 @@
         <v>0</v>
       </c>
       <c r="AI78">
-        <v>1.4999999999999999E-2</v>
+        <v>0.015</v>
       </c>
       <c r="AJ78">
         <v>0</v>
@@ -9862,7 +9508,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:61">
       <c r="C79">
         <v>1</v>
       </c>
@@ -9903,7 +9549,7 @@
         <v>62</v>
       </c>
       <c r="AF79">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="AG79">
         <v>0</v>
@@ -9912,7 +9558,7 @@
         <v>0</v>
       </c>
       <c r="AI79">
-        <v>1.7999999999999999E-2</v>
+        <v>0.018</v>
       </c>
       <c r="AJ79">
         <v>0</v>
@@ -9954,7 +9600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:61">
       <c r="C80">
         <v>1</v>
       </c>
@@ -9995,7 +9641,7 @@
         <v>62</v>
       </c>
       <c r="AF80">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07</v>
       </c>
       <c r="AG80">
         <v>0</v>
@@ -10004,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="AI80">
-        <v>1.9E-2</v>
+        <v>0.019</v>
       </c>
       <c r="AJ80">
         <v>0</v>
@@ -10037,7 +9683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:61">
       <c r="C81">
         <v>1</v>
       </c>
@@ -10078,7 +9724,7 @@
         <v>62</v>
       </c>
       <c r="AF81">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="AG81">
         <v>0</v>
@@ -10129,7 +9775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:61">
       <c r="C82">
         <v>1</v>
       </c>
@@ -10170,7 +9816,7 @@
         <v>62</v>
       </c>
       <c r="AF82">
-        <v>7.8E-2</v>
+        <v>0.078</v>
       </c>
       <c r="AG82">
         <v>0</v>
@@ -10179,7 +9825,7 @@
         <v>0</v>
       </c>
       <c r="AI82">
-        <v>2.1999999999999999E-2</v>
+        <v>0.022</v>
       </c>
       <c r="AJ82">
         <v>0</v>
@@ -10221,7 +9867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:61">
       <c r="C83">
         <v>1</v>
       </c>
@@ -10262,7 +9908,7 @@
         <v>62</v>
       </c>
       <c r="AF83">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="AG83">
         <v>0</v>
@@ -10271,7 +9917,7 @@
         <v>0</v>
       </c>
       <c r="AI83">
-        <v>2.5000000000000001E-2</v>
+        <v>0.025</v>
       </c>
       <c r="AJ83">
         <v>0</v>
@@ -10313,7 +9959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:61">
       <c r="C84">
         <v>1</v>
       </c>
@@ -10336,10 +9982,10 @@
         <v>1000000</v>
       </c>
       <c r="S84">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V84">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y84">
         <v>1</v>
@@ -10354,7 +10000,7 @@
         <v>62</v>
       </c>
       <c r="AF84">
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="AG84">
         <v>0</v>
@@ -10363,7 +10009,7 @@
         <v>0</v>
       </c>
       <c r="AI84">
-        <v>2.7E-2</v>
+        <v>0.027</v>
       </c>
       <c r="AJ84">
         <v>0</v>
@@ -10405,7 +10051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:61">
       <c r="C85">
         <v>1</v>
       </c>
@@ -10428,10 +10074,10 @@
         <v>10000000</v>
       </c>
       <c r="S85">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="V85">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="Y85">
         <v>1</v>
@@ -10446,7 +10092,7 @@
         <v>62</v>
       </c>
       <c r="AF85">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="AG85">
         <v>0</v>
@@ -10455,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="AI85">
-        <v>2.9000000000000001E-2</v>
+        <v>0.029</v>
       </c>
       <c r="AJ85">
         <v>0</v>
@@ -10497,7 +10143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:61">
       <c r="C86">
         <v>1</v>
       </c>
@@ -10592,7 +10238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:61">
       <c r="C87">
         <v>1</v>
       </c>
@@ -10642,7 +10288,7 @@
         <v>0</v>
       </c>
       <c r="AI87">
-        <v>3.1E-2</v>
+        <v>0.031</v>
       </c>
       <c r="AJ87">
         <v>0</v>
@@ -10684,7 +10330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:61">
       <c r="C88">
         <v>1</v>
       </c>
@@ -10734,7 +10380,7 @@
         <v>0</v>
       </c>
       <c r="AI88">
-        <v>3.2000000000000001E-2</v>
+        <v>0.032</v>
       </c>
       <c r="AJ88">
         <v>0</v>
@@ -10776,7 +10422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:61">
       <c r="C89">
         <v>1</v>
       </c>
@@ -10826,7 +10472,7 @@
         <v>0</v>
       </c>
       <c r="AI89">
-        <v>3.5000000000000003E-2</v>
+        <v>0.035</v>
       </c>
       <c r="AJ89">
         <v>0</v>
@@ -10868,7 +10514,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:61">
       <c r="C90">
         <v>1</v>
       </c>
@@ -10918,7 +10564,7 @@
         <v>0</v>
       </c>
       <c r="AI90">
-        <v>3.7999999999999999E-2</v>
+        <v>0.038</v>
       </c>
       <c r="AJ90">
         <v>0</v>
@@ -10951,7 +10597,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:61">
       <c r="C91">
         <v>1</v>
       </c>
@@ -11043,7 +10689,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:61">
       <c r="C92">
         <v>1</v>
       </c>
@@ -11093,7 +10739,7 @@
         <v>0</v>
       </c>
       <c r="AI92">
-        <v>4.2000000000000003E-2</v>
+        <v>0.042</v>
       </c>
       <c r="AJ92">
         <v>0</v>
@@ -11135,7 +10781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:61">
       <c r="C93">
         <v>1</v>
       </c>
@@ -11185,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="AI93">
-        <v>4.3999999999999997E-2</v>
+        <v>0.044</v>
       </c>
       <c r="AJ93">
         <v>0</v>
@@ -11227,7 +10873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:61">
       <c r="C94">
         <v>1</v>
       </c>
@@ -11283,7 +10929,7 @@
         <v>0</v>
       </c>
       <c r="AI94">
-        <v>4.8000000000000001E-2</v>
+        <v>0.048</v>
       </c>
       <c r="AJ94">
         <v>0</v>
@@ -11328,7 +10974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:61">
       <c r="C95">
         <v>1</v>
       </c>
@@ -11375,7 +11021,7 @@
         <v>62</v>
       </c>
       <c r="AF95">
-        <v>0.56000000000000005</v>
+        <v>0.56</v>
       </c>
       <c r="AG95">
         <v>0</v>
@@ -11429,7 +11075,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:61">
       <c r="C96">
         <v>1</v>
       </c>
@@ -11458,10 +11104,10 @@
         <v>0</v>
       </c>
       <c r="S96">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="V96">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="Y96">
         <v>1</v>
@@ -11476,7 +11122,7 @@
         <v>62</v>
       </c>
       <c r="AF96">
-        <v>0.57999999999999996</v>
+        <v>0.58</v>
       </c>
       <c r="AG96">
         <v>0</v>
@@ -11485,7 +11131,7 @@
         <v>0</v>
       </c>
       <c r="AI96">
-        <v>5.1999999999999998E-2</v>
+        <v>0.052</v>
       </c>
       <c r="AJ96">
         <v>0</v>
@@ -11530,7 +11176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:61">
       <c r="C97">
         <v>1</v>
       </c>
@@ -11559,10 +11205,10 @@
         <v>0</v>
       </c>
       <c r="S97">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="V97">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="Y97">
         <v>1</v>
@@ -11586,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="AI97">
-        <v>5.3999999999999999E-2</v>
+        <v>0.054</v>
       </c>
       <c r="AJ97">
         <v>0</v>
@@ -11631,7 +11277,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:61">
       <c r="C98">
         <v>1</v>
       </c>
@@ -11690,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="AI98">
-        <v>5.8000000000000003E-2</v>
+        <v>0.058</v>
       </c>
       <c r="AJ98">
         <v>0</v>
@@ -11726,7 +11372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:61">
       <c r="C99">
         <v>1</v>
       </c>
@@ -11785,7 +11431,7 @@
         <v>0</v>
       </c>
       <c r="AI99">
-        <v>6.5000000000000002E-2</v>
+        <v>0.065</v>
       </c>
       <c r="AJ99">
         <v>0</v>
@@ -11830,7 +11476,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:61">
       <c r="C100">
         <v>1</v>
       </c>
@@ -11889,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="AI100">
-        <v>6.8000000000000005E-2</v>
+        <v>0.068</v>
       </c>
       <c r="AJ100">
         <v>0</v>
@@ -11934,7 +11580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:61">
       <c r="C101">
         <v>1</v>
       </c>
@@ -11993,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="AI101">
-        <v>7.2999999999999995E-2</v>
+        <v>0.073</v>
       </c>
       <c r="AJ101">
         <v>0</v>
@@ -12038,7 +11684,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:61">
       <c r="C102">
         <v>1</v>
       </c>
@@ -12097,7 +11743,7 @@
         <v>0</v>
       </c>
       <c r="AI102">
-        <v>7.4999999999999997E-2</v>
+        <v>0.075</v>
       </c>
       <c r="AJ102">
         <v>0</v>
@@ -12142,7 +11788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:61">
       <c r="C103">
         <v>1</v>
       </c>
@@ -12201,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="AI103">
-        <v>7.8E-2</v>
+        <v>0.078</v>
       </c>
       <c r="AJ103">
         <v>0</v>
@@ -12246,7 +11892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:61">
       <c r="C104">
         <v>1</v>
       </c>
@@ -12305,7 +11951,7 @@
         <v>0</v>
       </c>
       <c r="AI104">
-        <v>8.3000000000000004E-2</v>
+        <v>0.083</v>
       </c>
       <c r="AJ104">
         <v>0</v>
@@ -12341,7 +11987,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:61">
       <c r="C105">
         <v>1</v>
       </c>
@@ -12400,7 +12046,7 @@
         <v>0</v>
       </c>
       <c r="AI105">
-        <v>8.2000000000000003E-2</v>
+        <v>0.082</v>
       </c>
       <c r="AJ105">
         <v>0</v>
@@ -12445,7 +12091,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:61">
       <c r="C106">
         <v>1</v>
       </c>
@@ -12504,7 +12150,7 @@
         <v>0</v>
       </c>
       <c r="AI106">
-        <v>8.4000000000000005E-2</v>
+        <v>0.084</v>
       </c>
       <c r="AJ106">
         <v>0</v>
@@ -12549,7 +12195,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:61">
       <c r="C107">
         <v>1</v>
       </c>
@@ -12599,7 +12245,7 @@
         <v>62</v>
       </c>
       <c r="AF107">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AG107">
         <v>0</v>
@@ -12608,7 +12254,7 @@
         <v>0</v>
       </c>
       <c r="AI107">
-        <v>8.7999999999999995E-2</v>
+        <v>0.088</v>
       </c>
       <c r="AJ107">
         <v>0</v>
@@ -12653,7 +12299,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:61">
       <c r="C108">
         <v>1</v>
       </c>
@@ -12703,7 +12349,7 @@
         <v>62</v>
       </c>
       <c r="AF108">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="AG108">
         <v>0</v>
@@ -12712,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="AI108">
-        <v>9.1999999999999998E-2</v>
+        <v>0.092</v>
       </c>
       <c r="AJ108">
         <v>0</v>
@@ -12748,7 +12394,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:61">
       <c r="C109">
         <v>1</v>
       </c>
@@ -12798,7 +12444,7 @@
         <v>62</v>
       </c>
       <c r="AF109">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="AG109">
         <v>0</v>
@@ -12807,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="AI109">
-        <v>9.4E-2</v>
+        <v>0.094</v>
       </c>
       <c r="AJ109">
         <v>0</v>
@@ -12852,7 +12498,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:61">
       <c r="C110">
         <v>1</v>
       </c>
@@ -12923,7 +12569,7 @@
         <v>0</v>
       </c>
       <c r="AI110">
-        <v>9.6000000000000002E-2</v>
+        <v>0.096</v>
       </c>
       <c r="AJ110">
         <v>0</v>
@@ -12968,7 +12614,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:61">
       <c r="C111">
         <v>1</v>
       </c>
@@ -13027,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="AI111">
-        <v>9.8000000000000004E-2</v>
+        <v>0.098</v>
       </c>
       <c r="AJ111">
         <v>0</v>
@@ -13072,7 +12718,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:61">
       <c r="C112">
         <v>1</v>
       </c>
@@ -13176,7 +12822,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:61">
       <c r="C113">
         <v>1</v>
       </c>
@@ -13277,7 +12923,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:61">
       <c r="C114">
         <v>1</v>
       </c>
@@ -13303,10 +12949,10 @@
         <v>18000000000</v>
       </c>
       <c r="S114">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="V114">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="W114">
         <v>0</v>
@@ -13378,7 +13024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:61">
       <c r="C115">
         <v>1</v>
       </c>
@@ -13404,10 +13050,10 @@
         <v>22000000000</v>
       </c>
       <c r="S115">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="V115">
-        <v>2.2400000000000002</v>
+        <v>2.24</v>
       </c>
       <c r="W115">
         <v>0</v>
@@ -13479,7 +13125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:61">
       <c r="C116">
         <v>1</v>
       </c>
@@ -13505,10 +13151,10 @@
         <v>24000000000</v>
       </c>
       <c r="S116">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="V116">
-        <v>2.2599999999999998</v>
+        <v>2.26</v>
       </c>
       <c r="W116">
         <v>0</v>
@@ -13580,7 +13226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="3:61" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:61">
       <c r="C117">
         <v>1</v>
       </c>
@@ -13606,10 +13252,10 @@
         <v>26000000000</v>
       </c>
       <c r="S117">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="V117">
-        <v>2.2799999999999998</v>
+        <v>2.28</v>
       </c>
       <c r="W117">
         <v>0</v>
@@ -13681,5278 +13327,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
-        <v>294</v>
-      </c>
-      <c r="E118" t="s">
-        <v>293</v>
-      </c>
-      <c r="F118" t="s">
-        <v>347</v>
-      </c>
-      <c r="G118" t="s">
-        <v>293</v>
-      </c>
-      <c r="H118">
-        <v>4</v>
-      </c>
-      <c r="K118">
-        <v>10</v>
-      </c>
-      <c r="L118">
-        <v>0</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="Q118">
-        <v>0</v>
-      </c>
-      <c r="R118">
-        <v>0</v>
-      </c>
-      <c r="S118">
-        <v>0</v>
-      </c>
-      <c r="T118">
-        <v>0</v>
-      </c>
-      <c r="U118">
-        <v>0</v>
-      </c>
-      <c r="V118">
-        <v>0</v>
-      </c>
-      <c r="W118">
-        <v>0</v>
-      </c>
-      <c r="Y118">
-        <v>1</v>
-      </c>
-      <c r="Z118">
-        <v>1</v>
-      </c>
-      <c r="AA118">
-        <v>1</v>
-      </c>
-      <c r="AB118">
-        <v>5</v>
-      </c>
-      <c r="AC118" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF118">
-        <v>0</v>
-      </c>
-      <c r="AG118">
-        <v>0</v>
-      </c>
-      <c r="AH118">
-        <v>0</v>
-      </c>
-      <c r="AJ118">
-        <v>0</v>
-      </c>
-      <c r="AO118">
-        <v>0</v>
-      </c>
-      <c r="AR118">
-        <v>0</v>
-      </c>
-      <c r="AT118">
-        <v>0</v>
-      </c>
-      <c r="AU118">
-        <v>0</v>
-      </c>
-      <c r="AW118">
-        <v>0</v>
-      </c>
-      <c r="AX118">
-        <v>0</v>
-      </c>
-      <c r="AY118">
-        <v>0</v>
-      </c>
-      <c r="AZ118">
-        <v>0</v>
-      </c>
-      <c r="BA118">
-        <v>0</v>
-      </c>
-      <c r="BB118">
-        <v>0</v>
-      </c>
-      <c r="BC118">
-        <v>0</v>
-      </c>
-      <c r="BI118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C119">
-        <v>1</v>
-      </c>
-      <c r="D119" t="s">
-        <v>295</v>
-      </c>
-      <c r="E119" t="s">
-        <v>293</v>
-      </c>
-      <c r="F119" t="s">
-        <v>348</v>
-      </c>
-      <c r="G119" t="s">
-        <v>293</v>
-      </c>
-      <c r="H119">
-        <v>8</v>
-      </c>
-      <c r="K119">
-        <v>25</v>
-      </c>
-      <c r="L119">
-        <v>0</v>
-      </c>
-      <c r="M119">
-        <v>0</v>
-      </c>
-      <c r="S119">
-        <v>0.05</v>
-      </c>
-      <c r="V119">
-        <v>0.05</v>
-      </c>
-      <c r="Y119">
-        <v>1</v>
-      </c>
-      <c r="Z119">
-        <v>1</v>
-      </c>
-      <c r="AA119">
-        <v>3</v>
-      </c>
-      <c r="AB119">
-        <v>8</v>
-      </c>
-      <c r="AC119" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF119">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="AG119">
-        <v>0</v>
-      </c>
-      <c r="AH119">
-        <v>0</v>
-      </c>
-      <c r="AJ119">
-        <v>0</v>
-      </c>
-      <c r="AO119">
-        <v>0</v>
-      </c>
-      <c r="AR119">
-        <v>0</v>
-      </c>
-      <c r="AT119">
-        <v>0</v>
-      </c>
-      <c r="AU119">
-        <v>0</v>
-      </c>
-      <c r="AW119">
-        <v>0</v>
-      </c>
-      <c r="AX119">
-        <v>0</v>
-      </c>
-      <c r="AY119">
-        <v>0</v>
-      </c>
-      <c r="AZ119">
-        <v>0</v>
-      </c>
-      <c r="BA119">
-        <v>0</v>
-      </c>
-      <c r="BB119">
-        <v>0</v>
-      </c>
-      <c r="BC119">
-        <v>0</v>
-      </c>
-      <c r="BI119">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C120">
-        <v>1</v>
-      </c>
-      <c r="D120" t="s">
-        <v>296</v>
-      </c>
-      <c r="E120" t="s">
-        <v>293</v>
-      </c>
-      <c r="F120" t="s">
-        <v>349</v>
-      </c>
-      <c r="G120" t="s">
-        <v>293</v>
-      </c>
-      <c r="H120">
-        <v>16</v>
-      </c>
-      <c r="K120">
-        <v>75</v>
-      </c>
-      <c r="L120">
-        <v>0</v>
-      </c>
-      <c r="M120">
-        <v>0</v>
-      </c>
-      <c r="S120">
-        <v>0.08</v>
-      </c>
-      <c r="V120">
-        <v>0.08</v>
-      </c>
-      <c r="Y120">
-        <v>1</v>
-      </c>
-      <c r="Z120">
-        <v>1</v>
-      </c>
-      <c r="AA120">
-        <v>6</v>
-      </c>
-      <c r="AB120">
-        <v>12</v>
-      </c>
-      <c r="AC120" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF120">
-        <v>1.2E-2</v>
-      </c>
-      <c r="AG120">
-        <v>0</v>
-      </c>
-      <c r="AH120">
-        <v>0</v>
-      </c>
-      <c r="AJ120">
-        <v>0</v>
-      </c>
-      <c r="AO120">
-        <v>0</v>
-      </c>
-      <c r="AR120">
-        <v>0</v>
-      </c>
-      <c r="AT120">
-        <v>0</v>
-      </c>
-      <c r="AU120">
-        <v>0</v>
-      </c>
-      <c r="AW120">
-        <v>0</v>
-      </c>
-      <c r="AX120">
-        <v>0</v>
-      </c>
-      <c r="AY120">
-        <v>0</v>
-      </c>
-      <c r="AZ120">
-        <v>0</v>
-      </c>
-      <c r="BA120">
-        <v>0</v>
-      </c>
-      <c r="BB120">
-        <v>0</v>
-      </c>
-      <c r="BC120">
-        <v>0</v>
-      </c>
-      <c r="BI120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C121">
-        <v>1</v>
-      </c>
-      <c r="D121" t="s">
-        <v>297</v>
-      </c>
-      <c r="E121" t="s">
-        <v>293</v>
-      </c>
-      <c r="F121" t="s">
-        <v>350</v>
-      </c>
-      <c r="G121" t="s">
-        <v>293</v>
-      </c>
-      <c r="H121">
-        <v>40</v>
-      </c>
-      <c r="K121">
-        <v>150</v>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-      <c r="M121">
-        <v>0</v>
-      </c>
-      <c r="S121">
-        <v>0.16</v>
-      </c>
-      <c r="V121">
-        <v>0.16</v>
-      </c>
-      <c r="Y121">
-        <v>1</v>
-      </c>
-      <c r="Z121">
-        <v>1</v>
-      </c>
-      <c r="AA121">
-        <v>10</v>
-      </c>
-      <c r="AB121">
-        <v>20</v>
-      </c>
-      <c r="AC121" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF121">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AG121">
-        <v>0</v>
-      </c>
-      <c r="AH121">
-        <v>0</v>
-      </c>
-      <c r="AJ121">
-        <v>0</v>
-      </c>
-      <c r="AO121">
-        <v>0</v>
-      </c>
-      <c r="AR121">
-        <v>0</v>
-      </c>
-      <c r="AT121">
-        <v>0</v>
-      </c>
-      <c r="AU121">
-        <v>0</v>
-      </c>
-      <c r="AW121">
-        <v>0</v>
-      </c>
-      <c r="AX121">
-        <v>0</v>
-      </c>
-      <c r="AY121">
-        <v>0</v>
-      </c>
-      <c r="AZ121">
-        <v>0</v>
-      </c>
-      <c r="BA121">
-        <v>0</v>
-      </c>
-      <c r="BB121">
-        <v>0</v>
-      </c>
-      <c r="BC121">
-        <v>0</v>
-      </c>
-      <c r="BI121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C122">
-        <v>1</v>
-      </c>
-      <c r="D122" t="s">
-        <v>298</v>
-      </c>
-      <c r="E122" t="s">
-        <v>293</v>
-      </c>
-      <c r="F122" t="s">
-        <v>351</v>
-      </c>
-      <c r="G122" t="s">
-        <v>293</v>
-      </c>
-      <c r="H122">
-        <v>80</v>
-      </c>
-      <c r="K122">
-        <v>250</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="S122">
-        <v>0.18</v>
-      </c>
-      <c r="V122">
-        <v>0.18</v>
-      </c>
-      <c r="Y122">
-        <v>1</v>
-      </c>
-      <c r="Z122">
-        <v>1</v>
-      </c>
-      <c r="AA122">
-        <v>18</v>
-      </c>
-      <c r="AB122">
-        <v>36</v>
-      </c>
-      <c r="AC122" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF122">
-        <v>0.02</v>
-      </c>
-      <c r="AG122">
-        <v>0</v>
-      </c>
-      <c r="AH122">
-        <v>0</v>
-      </c>
-      <c r="AJ122">
-        <v>0</v>
-      </c>
-      <c r="AO122">
-        <v>0</v>
-      </c>
-      <c r="AR122">
-        <v>0</v>
-      </c>
-      <c r="AT122">
-        <v>0</v>
-      </c>
-      <c r="AU122">
-        <v>0</v>
-      </c>
-      <c r="AW122">
-        <v>0</v>
-      </c>
-      <c r="AX122">
-        <v>0</v>
-      </c>
-      <c r="AY122">
-        <v>0</v>
-      </c>
-      <c r="AZ122">
-        <v>0</v>
-      </c>
-      <c r="BA122">
-        <v>0</v>
-      </c>
-      <c r="BB122">
-        <v>0</v>
-      </c>
-      <c r="BC122">
-        <v>0</v>
-      </c>
-      <c r="BI122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C123">
-        <v>1</v>
-      </c>
-      <c r="D123" t="s">
-        <v>299</v>
-      </c>
-      <c r="E123" t="s">
-        <v>293</v>
-      </c>
-      <c r="F123" t="s">
-        <v>352</v>
-      </c>
-      <c r="G123" t="s">
-        <v>293</v>
-      </c>
-      <c r="H123">
-        <v>120</v>
-      </c>
-      <c r="K123">
-        <v>500</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="S123">
-        <v>0.19</v>
-      </c>
-      <c r="V123">
-        <v>0.19</v>
-      </c>
-      <c r="Y123">
-        <v>1</v>
-      </c>
-      <c r="Z123">
-        <v>1</v>
-      </c>
-      <c r="AA123">
-        <v>24</v>
-      </c>
-      <c r="AB123">
-        <v>40</v>
-      </c>
-      <c r="AC123" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF123">
-        <v>0.03</v>
-      </c>
-      <c r="AG123">
-        <v>0</v>
-      </c>
-      <c r="AH123">
-        <v>0</v>
-      </c>
-      <c r="AJ123">
-        <v>0</v>
-      </c>
-      <c r="AO123">
-        <v>0</v>
-      </c>
-      <c r="AR123">
-        <v>0</v>
-      </c>
-      <c r="AT123">
-        <v>0</v>
-      </c>
-      <c r="AU123">
-        <v>0</v>
-      </c>
-      <c r="AW123">
-        <v>0</v>
-      </c>
-      <c r="AX123">
-        <v>0</v>
-      </c>
-      <c r="AY123">
-        <v>0</v>
-      </c>
-      <c r="AZ123">
-        <v>0</v>
-      </c>
-      <c r="BA123">
-        <v>0</v>
-      </c>
-      <c r="BB123">
-        <v>0</v>
-      </c>
-      <c r="BC123">
-        <v>0</v>
-      </c>
-      <c r="BI123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C124">
-        <v>1</v>
-      </c>
-      <c r="D124" t="s">
-        <v>300</v>
-      </c>
-      <c r="E124" t="s">
-        <v>293</v>
-      </c>
-      <c r="F124" t="s">
-        <v>353</v>
-      </c>
-      <c r="G124" t="s">
-        <v>293</v>
-      </c>
-      <c r="H124">
-        <v>145</v>
-      </c>
-      <c r="K124">
-        <v>750</v>
-      </c>
-      <c r="S124">
-        <v>0.2</v>
-      </c>
-      <c r="V124">
-        <v>0.2</v>
-      </c>
-      <c r="Y124">
-        <v>1</v>
-      </c>
-      <c r="Z124">
-        <v>1</v>
-      </c>
-      <c r="AA124">
-        <v>28</v>
-      </c>
-      <c r="AB124">
-        <v>50</v>
-      </c>
-      <c r="AC124" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF124">
-        <v>0.04</v>
-      </c>
-      <c r="AG124">
-        <v>0</v>
-      </c>
-      <c r="AH124">
-        <v>0</v>
-      </c>
-      <c r="AJ124">
-        <v>0</v>
-      </c>
-      <c r="AO124">
-        <v>0</v>
-      </c>
-      <c r="AW124">
-        <v>0</v>
-      </c>
-      <c r="AX124">
-        <v>0</v>
-      </c>
-      <c r="AY124">
-        <v>0</v>
-      </c>
-      <c r="AZ124">
-        <v>0</v>
-      </c>
-      <c r="BA124">
-        <v>0</v>
-      </c>
-      <c r="BB124">
-        <v>0</v>
-      </c>
-      <c r="BC124">
-        <v>0</v>
-      </c>
-      <c r="BI124">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C125">
-        <v>1</v>
-      </c>
-      <c r="D125" t="s">
-        <v>301</v>
-      </c>
-      <c r="E125" t="s">
-        <v>293</v>
-      </c>
-      <c r="F125" t="s">
-        <v>354</v>
-      </c>
-      <c r="G125" t="s">
-        <v>293</v>
-      </c>
-      <c r="H125">
-        <v>160</v>
-      </c>
-      <c r="K125">
-        <v>1000</v>
-      </c>
-      <c r="S125">
-        <v>0.22</v>
-      </c>
-      <c r="V125">
-        <v>0.22</v>
-      </c>
-      <c r="Y125">
-        <v>1</v>
-      </c>
-      <c r="AA125">
-        <v>30</v>
-      </c>
-      <c r="AB125">
-        <v>60</v>
-      </c>
-      <c r="AC125" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF125">
-        <v>0.08</v>
-      </c>
-      <c r="AG125">
-        <v>0</v>
-      </c>
-      <c r="AH125">
-        <v>0</v>
-      </c>
-      <c r="AJ125">
-        <v>0</v>
-      </c>
-      <c r="AO125">
-        <v>0</v>
-      </c>
-      <c r="AR125">
-        <v>0</v>
-      </c>
-      <c r="AT125">
-        <v>0</v>
-      </c>
-      <c r="AU125">
-        <v>0</v>
-      </c>
-      <c r="AW125">
-        <v>0</v>
-      </c>
-      <c r="AX125">
-        <v>0</v>
-      </c>
-      <c r="AY125">
-        <v>0</v>
-      </c>
-      <c r="AZ125">
-        <v>0</v>
-      </c>
-      <c r="BA125">
-        <v>0</v>
-      </c>
-      <c r="BB125">
-        <v>0</v>
-      </c>
-      <c r="BC125">
-        <v>0</v>
-      </c>
-      <c r="BI125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C126">
-        <v>1</v>
-      </c>
-      <c r="D126" t="s">
-        <v>302</v>
-      </c>
-      <c r="E126" t="s">
-        <v>293</v>
-      </c>
-      <c r="F126" t="s">
-        <v>355</v>
-      </c>
-      <c r="G126" t="s">
-        <v>293</v>
-      </c>
-      <c r="H126">
-        <v>190</v>
-      </c>
-      <c r="K126">
-        <v>1500</v>
-      </c>
-      <c r="S126">
-        <v>0.25</v>
-      </c>
-      <c r="V126">
-        <v>0.25</v>
-      </c>
-      <c r="Y126">
-        <v>1</v>
-      </c>
-      <c r="AA126">
-        <v>36</v>
-      </c>
-      <c r="AB126">
-        <v>70</v>
-      </c>
-      <c r="AC126" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF126">
-        <v>0.12</v>
-      </c>
-      <c r="AG126">
-        <v>0</v>
-      </c>
-      <c r="AH126">
-        <v>0</v>
-      </c>
-      <c r="AJ126">
-        <v>0</v>
-      </c>
-      <c r="AO126">
-        <v>0</v>
-      </c>
-      <c r="AR126">
-        <v>0</v>
-      </c>
-      <c r="AT126">
-        <v>0</v>
-      </c>
-      <c r="AU126">
-        <v>0</v>
-      </c>
-      <c r="AW126">
-        <v>0</v>
-      </c>
-      <c r="AX126">
-        <v>0</v>
-      </c>
-      <c r="AY126">
-        <v>0</v>
-      </c>
-      <c r="AZ126">
-        <v>0</v>
-      </c>
-      <c r="BA126">
-        <v>0</v>
-      </c>
-      <c r="BB126">
-        <v>0</v>
-      </c>
-      <c r="BC126">
-        <v>0</v>
-      </c>
-      <c r="BI126">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C127">
-        <v>1</v>
-      </c>
-      <c r="D127" t="s">
-        <v>303</v>
-      </c>
-      <c r="E127" t="s">
-        <v>293</v>
-      </c>
-      <c r="F127" t="s">
-        <v>356</v>
-      </c>
-      <c r="G127" t="s">
-        <v>293</v>
-      </c>
-      <c r="H127">
-        <v>220</v>
-      </c>
-      <c r="K127">
-        <v>3000</v>
-      </c>
-      <c r="S127">
-        <v>0.27</v>
-      </c>
-      <c r="V127">
-        <v>0.27</v>
-      </c>
-      <c r="Y127">
-        <v>1</v>
-      </c>
-      <c r="AA127">
-        <v>40</v>
-      </c>
-      <c r="AB127">
-        <v>78</v>
-      </c>
-      <c r="AC127" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF127">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AG127">
-        <v>0</v>
-      </c>
-      <c r="AH127">
-        <v>0</v>
-      </c>
-      <c r="AJ127">
-        <v>0</v>
-      </c>
-      <c r="AO127">
-        <v>0</v>
-      </c>
-      <c r="AR127">
-        <v>0</v>
-      </c>
-      <c r="AT127">
-        <v>0</v>
-      </c>
-      <c r="AU127">
-        <v>0</v>
-      </c>
-      <c r="AW127">
-        <v>0</v>
-      </c>
-      <c r="AX127">
-        <v>0</v>
-      </c>
-      <c r="AY127">
-        <v>0</v>
-      </c>
-      <c r="AZ127">
-        <v>0</v>
-      </c>
-      <c r="BA127">
-        <v>0</v>
-      </c>
-      <c r="BB127">
-        <v>0</v>
-      </c>
-      <c r="BC127">
-        <v>0</v>
-      </c>
-      <c r="BI127">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C128">
-        <v>1</v>
-      </c>
-      <c r="D128" t="s">
-        <v>304</v>
-      </c>
-      <c r="E128" t="s">
-        <v>293</v>
-      </c>
-      <c r="F128" t="s">
-        <v>357</v>
-      </c>
-      <c r="G128" t="s">
-        <v>293</v>
-      </c>
-      <c r="H128">
-        <v>250</v>
-      </c>
-      <c r="K128">
-        <v>5000</v>
-      </c>
-      <c r="S128">
-        <v>0.27</v>
-      </c>
-      <c r="V128">
-        <v>0.27</v>
-      </c>
-      <c r="Y128">
-        <v>1</v>
-      </c>
-      <c r="AA128">
-        <v>43</v>
-      </c>
-      <c r="AB128">
-        <v>78</v>
-      </c>
-      <c r="AC128" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF128">
-        <v>0.16</v>
-      </c>
-      <c r="AG128">
-        <v>0</v>
-      </c>
-      <c r="AH128">
-        <v>0</v>
-      </c>
-      <c r="AJ128">
-        <v>0</v>
-      </c>
-      <c r="AO128">
-        <v>0</v>
-      </c>
-      <c r="AR128">
-        <v>0</v>
-      </c>
-      <c r="AT128">
-        <v>0</v>
-      </c>
-      <c r="AU128">
-        <v>0</v>
-      </c>
-      <c r="AW128">
-        <v>0</v>
-      </c>
-      <c r="AX128">
-        <v>0</v>
-      </c>
-      <c r="AY128">
-        <v>0</v>
-      </c>
-      <c r="AZ128">
-        <v>0</v>
-      </c>
-      <c r="BA128">
-        <v>0</v>
-      </c>
-      <c r="BB128">
-        <v>0</v>
-      </c>
-      <c r="BC128">
-        <v>0</v>
-      </c>
-      <c r="BI128">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="129" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129" t="s">
-        <v>305</v>
-      </c>
-      <c r="E129" t="s">
-        <v>293</v>
-      </c>
-      <c r="F129" t="s">
-        <v>358</v>
-      </c>
-      <c r="G129" t="s">
-        <v>293</v>
-      </c>
-      <c r="H129">
-        <v>280</v>
-      </c>
-      <c r="K129">
-        <v>7000</v>
-      </c>
-      <c r="S129">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="V129">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="Y129">
-        <v>1</v>
-      </c>
-      <c r="AA129">
-        <v>50</v>
-      </c>
-      <c r="AB129">
-        <v>100</v>
-      </c>
-      <c r="AC129" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF129">
-        <v>0.18</v>
-      </c>
-      <c r="AG129">
-        <v>0</v>
-      </c>
-      <c r="AH129">
-        <v>0</v>
-      </c>
-      <c r="AJ129">
-        <v>0</v>
-      </c>
-      <c r="AO129">
-        <v>0</v>
-      </c>
-      <c r="AR129">
-        <v>0</v>
-      </c>
-      <c r="AT129">
-        <v>0</v>
-      </c>
-      <c r="AU129">
-        <v>0</v>
-      </c>
-      <c r="AW129">
-        <v>0</v>
-      </c>
-      <c r="AX129">
-        <v>0</v>
-      </c>
-      <c r="AY129">
-        <v>0</v>
-      </c>
-      <c r="AZ129">
-        <v>0</v>
-      </c>
-      <c r="BA129">
-        <v>0</v>
-      </c>
-      <c r="BB129">
-        <v>0</v>
-      </c>
-      <c r="BC129">
-        <v>0</v>
-      </c>
-      <c r="BI129">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C130">
-        <v>1</v>
-      </c>
-      <c r="D130" t="s">
-        <v>306</v>
-      </c>
-      <c r="E130" t="s">
-        <v>293</v>
-      </c>
-      <c r="F130" t="s">
-        <v>359</v>
-      </c>
-      <c r="G130" t="s">
-        <v>293</v>
-      </c>
-      <c r="H130">
-        <v>340</v>
-      </c>
-      <c r="K130">
-        <v>10000</v>
-      </c>
-      <c r="S130">
-        <v>0.3</v>
-      </c>
-      <c r="V130">
-        <v>0.3</v>
-      </c>
-      <c r="Y130">
-        <v>1</v>
-      </c>
-      <c r="AA130">
-        <v>55</v>
-      </c>
-      <c r="AB130">
-        <v>110</v>
-      </c>
-      <c r="AC130" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF130">
-        <v>0.24</v>
-      </c>
-      <c r="AG130">
-        <v>0</v>
-      </c>
-      <c r="AH130">
-        <v>0</v>
-      </c>
-      <c r="AJ130">
-        <v>0</v>
-      </c>
-      <c r="AO130">
-        <v>0</v>
-      </c>
-      <c r="AR130">
-        <v>0</v>
-      </c>
-      <c r="AT130">
-        <v>0</v>
-      </c>
-      <c r="AU130">
-        <v>0</v>
-      </c>
-      <c r="AW130">
-        <v>0</v>
-      </c>
-      <c r="AX130">
-        <v>0</v>
-      </c>
-      <c r="AY130">
-        <v>0</v>
-      </c>
-      <c r="AZ130">
-        <v>0</v>
-      </c>
-      <c r="BA130">
-        <v>0</v>
-      </c>
-      <c r="BB130">
-        <v>0</v>
-      </c>
-      <c r="BC130">
-        <v>0</v>
-      </c>
-      <c r="BI130">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="131" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C131">
-        <v>1</v>
-      </c>
-      <c r="D131" t="s">
-        <v>307</v>
-      </c>
-      <c r="E131" t="s">
-        <v>293</v>
-      </c>
-      <c r="F131" t="s">
-        <v>360</v>
-      </c>
-      <c r="G131" t="s">
-        <v>293</v>
-      </c>
-      <c r="H131">
-        <v>380</v>
-      </c>
-      <c r="K131">
-        <v>15000</v>
-      </c>
-      <c r="S131">
-        <v>0.35</v>
-      </c>
-      <c r="V131">
-        <v>0.35</v>
-      </c>
-      <c r="Y131">
-        <v>1</v>
-      </c>
-      <c r="AA131">
-        <v>60</v>
-      </c>
-      <c r="AB131">
-        <v>130</v>
-      </c>
-      <c r="AC131" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF131">
-        <v>0.252</v>
-      </c>
-      <c r="AG131">
-        <v>0</v>
-      </c>
-      <c r="AH131">
-        <v>0</v>
-      </c>
-      <c r="AJ131">
-        <v>0</v>
-      </c>
-      <c r="AO131">
-        <v>0</v>
-      </c>
-      <c r="AR131">
-        <v>0</v>
-      </c>
-      <c r="AT131">
-        <v>0</v>
-      </c>
-      <c r="AU131">
-        <v>0</v>
-      </c>
-      <c r="AW131">
-        <v>0</v>
-      </c>
-      <c r="AX131">
-        <v>0</v>
-      </c>
-      <c r="AY131">
-        <v>0</v>
-      </c>
-      <c r="AZ131">
-        <v>0</v>
-      </c>
-      <c r="BA131">
-        <v>0</v>
-      </c>
-      <c r="BB131">
-        <v>0</v>
-      </c>
-      <c r="BC131">
-        <v>0</v>
-      </c>
-      <c r="BI131">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="132" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C132">
-        <v>1</v>
-      </c>
-      <c r="D132" t="s">
-        <v>308</v>
-      </c>
-      <c r="E132" t="s">
-        <v>293</v>
-      </c>
-      <c r="F132" t="s">
-        <v>361</v>
-      </c>
-      <c r="G132" t="s">
-        <v>293</v>
-      </c>
-      <c r="H132">
-        <v>450</v>
-      </c>
-      <c r="K132">
-        <v>30000</v>
-      </c>
-      <c r="S132">
-        <v>0.37</v>
-      </c>
-      <c r="V132">
-        <v>0.37</v>
-      </c>
-      <c r="Y132">
-        <v>1</v>
-      </c>
-      <c r="AA132">
-        <v>70</v>
-      </c>
-      <c r="AB132">
-        <v>150</v>
-      </c>
-      <c r="AC132" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF132">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="AG132">
-        <v>0</v>
-      </c>
-      <c r="AH132">
-        <v>0</v>
-      </c>
-      <c r="AJ132">
-        <v>0</v>
-      </c>
-      <c r="AO132">
-        <v>0</v>
-      </c>
-      <c r="AR132">
-        <v>0</v>
-      </c>
-      <c r="AT132">
-        <v>0</v>
-      </c>
-      <c r="AU132">
-        <v>0</v>
-      </c>
-      <c r="AW132">
-        <v>0</v>
-      </c>
-      <c r="AX132">
-        <v>0</v>
-      </c>
-      <c r="AY132">
-        <v>0</v>
-      </c>
-      <c r="AZ132">
-        <v>0</v>
-      </c>
-      <c r="BA132">
-        <v>0</v>
-      </c>
-      <c r="BB132">
-        <v>0</v>
-      </c>
-      <c r="BC132">
-        <v>0</v>
-      </c>
-      <c r="BI132">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="133" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C133">
-        <v>1</v>
-      </c>
-      <c r="D133" t="s">
-        <v>309</v>
-      </c>
-      <c r="E133" t="s">
-        <v>293</v>
-      </c>
-      <c r="F133" t="s">
-        <v>362</v>
-      </c>
-      <c r="G133" t="s">
-        <v>293</v>
-      </c>
-      <c r="H133">
-        <v>475</v>
-      </c>
-      <c r="K133">
-        <v>60000</v>
-      </c>
-      <c r="S133">
-        <v>0.38</v>
-      </c>
-      <c r="V133">
-        <v>0.38</v>
-      </c>
-      <c r="Y133">
-        <v>1</v>
-      </c>
-      <c r="AA133">
-        <v>75</v>
-      </c>
-      <c r="AB133">
-        <v>180</v>
-      </c>
-      <c r="AC133" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF133">
-        <v>0.308</v>
-      </c>
-      <c r="AG133">
-        <v>0</v>
-      </c>
-      <c r="AH133">
-        <v>0</v>
-      </c>
-      <c r="AJ133">
-        <v>0</v>
-      </c>
-      <c r="AO133">
-        <v>0</v>
-      </c>
-      <c r="AW133">
-        <v>0</v>
-      </c>
-      <c r="AX133">
-        <v>0</v>
-      </c>
-      <c r="AY133">
-        <v>0</v>
-      </c>
-      <c r="AZ133">
-        <v>0</v>
-      </c>
-      <c r="BA133">
-        <v>0</v>
-      </c>
-      <c r="BB133">
-        <v>0</v>
-      </c>
-      <c r="BC133">
-        <v>0</v>
-      </c>
-      <c r="BI133">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134" t="s">
-        <v>310</v>
-      </c>
-      <c r="E134" t="s">
-        <v>293</v>
-      </c>
-      <c r="F134" t="s">
-        <v>363</v>
-      </c>
-      <c r="G134" t="s">
-        <v>293</v>
-      </c>
-      <c r="H134">
-        <v>490</v>
-      </c>
-      <c r="K134">
-        <v>120000</v>
-      </c>
-      <c r="S134">
-        <v>0.38</v>
-      </c>
-      <c r="V134">
-        <v>0.38</v>
-      </c>
-      <c r="Y134">
-        <v>1</v>
-      </c>
-      <c r="AA134">
-        <v>80</v>
-      </c>
-      <c r="AB134">
-        <v>190</v>
-      </c>
-      <c r="AC134" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF134">
-        <v>0.33600000000000002</v>
-      </c>
-      <c r="AG134">
-        <v>0</v>
-      </c>
-      <c r="AH134">
-        <v>0</v>
-      </c>
-      <c r="AJ134">
-        <v>0</v>
-      </c>
-      <c r="AO134">
-        <v>0</v>
-      </c>
-      <c r="AR134">
-        <v>0</v>
-      </c>
-      <c r="AT134">
-        <v>0</v>
-      </c>
-      <c r="AU134">
-        <v>0</v>
-      </c>
-      <c r="AW134">
-        <v>0</v>
-      </c>
-      <c r="AX134">
-        <v>0</v>
-      </c>
-      <c r="AY134">
-        <v>0</v>
-      </c>
-      <c r="AZ134">
-        <v>0</v>
-      </c>
-      <c r="BA134">
-        <v>0</v>
-      </c>
-      <c r="BB134">
-        <v>0</v>
-      </c>
-      <c r="BC134">
-        <v>0</v>
-      </c>
-      <c r="BI134">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135" t="s">
-        <v>311</v>
-      </c>
-      <c r="E135" t="s">
-        <v>293</v>
-      </c>
-      <c r="F135" t="s">
-        <v>364</v>
-      </c>
-      <c r="G135" t="s">
-        <v>293</v>
-      </c>
-      <c r="H135">
-        <v>520</v>
-      </c>
-      <c r="K135">
-        <v>180000</v>
-      </c>
-      <c r="S135">
-        <v>0.42</v>
-      </c>
-      <c r="V135">
-        <v>0.42</v>
-      </c>
-      <c r="Y135">
-        <v>1</v>
-      </c>
-      <c r="AA135">
-        <v>85</v>
-      </c>
-      <c r="AB135">
-        <v>190</v>
-      </c>
-      <c r="AC135" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF135">
-        <v>0.36399999999999999</v>
-      </c>
-      <c r="AG135">
-        <v>0</v>
-      </c>
-      <c r="AH135">
-        <v>0</v>
-      </c>
-      <c r="AJ135">
-        <v>0</v>
-      </c>
-      <c r="AO135">
-        <v>0</v>
-      </c>
-      <c r="AR135">
-        <v>0</v>
-      </c>
-      <c r="AT135">
-        <v>0</v>
-      </c>
-      <c r="AU135">
-        <v>0</v>
-      </c>
-      <c r="AW135">
-        <v>0</v>
-      </c>
-      <c r="AX135">
-        <v>0</v>
-      </c>
-      <c r="AY135">
-        <v>0</v>
-      </c>
-      <c r="AZ135">
-        <v>0</v>
-      </c>
-      <c r="BA135">
-        <v>0</v>
-      </c>
-      <c r="BB135">
-        <v>0</v>
-      </c>
-      <c r="BC135">
-        <v>0</v>
-      </c>
-      <c r="BI135">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C136">
-        <v>1</v>
-      </c>
-      <c r="D136" t="s">
-        <v>312</v>
-      </c>
-      <c r="E136" t="s">
-        <v>293</v>
-      </c>
-      <c r="F136" t="s">
-        <v>365</v>
-      </c>
-      <c r="G136" t="s">
-        <v>293</v>
-      </c>
-      <c r="H136">
-        <v>540</v>
-      </c>
-      <c r="K136">
-        <v>240000</v>
-      </c>
-      <c r="S136">
-        <v>0.45</v>
-      </c>
-      <c r="V136">
-        <v>0.45</v>
-      </c>
-      <c r="Y136">
-        <v>1</v>
-      </c>
-      <c r="AA136">
-        <v>90</v>
-      </c>
-      <c r="AB136">
-        <v>200</v>
-      </c>
-      <c r="AC136" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF136">
-        <v>0.39200000000000002</v>
-      </c>
-      <c r="AG136">
-        <v>0</v>
-      </c>
-      <c r="AH136">
-        <v>0</v>
-      </c>
-      <c r="AJ136">
-        <v>0</v>
-      </c>
-      <c r="AO136">
-        <v>0</v>
-      </c>
-      <c r="AW136">
-        <v>0</v>
-      </c>
-      <c r="AX136">
-        <v>0</v>
-      </c>
-      <c r="AY136">
-        <v>0</v>
-      </c>
-      <c r="AZ136">
-        <v>0</v>
-      </c>
-      <c r="BA136">
-        <v>0</v>
-      </c>
-      <c r="BB136">
-        <v>0</v>
-      </c>
-      <c r="BC136">
-        <v>0</v>
-      </c>
-      <c r="BI136">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="137" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C137">
-        <v>1</v>
-      </c>
-      <c r="D137" t="s">
-        <v>313</v>
-      </c>
-      <c r="E137" t="s">
-        <v>293</v>
-      </c>
-      <c r="F137" t="s">
-        <v>366</v>
-      </c>
-      <c r="G137" t="s">
-        <v>293</v>
-      </c>
-      <c r="H137">
-        <v>560</v>
-      </c>
-      <c r="K137">
-        <v>260000</v>
-      </c>
-      <c r="S137">
-        <v>0.48</v>
-      </c>
-      <c r="V137">
-        <v>0.48</v>
-      </c>
-      <c r="Y137">
-        <v>1</v>
-      </c>
-      <c r="AA137">
-        <v>100</v>
-      </c>
-      <c r="AB137">
-        <v>200</v>
-      </c>
-      <c r="AC137" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF137">
-        <v>0.42</v>
-      </c>
-      <c r="AG137">
-        <v>0</v>
-      </c>
-      <c r="AH137">
-        <v>0</v>
-      </c>
-      <c r="AJ137">
-        <v>0</v>
-      </c>
-      <c r="AO137">
-        <v>0</v>
-      </c>
-      <c r="AR137">
-        <v>0</v>
-      </c>
-      <c r="AT137">
-        <v>0</v>
-      </c>
-      <c r="AU137">
-        <v>0</v>
-      </c>
-      <c r="AW137">
-        <v>0</v>
-      </c>
-      <c r="AX137">
-        <v>0</v>
-      </c>
-      <c r="AY137">
-        <v>0</v>
-      </c>
-      <c r="AZ137">
-        <v>0</v>
-      </c>
-      <c r="BA137">
-        <v>0</v>
-      </c>
-      <c r="BB137">
-        <v>0</v>
-      </c>
-      <c r="BC137">
-        <v>0</v>
-      </c>
-      <c r="BI137">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C138">
-        <v>1</v>
-      </c>
-      <c r="D138" t="s">
-        <v>314</v>
-      </c>
-      <c r="E138" t="s">
-        <v>293</v>
-      </c>
-      <c r="F138" t="s">
-        <v>367</v>
-      </c>
-      <c r="G138" t="s">
-        <v>293</v>
-      </c>
-      <c r="H138">
-        <v>580</v>
-      </c>
-      <c r="K138">
-        <v>350000</v>
-      </c>
-      <c r="S138">
-        <v>0.5</v>
-      </c>
-      <c r="V138">
-        <v>0.5</v>
-      </c>
-      <c r="Y138">
-        <v>1</v>
-      </c>
-      <c r="AA138">
-        <v>110</v>
-      </c>
-      <c r="AB138">
-        <v>200</v>
-      </c>
-      <c r="AC138" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF138">
-        <v>0.44800000000000001</v>
-      </c>
-      <c r="AG138">
-        <v>0</v>
-      </c>
-      <c r="AH138">
-        <v>0</v>
-      </c>
-      <c r="AJ138">
-        <v>0</v>
-      </c>
-      <c r="AO138">
-        <v>0</v>
-      </c>
-      <c r="AR138">
-        <v>0</v>
-      </c>
-      <c r="AT138">
-        <v>0</v>
-      </c>
-      <c r="AU138">
-        <v>0</v>
-      </c>
-      <c r="AW138">
-        <v>0</v>
-      </c>
-      <c r="AX138">
-        <v>0</v>
-      </c>
-      <c r="AY138">
-        <v>0</v>
-      </c>
-      <c r="AZ138">
-        <v>0</v>
-      </c>
-      <c r="BA138">
-        <v>0</v>
-      </c>
-      <c r="BB138">
-        <v>0</v>
-      </c>
-      <c r="BC138">
-        <v>0</v>
-      </c>
-      <c r="BI138">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C139">
-        <v>1</v>
-      </c>
-      <c r="D139" t="s">
-        <v>315</v>
-      </c>
-      <c r="E139" t="s">
-        <v>293</v>
-      </c>
-      <c r="F139" t="s">
-        <v>368</v>
-      </c>
-      <c r="G139" t="s">
-        <v>293</v>
-      </c>
-      <c r="H139">
-        <v>600</v>
-      </c>
-      <c r="K139">
-        <v>500000</v>
-      </c>
-      <c r="S139">
-        <v>0.53</v>
-      </c>
-      <c r="V139">
-        <v>0.53</v>
-      </c>
-      <c r="Y139">
-        <v>1</v>
-      </c>
-      <c r="AA139">
-        <v>120</v>
-      </c>
-      <c r="AB139">
-        <v>200</v>
-      </c>
-      <c r="AC139" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF139">
-        <v>0.47599999999999998</v>
-      </c>
-      <c r="AG139">
-        <v>0</v>
-      </c>
-      <c r="AH139">
-        <v>0</v>
-      </c>
-      <c r="AJ139">
-        <v>0</v>
-      </c>
-      <c r="AO139">
-        <v>0</v>
-      </c>
-      <c r="AR139">
-        <v>0</v>
-      </c>
-      <c r="AT139">
-        <v>0</v>
-      </c>
-      <c r="AU139">
-        <v>0</v>
-      </c>
-      <c r="AW139">
-        <v>0</v>
-      </c>
-      <c r="AX139">
-        <v>0</v>
-      </c>
-      <c r="AY139">
-        <v>0</v>
-      </c>
-      <c r="AZ139">
-        <v>0</v>
-      </c>
-      <c r="BA139">
-        <v>0</v>
-      </c>
-      <c r="BB139">
-        <v>0</v>
-      </c>
-      <c r="BC139">
-        <v>0</v>
-      </c>
-      <c r="BI139">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="140" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C140">
-        <v>1</v>
-      </c>
-      <c r="D140" t="s">
-        <v>316</v>
-      </c>
-      <c r="E140" t="s">
-        <v>293</v>
-      </c>
-      <c r="F140" t="s">
-        <v>369</v>
-      </c>
-      <c r="G140" t="s">
-        <v>293</v>
-      </c>
-      <c r="H140">
-        <v>620</v>
-      </c>
-      <c r="K140">
-        <v>1000000</v>
-      </c>
-      <c r="S140">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="V140">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Y140">
-        <v>1</v>
-      </c>
-      <c r="AA140">
-        <v>130</v>
-      </c>
-      <c r="AB140">
-        <v>200</v>
-      </c>
-      <c r="AC140" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF140">
-        <v>0.504</v>
-      </c>
-      <c r="AG140">
-        <v>0</v>
-      </c>
-      <c r="AH140">
-        <v>0</v>
-      </c>
-      <c r="AJ140">
-        <v>0</v>
-      </c>
-      <c r="AO140">
-        <v>0</v>
-      </c>
-      <c r="AR140">
-        <v>0</v>
-      </c>
-      <c r="AT140">
-        <v>0</v>
-      </c>
-      <c r="AU140">
-        <v>0</v>
-      </c>
-      <c r="AW140">
-        <v>0</v>
-      </c>
-      <c r="AX140">
-        <v>0</v>
-      </c>
-      <c r="AY140">
-        <v>0</v>
-      </c>
-      <c r="AZ140">
-        <v>0</v>
-      </c>
-      <c r="BA140">
-        <v>0</v>
-      </c>
-      <c r="BB140">
-        <v>0</v>
-      </c>
-      <c r="BC140">
-        <v>0</v>
-      </c>
-      <c r="BI140">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="141" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C141">
-        <v>1</v>
-      </c>
-      <c r="D141" t="s">
-        <v>317</v>
-      </c>
-      <c r="E141" t="s">
-        <v>293</v>
-      </c>
-      <c r="F141" t="s">
-        <v>370</v>
-      </c>
-      <c r="G141" t="s">
-        <v>293</v>
-      </c>
-      <c r="H141">
-        <v>630</v>
-      </c>
-      <c r="K141">
-        <v>10000000</v>
-      </c>
-      <c r="S141">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="V141">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="Y141">
-        <v>1</v>
-      </c>
-      <c r="AA141">
-        <v>140</v>
-      </c>
-      <c r="AB141">
-        <v>200</v>
-      </c>
-      <c r="AC141" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF141">
-        <v>0.53200000000000003</v>
-      </c>
-      <c r="AG141">
-        <v>0</v>
-      </c>
-      <c r="AH141">
-        <v>0</v>
-      </c>
-      <c r="AJ141">
-        <v>0</v>
-      </c>
-      <c r="AO141">
-        <v>0</v>
-      </c>
-      <c r="AR141">
-        <v>0</v>
-      </c>
-      <c r="AT141">
-        <v>0</v>
-      </c>
-      <c r="AU141">
-        <v>0</v>
-      </c>
-      <c r="AW141">
-        <v>0</v>
-      </c>
-      <c r="AX141">
-        <v>0</v>
-      </c>
-      <c r="AY141">
-        <v>0</v>
-      </c>
-      <c r="AZ141">
-        <v>0</v>
-      </c>
-      <c r="BA141">
-        <v>0</v>
-      </c>
-      <c r="BB141">
-        <v>0</v>
-      </c>
-      <c r="BC141">
-        <v>0</v>
-      </c>
-      <c r="BI141">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="142" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C142">
-        <v>1</v>
-      </c>
-      <c r="D142" t="s">
-        <v>318</v>
-      </c>
-      <c r="E142" t="s">
-        <v>293</v>
-      </c>
-      <c r="F142" t="s">
-        <v>371</v>
-      </c>
-      <c r="G142" t="s">
-        <v>293</v>
-      </c>
-      <c r="H142">
-        <v>640</v>
-      </c>
-      <c r="K142">
-        <v>25000000</v>
-      </c>
-      <c r="S142">
-        <v>0.62</v>
-      </c>
-      <c r="V142">
-        <v>0.62</v>
-      </c>
-      <c r="W142">
-        <v>0</v>
-      </c>
-      <c r="Y142">
-        <v>1</v>
-      </c>
-      <c r="AA142">
-        <v>150</v>
-      </c>
-      <c r="AB142">
-        <v>200</v>
-      </c>
-      <c r="AC142" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF142">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AG142">
-        <v>0</v>
-      </c>
-      <c r="AH142">
-        <v>0</v>
-      </c>
-      <c r="AJ142">
-        <v>0</v>
-      </c>
-      <c r="AO142">
-        <v>0</v>
-      </c>
-      <c r="AR142">
-        <v>0</v>
-      </c>
-      <c r="AT142">
-        <v>0</v>
-      </c>
-      <c r="AU142">
-        <v>0</v>
-      </c>
-      <c r="AW142">
-        <v>0</v>
-      </c>
-      <c r="AX142">
-        <v>0</v>
-      </c>
-      <c r="AY142">
-        <v>0</v>
-      </c>
-      <c r="AZ142">
-        <v>0</v>
-      </c>
-      <c r="BA142">
-        <v>0</v>
-      </c>
-      <c r="BB142">
-        <v>0</v>
-      </c>
-      <c r="BC142">
-        <v>0</v>
-      </c>
-      <c r="BI142">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C143">
-        <v>1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>319</v>
-      </c>
-      <c r="E143" t="s">
-        <v>293</v>
-      </c>
-      <c r="F143" t="s">
-        <v>372</v>
-      </c>
-      <c r="G143" t="s">
-        <v>293</v>
-      </c>
-      <c r="H143">
-        <v>660</v>
-      </c>
-      <c r="K143">
-        <v>40000000</v>
-      </c>
-      <c r="S143">
-        <v>0.65</v>
-      </c>
-      <c r="V143">
-        <v>0.65</v>
-      </c>
-      <c r="Y143">
-        <v>1</v>
-      </c>
-      <c r="AA143">
-        <v>160</v>
-      </c>
-      <c r="AB143">
-        <v>200</v>
-      </c>
-      <c r="AC143" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF143">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="AG143">
-        <v>0</v>
-      </c>
-      <c r="AH143">
-        <v>0</v>
-      </c>
-      <c r="AJ143">
-        <v>0</v>
-      </c>
-      <c r="AO143">
-        <v>0</v>
-      </c>
-      <c r="AR143">
-        <v>0</v>
-      </c>
-      <c r="AT143">
-        <v>0</v>
-      </c>
-      <c r="AU143">
-        <v>0</v>
-      </c>
-      <c r="AW143">
-        <v>0</v>
-      </c>
-      <c r="AX143">
-        <v>0</v>
-      </c>
-      <c r="AY143">
-        <v>0</v>
-      </c>
-      <c r="AZ143">
-        <v>0</v>
-      </c>
-      <c r="BA143">
-        <v>0</v>
-      </c>
-      <c r="BB143">
-        <v>0</v>
-      </c>
-      <c r="BC143">
-        <v>0</v>
-      </c>
-      <c r="BI143">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="144" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C144">
-        <v>1</v>
-      </c>
-      <c r="D144" t="s">
-        <v>320</v>
-      </c>
-      <c r="E144" t="s">
-        <v>293</v>
-      </c>
-      <c r="F144" t="s">
-        <v>373</v>
-      </c>
-      <c r="G144" t="s">
-        <v>293</v>
-      </c>
-      <c r="H144">
-        <v>680</v>
-      </c>
-      <c r="K144">
-        <v>65000000</v>
-      </c>
-      <c r="S144">
-        <v>0.68</v>
-      </c>
-      <c r="V144">
-        <v>0.68</v>
-      </c>
-      <c r="Y144">
-        <v>1</v>
-      </c>
-      <c r="AA144">
-        <v>170</v>
-      </c>
-      <c r="AB144">
-        <v>200</v>
-      </c>
-      <c r="AC144" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF144">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="AG144">
-        <v>0</v>
-      </c>
-      <c r="AH144">
-        <v>0</v>
-      </c>
-      <c r="AJ144">
-        <v>0</v>
-      </c>
-      <c r="AO144">
-        <v>0</v>
-      </c>
-      <c r="AR144">
-        <v>0</v>
-      </c>
-      <c r="AT144">
-        <v>0</v>
-      </c>
-      <c r="AU144">
-        <v>0</v>
-      </c>
-      <c r="AW144">
-        <v>0</v>
-      </c>
-      <c r="AX144">
-        <v>0</v>
-      </c>
-      <c r="AY144">
-        <v>0</v>
-      </c>
-      <c r="AZ144">
-        <v>0</v>
-      </c>
-      <c r="BA144">
-        <v>0</v>
-      </c>
-      <c r="BB144">
-        <v>0</v>
-      </c>
-      <c r="BC144">
-        <v>0</v>
-      </c>
-      <c r="BI144">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C145">
-        <v>1</v>
-      </c>
-      <c r="D145" t="s">
-        <v>321</v>
-      </c>
-      <c r="E145" t="s">
-        <v>293</v>
-      </c>
-      <c r="F145" t="s">
-        <v>374</v>
-      </c>
-      <c r="G145" t="s">
-        <v>293</v>
-      </c>
-      <c r="H145">
-        <v>700</v>
-      </c>
-      <c r="K145">
-        <v>100000000</v>
-      </c>
-      <c r="S145">
-        <v>0.73</v>
-      </c>
-      <c r="V145">
-        <v>0.73</v>
-      </c>
-      <c r="Y145">
-        <v>1</v>
-      </c>
-      <c r="AA145">
-        <v>180</v>
-      </c>
-      <c r="AB145">
-        <v>200</v>
-      </c>
-      <c r="AC145" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF145">
-        <v>0.64400000000000002</v>
-      </c>
-      <c r="AG145">
-        <v>0</v>
-      </c>
-      <c r="AH145">
-        <v>0</v>
-      </c>
-      <c r="AJ145">
-        <v>0</v>
-      </c>
-      <c r="AO145">
-        <v>0</v>
-      </c>
-      <c r="AR145">
-        <v>0</v>
-      </c>
-      <c r="AT145">
-        <v>0</v>
-      </c>
-      <c r="AU145">
-        <v>0</v>
-      </c>
-      <c r="AW145">
-        <v>0</v>
-      </c>
-      <c r="AX145">
-        <v>0</v>
-      </c>
-      <c r="AY145">
-        <v>0</v>
-      </c>
-      <c r="AZ145">
-        <v>0</v>
-      </c>
-      <c r="BA145">
-        <v>0</v>
-      </c>
-      <c r="BB145">
-        <v>0</v>
-      </c>
-      <c r="BC145">
-        <v>0</v>
-      </c>
-      <c r="BI145">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="146" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="s">
-        <v>322</v>
-      </c>
-      <c r="E146" t="s">
-        <v>293</v>
-      </c>
-      <c r="F146" t="s">
-        <v>375</v>
-      </c>
-      <c r="G146" t="s">
-        <v>293</v>
-      </c>
-      <c r="H146">
-        <v>720</v>
-      </c>
-      <c r="K146">
-        <v>160000000</v>
-      </c>
-      <c r="S146">
-        <v>0.75</v>
-      </c>
-      <c r="V146">
-        <v>0.75</v>
-      </c>
-      <c r="Y146">
-        <v>1</v>
-      </c>
-      <c r="AA146">
-        <v>190</v>
-      </c>
-      <c r="AB146">
-        <v>200</v>
-      </c>
-      <c r="AC146" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF146">
-        <v>0.67200000000000004</v>
-      </c>
-      <c r="AG146">
-        <v>0</v>
-      </c>
-      <c r="AH146">
-        <v>0</v>
-      </c>
-      <c r="AJ146">
-        <v>0</v>
-      </c>
-      <c r="AO146">
-        <v>0</v>
-      </c>
-      <c r="AW146">
-        <v>0</v>
-      </c>
-      <c r="AX146">
-        <v>0</v>
-      </c>
-      <c r="AY146">
-        <v>0</v>
-      </c>
-      <c r="AZ146">
-        <v>0</v>
-      </c>
-      <c r="BA146">
-        <v>0</v>
-      </c>
-      <c r="BB146">
-        <v>0</v>
-      </c>
-      <c r="BC146">
-        <v>0</v>
-      </c>
-      <c r="BI146">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="147" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C147">
-        <v>1</v>
-      </c>
-      <c r="D147" t="s">
-        <v>376</v>
-      </c>
-      <c r="E147" t="s">
-        <v>293</v>
-      </c>
-      <c r="F147" t="s">
-        <v>377</v>
-      </c>
-      <c r="G147" t="s">
-        <v>293</v>
-      </c>
-      <c r="H147">
-        <v>730</v>
-      </c>
-      <c r="K147">
-        <v>250000000</v>
-      </c>
-      <c r="S147">
-        <v>0.8</v>
-      </c>
-      <c r="V147">
-        <v>0.8</v>
-      </c>
-      <c r="Y147">
-        <v>1</v>
-      </c>
-      <c r="AA147">
-        <v>200</v>
-      </c>
-      <c r="AB147">
-        <v>210</v>
-      </c>
-      <c r="AC147" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF147">
-        <v>0.7</v>
-      </c>
-      <c r="AG147">
-        <v>0</v>
-      </c>
-      <c r="AH147">
-        <v>0</v>
-      </c>
-      <c r="AJ147">
-        <v>0</v>
-      </c>
-      <c r="AO147">
-        <v>0</v>
-      </c>
-      <c r="AR147">
-        <v>0</v>
-      </c>
-      <c r="AT147">
-        <v>0</v>
-      </c>
-      <c r="AU147">
-        <v>0</v>
-      </c>
-      <c r="AW147">
-        <v>0</v>
-      </c>
-      <c r="AX147">
-        <v>0</v>
-      </c>
-      <c r="AY147">
-        <v>0</v>
-      </c>
-      <c r="AZ147">
-        <v>0</v>
-      </c>
-      <c r="BA147">
-        <v>0</v>
-      </c>
-      <c r="BB147">
-        <v>0</v>
-      </c>
-      <c r="BC147">
-        <v>0</v>
-      </c>
-      <c r="BI147">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C148">
-        <v>1</v>
-      </c>
-      <c r="D148" t="s">
-        <v>323</v>
-      </c>
-      <c r="E148" t="s">
-        <v>293</v>
-      </c>
-      <c r="F148" t="s">
-        <v>378</v>
-      </c>
-      <c r="G148" t="s">
-        <v>293</v>
-      </c>
-      <c r="H148">
-        <v>800</v>
-      </c>
-      <c r="K148">
-        <v>1000000000</v>
-      </c>
-      <c r="S148">
-        <v>0.86</v>
-      </c>
-      <c r="V148">
-        <v>0.86</v>
-      </c>
-      <c r="Y148">
-        <v>1</v>
-      </c>
-      <c r="AA148">
-        <v>215</v>
-      </c>
-      <c r="AB148">
-        <v>220</v>
-      </c>
-      <c r="AC148" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF148">
-        <v>0.72799999999999998</v>
-      </c>
-      <c r="AG148">
-        <v>0</v>
-      </c>
-      <c r="AH148">
-        <v>0</v>
-      </c>
-      <c r="AJ148">
-        <v>0</v>
-      </c>
-      <c r="AO148">
-        <v>0</v>
-      </c>
-      <c r="AR148">
-        <v>0</v>
-      </c>
-      <c r="AT148">
-        <v>0</v>
-      </c>
-      <c r="AU148">
-        <v>0</v>
-      </c>
-      <c r="AW148">
-        <v>0</v>
-      </c>
-      <c r="AX148">
-        <v>0</v>
-      </c>
-      <c r="AY148">
-        <v>0</v>
-      </c>
-      <c r="AZ148">
-        <v>0</v>
-      </c>
-      <c r="BA148">
-        <v>0</v>
-      </c>
-      <c r="BB148">
-        <v>0</v>
-      </c>
-      <c r="BC148">
-        <v>0</v>
-      </c>
-      <c r="BI148">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C149">
-        <v>1</v>
-      </c>
-      <c r="D149" t="s">
-        <v>324</v>
-      </c>
-      <c r="E149" t="s">
-        <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>379</v>
-      </c>
-      <c r="G149" t="s">
-        <v>293</v>
-      </c>
-      <c r="H149">
-        <v>845</v>
-      </c>
-      <c r="K149">
-        <v>2000000000</v>
-      </c>
-      <c r="S149">
-        <v>0.9</v>
-      </c>
-      <c r="V149">
-        <v>0.9</v>
-      </c>
-      <c r="Y149">
-        <v>1</v>
-      </c>
-      <c r="AA149">
-        <v>220</v>
-      </c>
-      <c r="AB149">
-        <v>225</v>
-      </c>
-      <c r="AC149" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF149">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="AG149">
-        <v>0</v>
-      </c>
-      <c r="AH149">
-        <v>0</v>
-      </c>
-      <c r="AJ149">
-        <v>0</v>
-      </c>
-      <c r="AO149">
-        <v>0</v>
-      </c>
-      <c r="AR149">
-        <v>0</v>
-      </c>
-      <c r="AT149">
-        <v>0</v>
-      </c>
-      <c r="AU149">
-        <v>0</v>
-      </c>
-      <c r="AW149">
-        <v>0</v>
-      </c>
-      <c r="AX149">
-        <v>0</v>
-      </c>
-      <c r="AY149">
-        <v>0</v>
-      </c>
-      <c r="AZ149">
-        <v>0</v>
-      </c>
-      <c r="BA149">
-        <v>0</v>
-      </c>
-      <c r="BB149">
-        <v>0</v>
-      </c>
-      <c r="BC149">
-        <v>0</v>
-      </c>
-      <c r="BI149">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="150" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="s">
-        <v>325</v>
-      </c>
-      <c r="E150" t="s">
-        <v>293</v>
-      </c>
-      <c r="F150" t="s">
-        <v>380</v>
-      </c>
-      <c r="G150" t="s">
-        <v>293</v>
-      </c>
-      <c r="H150">
-        <v>900</v>
-      </c>
-      <c r="K150">
-        <v>2100000000</v>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="S150">
-        <v>1</v>
-      </c>
-      <c r="V150">
-        <v>1</v>
-      </c>
-      <c r="Y150">
-        <v>1</v>
-      </c>
-      <c r="AA150">
-        <v>225</v>
-      </c>
-      <c r="AB150">
-        <v>228</v>
-      </c>
-      <c r="AC150" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF150">
-        <v>0.78400000000000003</v>
-      </c>
-      <c r="AG150">
-        <v>0</v>
-      </c>
-      <c r="AH150">
-        <v>0</v>
-      </c>
-      <c r="AJ150">
-        <v>0</v>
-      </c>
-      <c r="AL150">
-        <v>1</v>
-      </c>
-      <c r="AO150">
-        <v>0</v>
-      </c>
-      <c r="AR150">
-        <v>0</v>
-      </c>
-      <c r="AT150">
-        <v>0</v>
-      </c>
-      <c r="AU150">
-        <v>0</v>
-      </c>
-      <c r="AW150">
-        <v>0</v>
-      </c>
-      <c r="AX150">
-        <v>0</v>
-      </c>
-      <c r="AY150">
-        <v>0</v>
-      </c>
-      <c r="AZ150">
-        <v>0</v>
-      </c>
-      <c r="BA150">
-        <v>0</v>
-      </c>
-      <c r="BB150">
-        <v>0</v>
-      </c>
-      <c r="BC150">
-        <v>0</v>
-      </c>
-      <c r="BI150">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="151" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151" t="s">
-        <v>326</v>
-      </c>
-      <c r="E151" t="s">
-        <v>293</v>
-      </c>
-      <c r="F151" t="s">
-        <v>381</v>
-      </c>
-      <c r="G151" t="s">
-        <v>293</v>
-      </c>
-      <c r="H151">
-        <v>950</v>
-      </c>
-      <c r="K151">
-        <v>2200000000</v>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="S151">
-        <v>1.05</v>
-      </c>
-      <c r="V151">
-        <v>1.05</v>
-      </c>
-      <c r="Y151">
-        <v>1</v>
-      </c>
-      <c r="AA151">
-        <v>228</v>
-      </c>
-      <c r="AB151">
-        <v>232</v>
-      </c>
-      <c r="AC151" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF151">
-        <v>0.81200000000000006</v>
-      </c>
-      <c r="AG151">
-        <v>0</v>
-      </c>
-      <c r="AH151">
-        <v>0</v>
-      </c>
-      <c r="AJ151">
-        <v>0</v>
-      </c>
-      <c r="AL151">
-        <v>1</v>
-      </c>
-      <c r="AO151">
-        <v>0</v>
-      </c>
-      <c r="AR151">
-        <v>0</v>
-      </c>
-      <c r="AT151">
-        <v>0</v>
-      </c>
-      <c r="AU151">
-        <v>0</v>
-      </c>
-      <c r="AW151">
-        <v>0</v>
-      </c>
-      <c r="AX151">
-        <v>0</v>
-      </c>
-      <c r="AY151">
-        <v>0</v>
-      </c>
-      <c r="AZ151">
-        <v>0</v>
-      </c>
-      <c r="BA151">
-        <v>0</v>
-      </c>
-      <c r="BB151">
-        <v>0</v>
-      </c>
-      <c r="BC151">
-        <v>0</v>
-      </c>
-      <c r="BI151">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="s">
-        <v>327</v>
-      </c>
-      <c r="E152" t="s">
-        <v>293</v>
-      </c>
-      <c r="F152" t="s">
-        <v>382</v>
-      </c>
-      <c r="G152" t="s">
-        <v>293</v>
-      </c>
-      <c r="H152">
-        <v>1000</v>
-      </c>
-      <c r="K152">
-        <v>2300000000</v>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-      <c r="M152">
-        <v>0</v>
-      </c>
-      <c r="S152">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V152">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y152">
-        <v>1</v>
-      </c>
-      <c r="AA152">
-        <v>232</v>
-      </c>
-      <c r="AB152">
-        <v>250</v>
-      </c>
-      <c r="AC152" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF152">
-        <v>0.84</v>
-      </c>
-      <c r="AG152">
-        <v>0</v>
-      </c>
-      <c r="AH152">
-        <v>0</v>
-      </c>
-      <c r="AJ152">
-        <v>0</v>
-      </c>
-      <c r="AL152">
-        <v>1</v>
-      </c>
-      <c r="AO152">
-        <v>0</v>
-      </c>
-      <c r="AR152">
-        <v>0</v>
-      </c>
-      <c r="AT152">
-        <v>0</v>
-      </c>
-      <c r="AU152">
-        <v>0</v>
-      </c>
-      <c r="AW152">
-        <v>0</v>
-      </c>
-      <c r="AX152">
-        <v>0</v>
-      </c>
-      <c r="AY152">
-        <v>0</v>
-      </c>
-      <c r="AZ152">
-        <v>0</v>
-      </c>
-      <c r="BA152">
-        <v>0</v>
-      </c>
-      <c r="BB152">
-        <v>0</v>
-      </c>
-      <c r="BC152">
-        <v>0</v>
-      </c>
-      <c r="BI152">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="153" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153" t="s">
-        <v>328</v>
-      </c>
-      <c r="E153" t="s">
-        <v>293</v>
-      </c>
-      <c r="F153" t="s">
-        <v>383</v>
-      </c>
-      <c r="G153" t="s">
-        <v>293</v>
-      </c>
-      <c r="H153">
-        <v>1100</v>
-      </c>
-      <c r="K153">
-        <v>2400000000</v>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-      <c r="M153">
-        <v>0</v>
-      </c>
-      <c r="S153">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="V153">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="Y153">
-        <v>1</v>
-      </c>
-      <c r="AA153">
-        <v>235</v>
-      </c>
-      <c r="AB153">
-        <v>250</v>
-      </c>
-      <c r="AC153" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF153">
-        <v>0.86799999999999999</v>
-      </c>
-      <c r="AG153">
-        <v>0</v>
-      </c>
-      <c r="AH153">
-        <v>0</v>
-      </c>
-      <c r="AJ153">
-        <v>0</v>
-      </c>
-      <c r="AL153">
-        <v>1</v>
-      </c>
-      <c r="AO153">
-        <v>0</v>
-      </c>
-      <c r="AR153">
-        <v>0</v>
-      </c>
-      <c r="AT153">
-        <v>0</v>
-      </c>
-      <c r="AU153">
-        <v>0</v>
-      </c>
-      <c r="AW153">
-        <v>0</v>
-      </c>
-      <c r="AX153">
-        <v>0</v>
-      </c>
-      <c r="AY153">
-        <v>0</v>
-      </c>
-      <c r="AZ153">
-        <v>0</v>
-      </c>
-      <c r="BA153">
-        <v>0</v>
-      </c>
-      <c r="BB153">
-        <v>0</v>
-      </c>
-      <c r="BC153">
-        <v>0</v>
-      </c>
-      <c r="BI153">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="154" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C154">
-        <v>1</v>
-      </c>
-      <c r="D154" t="s">
-        <v>329</v>
-      </c>
-      <c r="E154" t="s">
-        <v>293</v>
-      </c>
-      <c r="F154" t="s">
-        <v>384</v>
-      </c>
-      <c r="G154" t="s">
-        <v>293</v>
-      </c>
-      <c r="H154">
-        <v>1200</v>
-      </c>
-      <c r="K154">
-        <v>2800000000</v>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-      <c r="M154">
-        <v>0</v>
-      </c>
-      <c r="S154">
-        <v>1.2</v>
-      </c>
-      <c r="V154">
-        <v>1.2</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-      <c r="Y154">
-        <v>1</v>
-      </c>
-      <c r="AA154">
-        <v>240</v>
-      </c>
-      <c r="AB154">
-        <v>270</v>
-      </c>
-      <c r="AC154" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF154">
-        <v>0.89600000000000002</v>
-      </c>
-      <c r="AG154">
-        <v>0</v>
-      </c>
-      <c r="AH154">
-        <v>0</v>
-      </c>
-      <c r="AJ154">
-        <v>0</v>
-      </c>
-      <c r="AL154">
-        <v>1</v>
-      </c>
-      <c r="AO154">
-        <v>0</v>
-      </c>
-      <c r="AW154">
-        <v>0</v>
-      </c>
-      <c r="AX154">
-        <v>0</v>
-      </c>
-      <c r="AY154">
-        <v>0</v>
-      </c>
-      <c r="AZ154">
-        <v>0</v>
-      </c>
-      <c r="BA154">
-        <v>0</v>
-      </c>
-      <c r="BB154">
-        <v>0</v>
-      </c>
-      <c r="BC154">
-        <v>0</v>
-      </c>
-      <c r="BI154">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="155" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155" t="s">
-        <v>330</v>
-      </c>
-      <c r="E155" t="s">
-        <v>293</v>
-      </c>
-      <c r="F155" t="s">
-        <v>385</v>
-      </c>
-      <c r="G155" t="s">
-        <v>293</v>
-      </c>
-      <c r="H155">
-        <v>1400</v>
-      </c>
-      <c r="K155">
-        <v>3300000000</v>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-      <c r="M155">
-        <v>0</v>
-      </c>
-      <c r="S155">
-        <v>1.4</v>
-      </c>
-      <c r="V155">
-        <v>1.4</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-      <c r="Y155">
-        <v>1</v>
-      </c>
-      <c r="AA155">
-        <v>253</v>
-      </c>
-      <c r="AB155">
-        <v>270</v>
-      </c>
-      <c r="AC155" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF155">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="AG155">
-        <v>0</v>
-      </c>
-      <c r="AH155">
-        <v>0</v>
-      </c>
-      <c r="AJ155">
-        <v>0</v>
-      </c>
-      <c r="AL155">
-        <v>1</v>
-      </c>
-      <c r="AO155">
-        <v>0</v>
-      </c>
-      <c r="AR155">
-        <v>0</v>
-      </c>
-      <c r="AT155">
-        <v>0</v>
-      </c>
-      <c r="AU155">
-        <v>0</v>
-      </c>
-      <c r="AW155">
-        <v>0</v>
-      </c>
-      <c r="AX155">
-        <v>0</v>
-      </c>
-      <c r="AY155">
-        <v>0</v>
-      </c>
-      <c r="AZ155">
-        <v>0</v>
-      </c>
-      <c r="BA155">
-        <v>0</v>
-      </c>
-      <c r="BB155">
-        <v>0</v>
-      </c>
-      <c r="BC155">
-        <v>0</v>
-      </c>
-      <c r="BI155">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156" t="s">
-        <v>331</v>
-      </c>
-      <c r="E156" t="s">
-        <v>293</v>
-      </c>
-      <c r="F156" t="s">
-        <v>386</v>
-      </c>
-      <c r="G156" t="s">
-        <v>293</v>
-      </c>
-      <c r="H156">
-        <v>1500</v>
-      </c>
-      <c r="K156">
-        <v>3500000000</v>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="M156">
-        <v>0</v>
-      </c>
-      <c r="S156">
-        <v>1.43</v>
-      </c>
-      <c r="V156">
-        <v>1.43</v>
-      </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-      <c r="Y156">
-        <v>1</v>
-      </c>
-      <c r="AA156">
-        <v>260</v>
-      </c>
-      <c r="AB156">
-        <v>270</v>
-      </c>
-      <c r="AC156" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF156">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="AG156">
-        <v>0</v>
-      </c>
-      <c r="AH156">
-        <v>0</v>
-      </c>
-      <c r="AJ156">
-        <v>0</v>
-      </c>
-      <c r="AL156">
-        <v>1</v>
-      </c>
-      <c r="AO156">
-        <v>0</v>
-      </c>
-      <c r="AR156">
-        <v>0</v>
-      </c>
-      <c r="AT156">
-        <v>0</v>
-      </c>
-      <c r="AU156">
-        <v>0</v>
-      </c>
-      <c r="AW156">
-        <v>0</v>
-      </c>
-      <c r="AX156">
-        <v>0</v>
-      </c>
-      <c r="AY156">
-        <v>0</v>
-      </c>
-      <c r="AZ156">
-        <v>0</v>
-      </c>
-      <c r="BA156">
-        <v>0</v>
-      </c>
-      <c r="BB156">
-        <v>0</v>
-      </c>
-      <c r="BC156">
-        <v>0</v>
-      </c>
-      <c r="BI156">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="157" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157" t="s">
-        <v>332</v>
-      </c>
-      <c r="E157" t="s">
-        <v>293</v>
-      </c>
-      <c r="F157" t="s">
-        <v>388</v>
-      </c>
-      <c r="G157" t="s">
-        <v>293</v>
-      </c>
-      <c r="H157">
-        <v>1600</v>
-      </c>
-      <c r="K157">
-        <v>3700000000</v>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-      <c r="M157">
-        <v>0</v>
-      </c>
-      <c r="S157">
-        <v>1.47</v>
-      </c>
-      <c r="V157">
-        <v>1.47</v>
-      </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-      <c r="Y157">
-        <v>1</v>
-      </c>
-      <c r="AA157">
-        <v>265</v>
-      </c>
-      <c r="AB157">
-        <v>280</v>
-      </c>
-      <c r="AC157" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF157">
-        <v>0.98</v>
-      </c>
-      <c r="AG157">
-        <v>0</v>
-      </c>
-      <c r="AH157">
-        <v>0</v>
-      </c>
-      <c r="AJ157">
-        <v>0</v>
-      </c>
-      <c r="AL157">
-        <v>1</v>
-      </c>
-      <c r="AO157">
-        <v>0</v>
-      </c>
-      <c r="AR157">
-        <v>0</v>
-      </c>
-      <c r="AT157">
-        <v>0</v>
-      </c>
-      <c r="AU157">
-        <v>0</v>
-      </c>
-      <c r="AW157">
-        <v>0</v>
-      </c>
-      <c r="AX157">
-        <v>0</v>
-      </c>
-      <c r="AY157">
-        <v>0</v>
-      </c>
-      <c r="AZ157">
-        <v>0</v>
-      </c>
-      <c r="BA157">
-        <v>0</v>
-      </c>
-      <c r="BB157">
-        <v>0</v>
-      </c>
-      <c r="BC157">
-        <v>0</v>
-      </c>
-      <c r="BI157">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158" t="s">
-        <v>333</v>
-      </c>
-      <c r="E158" t="s">
-        <v>293</v>
-      </c>
-      <c r="F158" t="s">
-        <v>387</v>
-      </c>
-      <c r="G158" t="s">
-        <v>293</v>
-      </c>
-      <c r="H158">
-        <v>1700</v>
-      </c>
-      <c r="K158">
-        <v>4200000000</v>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="M158">
-        <v>0</v>
-      </c>
-      <c r="S158">
-        <v>1.5</v>
-      </c>
-      <c r="V158">
-        <v>1.5</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>1</v>
-      </c>
-      <c r="AA158">
-        <v>270</v>
-      </c>
-      <c r="AB158">
-        <v>290</v>
-      </c>
-      <c r="AC158" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF158">
-        <v>1.008</v>
-      </c>
-      <c r="AG158">
-        <v>0</v>
-      </c>
-      <c r="AH158">
-        <v>0</v>
-      </c>
-      <c r="AJ158">
-        <v>0</v>
-      </c>
-      <c r="AL158">
-        <v>1</v>
-      </c>
-      <c r="AO158">
-        <v>0</v>
-      </c>
-      <c r="AR158">
-        <v>0</v>
-      </c>
-      <c r="AT158">
-        <v>0</v>
-      </c>
-      <c r="AU158">
-        <v>0</v>
-      </c>
-      <c r="AW158">
-        <v>0</v>
-      </c>
-      <c r="AX158">
-        <v>0</v>
-      </c>
-      <c r="AY158">
-        <v>0</v>
-      </c>
-      <c r="AZ158">
-        <v>0</v>
-      </c>
-      <c r="BA158">
-        <v>0</v>
-      </c>
-      <c r="BB158">
-        <v>0</v>
-      </c>
-      <c r="BC158">
-        <v>0</v>
-      </c>
-      <c r="BI158">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="159" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159" t="s">
-        <v>334</v>
-      </c>
-      <c r="E159" t="s">
-        <v>293</v>
-      </c>
-      <c r="F159" t="s">
-        <v>389</v>
-      </c>
-      <c r="G159" t="s">
-        <v>293</v>
-      </c>
-      <c r="H159">
-        <v>1800</v>
-      </c>
-      <c r="K159">
-        <v>4400000000</v>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="M159">
-        <v>0</v>
-      </c>
-      <c r="S159">
-        <v>1.55</v>
-      </c>
-      <c r="V159">
-        <v>1.55</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="Y159">
-        <v>1</v>
-      </c>
-      <c r="AA159">
-        <v>275</v>
-      </c>
-      <c r="AB159">
-        <v>300</v>
-      </c>
-      <c r="AC159" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF159">
-        <v>1.036</v>
-      </c>
-      <c r="AG159">
-        <v>0</v>
-      </c>
-      <c r="AH159">
-        <v>0</v>
-      </c>
-      <c r="AJ159">
-        <v>0</v>
-      </c>
-      <c r="AL159">
-        <v>1</v>
-      </c>
-      <c r="AO159">
-        <v>0</v>
-      </c>
-      <c r="AR159">
-        <v>0</v>
-      </c>
-      <c r="AT159">
-        <v>0</v>
-      </c>
-      <c r="AU159">
-        <v>0</v>
-      </c>
-      <c r="AW159">
-        <v>0</v>
-      </c>
-      <c r="AX159">
-        <v>0</v>
-      </c>
-      <c r="AY159">
-        <v>0</v>
-      </c>
-      <c r="AZ159">
-        <v>0</v>
-      </c>
-      <c r="BA159">
-        <v>0</v>
-      </c>
-      <c r="BB159">
-        <v>0</v>
-      </c>
-      <c r="BC159">
-        <v>0</v>
-      </c>
-      <c r="BI159">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160" t="s">
-        <v>335</v>
-      </c>
-      <c r="E160" t="s">
-        <v>293</v>
-      </c>
-      <c r="F160" t="s">
-        <v>390</v>
-      </c>
-      <c r="G160" t="s">
-        <v>293</v>
-      </c>
-      <c r="H160">
-        <v>1900</v>
-      </c>
-      <c r="K160">
-        <v>4600000000</v>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-      <c r="M160">
-        <v>0</v>
-      </c>
-      <c r="S160">
-        <v>1.63</v>
-      </c>
-      <c r="V160">
-        <v>1.63</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-      <c r="Y160">
-        <v>1</v>
-      </c>
-      <c r="AA160">
-        <v>280</v>
-      </c>
-      <c r="AB160">
-        <v>310</v>
-      </c>
-      <c r="AC160" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF160">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="AG160">
-        <v>0</v>
-      </c>
-      <c r="AH160">
-        <v>0</v>
-      </c>
-      <c r="AJ160">
-        <v>0</v>
-      </c>
-      <c r="AL160">
-        <v>1</v>
-      </c>
-      <c r="AO160">
-        <v>0</v>
-      </c>
-      <c r="AW160">
-        <v>0</v>
-      </c>
-      <c r="AX160">
-        <v>0</v>
-      </c>
-      <c r="AY160">
-        <v>0</v>
-      </c>
-      <c r="AZ160">
-        <v>0</v>
-      </c>
-      <c r="BA160">
-        <v>0</v>
-      </c>
-      <c r="BB160">
-        <v>0</v>
-      </c>
-      <c r="BC160">
-        <v>0</v>
-      </c>
-      <c r="BI160">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161" t="s">
-        <v>336</v>
-      </c>
-      <c r="E161" t="s">
-        <v>293</v>
-      </c>
-      <c r="F161" t="s">
-        <v>391</v>
-      </c>
-      <c r="G161" t="s">
-        <v>293</v>
-      </c>
-      <c r="H161">
-        <v>2000</v>
-      </c>
-      <c r="K161">
-        <v>5000000000</v>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-      <c r="M161">
-        <v>0</v>
-      </c>
-      <c r="S161">
-        <v>1.68</v>
-      </c>
-      <c r="V161">
-        <v>1.68</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-      <c r="Y161">
-        <v>1</v>
-      </c>
-      <c r="AA161">
-        <v>290</v>
-      </c>
-      <c r="AB161">
-        <v>320</v>
-      </c>
-      <c r="AC161" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF161">
-        <v>1.0920000000000001</v>
-      </c>
-      <c r="AG161">
-        <v>0</v>
-      </c>
-      <c r="AH161">
-        <v>0</v>
-      </c>
-      <c r="AJ161">
-        <v>0</v>
-      </c>
-      <c r="AL161">
-        <v>1</v>
-      </c>
-      <c r="AO161">
-        <v>0</v>
-      </c>
-      <c r="AR161">
-        <v>0</v>
-      </c>
-      <c r="AT161">
-        <v>0</v>
-      </c>
-      <c r="AU161">
-        <v>0</v>
-      </c>
-      <c r="AW161">
-        <v>0</v>
-      </c>
-      <c r="AX161">
-        <v>0</v>
-      </c>
-      <c r="AY161">
-        <v>0</v>
-      </c>
-      <c r="AZ161">
-        <v>0</v>
-      </c>
-      <c r="BA161">
-        <v>0</v>
-      </c>
-      <c r="BB161">
-        <v>0</v>
-      </c>
-      <c r="BC161">
-        <v>0</v>
-      </c>
-      <c r="BI161">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162" t="s">
-        <v>337</v>
-      </c>
-      <c r="E162" t="s">
-        <v>293</v>
-      </c>
-      <c r="F162" t="s">
-        <v>392</v>
-      </c>
-      <c r="G162" t="s">
-        <v>293</v>
-      </c>
-      <c r="H162">
-        <v>2100</v>
-      </c>
-      <c r="K162">
-        <v>5300000000</v>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-      <c r="M162">
-        <v>0</v>
-      </c>
-      <c r="S162">
-        <v>1.73</v>
-      </c>
-      <c r="V162">
-        <v>1.73</v>
-      </c>
-      <c r="W162">
-        <v>0</v>
-      </c>
-      <c r="Y162">
-        <v>1</v>
-      </c>
-      <c r="AA162">
-        <v>300</v>
-      </c>
-      <c r="AB162">
-        <v>320</v>
-      </c>
-      <c r="AC162" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF162">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="AG162">
-        <v>0</v>
-      </c>
-      <c r="AH162">
-        <v>0</v>
-      </c>
-      <c r="AJ162">
-        <v>0</v>
-      </c>
-      <c r="AL162">
-        <v>1</v>
-      </c>
-      <c r="AO162">
-        <v>0</v>
-      </c>
-      <c r="AR162">
-        <v>0</v>
-      </c>
-      <c r="AT162">
-        <v>0</v>
-      </c>
-      <c r="AU162">
-        <v>0</v>
-      </c>
-      <c r="AW162">
-        <v>0</v>
-      </c>
-      <c r="AX162">
-        <v>0</v>
-      </c>
-      <c r="AY162">
-        <v>0</v>
-      </c>
-      <c r="AZ162">
-        <v>0</v>
-      </c>
-      <c r="BA162">
-        <v>0</v>
-      </c>
-      <c r="BB162">
-        <v>0</v>
-      </c>
-      <c r="BC162">
-        <v>0</v>
-      </c>
-      <c r="BI162">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C163">
-        <v>1</v>
-      </c>
-      <c r="D163" t="s">
-        <v>393</v>
-      </c>
-      <c r="E163" t="s">
-        <v>293</v>
-      </c>
-      <c r="F163" t="s">
-        <v>394</v>
-      </c>
-      <c r="G163" t="s">
-        <v>293</v>
-      </c>
-      <c r="H163">
-        <v>2200</v>
-      </c>
-      <c r="K163">
-        <v>5600000000</v>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-      <c r="M163">
-        <v>0</v>
-      </c>
-      <c r="S163">
-        <v>1.76</v>
-      </c>
-      <c r="V163">
-        <v>1.76</v>
-      </c>
-      <c r="W163">
-        <v>0</v>
-      </c>
-      <c r="Y163">
-        <v>1</v>
-      </c>
-      <c r="AA163">
-        <v>310</v>
-      </c>
-      <c r="AB163">
-        <v>330</v>
-      </c>
-      <c r="AC163" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF163">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="AG163">
-        <v>0</v>
-      </c>
-      <c r="AH163">
-        <v>0</v>
-      </c>
-      <c r="AJ163">
-        <v>0</v>
-      </c>
-      <c r="AL163">
-        <v>1</v>
-      </c>
-      <c r="AO163">
-        <v>0</v>
-      </c>
-      <c r="AR163">
-        <v>0</v>
-      </c>
-      <c r="AT163">
-        <v>0</v>
-      </c>
-      <c r="AU163">
-        <v>0</v>
-      </c>
-      <c r="AW163">
-        <v>0</v>
-      </c>
-      <c r="AX163">
-        <v>0</v>
-      </c>
-      <c r="AY163">
-        <v>0</v>
-      </c>
-      <c r="AZ163">
-        <v>0</v>
-      </c>
-      <c r="BA163">
-        <v>0</v>
-      </c>
-      <c r="BB163">
-        <v>0</v>
-      </c>
-      <c r="BC163">
-        <v>0</v>
-      </c>
-      <c r="BI163">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="164" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164" t="s">
-        <v>338</v>
-      </c>
-      <c r="E164" t="s">
-        <v>293</v>
-      </c>
-      <c r="F164" t="s">
-        <v>395</v>
-      </c>
-      <c r="G164" t="s">
-        <v>293</v>
-      </c>
-      <c r="H164">
-        <v>2300</v>
-      </c>
-      <c r="K164">
-        <v>5800000000</v>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-      <c r="M164">
-        <v>0</v>
-      </c>
-      <c r="S164">
-        <v>1.8</v>
-      </c>
-      <c r="V164">
-        <v>1.8</v>
-      </c>
-      <c r="W164">
-        <v>0</v>
-      </c>
-      <c r="Y164">
-        <v>1</v>
-      </c>
-      <c r="AA164">
-        <v>318</v>
-      </c>
-      <c r="AB164">
-        <v>340</v>
-      </c>
-      <c r="AC164" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF164">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="AG164">
-        <v>0</v>
-      </c>
-      <c r="AH164">
-        <v>0</v>
-      </c>
-      <c r="AJ164">
-        <v>0</v>
-      </c>
-      <c r="AL164">
-        <v>1</v>
-      </c>
-      <c r="AO164">
-        <v>0</v>
-      </c>
-      <c r="AW164">
-        <v>0</v>
-      </c>
-      <c r="AX164">
-        <v>0</v>
-      </c>
-      <c r="AY164">
-        <v>0</v>
-      </c>
-      <c r="AZ164">
-        <v>0</v>
-      </c>
-      <c r="BA164">
-        <v>0</v>
-      </c>
-      <c r="BB164">
-        <v>0</v>
-      </c>
-      <c r="BC164">
-        <v>0</v>
-      </c>
-      <c r="BI164">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="165" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C165">
-        <v>1</v>
-      </c>
-      <c r="D165" t="s">
-        <v>339</v>
-      </c>
-      <c r="E165" t="s">
-        <v>293</v>
-      </c>
-      <c r="F165" t="s">
-        <v>396</v>
-      </c>
-      <c r="G165" t="s">
-        <v>293</v>
-      </c>
-      <c r="H165">
-        <v>2400</v>
-      </c>
-      <c r="K165">
-        <v>6000000000</v>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-      <c r="M165">
-        <v>0</v>
-      </c>
-      <c r="S165">
-        <v>1.87</v>
-      </c>
-      <c r="V165">
-        <v>1.87</v>
-      </c>
-      <c r="W165">
-        <v>0</v>
-      </c>
-      <c r="Y165">
-        <v>1</v>
-      </c>
-      <c r="AA165">
-        <v>324</v>
-      </c>
-      <c r="AB165">
-        <v>350</v>
-      </c>
-      <c r="AC165" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF165">
-        <v>1.204</v>
-      </c>
-      <c r="AG165">
-        <v>0</v>
-      </c>
-      <c r="AH165">
-        <v>0</v>
-      </c>
-      <c r="AJ165">
-        <v>0</v>
-      </c>
-      <c r="AL165">
-        <v>1</v>
-      </c>
-      <c r="AO165">
-        <v>0</v>
-      </c>
-      <c r="AR165">
-        <v>0</v>
-      </c>
-      <c r="AT165">
-        <v>0</v>
-      </c>
-      <c r="AU165">
-        <v>0</v>
-      </c>
-      <c r="AW165">
-        <v>0</v>
-      </c>
-      <c r="AX165">
-        <v>0</v>
-      </c>
-      <c r="AY165">
-        <v>0</v>
-      </c>
-      <c r="AZ165">
-        <v>0</v>
-      </c>
-      <c r="BA165">
-        <v>0</v>
-      </c>
-      <c r="BB165">
-        <v>0</v>
-      </c>
-      <c r="BC165">
-        <v>0</v>
-      </c>
-      <c r="BI165">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="166" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166" t="s">
-        <v>340</v>
-      </c>
-      <c r="E166" t="s">
-        <v>293</v>
-      </c>
-      <c r="F166" t="s">
-        <v>397</v>
-      </c>
-      <c r="G166" t="s">
-        <v>293</v>
-      </c>
-      <c r="H166">
-        <v>2500</v>
-      </c>
-      <c r="K166">
-        <v>6300000000</v>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-      <c r="M166">
-        <v>0</v>
-      </c>
-      <c r="Q166">
-        <v>1.9</v>
-      </c>
-      <c r="R166">
-        <v>0</v>
-      </c>
-      <c r="S166">
-        <v>1.9</v>
-      </c>
-      <c r="T166">
-        <v>0</v>
-      </c>
-      <c r="U166">
-        <v>0</v>
-      </c>
-      <c r="V166">
-        <v>1.9</v>
-      </c>
-      <c r="W166">
-        <v>0</v>
-      </c>
-      <c r="Y166">
-        <v>1</v>
-      </c>
-      <c r="AA166">
-        <v>330</v>
-      </c>
-      <c r="AB166">
-        <v>360</v>
-      </c>
-      <c r="AC166" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF166">
-        <v>1.232</v>
-      </c>
-      <c r="AG166">
-        <v>0</v>
-      </c>
-      <c r="AH166">
-        <v>0</v>
-      </c>
-      <c r="AJ166">
-        <v>0</v>
-      </c>
-      <c r="AL166">
-        <v>1</v>
-      </c>
-      <c r="AO166">
-        <v>0</v>
-      </c>
-      <c r="AR166">
-        <v>0</v>
-      </c>
-      <c r="AT166">
-        <v>0</v>
-      </c>
-      <c r="AU166">
-        <v>0</v>
-      </c>
-      <c r="AW166">
-        <v>0</v>
-      </c>
-      <c r="AX166">
-        <v>0</v>
-      </c>
-      <c r="AY166">
-        <v>0</v>
-      </c>
-      <c r="AZ166">
-        <v>0</v>
-      </c>
-      <c r="BA166">
-        <v>0</v>
-      </c>
-      <c r="BB166">
-        <v>0</v>
-      </c>
-      <c r="BC166">
-        <v>0</v>
-      </c>
-      <c r="BI166">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C167">
-        <v>1</v>
-      </c>
-      <c r="D167" t="s">
-        <v>341</v>
-      </c>
-      <c r="E167" t="s">
-        <v>293</v>
-      </c>
-      <c r="F167" t="s">
-        <v>398</v>
-      </c>
-      <c r="G167" t="s">
-        <v>293</v>
-      </c>
-      <c r="H167">
-        <v>2600</v>
-      </c>
-      <c r="K167">
-        <v>10000000000</v>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-      <c r="M167">
-        <v>0</v>
-      </c>
-      <c r="S167">
-        <v>2.08</v>
-      </c>
-      <c r="V167">
-        <v>2.08</v>
-      </c>
-      <c r="W167">
-        <v>0</v>
-      </c>
-      <c r="Y167">
-        <v>1</v>
-      </c>
-      <c r="AA167">
-        <v>340</v>
-      </c>
-      <c r="AB167">
-        <v>370</v>
-      </c>
-      <c r="AC167" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF167">
-        <v>1.26</v>
-      </c>
-      <c r="AG167">
-        <v>0</v>
-      </c>
-      <c r="AH167">
-        <v>0</v>
-      </c>
-      <c r="AJ167">
-        <v>0</v>
-      </c>
-      <c r="AL167">
-        <v>1</v>
-      </c>
-      <c r="AO167">
-        <v>0</v>
-      </c>
-      <c r="AR167">
-        <v>0</v>
-      </c>
-      <c r="AT167">
-        <v>0</v>
-      </c>
-      <c r="AU167">
-        <v>0</v>
-      </c>
-      <c r="AW167">
-        <v>0</v>
-      </c>
-      <c r="AX167">
-        <v>0</v>
-      </c>
-      <c r="AY167">
-        <v>0</v>
-      </c>
-      <c r="AZ167">
-        <v>0</v>
-      </c>
-      <c r="BA167">
-        <v>0</v>
-      </c>
-      <c r="BB167">
-        <v>0</v>
-      </c>
-      <c r="BC167">
-        <v>0</v>
-      </c>
-      <c r="BI167">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="168" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168" t="s">
-        <v>342</v>
-      </c>
-      <c r="E168" t="s">
-        <v>293</v>
-      </c>
-      <c r="F168" t="s">
-        <v>399</v>
-      </c>
-      <c r="G168" t="s">
-        <v>293</v>
-      </c>
-      <c r="H168">
-        <v>2700</v>
-      </c>
-      <c r="K168">
-        <v>12000000000</v>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-      <c r="M168">
-        <v>0</v>
-      </c>
-      <c r="S168">
-        <v>2.12</v>
-      </c>
-      <c r="V168">
-        <v>2.12</v>
-      </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-      <c r="Y168">
-        <v>1</v>
-      </c>
-      <c r="AA168">
-        <v>350</v>
-      </c>
-      <c r="AB168">
-        <v>380</v>
-      </c>
-      <c r="AC168" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF168">
-        <v>1.288</v>
-      </c>
-      <c r="AG168">
-        <v>0</v>
-      </c>
-      <c r="AH168">
-        <v>0</v>
-      </c>
-      <c r="AJ168">
-        <v>0</v>
-      </c>
-      <c r="AL168">
-        <v>1</v>
-      </c>
-      <c r="AO168">
-        <v>0</v>
-      </c>
-      <c r="AR168">
-        <v>0</v>
-      </c>
-      <c r="AT168">
-        <v>0</v>
-      </c>
-      <c r="AU168">
-        <v>0</v>
-      </c>
-      <c r="AW168">
-        <v>0</v>
-      </c>
-      <c r="AX168">
-        <v>0</v>
-      </c>
-      <c r="AY168">
-        <v>0</v>
-      </c>
-      <c r="AZ168">
-        <v>0</v>
-      </c>
-      <c r="BA168">
-        <v>0</v>
-      </c>
-      <c r="BB168">
-        <v>0</v>
-      </c>
-      <c r="BC168">
-        <v>0</v>
-      </c>
-      <c r="BI168">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="169" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C169">
-        <v>1</v>
-      </c>
-      <c r="D169" t="s">
-        <v>343</v>
-      </c>
-      <c r="E169" t="s">
-        <v>293</v>
-      </c>
-      <c r="F169" t="s">
-        <v>400</v>
-      </c>
-      <c r="G169" t="s">
-        <v>293</v>
-      </c>
-      <c r="H169">
-        <v>2800</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>16000000000</v>
-      </c>
-      <c r="S169">
-        <v>2.16</v>
-      </c>
-      <c r="V169">
-        <v>2.16</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>1</v>
-      </c>
-      <c r="AA169">
-        <v>360</v>
-      </c>
-      <c r="AB169">
-        <v>380</v>
-      </c>
-      <c r="AC169" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF169">
-        <v>1.3160000000000001</v>
-      </c>
-      <c r="AG169">
-        <v>0</v>
-      </c>
-      <c r="AH169">
-        <v>0</v>
-      </c>
-      <c r="AJ169">
-        <v>0</v>
-      </c>
-      <c r="AL169">
-        <v>1</v>
-      </c>
-      <c r="AO169">
-        <v>0</v>
-      </c>
-      <c r="AR169">
-        <v>0</v>
-      </c>
-      <c r="AT169">
-        <v>0</v>
-      </c>
-      <c r="AU169">
-        <v>0</v>
-      </c>
-      <c r="AW169">
-        <v>0</v>
-      </c>
-      <c r="AX169">
-        <v>0</v>
-      </c>
-      <c r="AY169">
-        <v>0</v>
-      </c>
-      <c r="AZ169">
-        <v>0</v>
-      </c>
-      <c r="BA169">
-        <v>0</v>
-      </c>
-      <c r="BB169">
-        <v>0</v>
-      </c>
-      <c r="BC169">
-        <v>0</v>
-      </c>
-      <c r="BI169">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="170" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170" t="s">
-        <v>401</v>
-      </c>
-      <c r="E170" t="s">
-        <v>293</v>
-      </c>
-      <c r="F170" t="s">
-        <v>402</v>
-      </c>
-      <c r="G170" t="s">
-        <v>293</v>
-      </c>
-      <c r="H170">
-        <v>2900</v>
-      </c>
-      <c r="J170">
-        <v>0</v>
-      </c>
-      <c r="K170">
-        <v>18000000000</v>
-      </c>
-      <c r="S170">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="V170">
-        <v>2.1800000000000002</v>
-      </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-      <c r="Y170">
-        <v>1</v>
-      </c>
-      <c r="AA170">
-        <v>370</v>
-      </c>
-      <c r="AB170">
-        <v>380</v>
-      </c>
-      <c r="AC170" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF170">
-        <v>1.3440000000000001</v>
-      </c>
-      <c r="AG170">
-        <v>0</v>
-      </c>
-      <c r="AH170">
-        <v>0</v>
-      </c>
-      <c r="AJ170">
-        <v>0</v>
-      </c>
-      <c r="AL170">
-        <v>1</v>
-      </c>
-      <c r="AO170">
-        <v>0</v>
-      </c>
-      <c r="AR170">
-        <v>0</v>
-      </c>
-      <c r="AT170">
-        <v>0</v>
-      </c>
-      <c r="AU170">
-        <v>0</v>
-      </c>
-      <c r="AW170">
-        <v>0</v>
-      </c>
-      <c r="AX170">
-        <v>0</v>
-      </c>
-      <c r="AY170">
-        <v>0</v>
-      </c>
-      <c r="AZ170">
-        <v>0</v>
-      </c>
-      <c r="BA170">
-        <v>0</v>
-      </c>
-      <c r="BB170">
-        <v>0</v>
-      </c>
-      <c r="BC170">
-        <v>0</v>
-      </c>
-      <c r="BI170">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="171" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171" t="s">
-        <v>344</v>
-      </c>
-      <c r="E171" t="s">
-        <v>293</v>
-      </c>
-      <c r="F171" t="s">
-        <v>403</v>
-      </c>
-      <c r="G171" t="s">
-        <v>293</v>
-      </c>
-      <c r="H171">
-        <v>3000</v>
-      </c>
-      <c r="J171">
-        <v>0</v>
-      </c>
-      <c r="K171">
-        <v>22000000000</v>
-      </c>
-      <c r="S171">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="V171">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>1</v>
-      </c>
-      <c r="AA171">
-        <v>380</v>
-      </c>
-      <c r="AB171">
-        <v>390</v>
-      </c>
-      <c r="AC171" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF171">
-        <v>1.3720000000000001</v>
-      </c>
-      <c r="AG171">
-        <v>0</v>
-      </c>
-      <c r="AH171">
-        <v>0</v>
-      </c>
-      <c r="AJ171">
-        <v>0</v>
-      </c>
-      <c r="AL171">
-        <v>1</v>
-      </c>
-      <c r="AO171">
-        <v>0</v>
-      </c>
-      <c r="AR171">
-        <v>0</v>
-      </c>
-      <c r="AT171">
-        <v>0</v>
-      </c>
-      <c r="AU171">
-        <v>0</v>
-      </c>
-      <c r="AW171">
-        <v>0</v>
-      </c>
-      <c r="AX171">
-        <v>0</v>
-      </c>
-      <c r="AY171">
-        <v>0</v>
-      </c>
-      <c r="AZ171">
-        <v>0</v>
-      </c>
-      <c r="BA171">
-        <v>0</v>
-      </c>
-      <c r="BB171">
-        <v>0</v>
-      </c>
-      <c r="BC171">
-        <v>0</v>
-      </c>
-      <c r="BI171">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C172">
-        <v>1</v>
-      </c>
-      <c r="D172" t="s">
-        <v>345</v>
-      </c>
-      <c r="E172" t="s">
-        <v>293</v>
-      </c>
-      <c r="F172" t="s">
-        <v>404</v>
-      </c>
-      <c r="G172" t="s">
-        <v>293</v>
-      </c>
-      <c r="H172">
-        <v>3100</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>24000000000</v>
-      </c>
-      <c r="S172">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="V172">
-        <v>2.2599999999999998</v>
-      </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-      <c r="Y172">
-        <v>1</v>
-      </c>
-      <c r="AA172">
-        <v>390</v>
-      </c>
-      <c r="AB172">
-        <v>400</v>
-      </c>
-      <c r="AC172" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF172">
-        <v>1.4</v>
-      </c>
-      <c r="AG172">
-        <v>0</v>
-      </c>
-      <c r="AH172">
-        <v>0</v>
-      </c>
-      <c r="AJ172">
-        <v>0</v>
-      </c>
-      <c r="AL172">
-        <v>1</v>
-      </c>
-      <c r="AO172">
-        <v>0</v>
-      </c>
-      <c r="AR172">
-        <v>0</v>
-      </c>
-      <c r="AT172">
-        <v>0</v>
-      </c>
-      <c r="AU172">
-        <v>0</v>
-      </c>
-      <c r="AW172">
-        <v>0</v>
-      </c>
-      <c r="AX172">
-        <v>0</v>
-      </c>
-      <c r="AY172">
-        <v>0</v>
-      </c>
-      <c r="AZ172">
-        <v>0</v>
-      </c>
-      <c r="BA172">
-        <v>0</v>
-      </c>
-      <c r="BB172">
-        <v>0</v>
-      </c>
-      <c r="BC172">
-        <v>0</v>
-      </c>
-      <c r="BI172">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="173" spans="3:61" x14ac:dyDescent="0.2">
-      <c r="C173">
-        <v>1</v>
-      </c>
-      <c r="D173" t="s">
-        <v>346</v>
-      </c>
-      <c r="E173" t="s">
-        <v>293</v>
-      </c>
-      <c r="F173" t="s">
-        <v>405</v>
-      </c>
-      <c r="G173" t="s">
-        <v>293</v>
-      </c>
-      <c r="H173">
-        <v>3200</v>
-      </c>
-      <c r="J173">
-        <v>0</v>
-      </c>
-      <c r="K173">
-        <v>26000000000</v>
-      </c>
-      <c r="S173">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="V173">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="Y173">
-        <v>1</v>
-      </c>
-      <c r="AA173">
-        <v>400</v>
-      </c>
-      <c r="AB173">
-        <v>401</v>
-      </c>
-      <c r="AC173" t="s">
-        <v>62</v>
-      </c>
-      <c r="AF173">
-        <v>1.4279999999999999</v>
-      </c>
-      <c r="AG173">
-        <v>0</v>
-      </c>
-      <c r="AH173">
-        <v>0</v>
-      </c>
-      <c r="AJ173">
-        <v>0</v>
-      </c>
-      <c r="AL173">
-        <v>1</v>
-      </c>
-      <c r="AO173">
-        <v>0</v>
-      </c>
-      <c r="AR173">
-        <v>0</v>
-      </c>
-      <c r="AT173">
-        <v>0</v>
-      </c>
-      <c r="AU173">
-        <v>0</v>
-      </c>
-      <c r="AW173">
-        <v>0</v>
-      </c>
-      <c r="AX173">
-        <v>0</v>
-      </c>
-      <c r="AY173">
-        <v>0</v>
-      </c>
-      <c r="AZ173">
-        <v>0</v>
-      </c>
-      <c r="BA173">
-        <v>0</v>
-      </c>
-      <c r="BB173">
-        <v>0</v>
-      </c>
-      <c r="BC173">
-        <v>0</v>
-      </c>
-      <c r="BI173">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/resources/data-imports/items/weapons.xlsx
+++ b/resources/data-imports/items/weapons.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adambalan/Documents/flare/resources/data-imports/items/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB74F367-E397-704D-A4E3-0C5A59E57FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C5869B-2974-3D45-99D7-A38D437909CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1634,10 +1634,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,8 +1856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH999"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G221" workbookViewId="0">
-      <selection activeCell="T62" sqref="T62:T122"/>
+    <sheetView tabSelected="1" topLeftCell="E154" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180:G235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2116,8 +2117,8 @@
       <c r="E2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1">
-        <v>4</v>
+      <c r="G2" s="3">
+        <v>6</v>
       </c>
       <c r="J2" s="1">
         <v>10</v>
@@ -2211,8 +2212,8 @@
       <c r="E3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="1">
-        <v>8</v>
+      <c r="G3" s="3">
+        <v>22.847457627118601</v>
       </c>
       <c r="J3" s="1">
         <v>25</v>
@@ -2321,8 +2322,8 @@
       <c r="E4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="1">
-        <v>40</v>
+      <c r="G4" s="3">
+        <v>39.694915254237202</v>
       </c>
       <c r="J4" s="1">
         <v>150</v>
@@ -2431,8 +2432,8 @@
       <c r="E5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="1">
-        <v>80</v>
+      <c r="G5" s="3">
+        <v>56.542372881355803</v>
       </c>
       <c r="J5" s="1">
         <v>250</v>
@@ -2541,8 +2542,8 @@
       <c r="E6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="1">
-        <v>120</v>
+      <c r="G6" s="3">
+        <v>73.389830508474404</v>
       </c>
       <c r="J6" s="1">
         <v>500</v>
@@ -2651,8 +2652,8 @@
       <c r="E7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G7" s="1">
-        <v>160</v>
+      <c r="G7" s="3">
+        <v>90.237288135593005</v>
       </c>
       <c r="J7" s="1">
         <v>1000</v>
@@ -2758,8 +2759,8 @@
       <c r="E8" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="1">
-        <v>190</v>
+      <c r="G8" s="3">
+        <v>107.08474576271161</v>
       </c>
       <c r="J8" s="1">
         <v>1500</v>
@@ -2865,8 +2866,8 @@
       <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="1">
-        <v>220</v>
+      <c r="G9" s="3">
+        <v>123.93220338983021</v>
       </c>
       <c r="J9" s="1">
         <v>3000</v>
@@ -2972,8 +2973,8 @@
       <c r="E10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="1">
-        <v>250</v>
+      <c r="G10" s="3">
+        <v>140.77966101694881</v>
       </c>
       <c r="J10" s="1">
         <v>5000</v>
@@ -3079,8 +3080,8 @@
       <c r="E11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="1">
-        <v>280</v>
+      <c r="G11" s="3">
+        <v>157.62711864406742</v>
       </c>
       <c r="J11" s="1">
         <v>7000</v>
@@ -3186,8 +3187,8 @@
       <c r="E12" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="1">
-        <v>340</v>
+      <c r="G12" s="3">
+        <v>174.47457627118601</v>
       </c>
       <c r="J12" s="1">
         <v>10000</v>
@@ -3293,8 +3294,8 @@
       <c r="E13" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="1">
-        <v>380</v>
+      <c r="G13" s="3">
+        <v>191.3220338983046</v>
       </c>
       <c r="J13" s="1">
         <v>15000</v>
@@ -3400,8 +3401,8 @@
       <c r="E14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G14" s="1">
-        <v>450</v>
+      <c r="G14" s="3">
+        <v>208.16949152542321</v>
       </c>
       <c r="J14" s="1">
         <v>30000</v>
@@ -3507,8 +3508,8 @@
       <c r="E15" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G15" s="1">
-        <v>475</v>
+      <c r="G15" s="3">
+        <v>225.01694915254183</v>
       </c>
       <c r="J15" s="1">
         <v>60000</v>
@@ -3614,8 +3615,8 @@
       <c r="E16" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="1">
-        <v>490</v>
+      <c r="G16" s="3">
+        <v>241.86440677966041</v>
       </c>
       <c r="J16" s="1">
         <v>120000</v>
@@ -3721,8 +3722,8 @@
       <c r="E17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="1">
-        <v>520</v>
+      <c r="G17" s="3">
+        <v>258.711864406779</v>
       </c>
       <c r="J17" s="1">
         <v>180000</v>
@@ -3828,8 +3829,8 @@
       <c r="E18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G18" s="1">
-        <v>540</v>
+      <c r="G18" s="3">
+        <v>275.55932203389762</v>
       </c>
       <c r="J18" s="1">
         <v>240000</v>
@@ -3935,8 +3936,8 @@
       <c r="E19" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G19" s="1">
-        <v>560</v>
+      <c r="G19" s="3">
+        <v>292.40677966101623</v>
       </c>
       <c r="J19" s="1">
         <v>260000</v>
@@ -4042,8 +4043,8 @@
       <c r="E20" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="1">
-        <v>580</v>
+      <c r="G20" s="3">
+        <v>309.25423728813485</v>
       </c>
       <c r="J20" s="1">
         <v>350000</v>
@@ -4149,8 +4150,8 @@
       <c r="E21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="1">
-        <v>600</v>
+      <c r="G21" s="3">
+        <v>326.1016949152534</v>
       </c>
       <c r="J21" s="1">
         <v>500000</v>
@@ -4256,8 +4257,8 @@
       <c r="E22" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="1">
-        <v>620</v>
+      <c r="G22" s="3">
+        <v>342.94915254237202</v>
       </c>
       <c r="J22" s="1">
         <v>1000000</v>
@@ -4363,8 +4364,8 @@
       <c r="E23" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="1">
-        <v>630</v>
+      <c r="G23" s="3">
+        <v>359.79661016949063</v>
       </c>
       <c r="J23" s="1">
         <v>10000000</v>
@@ -4470,8 +4471,8 @@
       <c r="E24" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G24" s="1">
-        <v>640</v>
+      <c r="G24" s="3">
+        <v>376.64406779660919</v>
       </c>
       <c r="J24" s="1">
         <v>25000000</v>
@@ -4577,8 +4578,8 @@
       <c r="E25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G25" s="1">
-        <v>660</v>
+      <c r="G25" s="3">
+        <v>393.49152542372781</v>
       </c>
       <c r="J25" s="1">
         <v>40000000</v>
@@ -4684,8 +4685,8 @@
       <c r="E26" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="1">
-        <v>680</v>
+      <c r="G26" s="3">
+        <v>410.33898305084642</v>
       </c>
       <c r="J26" s="1">
         <v>65000000</v>
@@ -4791,8 +4792,8 @@
       <c r="E27" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="G27" s="1">
-        <v>700</v>
+      <c r="G27" s="3">
+        <v>427.18644067796504</v>
       </c>
       <c r="J27" s="1">
         <v>100000000</v>
@@ -4898,8 +4899,8 @@
       <c r="E28" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G28" s="1">
-        <v>720</v>
+      <c r="G28" s="3">
+        <v>444.03389830508365</v>
       </c>
       <c r="J28" s="1">
         <v>160000000</v>
@@ -5005,8 +5006,8 @@
       <c r="E29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="1">
-        <v>730</v>
+      <c r="G29" s="3">
+        <v>460.88135593220221</v>
       </c>
       <c r="J29" s="1">
         <v>250000000</v>
@@ -5112,8 +5113,8 @@
       <c r="E30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G30" s="1">
-        <v>740</v>
+      <c r="G30" s="3">
+        <v>477.72881355932083</v>
       </c>
       <c r="J30" s="1">
         <v>500000000</v>
@@ -5219,8 +5220,8 @@
       <c r="E31" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G31" s="1">
-        <v>800</v>
+      <c r="G31" s="3">
+        <v>494.57627118643944</v>
       </c>
       <c r="J31" s="1">
         <v>1000000000</v>
@@ -5326,8 +5327,8 @@
       <c r="E32" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="G32" s="1">
-        <v>845</v>
+      <c r="G32" s="3">
+        <v>511.423728813558</v>
       </c>
       <c r="J32" s="1">
         <v>2000000000</v>
@@ -5433,8 +5434,8 @@
       <c r="E33" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="G33" s="1">
-        <v>900</v>
+      <c r="G33" s="3">
+        <v>528.27118644067662</v>
       </c>
       <c r="J33" s="1">
         <v>2100000000</v>
@@ -5549,8 +5550,8 @@
       <c r="E34" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G34" s="1">
-        <v>950</v>
+      <c r="G34" s="3">
+        <v>545.11864406779523</v>
       </c>
       <c r="J34" s="1">
         <v>2200000000</v>
@@ -5665,8 +5666,8 @@
       <c r="E35" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G35" s="1">
-        <v>1000</v>
+      <c r="G35" s="3">
+        <v>561.96610169491385</v>
       </c>
       <c r="J35" s="1">
         <v>2300000000</v>
@@ -5781,8 +5782,8 @@
       <c r="E36" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G36" s="1">
-        <v>1100</v>
+      <c r="G36" s="3">
+        <v>578.81355932203246</v>
       </c>
       <c r="J36" s="1">
         <v>2400000000</v>
@@ -5897,8 +5898,8 @@
       <c r="E37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="G37" s="1">
-        <v>1200</v>
+      <c r="G37" s="3">
+        <v>595.66101694915108</v>
       </c>
       <c r="J37" s="1">
         <v>2800000000</v>
@@ -6013,8 +6014,8 @@
       <c r="E38" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G38" s="1">
-        <v>1300</v>
+      <c r="G38" s="3">
+        <v>612.50847457626969</v>
       </c>
       <c r="J38" s="1">
         <v>3200000000</v>
@@ -6129,8 +6130,8 @@
       <c r="E39" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G39" s="1">
-        <v>1400</v>
+      <c r="G39" s="3">
+        <v>629.35593220338819</v>
       </c>
       <c r="J39" s="1">
         <v>3300000000</v>
@@ -6245,8 +6246,8 @@
       <c r="E40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="G40" s="1">
-        <v>1500</v>
+      <c r="G40" s="3">
+        <v>646.20338983050681</v>
       </c>
       <c r="J40" s="1">
         <v>3500000000</v>
@@ -6361,8 +6362,8 @@
       <c r="E41" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G41" s="1">
-        <v>1600</v>
+      <c r="G41" s="3">
+        <v>663.05084745762542</v>
       </c>
       <c r="J41" s="1">
         <v>3700000000</v>
@@ -6477,8 +6478,8 @@
       <c r="E42" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G42" s="1">
-        <v>1700</v>
+      <c r="G42" s="3">
+        <v>679.89830508474404</v>
       </c>
       <c r="J42" s="1">
         <v>4200000000</v>
@@ -6593,8 +6594,8 @@
       <c r="E43" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G43" s="1">
-        <v>1800</v>
+      <c r="G43" s="3">
+        <v>696.74576271186265</v>
       </c>
       <c r="J43" s="1">
         <v>4400000000</v>
@@ -6709,8 +6710,8 @@
       <c r="E44" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="G44" s="1">
-        <v>1900</v>
+      <c r="G44" s="3">
+        <v>713.59322033898127</v>
       </c>
       <c r="J44" s="1">
         <v>4600000000</v>
@@ -6825,8 +6826,8 @@
       <c r="E45" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G45" s="1">
-        <v>2000</v>
+      <c r="G45" s="3">
+        <v>730.44067796609988</v>
       </c>
       <c r="J45" s="1">
         <v>5000000000</v>
@@ -6941,8 +6942,8 @@
       <c r="E46" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="1">
-        <v>2100</v>
+      <c r="G46" s="3">
+        <v>747.28813559321839</v>
       </c>
       <c r="J46" s="1">
         <v>5300000000</v>
@@ -7057,8 +7058,8 @@
       <c r="E47" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G47" s="1">
-        <v>2200</v>
+      <c r="G47" s="3">
+        <v>764.135593220337</v>
       </c>
       <c r="J47" s="1">
         <v>5600000000</v>
@@ -7173,8 +7174,8 @@
       <c r="E48" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="G48" s="1">
-        <v>2300</v>
+      <c r="G48" s="3">
+        <v>780.98305084745562</v>
       </c>
       <c r="J48" s="1">
         <v>5800000000</v>
@@ -7289,8 +7290,8 @@
       <c r="E49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="G49" s="1">
-        <v>2400</v>
+      <c r="G49" s="3">
+        <v>797.83050847457423</v>
       </c>
       <c r="J49" s="1">
         <v>6000000000</v>
@@ -7405,8 +7406,8 @@
       <c r="E50" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G50" s="1">
-        <v>2600</v>
+      <c r="G50" s="3">
+        <v>814.67796610169285</v>
       </c>
       <c r="J50" s="1">
         <v>10000000000</v>
@@ -7521,8 +7522,8 @@
       <c r="E51" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G51" s="1">
-        <v>2700</v>
+      <c r="G51" s="3">
+        <v>831.52542372881146</v>
       </c>
       <c r="J51" s="1">
         <v>12000000000</v>
@@ -7637,8 +7638,8 @@
       <c r="E52" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="G52" s="1">
-        <v>2800</v>
+      <c r="G52" s="3">
+        <v>848.37288135593008</v>
       </c>
       <c r="J52" s="1">
         <v>16000000000</v>
@@ -7744,8 +7745,8 @@
       <c r="E53" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G53" s="1">
-        <v>2900</v>
+      <c r="G53" s="3">
+        <v>865.22033898304869</v>
       </c>
       <c r="J53" s="1">
         <v>18000000000</v>
@@ -7851,8 +7852,8 @@
       <c r="E54" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G54" s="1">
-        <v>3000</v>
+      <c r="G54" s="3">
+        <v>882.06779661016731</v>
       </c>
       <c r="J54" s="1">
         <v>22000000000</v>
@@ -7958,8 +7959,8 @@
       <c r="E55" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G55" s="1">
-        <v>3100</v>
+      <c r="G55" s="3">
+        <v>898.91525423728581</v>
       </c>
       <c r="J55" s="1">
         <v>24000000000</v>
@@ -8065,8 +8066,8 @@
       <c r="E56" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G56" s="1">
-        <v>3200</v>
+      <c r="G56" s="3">
+        <v>915.76271186440442</v>
       </c>
       <c r="J56" s="1">
         <v>26000000000</v>
@@ -8172,8 +8173,8 @@
       <c r="E57" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G57" s="1">
-        <v>3300</v>
+      <c r="G57" s="3">
+        <v>932.61016949152304</v>
       </c>
       <c r="J57" s="1">
         <v>28000000000</v>
@@ -8279,8 +8280,8 @@
       <c r="E58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G58" s="1">
-        <v>3400</v>
+      <c r="G58" s="3">
+        <v>949.45762711864165</v>
       </c>
       <c r="J58" s="1">
         <v>30000000000</v>
@@ -8386,8 +8387,8 @@
       <c r="E59" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="G59" s="1">
-        <v>3500</v>
+      <c r="G59" s="3">
+        <v>966.30508474576027</v>
       </c>
       <c r="J59" s="1">
         <v>32000000000</v>
@@ -8493,8 +8494,8 @@
       <c r="E60" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G60" s="1">
-        <v>3600</v>
+      <c r="G60" s="3">
+        <v>983.15254237287888</v>
       </c>
       <c r="J60" s="1">
         <v>34000000000</v>
@@ -8600,8 +8601,8 @@
       <c r="E61" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G61" s="1">
-        <v>3700</v>
+      <c r="G61" s="3">
+        <v>999.9999999999975</v>
       </c>
       <c r="J61" s="1">
         <v>36000000000</v>
@@ -8710,8 +8711,8 @@
       <c r="F62" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G62" s="1">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>6</v>
       </c>
       <c r="J62" s="1">
         <v>10</v>
@@ -8829,8 +8830,8 @@
       <c r="F63" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G63" s="1">
-        <v>8</v>
+      <c r="G63" s="3">
+        <v>22.566666666666698</v>
       </c>
       <c r="J63" s="1">
         <v>25</v>
@@ -8936,8 +8937,8 @@
       <c r="F64" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G64" s="1">
-        <v>16</v>
+      <c r="G64" s="3">
+        <v>39.133333333333397</v>
       </c>
       <c r="J64" s="1">
         <v>75</v>
@@ -9043,8 +9044,8 @@
       <c r="F65" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G65" s="1">
-        <v>40</v>
+      <c r="G65" s="3">
+        <v>55.700000000000095</v>
       </c>
       <c r="J65" s="1">
         <v>150</v>
@@ -9150,8 +9151,8 @@
       <c r="F66" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G66" s="1">
-        <v>80</v>
+      <c r="G66" s="3">
+        <v>72.266666666666794</v>
       </c>
       <c r="J66" s="1">
         <v>250</v>
@@ -9257,8 +9258,8 @@
       <c r="F67" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G67" s="1">
-        <v>120</v>
+      <c r="G67" s="3">
+        <v>88.833333333333485</v>
       </c>
       <c r="J67" s="1">
         <v>500</v>
@@ -9364,8 +9365,8 @@
       <c r="F68" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G68" s="1">
-        <v>145</v>
+      <c r="G68" s="3">
+        <v>105.40000000000019</v>
       </c>
       <c r="J68" s="1">
         <v>750</v>
@@ -9465,8 +9466,8 @@
       <c r="F69" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G69" s="1">
-        <v>160</v>
+      <c r="G69" s="3">
+        <v>121.9666666666669</v>
       </c>
       <c r="J69" s="1">
         <v>1000</v>
@@ -9563,8 +9564,8 @@
       <c r="F70" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G70" s="1">
-        <v>190</v>
+      <c r="G70" s="3">
+        <v>138.53333333333359</v>
       </c>
       <c r="J70" s="1">
         <v>1500</v>
@@ -9661,8 +9662,8 @@
       <c r="F71" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G71" s="1">
-        <v>220</v>
+      <c r="G71" s="3">
+        <v>155.10000000000028</v>
       </c>
       <c r="J71" s="1">
         <v>3000</v>
@@ -9759,8 +9760,8 @@
       <c r="F72" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G72" s="1">
-        <v>250</v>
+      <c r="G72" s="3">
+        <v>171.66666666666697</v>
       </c>
       <c r="J72" s="1">
         <v>5000</v>
@@ -9857,8 +9858,8 @@
       <c r="F73" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G73" s="1">
-        <v>280</v>
+      <c r="G73" s="3">
+        <v>188.23333333333369</v>
       </c>
       <c r="J73" s="1">
         <v>7000</v>
@@ -9955,8 +9956,8 @@
       <c r="F74" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G74" s="1">
-        <v>340</v>
+      <c r="G74" s="3">
+        <v>204.80000000000038</v>
       </c>
       <c r="J74" s="1">
         <v>10000</v>
@@ -10053,8 +10054,8 @@
       <c r="F75" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G75" s="1">
-        <v>380</v>
+      <c r="G75" s="3">
+        <v>221.36666666666707</v>
       </c>
       <c r="J75" s="1">
         <v>15000</v>
@@ -10151,8 +10152,8 @@
       <c r="F76" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G76" s="1">
-        <v>450</v>
+      <c r="G76" s="3">
+        <v>237.93333333333379</v>
       </c>
       <c r="J76" s="1">
         <v>30000</v>
@@ -10249,8 +10250,8 @@
       <c r="F77" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G77" s="1">
-        <v>475</v>
+      <c r="G77" s="3">
+        <v>254.50000000000048</v>
       </c>
       <c r="J77" s="1">
         <v>60000</v>
@@ -10347,8 +10348,8 @@
       <c r="F78" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G78" s="1">
-        <v>490</v>
+      <c r="G78" s="3">
+        <v>271.06666666666717</v>
       </c>
       <c r="J78" s="1">
         <v>120000</v>
@@ -10445,8 +10446,8 @@
       <c r="F79" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G79" s="1">
-        <v>490</v>
+      <c r="G79" s="3">
+        <v>287.63333333333389</v>
       </c>
       <c r="J79" s="1">
         <v>120000</v>
@@ -10543,8 +10544,8 @@
       <c r="F80" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G80" s="1">
-        <v>490</v>
+      <c r="G80" s="3">
+        <v>304.20000000000056</v>
       </c>
       <c r="J80" s="1">
         <v>120000</v>
@@ -10641,8 +10642,8 @@
       <c r="F81" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G81" s="1">
-        <v>490</v>
+      <c r="G81" s="3">
+        <v>320.76666666666728</v>
       </c>
       <c r="J81" s="1">
         <v>120000</v>
@@ -10739,8 +10740,8 @@
       <c r="F82" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G82" s="1">
-        <v>490</v>
+      <c r="G82" s="3">
+        <v>337.33333333333394</v>
       </c>
       <c r="J82" s="1">
         <v>120000</v>
@@ -10837,8 +10838,8 @@
       <c r="F83" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G83" s="1">
-        <v>490</v>
+      <c r="G83" s="3">
+        <v>353.90000000000066</v>
       </c>
       <c r="J83" s="1">
         <v>120000</v>
@@ -10935,8 +10936,8 @@
       <c r="F84" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G84" s="1">
-        <v>520</v>
+      <c r="G84" s="3">
+        <v>370.46666666666738</v>
       </c>
       <c r="J84" s="1">
         <v>180000</v>
@@ -11033,8 +11034,8 @@
       <c r="F85" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G85" s="1">
-        <v>540</v>
+      <c r="G85" s="3">
+        <v>387.03333333333404</v>
       </c>
       <c r="J85" s="1">
         <v>240000</v>
@@ -11131,8 +11132,8 @@
       <c r="F86" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G86" s="1">
-        <v>560</v>
+      <c r="G86" s="3">
+        <v>403.60000000000076</v>
       </c>
       <c r="J86" s="1">
         <v>260000</v>
@@ -11229,8 +11230,8 @@
       <c r="F87" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G87" s="1">
-        <v>580</v>
+      <c r="G87" s="3">
+        <v>420.16666666666748</v>
       </c>
       <c r="J87" s="1">
         <v>350000</v>
@@ -11327,8 +11328,8 @@
       <c r="F88" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G88" s="1">
-        <v>600</v>
+      <c r="G88" s="3">
+        <v>436.73333333333414</v>
       </c>
       <c r="J88" s="1">
         <v>500000</v>
@@ -11425,8 +11426,8 @@
       <c r="F89" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G89" s="1">
-        <v>620</v>
+      <c r="G89" s="3">
+        <v>453.30000000000086</v>
       </c>
       <c r="J89" s="1">
         <v>1000000</v>
@@ -11523,8 +11524,8 @@
       <c r="F90" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G90" s="1">
-        <v>630</v>
+      <c r="G90" s="3">
+        <v>469.86666666666758</v>
       </c>
       <c r="J90" s="1">
         <v>10000000</v>
@@ -11621,8 +11622,8 @@
       <c r="F91" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G91" s="1">
-        <v>640</v>
+      <c r="G91" s="3">
+        <v>486.43333333333425</v>
       </c>
       <c r="J91" s="1">
         <v>25000000</v>
@@ -11719,8 +11720,8 @@
       <c r="F92" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G92" s="1">
-        <v>660</v>
+      <c r="G92" s="3">
+        <v>503.00000000000097</v>
       </c>
       <c r="J92" s="1">
         <v>40000000</v>
@@ -11817,8 +11818,8 @@
       <c r="F93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G93" s="1">
-        <v>680</v>
+      <c r="G93" s="3">
+        <v>519.56666666666763</v>
       </c>
       <c r="J93" s="1">
         <v>65000000</v>
@@ -11915,8 +11916,8 @@
       <c r="F94" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G94" s="1">
-        <v>700</v>
+      <c r="G94" s="3">
+        <v>536.13333333333435</v>
       </c>
       <c r="J94" s="1">
         <v>100000000</v>
@@ -12013,8 +12014,8 @@
       <c r="F95" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G95" s="1">
-        <v>720</v>
+      <c r="G95" s="3">
+        <v>552.70000000000107</v>
       </c>
       <c r="J95" s="1">
         <v>160000000</v>
@@ -12111,8 +12112,8 @@
       <c r="F96" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G96" s="1">
-        <v>730</v>
+      <c r="G96" s="3">
+        <v>569.26666666666779</v>
       </c>
       <c r="J96" s="1">
         <v>250000000</v>
@@ -12209,8 +12210,8 @@
       <c r="F97" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G97" s="1">
-        <v>800</v>
+      <c r="G97" s="3">
+        <v>585.83333333333439</v>
       </c>
       <c r="J97" s="1">
         <v>1000000000</v>
@@ -12307,8 +12308,8 @@
       <c r="F98" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G98" s="1">
-        <v>845</v>
+      <c r="G98" s="3">
+        <v>602.40000000000111</v>
       </c>
       <c r="J98" s="1">
         <v>2000000000</v>
@@ -12405,8 +12406,8 @@
       <c r="F99" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G99" s="1">
-        <v>900</v>
+      <c r="G99" s="3">
+        <v>618.96666666666783</v>
       </c>
       <c r="J99" s="1">
         <v>2100000000</v>
@@ -12512,8 +12513,8 @@
       <c r="F100" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G100" s="1">
-        <v>950</v>
+      <c r="G100" s="3">
+        <v>635.53333333333455</v>
       </c>
       <c r="J100" s="1">
         <v>2200000000</v>
@@ -12619,8 +12620,8 @@
       <c r="F101" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G101" s="1">
-        <v>1000</v>
+      <c r="G101" s="3">
+        <v>652.10000000000127</v>
       </c>
       <c r="J101" s="1">
         <v>2300000000</v>
@@ -12726,8 +12727,8 @@
       <c r="F102" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G102" s="1">
-        <v>1100</v>
+      <c r="G102" s="3">
+        <v>668.66666666666788</v>
       </c>
       <c r="J102" s="1">
         <v>2400000000</v>
@@ -12833,8 +12834,8 @@
       <c r="F103" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G103" s="1">
-        <v>1200</v>
+      <c r="G103" s="3">
+        <v>685.2333333333346</v>
       </c>
       <c r="J103" s="1">
         <v>2800000000</v>
@@ -12940,8 +12941,8 @@
       <c r="F104" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G104" s="1">
-        <v>1400</v>
+      <c r="G104" s="3">
+        <v>701.80000000000132</v>
       </c>
       <c r="J104" s="1">
         <v>3300000000</v>
@@ -13047,8 +13048,8 @@
       <c r="F105" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G105" s="1">
-        <v>1500</v>
+      <c r="G105" s="3">
+        <v>718.36666666666804</v>
       </c>
       <c r="J105" s="1">
         <v>3500000000</v>
@@ -13154,8 +13155,8 @@
       <c r="F106" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G106" s="1">
-        <v>1600</v>
+      <c r="G106" s="3">
+        <v>734.93333333333476</v>
       </c>
       <c r="J106" s="1">
         <v>3700000000</v>
@@ -13261,8 +13262,8 @@
       <c r="F107" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G107" s="1">
-        <v>1700</v>
+      <c r="G107" s="3">
+        <v>751.50000000000148</v>
       </c>
       <c r="J107" s="1">
         <v>4200000000</v>
@@ -13368,8 +13369,8 @@
       <c r="F108" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G108" s="1">
-        <v>1800</v>
+      <c r="G108" s="3">
+        <v>768.06666666666808</v>
       </c>
       <c r="J108" s="1">
         <v>4400000000</v>
@@ -13475,8 +13476,8 @@
       <c r="F109" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G109" s="1">
-        <v>1900</v>
+      <c r="G109" s="3">
+        <v>784.6333333333348</v>
       </c>
       <c r="J109" s="1">
         <v>4600000000</v>
@@ -13582,8 +13583,8 @@
       <c r="F110" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G110" s="1">
-        <v>2000</v>
+      <c r="G110" s="3">
+        <v>801.20000000000152</v>
       </c>
       <c r="J110" s="1">
         <v>5000000000</v>
@@ -13689,8 +13690,8 @@
       <c r="F111" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G111" s="1">
-        <v>2100</v>
+      <c r="G111" s="3">
+        <v>817.76666666666824</v>
       </c>
       <c r="J111" s="1">
         <v>5300000000</v>
@@ -13796,8 +13797,8 @@
       <c r="F112" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G112" s="1">
-        <v>2200</v>
+      <c r="G112" s="3">
+        <v>834.33333333333496</v>
       </c>
       <c r="J112" s="1">
         <v>5600000000</v>
@@ -13903,8 +13904,8 @@
       <c r="F113" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G113" s="1">
-        <v>2300</v>
+      <c r="G113" s="3">
+        <v>850.90000000000157</v>
       </c>
       <c r="J113" s="1">
         <v>5800000000</v>
@@ -14010,8 +14011,8 @@
       <c r="F114" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G114" s="1">
-        <v>2400</v>
+      <c r="G114" s="3">
+        <v>867.46666666666829</v>
       </c>
       <c r="J114" s="1">
         <v>6000000000</v>
@@ -14117,8 +14118,8 @@
       <c r="F115" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G115" s="1">
-        <v>2500</v>
+      <c r="G115" s="3">
+        <v>884.03333333333501</v>
       </c>
       <c r="J115" s="1">
         <v>6300000000</v>
@@ -14233,8 +14234,8 @@
       <c r="F116" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G116" s="1">
-        <v>2600</v>
+      <c r="G116" s="3">
+        <v>900.60000000000173</v>
       </c>
       <c r="J116" s="1">
         <v>10000000000</v>
@@ -14340,8 +14341,8 @@
       <c r="F117" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G117" s="1">
-        <v>2700</v>
+      <c r="G117" s="3">
+        <v>917.16666666666845</v>
       </c>
       <c r="J117" s="1">
         <v>12000000000</v>
@@ -14447,8 +14448,8 @@
       <c r="F118" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G118" s="1">
-        <v>2800</v>
+      <c r="G118" s="3">
+        <v>933.73333333333517</v>
       </c>
       <c r="I118" s="1">
         <v>0</v>
@@ -14551,8 +14552,8 @@
       <c r="F119" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G119" s="1">
-        <v>2900</v>
+      <c r="G119" s="3">
+        <v>950.30000000000177</v>
       </c>
       <c r="I119" s="1">
         <v>0</v>
@@ -14655,8 +14656,8 @@
       <c r="F120" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G120" s="1">
-        <v>3000</v>
+      <c r="G120" s="3">
+        <v>966.86666666666849</v>
       </c>
       <c r="I120" s="1">
         <v>0</v>
@@ -14759,8 +14760,8 @@
       <c r="F121" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G121" s="1">
-        <v>3100</v>
+      <c r="G121" s="3">
+        <v>983.43333333333521</v>
       </c>
       <c r="I121" s="1">
         <v>0</v>
@@ -14863,8 +14864,8 @@
       <c r="F122" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="G122" s="1">
-        <v>3200</v>
+      <c r="G122" s="3">
+        <v>1000.0000000000019</v>
       </c>
       <c r="I122" s="1">
         <v>0</v>
@@ -14967,8 +14968,8 @@
       <c r="F123" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G123" s="1">
-        <v>4</v>
+      <c r="G123" s="3">
+        <v>6</v>
       </c>
       <c r="J123" s="1">
         <v>10</v>
@@ -15086,8 +15087,8 @@
       <c r="F124" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G124" s="1">
-        <v>8</v>
+      <c r="G124" s="3">
+        <v>23.75</v>
       </c>
       <c r="J124" s="1">
         <v>25</v>
@@ -15196,8 +15197,8 @@
       <c r="F125" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G125" s="1">
-        <v>16</v>
+      <c r="G125" s="3">
+        <v>41.5</v>
       </c>
       <c r="J125" s="1">
         <v>75</v>
@@ -15306,8 +15307,8 @@
       <c r="F126" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G126" s="1">
-        <v>40</v>
+      <c r="G126" s="3">
+        <v>59.25</v>
       </c>
       <c r="J126" s="1">
         <v>150</v>
@@ -15416,8 +15417,8 @@
       <c r="F127" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G127" s="1">
-        <v>80</v>
+      <c r="G127" s="3">
+        <v>77</v>
       </c>
       <c r="J127" s="1">
         <v>250</v>
@@ -15526,8 +15527,8 @@
       <c r="F128" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G128" s="1">
-        <v>120</v>
+      <c r="G128" s="3">
+        <v>94.75</v>
       </c>
       <c r="J128" s="1">
         <v>500</v>
@@ -15636,8 +15637,8 @@
       <c r="F129" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G129" s="1">
-        <v>145</v>
+      <c r="G129" s="3">
+        <v>112.5</v>
       </c>
       <c r="J129" s="1">
         <v>750</v>
@@ -15740,8 +15741,8 @@
       <c r="F130" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G130" s="1">
-        <v>160</v>
+      <c r="G130" s="3">
+        <v>130.25</v>
       </c>
       <c r="J130" s="1">
         <v>1000</v>
@@ -15841,8 +15842,8 @@
       <c r="F131" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G131" s="1">
-        <v>190</v>
+      <c r="G131" s="3">
+        <v>148</v>
       </c>
       <c r="J131" s="1">
         <v>1500</v>
@@ -15942,8 +15943,8 @@
       <c r="F132" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G132" s="1">
-        <v>220</v>
+      <c r="G132" s="3">
+        <v>165.75</v>
       </c>
       <c r="J132" s="1">
         <v>3000</v>
@@ -16043,8 +16044,8 @@
       <c r="F133" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G133" s="1">
-        <v>250</v>
+      <c r="G133" s="3">
+        <v>183.5</v>
       </c>
       <c r="J133" s="1">
         <v>5000</v>
@@ -16144,8 +16145,8 @@
       <c r="F134" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G134" s="1">
-        <v>280</v>
+      <c r="G134" s="3">
+        <v>201.25</v>
       </c>
       <c r="J134" s="1">
         <v>7000</v>
@@ -16245,8 +16246,8 @@
       <c r="F135" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G135" s="1">
-        <v>340</v>
+      <c r="G135" s="3">
+        <v>219</v>
       </c>
       <c r="J135" s="1">
         <v>10000</v>
@@ -16346,8 +16347,8 @@
       <c r="F136" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G136" s="1">
-        <v>380</v>
+      <c r="G136" s="3">
+        <v>236.75</v>
       </c>
       <c r="J136" s="1">
         <v>15000</v>
@@ -16447,8 +16448,8 @@
       <c r="F137" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G137" s="1">
-        <v>450</v>
+      <c r="G137" s="3">
+        <v>254.5</v>
       </c>
       <c r="J137" s="1">
         <v>30000</v>
@@ -16548,8 +16549,8 @@
       <c r="F138" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G138" s="1">
-        <v>475</v>
+      <c r="G138" s="3">
+        <v>272.25</v>
       </c>
       <c r="J138" s="1">
         <v>60000</v>
@@ -16649,8 +16650,8 @@
       <c r="F139" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G139" s="1">
-        <v>490</v>
+      <c r="G139" s="3">
+        <v>290</v>
       </c>
       <c r="J139" s="1">
         <v>120000</v>
@@ -16750,8 +16751,8 @@
       <c r="F140" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G140" s="1">
-        <v>520</v>
+      <c r="G140" s="3">
+        <v>307.75</v>
       </c>
       <c r="J140" s="1">
         <v>180000</v>
@@ -16851,8 +16852,8 @@
       <c r="F141" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G141" s="1">
-        <v>540</v>
+      <c r="G141" s="3">
+        <v>325.5</v>
       </c>
       <c r="J141" s="1">
         <v>240000</v>
@@ -16952,8 +16953,8 @@
       <c r="F142" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G142" s="1">
-        <v>560</v>
+      <c r="G142" s="3">
+        <v>343.25</v>
       </c>
       <c r="J142" s="1">
         <v>260000</v>
@@ -17053,8 +17054,8 @@
       <c r="F143" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G143" s="1">
-        <v>580</v>
+      <c r="G143" s="3">
+        <v>361</v>
       </c>
       <c r="J143" s="1">
         <v>350000</v>
@@ -17154,8 +17155,8 @@
       <c r="F144" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G144" s="1">
-        <v>600</v>
+      <c r="G144" s="3">
+        <v>378.75</v>
       </c>
       <c r="J144" s="1">
         <v>500000</v>
@@ -17255,8 +17256,8 @@
       <c r="F145" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G145" s="1">
-        <v>620</v>
+      <c r="G145" s="3">
+        <v>396.5</v>
       </c>
       <c r="J145" s="1">
         <v>1000000</v>
@@ -17356,8 +17357,8 @@
       <c r="F146" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G146" s="1">
-        <v>630</v>
+      <c r="G146" s="3">
+        <v>414.25</v>
       </c>
       <c r="J146" s="1">
         <v>10000000</v>
@@ -17457,8 +17458,8 @@
       <c r="F147" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G147" s="1">
-        <v>640</v>
+      <c r="G147" s="3">
+        <v>432</v>
       </c>
       <c r="J147" s="1">
         <v>25000000</v>
@@ -17558,8 +17559,8 @@
       <c r="F148" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G148" s="1">
-        <v>660</v>
+      <c r="G148" s="3">
+        <v>449.75</v>
       </c>
       <c r="J148" s="1">
         <v>40000000</v>
@@ -17659,8 +17660,8 @@
       <c r="F149" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G149" s="1">
-        <v>680</v>
+      <c r="G149" s="3">
+        <v>467.5</v>
       </c>
       <c r="J149" s="1">
         <v>65000000</v>
@@ -17760,8 +17761,8 @@
       <c r="F150" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G150" s="1">
-        <v>700</v>
+      <c r="G150" s="3">
+        <v>485.25</v>
       </c>
       <c r="J150" s="1">
         <v>100000000</v>
@@ -17861,8 +17862,8 @@
       <c r="F151" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G151" s="1">
-        <v>720</v>
+      <c r="G151" s="3">
+        <v>503</v>
       </c>
       <c r="J151" s="1">
         <v>160000000</v>
@@ -17962,8 +17963,8 @@
       <c r="F152" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G152" s="1">
-        <v>730</v>
+      <c r="G152" s="3">
+        <v>520.75</v>
       </c>
       <c r="J152" s="1">
         <v>250000000</v>
@@ -18063,8 +18064,8 @@
       <c r="F153" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G153" s="1">
-        <v>800</v>
+      <c r="G153" s="3">
+        <v>538.5</v>
       </c>
       <c r="J153" s="1">
         <v>1000000000</v>
@@ -18164,8 +18165,8 @@
       <c r="F154" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G154" s="1">
-        <v>845</v>
+      <c r="G154" s="3">
+        <v>556.25</v>
       </c>
       <c r="J154" s="1">
         <v>2000000000</v>
@@ -18265,8 +18266,8 @@
       <c r="F155" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G155" s="1">
-        <v>900</v>
+      <c r="G155" s="3">
+        <v>574</v>
       </c>
       <c r="J155" s="1">
         <v>2100000000</v>
@@ -18375,8 +18376,8 @@
       <c r="F156" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G156" s="1">
-        <v>950</v>
+      <c r="G156" s="3">
+        <v>591.75</v>
       </c>
       <c r="J156" s="1">
         <v>2200000000</v>
@@ -18485,8 +18486,8 @@
       <c r="F157" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G157" s="1">
-        <v>1000</v>
+      <c r="G157" s="3">
+        <v>609.5</v>
       </c>
       <c r="J157" s="1">
         <v>2300000000</v>
@@ -18595,8 +18596,8 @@
       <c r="F158" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G158" s="1">
-        <v>1100</v>
+      <c r="G158" s="3">
+        <v>627.25</v>
       </c>
       <c r="J158" s="1">
         <v>2400000000</v>
@@ -18705,8 +18706,8 @@
       <c r="F159" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G159" s="1">
-        <v>1200</v>
+      <c r="G159" s="3">
+        <v>645</v>
       </c>
       <c r="J159" s="1">
         <v>2800000000</v>
@@ -18815,8 +18816,8 @@
       <c r="F160" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G160" s="1">
-        <v>1400</v>
+      <c r="G160" s="3">
+        <v>662.75</v>
       </c>
       <c r="J160" s="1">
         <v>3300000000</v>
@@ -18925,8 +18926,8 @@
       <c r="F161" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G161" s="1">
-        <v>1500</v>
+      <c r="G161" s="3">
+        <v>680.5</v>
       </c>
       <c r="J161" s="1">
         <v>3500000000</v>
@@ -19035,8 +19036,8 @@
       <c r="F162" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G162" s="1">
-        <v>1600</v>
+      <c r="G162" s="3">
+        <v>698.25</v>
       </c>
       <c r="J162" s="1">
         <v>3700000000</v>
@@ -19145,8 +19146,8 @@
       <c r="F163" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G163" s="1">
-        <v>1700</v>
+      <c r="G163" s="3">
+        <v>716</v>
       </c>
       <c r="J163" s="1">
         <v>4200000000</v>
@@ -19255,8 +19256,8 @@
       <c r="F164" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G164" s="1">
-        <v>1800</v>
+      <c r="G164" s="3">
+        <v>733.75</v>
       </c>
       <c r="J164" s="1">
         <v>4400000000</v>
@@ -19365,8 +19366,8 @@
       <c r="F165" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G165" s="1">
-        <v>1900</v>
+      <c r="G165" s="3">
+        <v>751.5</v>
       </c>
       <c r="J165" s="1">
         <v>4600000000</v>
@@ -19475,8 +19476,8 @@
       <c r="F166" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G166" s="1">
-        <v>2000</v>
+      <c r="G166" s="3">
+        <v>769.25</v>
       </c>
       <c r="J166" s="1">
         <v>5000000000</v>
@@ -19585,8 +19586,8 @@
       <c r="F167" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G167" s="1">
-        <v>2100</v>
+      <c r="G167" s="3">
+        <v>787</v>
       </c>
       <c r="J167" s="1">
         <v>5300000000</v>
@@ -19695,8 +19696,8 @@
       <c r="F168" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G168" s="1">
-        <v>2200</v>
+      <c r="G168" s="3">
+        <v>804.75</v>
       </c>
       <c r="J168" s="1">
         <v>5600000000</v>
@@ -19805,8 +19806,8 @@
       <c r="F169" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G169" s="1">
-        <v>2300</v>
+      <c r="G169" s="3">
+        <v>822.5</v>
       </c>
       <c r="J169" s="1">
         <v>5800000000</v>
@@ -19915,8 +19916,8 @@
       <c r="F170" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G170" s="1">
-        <v>2400</v>
+      <c r="G170" s="3">
+        <v>840.25</v>
       </c>
       <c r="J170" s="1">
         <v>6000000000</v>
@@ -20025,8 +20026,8 @@
       <c r="F171" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G171" s="1">
-        <v>2500</v>
+      <c r="G171" s="3">
+        <v>858</v>
       </c>
       <c r="J171" s="1">
         <v>6300000000</v>
@@ -20144,8 +20145,8 @@
       <c r="F172" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G172" s="1">
-        <v>2600</v>
+      <c r="G172" s="3">
+        <v>875.75</v>
       </c>
       <c r="J172" s="1">
         <v>10000000000</v>
@@ -20250,8 +20251,8 @@
       <c r="F173" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G173" s="1">
-        <v>2600</v>
+      <c r="G173" s="3">
+        <v>893.5</v>
       </c>
       <c r="J173" s="1">
         <v>10000000000</v>
@@ -20360,8 +20361,8 @@
       <c r="F174" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G174" s="1">
-        <v>2700</v>
+      <c r="G174" s="3">
+        <v>911.25</v>
       </c>
       <c r="J174" s="1">
         <v>12000000000</v>
@@ -20470,8 +20471,8 @@
       <c r="F175" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G175" s="1">
-        <v>2800</v>
+      <c r="G175" s="3">
+        <v>929</v>
       </c>
       <c r="I175" s="1">
         <v>0</v>
@@ -20577,8 +20578,8 @@
       <c r="F176" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G176" s="1">
-        <v>2900</v>
+      <c r="G176" s="3">
+        <v>946.75</v>
       </c>
       <c r="I176" s="1">
         <v>0</v>
@@ -20684,8 +20685,8 @@
       <c r="F177" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G177" s="1">
-        <v>3000</v>
+      <c r="G177" s="3">
+        <v>964.5</v>
       </c>
       <c r="I177" s="1">
         <v>0</v>
@@ -20791,8 +20792,8 @@
       <c r="F178" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G178" s="1">
-        <v>3100</v>
+      <c r="G178" s="3">
+        <v>982.25</v>
       </c>
       <c r="I178" s="1">
         <v>0</v>
@@ -20898,8 +20899,8 @@
       <c r="F179" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="G179" s="1">
-        <v>3200</v>
+      <c r="G179" s="3">
+        <v>1000</v>
       </c>
       <c r="I179" s="1">
         <v>0</v>
@@ -21005,8 +21006,8 @@
       <c r="F180" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G180" s="1">
-        <v>4</v>
+      <c r="G180" s="3">
+        <v>6</v>
       </c>
       <c r="J180" s="1">
         <v>10</v>
@@ -21122,8 +21123,8 @@
       <c r="F181" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G181" s="1">
-        <v>8</v>
+      <c r="G181" s="3">
+        <v>24.072727272727299</v>
       </c>
       <c r="J181" s="1">
         <v>25</v>
@@ -21227,8 +21228,8 @@
       <c r="F182" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G182" s="1">
-        <v>16</v>
+      <c r="G182" s="3">
+        <v>42.145454545454598</v>
       </c>
       <c r="J182" s="1">
         <v>75</v>
@@ -21332,8 +21333,8 @@
       <c r="F183" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G183" s="1">
-        <v>40</v>
+      <c r="G183" s="3">
+        <v>60.218181818181897</v>
       </c>
       <c r="J183" s="1">
         <v>150</v>
@@ -21436,8 +21437,8 @@
       <c r="F184" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G184" s="1">
-        <v>80</v>
+      <c r="G184" s="3">
+        <v>78.290909090909196</v>
       </c>
       <c r="J184" s="1">
         <v>250</v>
@@ -21540,8 +21541,8 @@
       <c r="F185" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G185" s="1">
-        <v>120</v>
+      <c r="G185" s="3">
+        <v>96.363636363636488</v>
       </c>
       <c r="J185" s="1">
         <v>500</v>
@@ -21644,8 +21645,8 @@
       <c r="F186" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G186" s="1">
-        <v>145</v>
+      <c r="G186" s="3">
+        <v>114.43636363636379</v>
       </c>
       <c r="J186" s="1">
         <v>750</v>
@@ -21733,8 +21734,8 @@
       <c r="F187" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G187" s="1">
-        <v>160</v>
+      <c r="G187" s="3">
+        <v>132.5090909090911</v>
       </c>
       <c r="J187" s="1">
         <v>1000</v>
@@ -21828,8 +21829,8 @@
       <c r="F188" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G188" s="1">
-        <v>190</v>
+      <c r="G188" s="3">
+        <v>150.58181818181839</v>
       </c>
       <c r="J188" s="1">
         <v>1500</v>
@@ -21923,8 +21924,8 @@
       <c r="F189" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G189" s="1">
-        <v>220</v>
+      <c r="G189" s="3">
+        <v>168.65454545454568</v>
       </c>
       <c r="J189" s="1">
         <v>3000</v>
@@ -22018,8 +22019,8 @@
       <c r="F190" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G190" s="1">
-        <v>250</v>
+      <c r="G190" s="3">
+        <v>186.72727272727298</v>
       </c>
       <c r="J190" s="1">
         <v>5000</v>
@@ -22113,8 +22114,8 @@
       <c r="F191" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G191" s="1">
-        <v>280</v>
+      <c r="G191" s="3">
+        <v>204.8000000000003</v>
       </c>
       <c r="J191" s="1">
         <v>7000</v>
@@ -22208,8 +22209,8 @@
       <c r="F192" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G192" s="1">
-        <v>340</v>
+      <c r="G192" s="3">
+        <v>222.87272727272759</v>
       </c>
       <c r="J192" s="1">
         <v>10000</v>
@@ -22303,8 +22304,8 @@
       <c r="F193" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G193" s="1">
-        <v>380</v>
+      <c r="G193" s="3">
+        <v>240.94545454545488</v>
       </c>
       <c r="J193" s="1">
         <v>15000</v>
@@ -22398,8 +22399,8 @@
       <c r="F194" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G194" s="1">
-        <v>450</v>
+      <c r="G194" s="3">
+        <v>259.0181818181822</v>
       </c>
       <c r="J194" s="1">
         <v>30000</v>
@@ -22493,8 +22494,8 @@
       <c r="F195" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G195" s="1">
-        <v>475</v>
+      <c r="G195" s="3">
+        <v>277.09090909090946</v>
       </c>
       <c r="J195" s="1">
         <v>60000</v>
@@ -22579,8 +22580,8 @@
       <c r="F196" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G196" s="1">
-        <v>490</v>
+      <c r="G196" s="3">
+        <v>295.16363636363678</v>
       </c>
       <c r="J196" s="1">
         <v>120000</v>
@@ -22674,8 +22675,8 @@
       <c r="F197" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G197" s="1">
-        <v>520</v>
+      <c r="G197" s="3">
+        <v>313.2363636363641</v>
       </c>
       <c r="J197" s="1">
         <v>180000</v>
@@ -22769,8 +22770,8 @@
       <c r="F198" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G198" s="1">
-        <v>540</v>
+      <c r="G198" s="3">
+        <v>331.30909090909137</v>
       </c>
       <c r="J198" s="1">
         <v>240000</v>
@@ -22855,8 +22856,8 @@
       <c r="F199" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G199" s="1">
-        <v>560</v>
+      <c r="G199" s="3">
+        <v>349.38181818181869</v>
       </c>
       <c r="J199" s="1">
         <v>260000</v>
@@ -22950,8 +22951,8 @@
       <c r="F200" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G200" s="1">
-        <v>580</v>
+      <c r="G200" s="3">
+        <v>367.45454545454595</v>
       </c>
       <c r="J200" s="1">
         <v>350000</v>
@@ -23045,8 +23046,8 @@
       <c r="F201" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G201" s="1">
-        <v>600</v>
+      <c r="G201" s="3">
+        <v>385.52727272727327</v>
       </c>
       <c r="J201" s="1">
         <v>500000</v>
@@ -23140,8 +23141,8 @@
       <c r="F202" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G202" s="1">
-        <v>620</v>
+      <c r="G202" s="3">
+        <v>403.60000000000059</v>
       </c>
       <c r="J202" s="1">
         <v>1000000</v>
@@ -23235,8 +23236,8 @@
       <c r="F203" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G203" s="1">
-        <v>630</v>
+      <c r="G203" s="3">
+        <v>421.67272727272785</v>
       </c>
       <c r="J203" s="1">
         <v>10000000</v>
@@ -23330,8 +23331,8 @@
       <c r="F204" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G204" s="1">
-        <v>640</v>
+      <c r="G204" s="3">
+        <v>439.74545454545517</v>
       </c>
       <c r="J204" s="1">
         <v>25000000</v>
@@ -23428,8 +23429,8 @@
       <c r="F205" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G205" s="1">
-        <v>660</v>
+      <c r="G205" s="3">
+        <v>457.8181818181825</v>
       </c>
       <c r="J205" s="1">
         <v>40000000</v>
@@ -23523,8 +23524,8 @@
       <c r="F206" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G206" s="1">
-        <v>680</v>
+      <c r="G206" s="3">
+        <v>475.89090909090976</v>
       </c>
       <c r="J206" s="1">
         <v>65000000</v>
@@ -23618,8 +23619,8 @@
       <c r="F207" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G207" s="1">
-        <v>700</v>
+      <c r="G207" s="3">
+        <v>493.96363636363708</v>
       </c>
       <c r="J207" s="1">
         <v>100000000</v>
@@ -23713,8 +23714,8 @@
       <c r="F208" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G208" s="1">
-        <v>720</v>
+      <c r="G208" s="3">
+        <v>512.0363636363644</v>
       </c>
       <c r="J208" s="1">
         <v>160000000</v>
@@ -23799,8 +23800,8 @@
       <c r="F209" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G209" s="1">
-        <v>730</v>
+      <c r="G209" s="3">
+        <v>530.10909090909172</v>
       </c>
       <c r="J209" s="1">
         <v>250000000</v>
@@ -23894,8 +23895,8 @@
       <c r="F210" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G210" s="1">
-        <v>800</v>
+      <c r="G210" s="3">
+        <v>548.18181818181893</v>
       </c>
       <c r="J210" s="1">
         <v>1000000000</v>
@@ -23989,8 +23990,8 @@
       <c r="F211" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G211" s="1">
-        <v>845</v>
+      <c r="G211" s="3">
+        <v>566.25454545454625</v>
       </c>
       <c r="J211" s="1">
         <v>2000000000</v>
@@ -24084,8 +24085,8 @@
       <c r="F212" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G212" s="1">
-        <v>900</v>
+      <c r="G212" s="3">
+        <v>584.32727272727357</v>
       </c>
       <c r="J212" s="1">
         <v>2100000000</v>
@@ -24188,8 +24189,8 @@
       <c r="F213" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G213" s="1">
-        <v>950</v>
+      <c r="G213" s="3">
+        <v>602.40000000000089</v>
       </c>
       <c r="J213" s="1">
         <v>2200000000</v>
@@ -24292,8 +24293,8 @@
       <c r="F214" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G214" s="1">
-        <v>1000</v>
+      <c r="G214" s="3">
+        <v>620.47272727272821</v>
       </c>
       <c r="J214" s="1">
         <v>2300000000</v>
@@ -24396,8 +24397,8 @@
       <c r="F215" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G215" s="1">
-        <v>1100</v>
+      <c r="G215" s="3">
+        <v>638.54545454545541</v>
       </c>
       <c r="J215" s="1">
         <v>2400000000</v>
@@ -24500,8 +24501,8 @@
       <c r="F216" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G216" s="1">
-        <v>1200</v>
+      <c r="G216" s="3">
+        <v>656.61818181818273</v>
       </c>
       <c r="J216" s="1">
         <v>2800000000</v>
@@ -24598,8 +24599,8 @@
       <c r="F217" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G217" s="1">
-        <v>1400</v>
+      <c r="G217" s="3">
+        <v>674.69090909091005</v>
       </c>
       <c r="J217" s="1">
         <v>3300000000</v>
@@ -24705,8 +24706,8 @@
       <c r="F218" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G218" s="1">
-        <v>1500</v>
+      <c r="G218" s="3">
+        <v>692.76363636363737</v>
       </c>
       <c r="J218" s="1">
         <v>3500000000</v>
@@ -24812,8 +24813,8 @@
       <c r="F219" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G219" s="1">
-        <v>1600</v>
+      <c r="G219" s="3">
+        <v>710.83636363636469</v>
       </c>
       <c r="J219" s="1">
         <v>3700000000</v>
@@ -24919,8 +24920,8 @@
       <c r="F220" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G220" s="1">
-        <v>1700</v>
+      <c r="G220" s="3">
+        <v>728.9090909090919</v>
       </c>
       <c r="J220" s="1">
         <v>4200000000</v>
@@ -25026,8 +25027,8 @@
       <c r="F221" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G221" s="1">
-        <v>1800</v>
+      <c r="G221" s="3">
+        <v>746.98181818181922</v>
       </c>
       <c r="J221" s="1">
         <v>4400000000</v>
@@ -25133,8 +25134,8 @@
       <c r="F222" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G222" s="1">
-        <v>1900</v>
+      <c r="G222" s="3">
+        <v>765.05454545454654</v>
       </c>
       <c r="J222" s="1">
         <v>4600000000</v>
@@ -25231,8 +25232,8 @@
       <c r="F223" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G223" s="1">
-        <v>2000</v>
+      <c r="G223" s="3">
+        <v>783.12727272727386</v>
       </c>
       <c r="J223" s="1">
         <v>5000000000</v>
@@ -25338,8 +25339,8 @@
       <c r="F224" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G224" s="1">
-        <v>2100</v>
+      <c r="G224" s="3">
+        <v>801.20000000000118</v>
       </c>
       <c r="J224" s="1">
         <v>5300000000</v>
@@ -25445,8 +25446,8 @@
       <c r="F225" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G225" s="1">
-        <v>2200</v>
+      <c r="G225" s="3">
+        <v>819.2727272727285</v>
       </c>
       <c r="J225" s="1">
         <v>5600000000</v>
@@ -25552,8 +25553,8 @@
       <c r="F226" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G226" s="1">
-        <v>2300</v>
+      <c r="G226" s="3">
+        <v>837.34545454545571</v>
       </c>
       <c r="J226" s="1">
         <v>5800000000</v>
@@ -25650,8 +25651,8 @@
       <c r="F227" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G227" s="1">
-        <v>2400</v>
+      <c r="G227" s="3">
+        <v>855.41818181818303</v>
       </c>
       <c r="J227" s="1">
         <v>6000000000</v>
@@ -25757,8 +25758,8 @@
       <c r="F228" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G228" s="1">
-        <v>2500</v>
+      <c r="G228" s="3">
+        <v>873.49090909091035</v>
       </c>
       <c r="J228" s="1">
         <v>6300000000</v>
@@ -25876,8 +25877,8 @@
       <c r="F229" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G229" s="1">
-        <v>2600</v>
+      <c r="G229" s="3">
+        <v>891.56363636363767</v>
       </c>
       <c r="J229" s="1">
         <v>10000000000</v>
@@ -25983,8 +25984,8 @@
       <c r="F230" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G230" s="1">
-        <v>2700</v>
+      <c r="G230" s="3">
+        <v>909.63636363636499</v>
       </c>
       <c r="J230" s="1">
         <v>12000000000</v>
@@ -26090,8 +26091,8 @@
       <c r="F231" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G231" s="1">
-        <v>2800</v>
+      <c r="G231" s="3">
+        <v>927.7090909090922</v>
       </c>
       <c r="I231" s="1">
         <v>0</v>
@@ -26194,8 +26195,8 @@
       <c r="F232" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G232" s="1">
-        <v>2900</v>
+      <c r="G232" s="3">
+        <v>945.78181818181952</v>
       </c>
       <c r="I232" s="1">
         <v>0</v>
@@ -26298,8 +26299,8 @@
       <c r="F233" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G233" s="1">
-        <v>3000</v>
+      <c r="G233" s="3">
+        <v>963.85454545454684</v>
       </c>
       <c r="I233" s="1">
         <v>0</v>
@@ -26402,8 +26403,8 @@
       <c r="F234" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G234" s="1">
-        <v>3100</v>
+      <c r="G234" s="3">
+        <v>981.92727272727416</v>
       </c>
       <c r="I234" s="1">
         <v>0</v>
@@ -26506,8 +26507,8 @@
       <c r="F235" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="G235" s="1">
-        <v>3200</v>
+      <c r="G235" s="3">
+        <v>1000.0000000000015</v>
       </c>
       <c r="I235" s="1">
         <v>0</v>

--- a/resources/data-imports/items/weapons.xlsx
+++ b/resources/data-imports/items/weapons.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="521">
   <si>
     <t>id</t>
   </si>
@@ -672,12 +672,6 @@
   </si>
   <si>
     <t>Death's cane. It's that simple.</t>
-  </si>
-  <si>
-    <t>Bone Staff of Necromancy</t>
-  </si>
-  <si>
-    <t>A staff from some poor soul's bone that is used to raise the dead.</t>
   </si>
   <si>
     <t>Hopeless Tear Staff</t>
@@ -1919,7 +1913,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BM229"/>
+  <dimension ref="A1:BM228"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -5705,7 +5699,7 @@
     </row>
     <row r="78" spans="1:65">
       <c r="A78">
-        <v>312283</v>
+        <v>310060</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -5723,19 +5717,19 @@
         <v>187</v>
       </c>
       <c r="G78">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="J78">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="U78">
-        <v>0.0908</v>
+        <v>0.0948</v>
       </c>
       <c r="Y78">
         <v>1</v>
       </c>
       <c r="AA78">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB78">
         <v>190</v>
@@ -5744,7 +5738,7 @@
         <v>66</v>
       </c>
       <c r="AF78">
-        <v>0.336</v>
+        <v>0.364</v>
       </c>
       <c r="BI78">
         <v>10</v>
@@ -5752,7 +5746,7 @@
     </row>
     <row r="79" spans="1:65">
       <c r="A79">
-        <v>310060</v>
+        <v>310061</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -5770,28 +5764,28 @@
         <v>187</v>
       </c>
       <c r="G79">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="J79">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="U79">
-        <v>0.0948</v>
+        <v>0.0989</v>
       </c>
       <c r="Y79">
         <v>1</v>
       </c>
       <c r="AA79">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB79">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AC79" t="s">
         <v>66</v>
       </c>
       <c r="AF79">
-        <v>0.364</v>
+        <v>0.392</v>
       </c>
       <c r="BI79">
         <v>10</v>
@@ -5799,7 +5793,7 @@
     </row>
     <row r="80" spans="1:65">
       <c r="A80">
-        <v>310061</v>
+        <v>310062</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -5817,19 +5811,19 @@
         <v>187</v>
       </c>
       <c r="G80">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="J80">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="U80">
-        <v>0.0989</v>
+        <v>0.103</v>
       </c>
       <c r="Y80">
         <v>1</v>
       </c>
       <c r="AA80">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB80">
         <v>200</v>
@@ -5838,7 +5832,7 @@
         <v>66</v>
       </c>
       <c r="AF80">
-        <v>0.392</v>
+        <v>0.42</v>
       </c>
       <c r="BI80">
         <v>10</v>
@@ -5846,7 +5840,7 @@
     </row>
     <row r="81" spans="1:65">
       <c r="A81">
-        <v>310062</v>
+        <v>310063</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -5864,19 +5858,19 @@
         <v>187</v>
       </c>
       <c r="G81">
-        <v>404</v>
+        <v>420</v>
       </c>
       <c r="J81">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="U81">
-        <v>0.103</v>
+        <v>0.1071</v>
       </c>
       <c r="Y81">
         <v>1</v>
       </c>
       <c r="AA81">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB81">
         <v>200</v>
@@ -5885,7 +5879,7 @@
         <v>66</v>
       </c>
       <c r="AF81">
-        <v>0.42</v>
+        <v>0.448</v>
       </c>
       <c r="BI81">
         <v>10</v>
@@ -5893,7 +5887,7 @@
     </row>
     <row r="82" spans="1:65">
       <c r="A82">
-        <v>310063</v>
+        <v>310064</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -5911,19 +5905,19 @@
         <v>187</v>
       </c>
       <c r="G82">
-        <v>420</v>
+        <v>437</v>
       </c>
       <c r="J82">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="U82">
-        <v>0.1071</v>
+        <v>0.1112</v>
       </c>
       <c r="Y82">
         <v>1</v>
       </c>
       <c r="AA82">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB82">
         <v>200</v>
@@ -5932,7 +5926,7 @@
         <v>66</v>
       </c>
       <c r="AF82">
-        <v>0.448</v>
+        <v>0.476</v>
       </c>
       <c r="BI82">
         <v>10</v>
@@ -5940,7 +5934,7 @@
     </row>
     <row r="83" spans="1:65">
       <c r="A83">
-        <v>310064</v>
+        <v>310065</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -5958,19 +5952,19 @@
         <v>187</v>
       </c>
       <c r="G83">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="J83">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="U83">
-        <v>0.1112</v>
+        <v>0.1153</v>
       </c>
       <c r="Y83">
         <v>1</v>
       </c>
       <c r="AA83">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB83">
         <v>200</v>
@@ -5979,7 +5973,7 @@
         <v>66</v>
       </c>
       <c r="AF83">
-        <v>0.476</v>
+        <v>0.504</v>
       </c>
       <c r="BI83">
         <v>10</v>
@@ -5987,7 +5981,7 @@
     </row>
     <row r="84" spans="1:65">
       <c r="A84">
-        <v>310065</v>
+        <v>310066</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -6005,19 +5999,19 @@
         <v>187</v>
       </c>
       <c r="G84">
-        <v>453</v>
+        <v>470</v>
       </c>
       <c r="J84">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="U84">
-        <v>0.1153</v>
+        <v>0.1193</v>
       </c>
       <c r="Y84">
         <v>1</v>
       </c>
       <c r="AA84">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB84">
         <v>200</v>
@@ -6026,7 +6020,7 @@
         <v>66</v>
       </c>
       <c r="AF84">
-        <v>0.504</v>
+        <v>0.532</v>
       </c>
       <c r="BI84">
         <v>10</v>
@@ -6034,7 +6028,7 @@
     </row>
     <row r="85" spans="1:65">
       <c r="A85">
-        <v>310066</v>
+        <v>310067</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -6052,19 +6046,19 @@
         <v>187</v>
       </c>
       <c r="G85">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="J85">
-        <v>10000000</v>
+        <v>25000000</v>
       </c>
       <c r="U85">
-        <v>0.1193</v>
+        <v>0.1234</v>
       </c>
       <c r="Y85">
         <v>1</v>
       </c>
       <c r="AA85">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB85">
         <v>200</v>
@@ -6073,7 +6067,7 @@
         <v>66</v>
       </c>
       <c r="AF85">
-        <v>0.532</v>
+        <v>0.56</v>
       </c>
       <c r="BI85">
         <v>10</v>
@@ -6081,7 +6075,7 @@
     </row>
     <row r="86" spans="1:65">
       <c r="A86">
-        <v>310067</v>
+        <v>310068</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -6099,19 +6093,19 @@
         <v>187</v>
       </c>
       <c r="G86">
-        <v>486</v>
+        <v>503</v>
       </c>
       <c r="J86">
-        <v>25000000</v>
+        <v>40000000</v>
       </c>
       <c r="U86">
-        <v>0.1234</v>
+        <v>0.1275</v>
       </c>
       <c r="Y86">
         <v>1</v>
       </c>
       <c r="AA86">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB86">
         <v>200</v>
@@ -6120,7 +6114,7 @@
         <v>66</v>
       </c>
       <c r="AF86">
-        <v>0.56</v>
+        <v>0.588</v>
       </c>
       <c r="BI86">
         <v>10</v>
@@ -6128,7 +6122,7 @@
     </row>
     <row r="87" spans="1:65">
       <c r="A87">
-        <v>310068</v>
+        <v>310069</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -6146,19 +6140,19 @@
         <v>187</v>
       </c>
       <c r="G87">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="J87">
-        <v>40000000</v>
+        <v>65000000</v>
       </c>
       <c r="U87">
-        <v>0.1275</v>
+        <v>0.1316</v>
       </c>
       <c r="Y87">
         <v>1</v>
       </c>
       <c r="AA87">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB87">
         <v>200</v>
@@ -6167,7 +6161,7 @@
         <v>66</v>
       </c>
       <c r="AF87">
-        <v>0.588</v>
+        <v>0.616</v>
       </c>
       <c r="BI87">
         <v>10</v>
@@ -6175,7 +6169,7 @@
     </row>
     <row r="88" spans="1:65">
       <c r="A88">
-        <v>310069</v>
+        <v>310070</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -6193,19 +6187,19 @@
         <v>187</v>
       </c>
       <c r="G88">
-        <v>520</v>
+        <v>536</v>
       </c>
       <c r="J88">
-        <v>65000000</v>
+        <v>100000000</v>
       </c>
       <c r="U88">
-        <v>0.1316</v>
+        <v>0.1357</v>
       </c>
       <c r="Y88">
         <v>1</v>
       </c>
       <c r="AA88">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB88">
         <v>200</v>
@@ -6214,7 +6208,7 @@
         <v>66</v>
       </c>
       <c r="AF88">
-        <v>0.616</v>
+        <v>0.644</v>
       </c>
       <c r="BI88">
         <v>10</v>
@@ -6222,7 +6216,7 @@
     </row>
     <row r="89" spans="1:65">
       <c r="A89">
-        <v>310070</v>
+        <v>310071</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -6240,19 +6234,19 @@
         <v>187</v>
       </c>
       <c r="G89">
-        <v>536</v>
+        <v>553</v>
       </c>
       <c r="J89">
-        <v>100000000</v>
+        <v>160000000</v>
       </c>
       <c r="U89">
-        <v>0.1357</v>
+        <v>0.1398</v>
       </c>
       <c r="Y89">
         <v>1</v>
       </c>
       <c r="AA89">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB89">
         <v>200</v>
@@ -6261,7 +6255,7 @@
         <v>66</v>
       </c>
       <c r="AF89">
-        <v>0.644</v>
+        <v>0.672</v>
       </c>
       <c r="BI89">
         <v>10</v>
@@ -6269,7 +6263,7 @@
     </row>
     <row r="90" spans="1:65">
       <c r="A90">
-        <v>310071</v>
+        <v>310072</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -6287,36 +6281,36 @@
         <v>187</v>
       </c>
       <c r="G90">
-        <v>553</v>
+        <v>569</v>
       </c>
       <c r="J90">
-        <v>160000000</v>
+        <v>250000000</v>
       </c>
       <c r="U90">
-        <v>0.1398</v>
+        <v>0.1438</v>
       </c>
       <c r="Y90">
         <v>1</v>
       </c>
       <c r="AA90">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB90">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AC90" t="s">
         <v>66</v>
       </c>
       <c r="AF90">
-        <v>0.672</v>
+        <v>0.7</v>
       </c>
       <c r="BI90">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:65">
       <c r="A91">
-        <v>310072</v>
+        <v>310073</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -6334,28 +6328,28 @@
         <v>187</v>
       </c>
       <c r="G91">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="J91">
-        <v>250000000</v>
+        <v>1000000000</v>
       </c>
       <c r="U91">
-        <v>0.1438</v>
+        <v>0.1479</v>
       </c>
       <c r="Y91">
         <v>1</v>
       </c>
       <c r="AA91">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AB91">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AC91" t="s">
         <v>66</v>
       </c>
       <c r="AF91">
-        <v>0.7</v>
+        <v>0.728</v>
       </c>
       <c r="BI91">
         <v>11</v>
@@ -6363,7 +6357,7 @@
     </row>
     <row r="92" spans="1:65">
       <c r="A92">
-        <v>310073</v>
+        <v>310074</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -6381,28 +6375,28 @@
         <v>187</v>
       </c>
       <c r="G92">
-        <v>586</v>
+        <v>602</v>
       </c>
       <c r="J92">
-        <v>1000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="U92">
-        <v>0.1479</v>
+        <v>0.152</v>
       </c>
       <c r="Y92">
         <v>1</v>
       </c>
       <c r="AA92">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AB92">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AC92" t="s">
         <v>66</v>
       </c>
       <c r="AF92">
-        <v>0.728</v>
+        <v>0.756</v>
       </c>
       <c r="BI92">
         <v>11</v>
@@ -6410,7 +6404,7 @@
     </row>
     <row r="93" spans="1:65">
       <c r="A93">
-        <v>310074</v>
+        <v>310075</v>
       </c>
       <c r="B93">
         <v>1</v>
@@ -6428,28 +6422,31 @@
         <v>187</v>
       </c>
       <c r="G93">
-        <v>602</v>
+        <v>619</v>
       </c>
       <c r="J93">
-        <v>2000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="U93">
-        <v>0.152</v>
+        <v>0.1561</v>
       </c>
       <c r="Y93">
         <v>1</v>
       </c>
       <c r="AA93">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AB93">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AC93" t="s">
         <v>66</v>
       </c>
       <c r="AF93">
-        <v>0.756</v>
+        <v>0.784</v>
+      </c>
+      <c r="AL93">
+        <v>1</v>
       </c>
       <c r="BI93">
         <v>11</v>
@@ -6457,7 +6454,7 @@
     </row>
     <row r="94" spans="1:65">
       <c r="A94">
-        <v>310075</v>
+        <v>310076</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -6475,39 +6472,39 @@
         <v>187</v>
       </c>
       <c r="G94">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="J94">
-        <v>2100000000</v>
+        <v>2200000000</v>
       </c>
       <c r="U94">
-        <v>0.1561</v>
+        <v>0.1602</v>
       </c>
       <c r="Y94">
         <v>1</v>
       </c>
       <c r="AA94">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB94">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AC94" t="s">
         <v>66</v>
       </c>
       <c r="AF94">
-        <v>0.784</v>
+        <v>0.812</v>
       </c>
       <c r="AL94">
         <v>1</v>
       </c>
       <c r="BI94">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:65">
       <c r="A95">
-        <v>310076</v>
+        <v>310077</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -6525,39 +6522,39 @@
         <v>187</v>
       </c>
       <c r="G95">
-        <v>636</v>
+        <v>652</v>
       </c>
       <c r="J95">
-        <v>2200000000</v>
+        <v>2300000000</v>
       </c>
       <c r="U95">
-        <v>0.1602</v>
+        <v>0.1643</v>
       </c>
       <c r="Y95">
         <v>1</v>
       </c>
       <c r="AA95">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AB95">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="AC95" t="s">
         <v>66</v>
       </c>
       <c r="AF95">
-        <v>0.812</v>
+        <v>0.84</v>
       </c>
       <c r="AL95">
         <v>1</v>
       </c>
       <c r="BI95">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:65">
       <c r="A96">
-        <v>310077</v>
+        <v>310078</v>
       </c>
       <c r="B96">
         <v>1</v>
@@ -6575,19 +6572,19 @@
         <v>187</v>
       </c>
       <c r="G96">
-        <v>652</v>
+        <v>669</v>
       </c>
       <c r="J96">
-        <v>2300000000</v>
+        <v>2400000000</v>
       </c>
       <c r="U96">
-        <v>0.1643</v>
+        <v>0.1683</v>
       </c>
       <c r="Y96">
         <v>1</v>
       </c>
       <c r="AA96">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AB96">
         <v>250</v>
@@ -6596,7 +6593,7 @@
         <v>66</v>
       </c>
       <c r="AF96">
-        <v>0.84</v>
+        <v>0.868</v>
       </c>
       <c r="AL96">
         <v>1</v>
@@ -6607,7 +6604,7 @@
     </row>
     <row r="97" spans="1:65">
       <c r="A97">
-        <v>310078</v>
+        <v>310079</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -6625,39 +6622,39 @@
         <v>187</v>
       </c>
       <c r="G97">
-        <v>669</v>
+        <v>685</v>
       </c>
       <c r="J97">
-        <v>2400000000</v>
+        <v>2800000000</v>
       </c>
       <c r="U97">
-        <v>0.1683</v>
+        <v>0.1724</v>
       </c>
       <c r="Y97">
         <v>1</v>
       </c>
       <c r="AA97">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AB97">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AC97" t="s">
         <v>66</v>
       </c>
       <c r="AF97">
-        <v>0.868</v>
+        <v>0.896</v>
       </c>
       <c r="AL97">
         <v>1</v>
       </c>
       <c r="BI97">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:65">
       <c r="A98">
-        <v>310079</v>
+        <v>310080</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -6675,19 +6672,19 @@
         <v>187</v>
       </c>
       <c r="G98">
-        <v>685</v>
+        <v>702</v>
       </c>
       <c r="J98">
-        <v>2800000000</v>
+        <v>3300000000</v>
       </c>
       <c r="U98">
-        <v>0.1724</v>
+        <v>0.1765</v>
       </c>
       <c r="Y98">
         <v>1</v>
       </c>
       <c r="AA98">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AB98">
         <v>270</v>
@@ -6696,7 +6693,7 @@
         <v>66</v>
       </c>
       <c r="AF98">
-        <v>0.896</v>
+        <v>0.924</v>
       </c>
       <c r="AL98">
         <v>1</v>
@@ -6707,7 +6704,7 @@
     </row>
     <row r="99" spans="1:65">
       <c r="A99">
-        <v>310080</v>
+        <v>310081</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -6725,19 +6722,19 @@
         <v>187</v>
       </c>
       <c r="G99">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="J99">
-        <v>3300000000</v>
+        <v>3500000000</v>
       </c>
       <c r="U99">
-        <v>0.1765</v>
+        <v>0.1806</v>
       </c>
       <c r="Y99">
         <v>1</v>
       </c>
       <c r="AA99">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB99">
         <v>270</v>
@@ -6746,7 +6743,7 @@
         <v>66</v>
       </c>
       <c r="AF99">
-        <v>0.924</v>
+        <v>0.952</v>
       </c>
       <c r="AL99">
         <v>1</v>
@@ -6757,7 +6754,7 @@
     </row>
     <row r="100" spans="1:65">
       <c r="A100">
-        <v>310081</v>
+        <v>310082</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -6775,28 +6772,28 @@
         <v>187</v>
       </c>
       <c r="G100">
-        <v>718</v>
+        <v>735</v>
       </c>
       <c r="J100">
-        <v>3500000000</v>
+        <v>3700000000</v>
       </c>
       <c r="U100">
-        <v>0.1806</v>
+        <v>0.1847</v>
       </c>
       <c r="Y100">
         <v>1</v>
       </c>
       <c r="AA100">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AB100">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AC100" t="s">
         <v>66</v>
       </c>
       <c r="AF100">
-        <v>0.952</v>
+        <v>0.98</v>
       </c>
       <c r="AL100">
         <v>1</v>
@@ -6807,7 +6804,7 @@
     </row>
     <row r="101" spans="1:65">
       <c r="A101">
-        <v>310082</v>
+        <v>310083</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -6825,39 +6822,39 @@
         <v>187</v>
       </c>
       <c r="G101">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="J101">
-        <v>3700000000</v>
+        <v>4200000000</v>
       </c>
       <c r="U101">
-        <v>0.1847</v>
+        <v>0.1888</v>
       </c>
       <c r="Y101">
         <v>1</v>
       </c>
       <c r="AA101">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AB101">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AC101" t="s">
         <v>66</v>
       </c>
       <c r="AF101">
-        <v>0.98</v>
+        <v>1.008</v>
       </c>
       <c r="AL101">
         <v>1</v>
       </c>
       <c r="BI101">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:65">
       <c r="A102">
-        <v>310083</v>
+        <v>310084</v>
       </c>
       <c r="B102">
         <v>1</v>
@@ -6875,28 +6872,28 @@
         <v>187</v>
       </c>
       <c r="G102">
-        <v>752</v>
+        <v>768</v>
       </c>
       <c r="J102">
-        <v>4200000000</v>
+        <v>4400000000</v>
       </c>
       <c r="U102">
-        <v>0.1888</v>
+        <v>0.1928</v>
       </c>
       <c r="Y102">
         <v>1</v>
       </c>
       <c r="AA102">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AB102">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AC102" t="s">
         <v>66</v>
       </c>
       <c r="AF102">
-        <v>1.008</v>
+        <v>1.036</v>
       </c>
       <c r="AL102">
         <v>1</v>
@@ -6907,7 +6904,7 @@
     </row>
     <row r="103" spans="1:65">
       <c r="A103">
-        <v>310084</v>
+        <v>310085</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -6925,39 +6922,39 @@
         <v>187</v>
       </c>
       <c r="G103">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="J103">
-        <v>4400000000</v>
+        <v>4600000000</v>
       </c>
       <c r="U103">
-        <v>0.1928</v>
+        <v>0.1969</v>
       </c>
       <c r="Y103">
         <v>1</v>
       </c>
       <c r="AA103">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AB103">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AC103" t="s">
         <v>66</v>
       </c>
       <c r="AF103">
-        <v>1.036</v>
+        <v>1.064</v>
       </c>
       <c r="AL103">
         <v>1</v>
       </c>
       <c r="BI103">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:65">
       <c r="A104">
-        <v>310085</v>
+        <v>310086</v>
       </c>
       <c r="B104">
         <v>1</v>
@@ -6975,28 +6972,28 @@
         <v>187</v>
       </c>
       <c r="G104">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="J104">
-        <v>4600000000</v>
+        <v>5000000000</v>
       </c>
       <c r="U104">
-        <v>0.1969</v>
+        <v>0.201</v>
       </c>
       <c r="Y104">
         <v>1</v>
       </c>
       <c r="AA104">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB104">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AC104" t="s">
         <v>66</v>
       </c>
       <c r="AF104">
-        <v>1.064</v>
+        <v>1.092</v>
       </c>
       <c r="AL104">
         <v>1</v>
@@ -7007,7 +7004,7 @@
     </row>
     <row r="105" spans="1:65">
       <c r="A105">
-        <v>310086</v>
+        <v>310087</v>
       </c>
       <c r="B105">
         <v>1</v>
@@ -7025,19 +7022,19 @@
         <v>187</v>
       </c>
       <c r="G105">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="J105">
-        <v>5000000000</v>
+        <v>5300000000</v>
       </c>
       <c r="U105">
-        <v>0.201</v>
+        <v>0.2051</v>
       </c>
       <c r="Y105">
         <v>1</v>
       </c>
       <c r="AA105">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AB105">
         <v>320</v>
@@ -7046,7 +7043,7 @@
         <v>66</v>
       </c>
       <c r="AF105">
-        <v>1.092</v>
+        <v>1.12</v>
       </c>
       <c r="AL105">
         <v>1</v>
@@ -7057,7 +7054,7 @@
     </row>
     <row r="106" spans="1:65">
       <c r="A106">
-        <v>310087</v>
+        <v>310088</v>
       </c>
       <c r="B106">
         <v>1</v>
@@ -7075,39 +7072,39 @@
         <v>187</v>
       </c>
       <c r="G106">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="J106">
-        <v>5300000000</v>
+        <v>5600000000</v>
       </c>
       <c r="U106">
-        <v>0.2051</v>
+        <v>0.2092</v>
       </c>
       <c r="Y106">
         <v>1</v>
       </c>
       <c r="AA106">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AB106">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AC106" t="s">
         <v>66</v>
       </c>
       <c r="AF106">
-        <v>1.12</v>
+        <v>1.148</v>
       </c>
       <c r="AL106">
         <v>1</v>
       </c>
       <c r="BI106">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107" spans="1:65">
       <c r="A107">
-        <v>310088</v>
+        <v>310089</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -7125,28 +7122,28 @@
         <v>187</v>
       </c>
       <c r="G107">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="J107">
-        <v>5600000000</v>
+        <v>5800000000</v>
       </c>
       <c r="U107">
-        <v>0.2092</v>
+        <v>0.2133</v>
       </c>
       <c r="Y107">
         <v>1</v>
       </c>
       <c r="AA107">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AB107">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AC107" t="s">
         <v>66</v>
       </c>
       <c r="AF107">
-        <v>1.148</v>
+        <v>1.176</v>
       </c>
       <c r="AL107">
         <v>1</v>
@@ -7157,7 +7154,7 @@
     </row>
     <row r="108" spans="1:65">
       <c r="A108">
-        <v>310089</v>
+        <v>310090</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -7175,39 +7172,39 @@
         <v>187</v>
       </c>
       <c r="G108">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="J108">
-        <v>5800000000</v>
+        <v>6000000000</v>
       </c>
       <c r="U108">
-        <v>0.2133</v>
+        <v>0.2173</v>
       </c>
       <c r="Y108">
         <v>1</v>
       </c>
       <c r="AA108">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AB108">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AC108" t="s">
         <v>66</v>
       </c>
       <c r="AF108">
-        <v>1.176</v>
+        <v>1.204</v>
       </c>
       <c r="AL108">
         <v>1</v>
       </c>
       <c r="BI108">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:65">
       <c r="A109">
-        <v>310090</v>
+        <v>310091</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -7225,28 +7222,31 @@
         <v>187</v>
       </c>
       <c r="G109">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="J109">
-        <v>6000000000</v>
+        <v>6300000000</v>
+      </c>
+      <c r="Q109">
+        <v>1.9</v>
       </c>
       <c r="U109">
-        <v>0.2173</v>
+        <v>0.2214</v>
       </c>
       <c r="Y109">
         <v>1</v>
       </c>
       <c r="AA109">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AB109">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AC109" t="s">
         <v>66</v>
       </c>
       <c r="AF109">
-        <v>1.204</v>
+        <v>1.232</v>
       </c>
       <c r="AL109">
         <v>1</v>
@@ -7257,7 +7257,7 @@
     </row>
     <row r="110" spans="1:65">
       <c r="A110">
-        <v>310091</v>
+        <v>310092</v>
       </c>
       <c r="B110">
         <v>1</v>
@@ -7275,42 +7275,39 @@
         <v>187</v>
       </c>
       <c r="G110">
-        <v>884</v>
+        <v>901</v>
       </c>
       <c r="J110">
-        <v>6300000000</v>
-      </c>
-      <c r="Q110">
-        <v>1.9</v>
+        <v>10000000000</v>
       </c>
       <c r="U110">
-        <v>0.2214</v>
+        <v>0.2255</v>
       </c>
       <c r="Y110">
         <v>1</v>
       </c>
       <c r="AA110">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AB110">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AC110" t="s">
         <v>66</v>
       </c>
       <c r="AF110">
-        <v>1.232</v>
+        <v>1.26</v>
       </c>
       <c r="AL110">
         <v>1</v>
       </c>
       <c r="BI110">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="111" spans="1:65">
       <c r="A111">
-        <v>310092</v>
+        <v>310093</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -7328,28 +7325,28 @@
         <v>187</v>
       </c>
       <c r="G111">
-        <v>901</v>
+        <v>917</v>
       </c>
       <c r="J111">
-        <v>10000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="U111">
-        <v>0.2255</v>
+        <v>0.2296</v>
       </c>
       <c r="Y111">
         <v>1</v>
       </c>
       <c r="AA111">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AB111">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AC111" t="s">
         <v>66</v>
       </c>
       <c r="AF111">
-        <v>1.26</v>
+        <v>1.288</v>
       </c>
       <c r="AL111">
         <v>1</v>
@@ -7360,7 +7357,7 @@
     </row>
     <row r="112" spans="1:65">
       <c r="A112">
-        <v>310093</v>
+        <v>310094</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -7378,19 +7375,19 @@
         <v>187</v>
       </c>
       <c r="G112">
-        <v>917</v>
+        <v>934</v>
       </c>
       <c r="J112">
-        <v>12000000000</v>
+        <v>16000000000</v>
       </c>
       <c r="U112">
-        <v>0.2296</v>
+        <v>0.2337</v>
       </c>
       <c r="Y112">
         <v>1</v>
       </c>
       <c r="AA112">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AB112">
         <v>380</v>
@@ -7399,7 +7396,7 @@
         <v>66</v>
       </c>
       <c r="AF112">
-        <v>1.288</v>
+        <v>1.316</v>
       </c>
       <c r="AL112">
         <v>1</v>
@@ -7410,7 +7407,7 @@
     </row>
     <row r="113" spans="1:65">
       <c r="A113">
-        <v>310094</v>
+        <v>310095</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -7428,19 +7425,19 @@
         <v>187</v>
       </c>
       <c r="G113">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="J113">
-        <v>16000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="U113">
-        <v>0.2337</v>
+        <v>0.2378</v>
       </c>
       <c r="Y113">
         <v>1</v>
       </c>
       <c r="AA113">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AB113">
         <v>380</v>
@@ -7449,7 +7446,7 @@
         <v>66</v>
       </c>
       <c r="AF113">
-        <v>1.316</v>
+        <v>1.344</v>
       </c>
       <c r="AL113">
         <v>1</v>
@@ -7460,7 +7457,7 @@
     </row>
     <row r="114" spans="1:65">
       <c r="A114">
-        <v>310095</v>
+        <v>310096</v>
       </c>
       <c r="B114">
         <v>1</v>
@@ -7478,39 +7475,39 @@
         <v>187</v>
       </c>
       <c r="G114">
-        <v>950</v>
+        <v>967</v>
       </c>
       <c r="J114">
-        <v>18000000000</v>
+        <v>22000000000</v>
       </c>
       <c r="U114">
-        <v>0.2378</v>
+        <v>0.2418</v>
       </c>
       <c r="Y114">
         <v>1</v>
       </c>
       <c r="AA114">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AB114">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AC114" t="s">
         <v>66</v>
       </c>
       <c r="AF114">
-        <v>1.344</v>
+        <v>1.372</v>
       </c>
       <c r="AL114">
         <v>1</v>
       </c>
       <c r="BI114">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115" spans="1:65">
       <c r="A115">
-        <v>310096</v>
+        <v>310097</v>
       </c>
       <c r="B115">
         <v>1</v>
@@ -7528,28 +7525,28 @@
         <v>187</v>
       </c>
       <c r="G115">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="J115">
-        <v>22000000000</v>
+        <v>24000000000</v>
       </c>
       <c r="U115">
-        <v>0.2418</v>
+        <v>0.2459</v>
       </c>
       <c r="Y115">
         <v>1</v>
       </c>
       <c r="AA115">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB115">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AC115" t="s">
         <v>66</v>
       </c>
       <c r="AF115">
-        <v>1.372</v>
+        <v>1.4</v>
       </c>
       <c r="AL115">
         <v>1</v>
@@ -7560,7 +7557,7 @@
     </row>
     <row r="116" spans="1:65">
       <c r="A116">
-        <v>310097</v>
+        <v>310098</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -7578,28 +7575,28 @@
         <v>187</v>
       </c>
       <c r="G116">
-        <v>983</v>
+        <v>1000</v>
       </c>
       <c r="J116">
-        <v>24000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="U116">
-        <v>0.2459</v>
+        <v>0.25</v>
       </c>
       <c r="Y116">
         <v>1</v>
       </c>
       <c r="AA116">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB116">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC116" t="s">
         <v>66</v>
       </c>
       <c r="AF116">
-        <v>1.4</v>
+        <v>1.428</v>
       </c>
       <c r="AL116">
         <v>1</v>
@@ -7610,7 +7607,7 @@
     </row>
     <row r="117" spans="1:65">
       <c r="A117">
-        <v>310098</v>
+        <v>309225</v>
       </c>
       <c r="B117">
         <v>1</v>
@@ -7619,72 +7616,69 @@
         <v>297</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>298</v>
       </c>
       <c r="E117" t="s">
+        <v>299</v>
+      </c>
+      <c r="F117" t="s">
         <v>298</v>
       </c>
-      <c r="F117" t="s">
-        <v>187</v>
-      </c>
       <c r="G117">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J117">
-        <v>26000000000</v>
-      </c>
-      <c r="U117">
-        <v>0.25</v>
+        <v>10</v>
+      </c>
+      <c r="Q117">
+        <v>0.005</v>
       </c>
       <c r="Y117">
         <v>1</v>
       </c>
+      <c r="Z117">
+        <v>1</v>
+      </c>
       <c r="AA117">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="AB117">
-        <v>401</v>
+        <v>5</v>
       </c>
       <c r="AC117" t="s">
         <v>66</v>
       </c>
-      <c r="AF117">
-        <v>1.428</v>
-      </c>
-      <c r="AL117">
-        <v>1</v>
-      </c>
       <c r="BI117">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:65">
       <c r="A118">
-        <v>309225</v>
+        <v>309226</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
       <c r="C118" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D118" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E118" t="s">
         <v>301</v>
       </c>
       <c r="F118" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G118">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J118">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="Q118">
-        <v>0.005</v>
+        <v>0.0094</v>
       </c>
       <c r="Y118">
         <v>1</v>
@@ -7693,13 +7687,16 @@
         <v>1</v>
       </c>
       <c r="AA118">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB118">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AC118" t="s">
         <v>66</v>
+      </c>
+      <c r="AF118">
+        <v>0.008</v>
       </c>
       <c r="BI118">
         <v>1</v>
@@ -7707,7 +7704,7 @@
     </row>
     <row r="119" spans="1:65">
       <c r="A119">
-        <v>309226</v>
+        <v>309227</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -7716,22 +7713,22 @@
         <v>302</v>
       </c>
       <c r="D119" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E119" t="s">
         <v>303</v>
       </c>
       <c r="F119" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G119">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J119">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="Q119">
-        <v>0.0094</v>
+        <v>0.0138</v>
       </c>
       <c r="Y119">
         <v>1</v>
@@ -7740,16 +7737,16 @@
         <v>1</v>
       </c>
       <c r="AA119">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB119">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC119" t="s">
         <v>66</v>
       </c>
       <c r="AF119">
-        <v>0.008</v>
+        <v>0.012</v>
       </c>
       <c r="BI119">
         <v>1</v>
@@ -7757,7 +7754,7 @@
     </row>
     <row r="120" spans="1:65">
       <c r="A120">
-        <v>309227</v>
+        <v>309228</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -7766,22 +7763,22 @@
         <v>304</v>
       </c>
       <c r="D120" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E120" t="s">
         <v>305</v>
       </c>
       <c r="F120" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G120">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="J120">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="Q120">
-        <v>0.0138</v>
+        <v>0.0181</v>
       </c>
       <c r="Y120">
         <v>1</v>
@@ -7790,16 +7787,16 @@
         <v>1</v>
       </c>
       <c r="AA120">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB120">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AC120" t="s">
         <v>66</v>
       </c>
       <c r="AF120">
-        <v>0.012</v>
+        <v>0.018</v>
       </c>
       <c r="BI120">
         <v>1</v>
@@ -7807,7 +7804,7 @@
     </row>
     <row r="121" spans="1:65">
       <c r="A121">
-        <v>309228</v>
+        <v>309229</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -7816,22 +7813,22 @@
         <v>306</v>
       </c>
       <c r="D121" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E121" t="s">
         <v>307</v>
       </c>
       <c r="F121" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G121">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="J121">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="Q121">
-        <v>0.0181</v>
+        <v>0.0225</v>
       </c>
       <c r="Y121">
         <v>1</v>
@@ -7840,24 +7837,24 @@
         <v>1</v>
       </c>
       <c r="AA121">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AB121">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AC121" t="s">
         <v>66</v>
       </c>
       <c r="AF121">
-        <v>0.018</v>
+        <v>0.02</v>
       </c>
       <c r="BI121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:65">
       <c r="A122">
-        <v>309229</v>
+        <v>309230</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -7866,22 +7863,22 @@
         <v>308</v>
       </c>
       <c r="D122" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E122" t="s">
         <v>309</v>
       </c>
       <c r="F122" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G122">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="J122">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="Q122">
-        <v>0.0225</v>
+        <v>0.0269</v>
       </c>
       <c r="Y122">
         <v>1</v>
@@ -7890,16 +7887,16 @@
         <v>1</v>
       </c>
       <c r="AA122">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AB122">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC122" t="s">
         <v>66</v>
       </c>
       <c r="AF122">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="BI122">
         <v>2</v>
@@ -7907,7 +7904,7 @@
     </row>
     <row r="123" spans="1:65">
       <c r="A123">
-        <v>309230</v>
+        <v>309231</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -7916,22 +7913,22 @@
         <v>310</v>
       </c>
       <c r="D123" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E123" t="s">
         <v>311</v>
       </c>
       <c r="F123" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G123">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="J123">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="Q123">
-        <v>0.0269</v>
+        <v>0.0313</v>
       </c>
       <c r="Y123">
         <v>1</v>
@@ -7940,24 +7937,24 @@
         <v>1</v>
       </c>
       <c r="AA123">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB123">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC123" t="s">
         <v>66</v>
       </c>
       <c r="AF123">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="BI123">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:65">
       <c r="A124">
-        <v>309231</v>
+        <v>309232</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -7966,40 +7963,37 @@
         <v>312</v>
       </c>
       <c r="D124" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E124" t="s">
         <v>313</v>
       </c>
       <c r="F124" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G124">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="J124">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="Q124">
-        <v>0.0313</v>
+        <v>0.0356</v>
       </c>
       <c r="Y124">
         <v>1</v>
       </c>
-      <c r="Z124">
-        <v>1</v>
-      </c>
       <c r="AA124">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB124">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC124" t="s">
         <v>66</v>
       </c>
       <c r="AF124">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="BI124">
         <v>3</v>
@@ -8007,7 +8001,7 @@
     </row>
     <row r="125" spans="1:65">
       <c r="A125">
-        <v>309232</v>
+        <v>309233</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -8016,45 +8010,45 @@
         <v>314</v>
       </c>
       <c r="D125" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E125" t="s">
         <v>315</v>
       </c>
       <c r="F125" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G125">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="J125">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="Q125">
-        <v>0.0356</v>
+        <v>0.04</v>
       </c>
       <c r="Y125">
         <v>1</v>
       </c>
       <c r="AA125">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB125">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AC125" t="s">
         <v>66</v>
       </c>
       <c r="AF125">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="BI125">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:65">
       <c r="A126">
-        <v>309233</v>
+        <v>309234</v>
       </c>
       <c r="B126">
         <v>1</v>
@@ -8063,37 +8057,37 @@
         <v>316</v>
       </c>
       <c r="D126" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E126" t="s">
         <v>317</v>
       </c>
       <c r="F126" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G126">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="J126">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="Q126">
-        <v>0.04</v>
+        <v>0.0444</v>
       </c>
       <c r="Y126">
         <v>1</v>
       </c>
       <c r="AA126">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB126">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AC126" t="s">
         <v>66</v>
       </c>
       <c r="AF126">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="BI126">
         <v>4</v>
@@ -8101,7 +8095,7 @@
     </row>
     <row r="127" spans="1:65">
       <c r="A127">
-        <v>309234</v>
+        <v>309235</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -8110,28 +8104,28 @@
         <v>318</v>
       </c>
       <c r="D127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E127" t="s">
         <v>319</v>
       </c>
       <c r="F127" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G127">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J127">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="Q127">
-        <v>0.0444</v>
+        <v>0.0488</v>
       </c>
       <c r="Y127">
         <v>1</v>
       </c>
       <c r="AA127">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB127">
         <v>78</v>
@@ -8140,7 +8134,7 @@
         <v>66</v>
       </c>
       <c r="AF127">
-        <v>0.14</v>
+        <v>0.16</v>
       </c>
       <c r="BI127">
         <v>4</v>
@@ -8148,7 +8142,7 @@
     </row>
     <row r="128" spans="1:65">
       <c r="A128">
-        <v>309235</v>
+        <v>309236</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -8157,45 +8151,45 @@
         <v>320</v>
       </c>
       <c r="D128" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E128" t="s">
         <v>321</v>
       </c>
       <c r="F128" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G128">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J128">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="Q128">
-        <v>0.0488</v>
+        <v>0.0531</v>
       </c>
       <c r="Y128">
         <v>1</v>
       </c>
       <c r="AA128">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AB128">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AC128" t="s">
         <v>66</v>
       </c>
       <c r="AF128">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="BI128">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:65">
       <c r="A129">
-        <v>309236</v>
+        <v>309237</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -8204,45 +8198,45 @@
         <v>322</v>
       </c>
       <c r="D129" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E129" t="s">
         <v>323</v>
       </c>
       <c r="F129" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G129">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="J129">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="Q129">
-        <v>0.0531</v>
+        <v>0.0575</v>
       </c>
       <c r="Y129">
         <v>1</v>
       </c>
       <c r="AA129">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB129">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AC129" t="s">
         <v>66</v>
       </c>
       <c r="AF129">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="BI129">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="130" spans="1:65">
       <c r="A130">
-        <v>309237</v>
+        <v>309238</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -8251,45 +8245,45 @@
         <v>324</v>
       </c>
       <c r="D130" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E130" t="s">
         <v>325</v>
       </c>
       <c r="F130" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G130">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="J130">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q130">
-        <v>0.0575</v>
+        <v>0.0619</v>
       </c>
       <c r="Y130">
         <v>1</v>
       </c>
       <c r="AA130">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB130">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AC130" t="s">
         <v>66</v>
       </c>
       <c r="AF130">
-        <v>0.24</v>
+        <v>0.252</v>
       </c>
       <c r="BI130">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="131" spans="1:65">
       <c r="A131">
-        <v>309238</v>
+        <v>309239</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -8298,45 +8292,45 @@
         <v>326</v>
       </c>
       <c r="D131" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E131" t="s">
         <v>327</v>
       </c>
       <c r="F131" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G131">
-        <v>237</v>
+        <v>255</v>
       </c>
       <c r="J131">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="Q131">
-        <v>0.0619</v>
+        <v>0.0663</v>
       </c>
       <c r="Y131">
         <v>1</v>
       </c>
       <c r="AA131">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB131">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AC131" t="s">
         <v>66</v>
       </c>
       <c r="AF131">
-        <v>0.252</v>
+        <v>0.28</v>
       </c>
       <c r="BI131">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:65">
       <c r="A132">
-        <v>309239</v>
+        <v>309240</v>
       </c>
       <c r="B132">
         <v>1</v>
@@ -8345,45 +8339,45 @@
         <v>328</v>
       </c>
       <c r="D132" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E132" t="s">
         <v>329</v>
       </c>
       <c r="F132" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G132">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="J132">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="Q132">
-        <v>0.0663</v>
+        <v>0.0706</v>
       </c>
       <c r="Y132">
         <v>1</v>
       </c>
       <c r="AA132">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB132">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AC132" t="s">
         <v>66</v>
       </c>
       <c r="AF132">
-        <v>0.28</v>
+        <v>0.308</v>
       </c>
       <c r="BI132">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:65">
       <c r="A133">
-        <v>309240</v>
+        <v>309241</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -8392,45 +8386,45 @@
         <v>330</v>
       </c>
       <c r="D133" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E133" t="s">
         <v>331</v>
       </c>
       <c r="F133" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G133">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="J133">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="Q133">
-        <v>0.0706</v>
+        <v>0.075</v>
       </c>
       <c r="Y133">
         <v>1</v>
       </c>
       <c r="AA133">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB133">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AC133" t="s">
         <v>66</v>
       </c>
       <c r="AF133">
-        <v>0.308</v>
+        <v>0.336</v>
       </c>
       <c r="BI133">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:65">
       <c r="A134">
-        <v>309241</v>
+        <v>309242</v>
       </c>
       <c r="B134">
         <v>1</v>
@@ -8439,28 +8433,28 @@
         <v>332</v>
       </c>
       <c r="D134" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E134" t="s">
         <v>333</v>
       </c>
       <c r="F134" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G134">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="J134">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="Q134">
-        <v>0.075</v>
+        <v>0.0794</v>
       </c>
       <c r="Y134">
         <v>1</v>
       </c>
       <c r="AA134">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB134">
         <v>190</v>
@@ -8469,7 +8463,7 @@
         <v>66</v>
       </c>
       <c r="AF134">
-        <v>0.336</v>
+        <v>0.364</v>
       </c>
       <c r="BI134">
         <v>10</v>
@@ -8477,7 +8471,7 @@
     </row>
     <row r="135" spans="1:65">
       <c r="A135">
-        <v>309242</v>
+        <v>309243</v>
       </c>
       <c r="B135">
         <v>1</v>
@@ -8486,37 +8480,37 @@
         <v>334</v>
       </c>
       <c r="D135" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E135" t="s">
         <v>335</v>
       </c>
       <c r="F135" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G135">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="J135">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="Q135">
-        <v>0.0794</v>
+        <v>0.0838</v>
       </c>
       <c r="Y135">
         <v>1</v>
       </c>
       <c r="AA135">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB135">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AC135" t="s">
         <v>66</v>
       </c>
       <c r="AF135">
-        <v>0.364</v>
+        <v>0.392</v>
       </c>
       <c r="BI135">
         <v>10</v>
@@ -8524,7 +8518,7 @@
     </row>
     <row r="136" spans="1:65">
       <c r="A136">
-        <v>309243</v>
+        <v>309244</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -8533,28 +8527,28 @@
         <v>336</v>
       </c>
       <c r="D136" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E136" t="s">
         <v>337</v>
       </c>
       <c r="F136" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G136">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="J136">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="Q136">
-        <v>0.0838</v>
+        <v>0.0881</v>
       </c>
       <c r="Y136">
         <v>1</v>
       </c>
       <c r="AA136">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB136">
         <v>200</v>
@@ -8563,7 +8557,7 @@
         <v>66</v>
       </c>
       <c r="AF136">
-        <v>0.392</v>
+        <v>0.42</v>
       </c>
       <c r="BI136">
         <v>10</v>
@@ -8571,7 +8565,7 @@
     </row>
     <row r="137" spans="1:65">
       <c r="A137">
-        <v>309244</v>
+        <v>309245</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -8580,28 +8574,28 @@
         <v>338</v>
       </c>
       <c r="D137" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E137" t="s">
         <v>339</v>
       </c>
       <c r="F137" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G137">
-        <v>343</v>
+        <v>361</v>
       </c>
       <c r="J137">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="Q137">
-        <v>0.0881</v>
+        <v>0.0925</v>
       </c>
       <c r="Y137">
         <v>1</v>
       </c>
       <c r="AA137">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB137">
         <v>200</v>
@@ -8610,7 +8604,7 @@
         <v>66</v>
       </c>
       <c r="AF137">
-        <v>0.42</v>
+        <v>0.448</v>
       </c>
       <c r="BI137">
         <v>10</v>
@@ -8618,7 +8612,7 @@
     </row>
     <row r="138" spans="1:65">
       <c r="A138">
-        <v>309245</v>
+        <v>309246</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -8627,28 +8621,28 @@
         <v>340</v>
       </c>
       <c r="D138" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E138" t="s">
         <v>341</v>
       </c>
       <c r="F138" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G138">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="J138">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="Q138">
-        <v>0.0925</v>
+        <v>0.0969</v>
       </c>
       <c r="Y138">
         <v>1</v>
       </c>
       <c r="AA138">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB138">
         <v>200</v>
@@ -8657,7 +8651,7 @@
         <v>66</v>
       </c>
       <c r="AF138">
-        <v>0.448</v>
+        <v>0.476</v>
       </c>
       <c r="BI138">
         <v>10</v>
@@ -8665,7 +8659,7 @@
     </row>
     <row r="139" spans="1:65">
       <c r="A139">
-        <v>309246</v>
+        <v>309247</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -8674,28 +8668,28 @@
         <v>342</v>
       </c>
       <c r="D139" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E139" t="s">
         <v>343</v>
       </c>
       <c r="F139" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G139">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="J139">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="Q139">
-        <v>0.0969</v>
+        <v>0.1013</v>
       </c>
       <c r="Y139">
         <v>1</v>
       </c>
       <c r="AA139">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB139">
         <v>200</v>
@@ -8704,7 +8698,7 @@
         <v>66</v>
       </c>
       <c r="AF139">
-        <v>0.476</v>
+        <v>0.504</v>
       </c>
       <c r="BI139">
         <v>10</v>
@@ -8712,7 +8706,7 @@
     </row>
     <row r="140" spans="1:65">
       <c r="A140">
-        <v>309247</v>
+        <v>309248</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -8721,28 +8715,28 @@
         <v>344</v>
       </c>
       <c r="D140" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E140" t="s">
         <v>345</v>
       </c>
       <c r="F140" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G140">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="J140">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="Q140">
-        <v>0.1013</v>
+        <v>0.1056</v>
       </c>
       <c r="Y140">
         <v>1</v>
       </c>
       <c r="AA140">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB140">
         <v>200</v>
@@ -8751,7 +8745,7 @@
         <v>66</v>
       </c>
       <c r="AF140">
-        <v>0.504</v>
+        <v>0.532</v>
       </c>
       <c r="BI140">
         <v>10</v>
@@ -8759,7 +8753,7 @@
     </row>
     <row r="141" spans="1:65">
       <c r="A141">
-        <v>309248</v>
+        <v>309249</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -8768,28 +8762,28 @@
         <v>346</v>
       </c>
       <c r="D141" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E141" t="s">
         <v>347</v>
       </c>
       <c r="F141" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G141">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="J141">
-        <v>10000000</v>
+        <v>25000000</v>
       </c>
       <c r="Q141">
-        <v>0.1056</v>
+        <v>0.11</v>
       </c>
       <c r="Y141">
         <v>1</v>
       </c>
       <c r="AA141">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB141">
         <v>200</v>
@@ -8798,7 +8792,7 @@
         <v>66</v>
       </c>
       <c r="AF141">
-        <v>0.532</v>
+        <v>0.56</v>
       </c>
       <c r="BI141">
         <v>10</v>
@@ -8806,7 +8800,7 @@
     </row>
     <row r="142" spans="1:65">
       <c r="A142">
-        <v>309249</v>
+        <v>309250</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -8815,28 +8809,28 @@
         <v>348</v>
       </c>
       <c r="D142" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E142" t="s">
         <v>349</v>
       </c>
       <c r="F142" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G142">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="J142">
-        <v>25000000</v>
+        <v>40000000</v>
       </c>
       <c r="Q142">
-        <v>0.11</v>
+        <v>0.1144</v>
       </c>
       <c r="Y142">
         <v>1</v>
       </c>
       <c r="AA142">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB142">
         <v>200</v>
@@ -8845,7 +8839,7 @@
         <v>66</v>
       </c>
       <c r="AF142">
-        <v>0.56</v>
+        <v>0.588</v>
       </c>
       <c r="BI142">
         <v>10</v>
@@ -8853,7 +8847,7 @@
     </row>
     <row r="143" spans="1:65">
       <c r="A143">
-        <v>309250</v>
+        <v>309251</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -8862,28 +8856,28 @@
         <v>350</v>
       </c>
       <c r="D143" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E143" t="s">
         <v>351</v>
       </c>
       <c r="F143" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G143">
-        <v>450</v>
+        <v>468</v>
       </c>
       <c r="J143">
-        <v>40000000</v>
+        <v>65000000</v>
       </c>
       <c r="Q143">
-        <v>0.1144</v>
+        <v>0.1188</v>
       </c>
       <c r="Y143">
         <v>1</v>
       </c>
       <c r="AA143">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB143">
         <v>200</v>
@@ -8892,7 +8886,7 @@
         <v>66</v>
       </c>
       <c r="AF143">
-        <v>0.588</v>
+        <v>0.616</v>
       </c>
       <c r="BI143">
         <v>10</v>
@@ -8900,7 +8894,7 @@
     </row>
     <row r="144" spans="1:65">
       <c r="A144">
-        <v>309251</v>
+        <v>309252</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -8909,28 +8903,28 @@
         <v>352</v>
       </c>
       <c r="D144" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E144" t="s">
         <v>353</v>
       </c>
       <c r="F144" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G144">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="J144">
-        <v>65000000</v>
+        <v>100000000</v>
       </c>
       <c r="Q144">
-        <v>0.1188</v>
+        <v>0.1231</v>
       </c>
       <c r="Y144">
         <v>1</v>
       </c>
       <c r="AA144">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB144">
         <v>200</v>
@@ -8939,7 +8933,7 @@
         <v>66</v>
       </c>
       <c r="AF144">
-        <v>0.616</v>
+        <v>0.644</v>
       </c>
       <c r="BI144">
         <v>10</v>
@@ -8947,7 +8941,7 @@
     </row>
     <row r="145" spans="1:65">
       <c r="A145">
-        <v>309252</v>
+        <v>309253</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -8956,28 +8950,28 @@
         <v>354</v>
       </c>
       <c r="D145" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E145" t="s">
         <v>355</v>
       </c>
       <c r="F145" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G145">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="J145">
-        <v>100000000</v>
+        <v>160000000</v>
       </c>
       <c r="Q145">
-        <v>0.1231</v>
+        <v>0.1275</v>
       </c>
       <c r="Y145">
         <v>1</v>
       </c>
       <c r="AA145">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB145">
         <v>200</v>
@@ -8986,7 +8980,7 @@
         <v>66</v>
       </c>
       <c r="AF145">
-        <v>0.644</v>
+        <v>0.672</v>
       </c>
       <c r="BI145">
         <v>10</v>
@@ -8994,7 +8988,7 @@
     </row>
     <row r="146" spans="1:65">
       <c r="A146">
-        <v>309253</v>
+        <v>309254</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -9003,45 +8997,45 @@
         <v>356</v>
       </c>
       <c r="D146" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E146" t="s">
         <v>357</v>
       </c>
       <c r="F146" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G146">
-        <v>503</v>
+        <v>521</v>
       </c>
       <c r="J146">
-        <v>160000000</v>
+        <v>250000000</v>
       </c>
       <c r="Q146">
-        <v>0.1275</v>
+        <v>0.1319</v>
       </c>
       <c r="Y146">
         <v>1</v>
       </c>
       <c r="AA146">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB146">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AC146" t="s">
         <v>66</v>
       </c>
       <c r="AF146">
-        <v>0.672</v>
+        <v>0.7</v>
       </c>
       <c r="BI146">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:65">
       <c r="A147">
-        <v>309254</v>
+        <v>309255</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -9050,37 +9044,37 @@
         <v>358</v>
       </c>
       <c r="D147" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E147" t="s">
         <v>359</v>
       </c>
       <c r="F147" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G147">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="J147">
-        <v>250000000</v>
+        <v>1000000000</v>
       </c>
       <c r="Q147">
-        <v>0.1319</v>
+        <v>0.1363</v>
       </c>
       <c r="Y147">
         <v>1</v>
       </c>
       <c r="AA147">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AB147">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AC147" t="s">
         <v>66</v>
       </c>
       <c r="AF147">
-        <v>0.7</v>
+        <v>0.728</v>
       </c>
       <c r="BI147">
         <v>11</v>
@@ -9088,7 +9082,7 @@
     </row>
     <row r="148" spans="1:65">
       <c r="A148">
-        <v>309255</v>
+        <v>309256</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -9097,37 +9091,37 @@
         <v>360</v>
       </c>
       <c r="D148" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E148" t="s">
         <v>361</v>
       </c>
       <c r="F148" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G148">
-        <v>539</v>
+        <v>556</v>
       </c>
       <c r="J148">
-        <v>1000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="Q148">
-        <v>0.1363</v>
+        <v>0.1406</v>
       </c>
       <c r="Y148">
         <v>1</v>
       </c>
       <c r="AA148">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AB148">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AC148" t="s">
         <v>66</v>
       </c>
       <c r="AF148">
-        <v>0.728</v>
+        <v>0.756</v>
       </c>
       <c r="BI148">
         <v>11</v>
@@ -9135,7 +9129,7 @@
     </row>
     <row r="149" spans="1:65">
       <c r="A149">
-        <v>309256</v>
+        <v>309257</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -9144,37 +9138,40 @@
         <v>362</v>
       </c>
       <c r="D149" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E149" t="s">
         <v>363</v>
       </c>
       <c r="F149" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G149">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="J149">
-        <v>2000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="Q149">
-        <v>0.1406</v>
+        <v>0.145</v>
       </c>
       <c r="Y149">
         <v>1</v>
       </c>
       <c r="AA149">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AB149">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AC149" t="s">
         <v>66</v>
       </c>
       <c r="AF149">
-        <v>0.756</v>
+        <v>0.784</v>
+      </c>
+      <c r="AL149">
+        <v>1</v>
       </c>
       <c r="BI149">
         <v>11</v>
@@ -9182,7 +9179,7 @@
     </row>
     <row r="150" spans="1:65">
       <c r="A150">
-        <v>309257</v>
+        <v>309258</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -9191,48 +9188,48 @@
         <v>364</v>
       </c>
       <c r="D150" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E150" t="s">
         <v>365</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G150">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="J150">
-        <v>2100000000</v>
+        <v>2200000000</v>
       </c>
       <c r="Q150">
-        <v>0.145</v>
+        <v>0.1494</v>
       </c>
       <c r="Y150">
         <v>1</v>
       </c>
       <c r="AA150">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB150">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AC150" t="s">
         <v>66</v>
       </c>
       <c r="AF150">
-        <v>0.784</v>
+        <v>0.812</v>
       </c>
       <c r="AL150">
         <v>1</v>
       </c>
       <c r="BI150">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:65">
       <c r="A151">
-        <v>309258</v>
+        <v>309259</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -9241,48 +9238,48 @@
         <v>366</v>
       </c>
       <c r="D151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E151" t="s">
         <v>367</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="J151">
-        <v>2200000000</v>
+        <v>2300000000</v>
       </c>
       <c r="Q151">
-        <v>0.1494</v>
+        <v>0.1538</v>
       </c>
       <c r="Y151">
         <v>1</v>
       </c>
       <c r="AA151">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AB151">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="AC151" t="s">
         <v>66</v>
       </c>
       <c r="AF151">
-        <v>0.812</v>
+        <v>0.84</v>
       </c>
       <c r="AL151">
         <v>1</v>
       </c>
       <c r="BI151">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:65">
       <c r="A152">
-        <v>309259</v>
+        <v>309260</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -9291,28 +9288,28 @@
         <v>368</v>
       </c>
       <c r="D152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E152" t="s">
         <v>369</v>
       </c>
       <c r="F152" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G152">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="J152">
-        <v>2300000000</v>
+        <v>2400000000</v>
       </c>
       <c r="Q152">
-        <v>0.1538</v>
+        <v>0.1581</v>
       </c>
       <c r="Y152">
         <v>1</v>
       </c>
       <c r="AA152">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AB152">
         <v>250</v>
@@ -9321,7 +9318,7 @@
         <v>66</v>
       </c>
       <c r="AF152">
-        <v>0.84</v>
+        <v>0.868</v>
       </c>
       <c r="AL152">
         <v>1</v>
@@ -9332,7 +9329,7 @@
     </row>
     <row r="153" spans="1:65">
       <c r="A153">
-        <v>309260</v>
+        <v>309261</v>
       </c>
       <c r="B153">
         <v>1</v>
@@ -9341,48 +9338,48 @@
         <v>370</v>
       </c>
       <c r="D153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E153" t="s">
         <v>371</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="J153">
-        <v>2400000000</v>
+        <v>2800000000</v>
       </c>
       <c r="Q153">
-        <v>0.1581</v>
+        <v>0.1625</v>
       </c>
       <c r="Y153">
         <v>1</v>
       </c>
       <c r="AA153">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AB153">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AC153" t="s">
         <v>66</v>
       </c>
       <c r="AF153">
-        <v>0.868</v>
+        <v>0.896</v>
       </c>
       <c r="AL153">
         <v>1</v>
       </c>
       <c r="BI153">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:65">
       <c r="A154">
-        <v>309261</v>
+        <v>309262</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -9391,28 +9388,28 @@
         <v>372</v>
       </c>
       <c r="D154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E154" t="s">
         <v>373</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G154">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="J154">
-        <v>2800000000</v>
+        <v>3300000000</v>
       </c>
       <c r="Q154">
-        <v>0.1625</v>
+        <v>0.1669</v>
       </c>
       <c r="Y154">
         <v>1</v>
       </c>
       <c r="AA154">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AB154">
         <v>270</v>
@@ -9421,7 +9418,7 @@
         <v>66</v>
       </c>
       <c r="AF154">
-        <v>0.896</v>
+        <v>0.924</v>
       </c>
       <c r="AL154">
         <v>1</v>
@@ -9432,7 +9429,7 @@
     </row>
     <row r="155" spans="1:65">
       <c r="A155">
-        <v>309262</v>
+        <v>309263</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -9441,28 +9438,28 @@
         <v>374</v>
       </c>
       <c r="D155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E155" t="s">
         <v>375</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G155">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="J155">
-        <v>3300000000</v>
+        <v>3500000000</v>
       </c>
       <c r="Q155">
-        <v>0.1669</v>
+        <v>0.1713</v>
       </c>
       <c r="Y155">
         <v>1</v>
       </c>
       <c r="AA155">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB155">
         <v>270</v>
@@ -9471,7 +9468,7 @@
         <v>66</v>
       </c>
       <c r="AF155">
-        <v>0.924</v>
+        <v>0.952</v>
       </c>
       <c r="AL155">
         <v>1</v>
@@ -9482,7 +9479,7 @@
     </row>
     <row r="156" spans="1:65">
       <c r="A156">
-        <v>309263</v>
+        <v>309264</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -9491,37 +9488,37 @@
         <v>376</v>
       </c>
       <c r="D156" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E156" t="s">
         <v>377</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G156">
-        <v>681</v>
+        <v>698</v>
       </c>
       <c r="J156">
-        <v>3500000000</v>
+        <v>3700000000</v>
       </c>
       <c r="Q156">
-        <v>0.1713</v>
+        <v>0.1756</v>
       </c>
       <c r="Y156">
         <v>1</v>
       </c>
       <c r="AA156">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AB156">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AC156" t="s">
         <v>66</v>
       </c>
       <c r="AF156">
-        <v>0.952</v>
+        <v>0.98</v>
       </c>
       <c r="AL156">
         <v>1</v>
@@ -9532,7 +9529,7 @@
     </row>
     <row r="157" spans="1:65">
       <c r="A157">
-        <v>309264</v>
+        <v>309265</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -9541,48 +9538,48 @@
         <v>378</v>
       </c>
       <c r="D157" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E157" t="s">
         <v>379</v>
       </c>
       <c r="F157" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G157">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="J157">
-        <v>3700000000</v>
+        <v>4200000000</v>
       </c>
       <c r="Q157">
-        <v>0.1756</v>
+        <v>0.18</v>
       </c>
       <c r="Y157">
         <v>1</v>
       </c>
       <c r="AA157">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AB157">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AC157" t="s">
         <v>66</v>
       </c>
       <c r="AF157">
-        <v>0.98</v>
+        <v>1.008</v>
       </c>
       <c r="AL157">
         <v>1</v>
       </c>
       <c r="BI157">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:65">
       <c r="A158">
-        <v>309265</v>
+        <v>309266</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -9591,37 +9588,37 @@
         <v>380</v>
       </c>
       <c r="D158" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E158" t="s">
         <v>381</v>
       </c>
       <c r="F158" t="s">
+        <v>298</v>
+      </c>
+      <c r="G158">
+        <v>734</v>
+      </c>
+      <c r="J158">
+        <v>4400000000</v>
+      </c>
+      <c r="Q158">
+        <v>0.1844</v>
+      </c>
+      <c r="Y158">
+        <v>1</v>
+      </c>
+      <c r="AA158">
+        <v>275</v>
+      </c>
+      <c r="AB158">
         <v>300</v>
       </c>
-      <c r="G158">
-        <v>716</v>
-      </c>
-      <c r="J158">
-        <v>4200000000</v>
-      </c>
-      <c r="Q158">
-        <v>0.18</v>
-      </c>
-      <c r="Y158">
-        <v>1</v>
-      </c>
-      <c r="AA158">
-        <v>270</v>
-      </c>
-      <c r="AB158">
-        <v>290</v>
-      </c>
       <c r="AC158" t="s">
         <v>66</v>
       </c>
       <c r="AF158">
-        <v>1.008</v>
+        <v>1.036</v>
       </c>
       <c r="AL158">
         <v>1</v>
@@ -9632,7 +9629,7 @@
     </row>
     <row r="159" spans="1:65">
       <c r="A159">
-        <v>309266</v>
+        <v>309267</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -9641,48 +9638,48 @@
         <v>382</v>
       </c>
       <c r="D159" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E159" t="s">
         <v>383</v>
       </c>
       <c r="F159" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G159">
-        <v>734</v>
+        <v>752</v>
       </c>
       <c r="J159">
-        <v>4400000000</v>
+        <v>4600000000</v>
       </c>
       <c r="Q159">
-        <v>0.1844</v>
+        <v>0.1888</v>
       </c>
       <c r="Y159">
         <v>1</v>
       </c>
       <c r="AA159">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AB159">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AC159" t="s">
         <v>66</v>
       </c>
       <c r="AF159">
-        <v>1.036</v>
+        <v>1.064</v>
       </c>
       <c r="AL159">
         <v>1</v>
       </c>
       <c r="BI159">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:65">
       <c r="A160">
-        <v>309267</v>
+        <v>309268</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -9691,37 +9688,37 @@
         <v>384</v>
       </c>
       <c r="D160" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E160" t="s">
         <v>385</v>
       </c>
       <c r="F160" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G160">
-        <v>752</v>
+        <v>769</v>
       </c>
       <c r="J160">
-        <v>4600000000</v>
+        <v>5000000000</v>
       </c>
       <c r="Q160">
-        <v>0.1888</v>
+        <v>0.1931</v>
       </c>
       <c r="Y160">
         <v>1</v>
       </c>
       <c r="AA160">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB160">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AC160" t="s">
         <v>66</v>
       </c>
       <c r="AF160">
-        <v>1.064</v>
+        <v>1.092</v>
       </c>
       <c r="AL160">
         <v>1</v>
@@ -9732,7 +9729,7 @@
     </row>
     <row r="161" spans="1:65">
       <c r="A161">
-        <v>309268</v>
+        <v>309269</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -9741,28 +9738,28 @@
         <v>386</v>
       </c>
       <c r="D161" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E161" t="s">
         <v>387</v>
       </c>
       <c r="F161" t="s">
+        <v>298</v>
+      </c>
+      <c r="G161">
+        <v>787</v>
+      </c>
+      <c r="J161">
+        <v>5300000000</v>
+      </c>
+      <c r="Q161">
+        <v>0.1975</v>
+      </c>
+      <c r="Y161">
+        <v>1</v>
+      </c>
+      <c r="AA161">
         <v>300</v>
-      </c>
-      <c r="G161">
-        <v>769</v>
-      </c>
-      <c r="J161">
-        <v>5000000000</v>
-      </c>
-      <c r="Q161">
-        <v>0.1931</v>
-      </c>
-      <c r="Y161">
-        <v>1</v>
-      </c>
-      <c r="AA161">
-        <v>290</v>
       </c>
       <c r="AB161">
         <v>320</v>
@@ -9771,7 +9768,7 @@
         <v>66</v>
       </c>
       <c r="AF161">
-        <v>1.092</v>
+        <v>1.12</v>
       </c>
       <c r="AL161">
         <v>1</v>
@@ -9782,7 +9779,7 @@
     </row>
     <row r="162" spans="1:65">
       <c r="A162">
-        <v>309269</v>
+        <v>309270</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -9791,48 +9788,48 @@
         <v>388</v>
       </c>
       <c r="D162" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E162" t="s">
         <v>389</v>
       </c>
       <c r="F162" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G162">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="J162">
-        <v>5300000000</v>
+        <v>5600000000</v>
       </c>
       <c r="Q162">
-        <v>0.1975</v>
+        <v>0.2019</v>
       </c>
       <c r="Y162">
         <v>1</v>
       </c>
       <c r="AA162">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AB162">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AC162" t="s">
         <v>66</v>
       </c>
       <c r="AF162">
-        <v>1.12</v>
+        <v>1.148</v>
       </c>
       <c r="AL162">
         <v>1</v>
       </c>
       <c r="BI162">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="163" spans="1:65">
       <c r="A163">
-        <v>309270</v>
+        <v>309271</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -9841,37 +9838,37 @@
         <v>390</v>
       </c>
       <c r="D163" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E163" t="s">
         <v>391</v>
       </c>
       <c r="F163" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G163">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="J163">
-        <v>5600000000</v>
+        <v>5800000000</v>
       </c>
       <c r="Q163">
-        <v>0.2019</v>
+        <v>0.2063</v>
       </c>
       <c r="Y163">
         <v>1</v>
       </c>
       <c r="AA163">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AB163">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AC163" t="s">
         <v>66</v>
       </c>
       <c r="AF163">
-        <v>1.148</v>
+        <v>1.176</v>
       </c>
       <c r="AL163">
         <v>1</v>
@@ -9882,7 +9879,7 @@
     </row>
     <row r="164" spans="1:65">
       <c r="A164">
-        <v>309271</v>
+        <v>309272</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -9891,48 +9888,48 @@
         <v>392</v>
       </c>
       <c r="D164" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E164" t="s">
         <v>393</v>
       </c>
       <c r="F164" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G164">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="J164">
-        <v>5800000000</v>
+        <v>6000000000</v>
       </c>
       <c r="Q164">
-        <v>0.2063</v>
+        <v>0.2106</v>
       </c>
       <c r="Y164">
         <v>1</v>
       </c>
       <c r="AA164">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AB164">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AC164" t="s">
         <v>66</v>
       </c>
       <c r="AF164">
-        <v>1.176</v>
+        <v>1.204</v>
       </c>
       <c r="AL164">
         <v>1</v>
       </c>
       <c r="BI164">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:65">
       <c r="A165">
-        <v>309272</v>
+        <v>309273</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -9941,37 +9938,37 @@
         <v>394</v>
       </c>
       <c r="D165" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E165" t="s">
         <v>395</v>
       </c>
       <c r="F165" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G165">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="J165">
-        <v>6000000000</v>
+        <v>6300000000</v>
       </c>
       <c r="Q165">
-        <v>0.2106</v>
+        <v>0.215</v>
       </c>
       <c r="Y165">
         <v>1</v>
       </c>
       <c r="AA165">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AB165">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AC165" t="s">
         <v>66</v>
       </c>
       <c r="AF165">
-        <v>1.204</v>
+        <v>1.232</v>
       </c>
       <c r="AL165">
         <v>1</v>
@@ -9982,7 +9979,7 @@
     </row>
     <row r="166" spans="1:65">
       <c r="A166">
-        <v>309273</v>
+        <v>310099</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -9991,48 +9988,48 @@
         <v>396</v>
       </c>
       <c r="D166" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E166" t="s">
         <v>397</v>
       </c>
       <c r="F166" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G166">
-        <v>858</v>
+        <v>894</v>
       </c>
       <c r="J166">
-        <v>6300000000</v>
+        <v>10000000000</v>
       </c>
       <c r="Q166">
-        <v>0.215</v>
+        <v>0.2238</v>
       </c>
       <c r="Y166">
         <v>1</v>
       </c>
       <c r="AA166">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AB166">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AC166" t="s">
         <v>66</v>
       </c>
       <c r="AF166">
-        <v>1.232</v>
+        <v>1.26</v>
       </c>
       <c r="AL166">
         <v>1</v>
       </c>
       <c r="BI166">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="167" spans="1:65">
       <c r="A167">
-        <v>310099</v>
+        <v>309275</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -10041,37 +10038,37 @@
         <v>398</v>
       </c>
       <c r="D167" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E167" t="s">
         <v>399</v>
       </c>
       <c r="F167" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G167">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="J167">
-        <v>10000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="Q167">
-        <v>0.2238</v>
+        <v>0.2281</v>
       </c>
       <c r="Y167">
         <v>1</v>
       </c>
       <c r="AA167">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AB167">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AC167" t="s">
         <v>66</v>
       </c>
       <c r="AF167">
-        <v>1.26</v>
+        <v>1.288</v>
       </c>
       <c r="AL167">
         <v>1</v>
@@ -10082,7 +10079,7 @@
     </row>
     <row r="168" spans="1:65">
       <c r="A168">
-        <v>309275</v>
+        <v>309276</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -10091,28 +10088,28 @@
         <v>400</v>
       </c>
       <c r="D168" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E168" t="s">
         <v>401</v>
       </c>
       <c r="F168" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G168">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="J168">
-        <v>12000000000</v>
+        <v>16000000000</v>
       </c>
       <c r="Q168">
-        <v>0.2281</v>
+        <v>0.2325</v>
       </c>
       <c r="Y168">
         <v>1</v>
       </c>
       <c r="AA168">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AB168">
         <v>380</v>
@@ -10121,7 +10118,7 @@
         <v>66</v>
       </c>
       <c r="AF168">
-        <v>1.288</v>
+        <v>1.316</v>
       </c>
       <c r="AL168">
         <v>1</v>
@@ -10132,7 +10129,7 @@
     </row>
     <row r="169" spans="1:65">
       <c r="A169">
-        <v>309276</v>
+        <v>309277</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -10141,28 +10138,28 @@
         <v>402</v>
       </c>
       <c r="D169" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E169" t="s">
         <v>403</v>
       </c>
       <c r="F169" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G169">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="J169">
-        <v>16000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="Q169">
-        <v>0.2325</v>
+        <v>0.2369</v>
       </c>
       <c r="Y169">
         <v>1</v>
       </c>
       <c r="AA169">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AB169">
         <v>380</v>
@@ -10171,7 +10168,7 @@
         <v>66</v>
       </c>
       <c r="AF169">
-        <v>1.316</v>
+        <v>1.344</v>
       </c>
       <c r="AL169">
         <v>1</v>
@@ -10182,7 +10179,7 @@
     </row>
     <row r="170" spans="1:65">
       <c r="A170">
-        <v>309277</v>
+        <v>309278</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -10191,48 +10188,48 @@
         <v>404</v>
       </c>
       <c r="D170" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E170" t="s">
         <v>405</v>
       </c>
       <c r="F170" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G170">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="J170">
-        <v>18000000000</v>
+        <v>22000000000</v>
       </c>
       <c r="Q170">
-        <v>0.2369</v>
+        <v>0.2413</v>
       </c>
       <c r="Y170">
         <v>1</v>
       </c>
       <c r="AA170">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AB170">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AC170" t="s">
         <v>66</v>
       </c>
       <c r="AF170">
-        <v>1.344</v>
+        <v>1.372</v>
       </c>
       <c r="AL170">
         <v>1</v>
       </c>
       <c r="BI170">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="171" spans="1:65">
       <c r="A171">
-        <v>309278</v>
+        <v>309279</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -10241,37 +10238,37 @@
         <v>406</v>
       </c>
       <c r="D171" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E171" t="s">
         <v>407</v>
       </c>
       <c r="F171" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G171">
-        <v>965</v>
+        <v>982</v>
       </c>
       <c r="J171">
-        <v>22000000000</v>
+        <v>24000000000</v>
       </c>
       <c r="Q171">
-        <v>0.2413</v>
+        <v>0.2456</v>
       </c>
       <c r="Y171">
         <v>1</v>
       </c>
       <c r="AA171">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB171">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AC171" t="s">
         <v>66</v>
       </c>
       <c r="AF171">
-        <v>1.372</v>
+        <v>1.4</v>
       </c>
       <c r="AL171">
         <v>1</v>
@@ -10282,7 +10279,7 @@
     </row>
     <row r="172" spans="1:65">
       <c r="A172">
-        <v>309279</v>
+        <v>309280</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -10291,37 +10288,37 @@
         <v>408</v>
       </c>
       <c r="D172" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E172" t="s">
         <v>409</v>
       </c>
       <c r="F172" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G172">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="J172">
-        <v>24000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="Q172">
-        <v>0.2456</v>
+        <v>0.25</v>
       </c>
       <c r="Y172">
         <v>1</v>
       </c>
       <c r="AA172">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB172">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC172" t="s">
         <v>66</v>
       </c>
       <c r="AF172">
-        <v>1.4</v>
+        <v>1.428</v>
       </c>
       <c r="AL172">
         <v>1</v>
@@ -10332,7 +10329,7 @@
     </row>
     <row r="173" spans="1:65">
       <c r="A173">
-        <v>309280</v>
+        <v>65497</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -10341,90 +10338,96 @@
         <v>410</v>
       </c>
       <c r="D173" t="s">
-        <v>300</v>
+        <v>411</v>
       </c>
       <c r="E173" t="s">
+        <v>412</v>
+      </c>
+      <c r="F173" t="s">
         <v>411</v>
       </c>
-      <c r="F173" t="s">
-        <v>300</v>
-      </c>
       <c r="G173">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="J173">
-        <v>26000000000</v>
-      </c>
-      <c r="Q173">
-        <v>0.25</v>
+        <v>10</v>
+      </c>
+      <c r="S173">
+        <v>0.005</v>
+      </c>
+      <c r="V173">
+        <v>0.005</v>
       </c>
       <c r="Y173">
         <v>1</v>
       </c>
+      <c r="Z173">
+        <v>1</v>
+      </c>
       <c r="AA173">
-        <v>400</v>
+        <v>1</v>
       </c>
       <c r="AB173">
-        <v>401</v>
+        <v>5</v>
       </c>
       <c r="AC173" t="s">
         <v>66</v>
       </c>
-      <c r="AF173">
-        <v>1.428</v>
-      </c>
-      <c r="AL173">
-        <v>1</v>
-      </c>
       <c r="BI173">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:65">
       <c r="A174">
-        <v>65497</v>
+        <v>65498</v>
       </c>
       <c r="B174">
         <v>1</v>
       </c>
       <c r="C174" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D174" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E174" t="s">
         <v>414</v>
       </c>
       <c r="F174" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G174">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J174">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="S174">
+        <v>0.0095</v>
+      </c>
+      <c r="V174">
+        <v>0.0095</v>
+      </c>
+      <c r="Y174">
+        <v>1</v>
+      </c>
+      <c r="Z174">
+        <v>1</v>
+      </c>
+      <c r="AA174">
+        <v>3</v>
+      </c>
+      <c r="AB174">
+        <v>8</v>
+      </c>
+      <c r="AC174" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF174">
         <v>0.005</v>
       </c>
-      <c r="V174">
-        <v>0.005</v>
-      </c>
-      <c r="Y174">
-        <v>1</v>
-      </c>
-      <c r="Z174">
-        <v>1</v>
-      </c>
-      <c r="AA174">
-        <v>1</v>
-      </c>
-      <c r="AB174">
-        <v>5</v>
-      </c>
-      <c r="AC174" t="s">
-        <v>66</v>
+      <c r="AI174">
+        <v>0.0002</v>
       </c>
       <c r="BI174">
         <v>1</v>
@@ -10432,7 +10435,7 @@
     </row>
     <row r="175" spans="1:65">
       <c r="A175">
-        <v>65498</v>
+        <v>65499</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -10441,25 +10444,25 @@
         <v>415</v>
       </c>
       <c r="D175" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E175" t="s">
         <v>416</v>
       </c>
       <c r="F175" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G175">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J175">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="S175">
-        <v>0.0095</v>
+        <v>0.0139</v>
       </c>
       <c r="V175">
-        <v>0.0095</v>
+        <v>0.0139</v>
       </c>
       <c r="Y175">
         <v>1</v>
@@ -10468,19 +10471,19 @@
         <v>1</v>
       </c>
       <c r="AA175">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB175">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AC175" t="s">
         <v>66</v>
       </c>
       <c r="AF175">
-        <v>0.005</v>
+        <v>0.008</v>
       </c>
       <c r="AI175">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
       <c r="BI175">
         <v>1</v>
@@ -10488,7 +10491,7 @@
     </row>
     <row r="176" spans="1:65">
       <c r="A176">
-        <v>65499</v>
+        <v>65500</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -10497,25 +10500,25 @@
         <v>417</v>
       </c>
       <c r="D176" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E176" t="s">
         <v>418</v>
       </c>
       <c r="F176" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G176">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="J176">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="S176">
-        <v>0.0139</v>
+        <v>0.0184</v>
       </c>
       <c r="V176">
-        <v>0.0139</v>
+        <v>0.0184</v>
       </c>
       <c r="Y176">
         <v>1</v>
@@ -10524,19 +10527,19 @@
         <v>1</v>
       </c>
       <c r="AA176">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AB176">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AC176" t="s">
         <v>66</v>
       </c>
       <c r="AF176">
-        <v>0.008</v>
+        <v>0.016</v>
       </c>
       <c r="AI176">
-        <v>0.0005</v>
+        <v>0.0008</v>
       </c>
       <c r="BI176">
         <v>1</v>
@@ -10544,7 +10547,7 @@
     </row>
     <row r="177" spans="1:65">
       <c r="A177">
-        <v>65500</v>
+        <v>65501</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -10553,25 +10556,25 @@
         <v>419</v>
       </c>
       <c r="D177" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E177" t="s">
         <v>420</v>
       </c>
       <c r="F177" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G177">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="J177">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="S177">
-        <v>0.0184</v>
+        <v>0.0228</v>
       </c>
       <c r="V177">
-        <v>0.0184</v>
+        <v>0.0228</v>
       </c>
       <c r="Y177">
         <v>1</v>
@@ -10580,27 +10583,27 @@
         <v>1</v>
       </c>
       <c r="AA177">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AB177">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="AC177" t="s">
         <v>66</v>
       </c>
       <c r="AF177">
-        <v>0.016</v>
+        <v>0.018</v>
       </c>
       <c r="AI177">
-        <v>0.0008</v>
+        <v>0.0009</v>
       </c>
       <c r="BI177">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:65">
       <c r="A178">
-        <v>65501</v>
+        <v>65502</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -10609,25 +10612,25 @@
         <v>421</v>
       </c>
       <c r="D178" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E178" t="s">
         <v>422</v>
       </c>
       <c r="F178" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G178">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="J178">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="S178">
-        <v>0.0228</v>
+        <v>0.0273</v>
       </c>
       <c r="V178">
-        <v>0.0228</v>
+        <v>0.0273</v>
       </c>
       <c r="Y178">
         <v>1</v>
@@ -10636,19 +10639,19 @@
         <v>1</v>
       </c>
       <c r="AA178">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AB178">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AC178" t="s">
         <v>66</v>
       </c>
       <c r="AF178">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="AI178">
-        <v>0.0009</v>
+        <v>0.001</v>
       </c>
       <c r="BI178">
         <v>2</v>
@@ -10656,7 +10659,7 @@
     </row>
     <row r="179" spans="1:65">
       <c r="A179">
-        <v>65502</v>
+        <v>65503</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -10665,25 +10668,25 @@
         <v>423</v>
       </c>
       <c r="D179" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E179" t="s">
         <v>424</v>
       </c>
       <c r="F179" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G179">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="J179">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="S179">
-        <v>0.0273</v>
+        <v>0.0317</v>
       </c>
       <c r="V179">
-        <v>0.0273</v>
+        <v>0.0317</v>
       </c>
       <c r="Y179">
         <v>1</v>
@@ -10692,27 +10695,27 @@
         <v>1</v>
       </c>
       <c r="AA179">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AB179">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC179" t="s">
         <v>66</v>
       </c>
       <c r="AF179">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="AI179">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="BI179">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:65">
       <c r="A180">
-        <v>65503</v>
+        <v>65504</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -10721,46 +10724,43 @@
         <v>425</v>
       </c>
       <c r="D180" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E180" t="s">
         <v>426</v>
       </c>
       <c r="F180" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G180">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="J180">
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="S180">
-        <v>0.0317</v>
+        <v>0.0362</v>
       </c>
       <c r="V180">
-        <v>0.0317</v>
+        <v>0.0362</v>
       </c>
       <c r="Y180">
         <v>1</v>
       </c>
-      <c r="Z180">
-        <v>1</v>
-      </c>
       <c r="AA180">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB180">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC180" t="s">
         <v>66</v>
       </c>
       <c r="AF180">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="AI180">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="BI180">
         <v>3</v>
@@ -10768,7 +10768,7 @@
     </row>
     <row r="181" spans="1:65">
       <c r="A181">
-        <v>65504</v>
+        <v>65505</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -10777,51 +10777,51 @@
         <v>427</v>
       </c>
       <c r="D181" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E181" t="s">
         <v>428</v>
       </c>
       <c r="F181" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G181">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="J181">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="S181">
-        <v>0.0362</v>
+        <v>0.0406</v>
       </c>
       <c r="V181">
-        <v>0.0362</v>
+        <v>0.0406</v>
       </c>
       <c r="Y181">
         <v>1</v>
       </c>
       <c r="AA181">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="AB181">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AC181" t="s">
         <v>66</v>
       </c>
       <c r="AF181">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="AI181">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="BI181">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:65">
       <c r="A182">
-        <v>65505</v>
+        <v>65506</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -10830,43 +10830,43 @@
         <v>429</v>
       </c>
       <c r="D182" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E182" t="s">
         <v>430</v>
       </c>
       <c r="F182" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G182">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="J182">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="S182">
-        <v>0.0406</v>
+        <v>0.0451</v>
       </c>
       <c r="V182">
-        <v>0.0406</v>
+        <v>0.0451</v>
       </c>
       <c r="Y182">
         <v>1</v>
       </c>
       <c r="AA182">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AB182">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AC182" t="s">
         <v>66</v>
       </c>
       <c r="AF182">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="AI182">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="BI182">
         <v>4</v>
@@ -10874,7 +10874,7 @@
     </row>
     <row r="183" spans="1:65">
       <c r="A183">
-        <v>65506</v>
+        <v>65507</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -10883,31 +10883,31 @@
         <v>431</v>
       </c>
       <c r="D183" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E183" t="s">
         <v>432</v>
       </c>
       <c r="F183" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G183">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="J183">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="S183">
-        <v>0.0451</v>
+        <v>0.0495</v>
       </c>
       <c r="V183">
-        <v>0.0451</v>
+        <v>0.0495</v>
       </c>
       <c r="Y183">
         <v>1</v>
       </c>
       <c r="AA183">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="AB183">
         <v>78</v>
@@ -10916,10 +10916,10 @@
         <v>66</v>
       </c>
       <c r="AF183">
-        <v>0.027</v>
+        <v>0.035</v>
       </c>
       <c r="AI183">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="BI183">
         <v>4</v>
@@ -10927,7 +10927,7 @@
     </row>
     <row r="184" spans="1:65">
       <c r="A184">
-        <v>65507</v>
+        <v>65508</v>
       </c>
       <c r="B184">
         <v>1</v>
@@ -10936,51 +10936,51 @@
         <v>433</v>
       </c>
       <c r="D184" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E184" t="s">
         <v>434</v>
       </c>
       <c r="F184" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G184">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J184">
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="S184">
-        <v>0.0495</v>
+        <v>0.054</v>
       </c>
       <c r="V184">
-        <v>0.0495</v>
+        <v>0.054</v>
       </c>
       <c r="Y184">
         <v>1</v>
       </c>
       <c r="AA184">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AB184">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AC184" t="s">
         <v>66</v>
       </c>
       <c r="AF184">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="AI184">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="BI184">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:65">
       <c r="A185">
-        <v>65508</v>
+        <v>65509</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -10989,51 +10989,51 @@
         <v>435</v>
       </c>
       <c r="D185" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E185" t="s">
         <v>436</v>
       </c>
       <c r="F185" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G185">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="J185">
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="S185">
-        <v>0.054</v>
+        <v>0.0585</v>
       </c>
       <c r="V185">
-        <v>0.054</v>
+        <v>0.0585</v>
       </c>
       <c r="Y185">
         <v>1</v>
       </c>
       <c r="AA185">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AB185">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AC185" t="s">
         <v>66</v>
       </c>
       <c r="AF185">
-        <v>0.038</v>
+        <v>0.042</v>
       </c>
       <c r="AI185">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="BI185">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:65">
       <c r="A186">
-        <v>65509</v>
+        <v>65510</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -11042,51 +11042,51 @@
         <v>437</v>
       </c>
       <c r="D186" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E186" t="s">
         <v>438</v>
       </c>
       <c r="F186" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G186">
-        <v>223</v>
+        <v>241</v>
       </c>
       <c r="J186">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="S186">
-        <v>0.0585</v>
+        <v>0.0629</v>
       </c>
       <c r="V186">
-        <v>0.0585</v>
+        <v>0.0629</v>
       </c>
       <c r="Y186">
         <v>1</v>
       </c>
       <c r="AA186">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB186">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AC186" t="s">
         <v>66</v>
       </c>
       <c r="AF186">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
       <c r="AI186">
-        <v>0.008</v>
+        <v>0.009</v>
       </c>
       <c r="BI186">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187" spans="1:65">
       <c r="A187">
-        <v>65510</v>
+        <v>65511</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -11095,51 +11095,51 @@
         <v>439</v>
       </c>
       <c r="D187" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E187" t="s">
         <v>440</v>
       </c>
       <c r="F187" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G187">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="J187">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="S187">
-        <v>0.0629</v>
+        <v>0.0674</v>
       </c>
       <c r="V187">
-        <v>0.0629</v>
+        <v>0.0674</v>
       </c>
       <c r="Y187">
         <v>1</v>
       </c>
       <c r="AA187">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB187">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="AC187" t="s">
         <v>66</v>
       </c>
       <c r="AF187">
-        <v>0.045</v>
+        <v>0.048</v>
       </c>
       <c r="AI187">
-        <v>0.009</v>
+        <v>0.01</v>
       </c>
       <c r="BI187">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="188" spans="1:65">
       <c r="A188">
-        <v>65511</v>
+        <v>65512</v>
       </c>
       <c r="B188">
         <v>1</v>
@@ -11148,51 +11148,51 @@
         <v>441</v>
       </c>
       <c r="D188" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E188" t="s">
         <v>442</v>
       </c>
       <c r="F188" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G188">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="J188">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="S188">
-        <v>0.0674</v>
+        <v>0.0718</v>
       </c>
       <c r="V188">
-        <v>0.0674</v>
+        <v>0.0718</v>
       </c>
       <c r="Y188">
         <v>1</v>
       </c>
       <c r="AA188">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AB188">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AC188" t="s">
         <v>66</v>
       </c>
       <c r="AF188">
-        <v>0.048</v>
+        <v>0.058</v>
       </c>
       <c r="AI188">
-        <v>0.01</v>
+        <v>0.013</v>
       </c>
       <c r="BI188">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:65">
       <c r="A189">
-        <v>65512</v>
+        <v>65513</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -11201,51 +11201,51 @@
         <v>443</v>
       </c>
       <c r="D189" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E189" t="s">
         <v>444</v>
       </c>
       <c r="F189" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G189">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="J189">
-        <v>60000</v>
+        <v>120000</v>
       </c>
       <c r="S189">
-        <v>0.0718</v>
+        <v>0.0763</v>
       </c>
       <c r="V189">
-        <v>0.0718</v>
+        <v>0.0763</v>
       </c>
       <c r="Y189">
         <v>1</v>
       </c>
       <c r="AA189">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB189">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AC189" t="s">
         <v>66</v>
       </c>
       <c r="AF189">
-        <v>0.058</v>
+        <v>0.06</v>
       </c>
       <c r="AI189">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="BI189">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:65">
       <c r="A190">
-        <v>65513</v>
+        <v>65514</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -11254,31 +11254,31 @@
         <v>445</v>
       </c>
       <c r="D190" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E190" t="s">
         <v>446</v>
       </c>
       <c r="F190" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G190">
-        <v>295</v>
+        <v>313</v>
       </c>
       <c r="J190">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="S190">
-        <v>0.0763</v>
+        <v>0.0807</v>
       </c>
       <c r="V190">
-        <v>0.0763</v>
+        <v>0.0807</v>
       </c>
       <c r="Y190">
         <v>1</v>
       </c>
       <c r="AA190">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AB190">
         <v>190</v>
@@ -11287,10 +11287,10 @@
         <v>66</v>
       </c>
       <c r="AF190">
-        <v>0.06</v>
+        <v>0.065</v>
       </c>
       <c r="AI190">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="BI190">
         <v>10</v>
@@ -11298,7 +11298,7 @@
     </row>
     <row r="191" spans="1:65">
       <c r="A191">
-        <v>65514</v>
+        <v>65515</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -11307,43 +11307,43 @@
         <v>447</v>
       </c>
       <c r="D191" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E191" t="s">
         <v>448</v>
       </c>
       <c r="F191" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G191">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="J191">
-        <v>180000</v>
+        <v>240000</v>
       </c>
       <c r="S191">
-        <v>0.0807</v>
+        <v>0.0852</v>
       </c>
       <c r="V191">
-        <v>0.0807</v>
+        <v>0.0852</v>
       </c>
       <c r="Y191">
         <v>1</v>
       </c>
       <c r="AA191">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB191">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AC191" t="s">
         <v>66</v>
       </c>
       <c r="AF191">
-        <v>0.065</v>
+        <v>0.07</v>
       </c>
       <c r="AI191">
-        <v>0.018</v>
+        <v>0.019</v>
       </c>
       <c r="BI191">
         <v>10</v>
@@ -11351,7 +11351,7 @@
     </row>
     <row r="192" spans="1:65">
       <c r="A192">
-        <v>65515</v>
+        <v>65516</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -11360,31 +11360,31 @@
         <v>449</v>
       </c>
       <c r="D192" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E192" t="s">
         <v>450</v>
       </c>
       <c r="F192" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G192">
-        <v>331</v>
+        <v>349</v>
       </c>
       <c r="J192">
-        <v>240000</v>
+        <v>260000</v>
       </c>
       <c r="S192">
-        <v>0.0852</v>
+        <v>0.0896</v>
       </c>
       <c r="V192">
-        <v>0.0852</v>
+        <v>0.0896</v>
       </c>
       <c r="Y192">
         <v>1</v>
       </c>
       <c r="AA192">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AB192">
         <v>200</v>
@@ -11393,10 +11393,10 @@
         <v>66</v>
       </c>
       <c r="AF192">
-        <v>0.07</v>
+        <v>0.075</v>
       </c>
       <c r="AI192">
-        <v>0.019</v>
+        <v>0.02</v>
       </c>
       <c r="BI192">
         <v>10</v>
@@ -11404,7 +11404,7 @@
     </row>
     <row r="193" spans="1:65">
       <c r="A193">
-        <v>65516</v>
+        <v>65517</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -11413,31 +11413,31 @@
         <v>451</v>
       </c>
       <c r="D193" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E193" t="s">
         <v>452</v>
       </c>
       <c r="F193" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G193">
-        <v>349</v>
+        <v>367</v>
       </c>
       <c r="J193">
-        <v>260000</v>
+        <v>350000</v>
       </c>
       <c r="S193">
-        <v>0.0896</v>
+        <v>0.0941</v>
       </c>
       <c r="V193">
-        <v>0.0896</v>
+        <v>0.0941</v>
       </c>
       <c r="Y193">
         <v>1</v>
       </c>
       <c r="AA193">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AB193">
         <v>200</v>
@@ -11446,10 +11446,10 @@
         <v>66</v>
       </c>
       <c r="AF193">
-        <v>0.075</v>
+        <v>0.078</v>
       </c>
       <c r="AI193">
-        <v>0.02</v>
+        <v>0.022</v>
       </c>
       <c r="BI193">
         <v>10</v>
@@ -11457,7 +11457,7 @@
     </row>
     <row r="194" spans="1:65">
       <c r="A194">
-        <v>65517</v>
+        <v>65518</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -11466,31 +11466,31 @@
         <v>453</v>
       </c>
       <c r="D194" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E194" t="s">
         <v>454</v>
       </c>
       <c r="F194" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G194">
-        <v>367</v>
+        <v>386</v>
       </c>
       <c r="J194">
-        <v>350000</v>
+        <v>500000</v>
       </c>
       <c r="S194">
-        <v>0.0941</v>
+        <v>0.0985</v>
       </c>
       <c r="V194">
-        <v>0.0941</v>
+        <v>0.0985</v>
       </c>
       <c r="Y194">
         <v>1</v>
       </c>
       <c r="AA194">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB194">
         <v>200</v>
@@ -11499,10 +11499,10 @@
         <v>66</v>
       </c>
       <c r="AF194">
-        <v>0.078</v>
+        <v>0.083</v>
       </c>
       <c r="AI194">
-        <v>0.022</v>
+        <v>0.025</v>
       </c>
       <c r="BI194">
         <v>10</v>
@@ -11510,7 +11510,7 @@
     </row>
     <row r="195" spans="1:65">
       <c r="A195">
-        <v>65518</v>
+        <v>65519</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -11519,31 +11519,31 @@
         <v>455</v>
       </c>
       <c r="D195" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E195" t="s">
         <v>456</v>
       </c>
       <c r="F195" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G195">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="J195">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="S195">
-        <v>0.0985</v>
+        <v>0.103</v>
       </c>
       <c r="V195">
-        <v>0.0985</v>
+        <v>0.103</v>
       </c>
       <c r="Y195">
         <v>1</v>
       </c>
       <c r="AA195">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AB195">
         <v>200</v>
@@ -11552,10 +11552,10 @@
         <v>66</v>
       </c>
       <c r="AF195">
-        <v>0.083</v>
+        <v>0.088</v>
       </c>
       <c r="AI195">
-        <v>0.025</v>
+        <v>0.027</v>
       </c>
       <c r="BI195">
         <v>10</v>
@@ -11563,7 +11563,7 @@
     </row>
     <row r="196" spans="1:65">
       <c r="A196">
-        <v>65519</v>
+        <v>65520</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -11572,31 +11572,31 @@
         <v>457</v>
       </c>
       <c r="D196" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E196" t="s">
-        <v>458</v>
+        <v>109</v>
       </c>
       <c r="F196" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G196">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="J196">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="S196">
-        <v>0.103</v>
+        <v>0.1075</v>
       </c>
       <c r="V196">
-        <v>0.103</v>
+        <v>0.1075</v>
       </c>
       <c r="Y196">
         <v>1</v>
       </c>
       <c r="AA196">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB196">
         <v>200</v>
@@ -11605,10 +11605,10 @@
         <v>66</v>
       </c>
       <c r="AF196">
-        <v>0.088</v>
+        <v>0.096</v>
       </c>
       <c r="AI196">
-        <v>0.027</v>
+        <v>0.029</v>
       </c>
       <c r="BI196">
         <v>10</v>
@@ -11616,40 +11616,40 @@
     </row>
     <row r="197" spans="1:65">
       <c r="A197">
-        <v>65520</v>
+        <v>165645</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
       <c r="C197" t="s">
+        <v>458</v>
+      </c>
+      <c r="D197" t="s">
+        <v>411</v>
+      </c>
+      <c r="E197" t="s">
         <v>459</v>
       </c>
-      <c r="D197" t="s">
-        <v>413</v>
-      </c>
-      <c r="E197" t="s">
-        <v>109</v>
-      </c>
       <c r="F197" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G197">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="J197">
-        <v>10000000</v>
+        <v>25000000</v>
       </c>
       <c r="S197">
-        <v>0.1075</v>
+        <v>0.1119</v>
       </c>
       <c r="V197">
-        <v>0.1075</v>
+        <v>0.1119</v>
       </c>
       <c r="Y197">
         <v>1</v>
       </c>
       <c r="AA197">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB197">
         <v>200</v>
@@ -11658,10 +11658,10 @@
         <v>66</v>
       </c>
       <c r="AF197">
-        <v>0.096</v>
+        <v>0.1</v>
       </c>
       <c r="AI197">
-        <v>0.029</v>
+        <v>0.03</v>
       </c>
       <c r="BI197">
         <v>10</v>
@@ -11669,7 +11669,7 @@
     </row>
     <row r="198" spans="1:65">
       <c r="A198">
-        <v>165645</v>
+        <v>65522</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -11678,31 +11678,31 @@
         <v>460</v>
       </c>
       <c r="D198" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E198" t="s">
         <v>461</v>
       </c>
       <c r="F198" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G198">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="J198">
-        <v>25000000</v>
+        <v>40000000</v>
       </c>
       <c r="S198">
-        <v>0.1119</v>
+        <v>0.1164</v>
       </c>
       <c r="V198">
-        <v>0.1119</v>
+        <v>0.1164</v>
       </c>
       <c r="Y198">
         <v>1</v>
       </c>
       <c r="AA198">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AB198">
         <v>200</v>
@@ -11711,10 +11711,10 @@
         <v>66</v>
       </c>
       <c r="AF198">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="AI198">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="BI198">
         <v>10</v>
@@ -11722,7 +11722,7 @@
     </row>
     <row r="199" spans="1:65">
       <c r="A199">
-        <v>65522</v>
+        <v>65523</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -11731,31 +11731,31 @@
         <v>462</v>
       </c>
       <c r="D199" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E199" t="s">
         <v>463</v>
       </c>
       <c r="F199" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G199">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="J199">
-        <v>40000000</v>
+        <v>65000000</v>
       </c>
       <c r="S199">
-        <v>0.1164</v>
+        <v>0.1208</v>
       </c>
       <c r="V199">
-        <v>0.1164</v>
+        <v>0.1208</v>
       </c>
       <c r="Y199">
         <v>1</v>
       </c>
       <c r="AA199">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB199">
         <v>200</v>
@@ -11764,10 +11764,10 @@
         <v>66</v>
       </c>
       <c r="AF199">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="AI199">
-        <v>0.031</v>
+        <v>0.032</v>
       </c>
       <c r="BI199">
         <v>10</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="200" spans="1:65">
       <c r="A200">
-        <v>65523</v>
+        <v>65524</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -11784,31 +11784,31 @@
         <v>464</v>
       </c>
       <c r="D200" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E200" t="s">
         <v>465</v>
       </c>
       <c r="F200" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G200">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="J200">
-        <v>65000000</v>
+        <v>100000000</v>
       </c>
       <c r="S200">
-        <v>0.1208</v>
+        <v>0.1253</v>
       </c>
       <c r="V200">
-        <v>0.1208</v>
+        <v>0.1253</v>
       </c>
       <c r="Y200">
         <v>1</v>
       </c>
       <c r="AA200">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB200">
         <v>200</v>
@@ -11817,10 +11817,10 @@
         <v>66</v>
       </c>
       <c r="AF200">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AI200">
-        <v>0.032</v>
+        <v>0.035</v>
       </c>
       <c r="BI200">
         <v>10</v>
@@ -11828,7 +11828,7 @@
     </row>
     <row r="201" spans="1:65">
       <c r="A201">
-        <v>65524</v>
+        <v>65525</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -11837,31 +11837,31 @@
         <v>466</v>
       </c>
       <c r="D201" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E201" t="s">
         <v>467</v>
       </c>
       <c r="F201" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G201">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="J201">
-        <v>100000000</v>
+        <v>160000000</v>
       </c>
       <c r="S201">
-        <v>0.1253</v>
+        <v>0.1297</v>
       </c>
       <c r="V201">
-        <v>0.1253</v>
+        <v>0.1297</v>
       </c>
       <c r="Y201">
         <v>1</v>
       </c>
       <c r="AA201">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB201">
         <v>200</v>
@@ -11870,10 +11870,10 @@
         <v>66</v>
       </c>
       <c r="AF201">
-        <v>0.25</v>
+        <v>0.3</v>
       </c>
       <c r="AI201">
-        <v>0.035</v>
+        <v>0.038</v>
       </c>
       <c r="BI201">
         <v>10</v>
@@ -11881,7 +11881,7 @@
     </row>
     <row r="202" spans="1:65">
       <c r="A202">
-        <v>65525</v>
+        <v>65526</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -11890,51 +11890,51 @@
         <v>468</v>
       </c>
       <c r="D202" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E202" t="s">
         <v>469</v>
       </c>
       <c r="F202" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G202">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="J202">
-        <v>160000000</v>
+        <v>250000000</v>
       </c>
       <c r="S202">
-        <v>0.1297</v>
+        <v>0.1342</v>
       </c>
       <c r="V202">
-        <v>0.1297</v>
+        <v>0.1342</v>
       </c>
       <c r="Y202">
         <v>1</v>
       </c>
       <c r="AA202">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB202">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AC202" t="s">
         <v>66</v>
       </c>
       <c r="AF202">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="AI202">
-        <v>0.038</v>
+        <v>0.04</v>
       </c>
       <c r="BI202">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:65">
       <c r="A203">
-        <v>65526</v>
+        <v>65528</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -11943,43 +11943,43 @@
         <v>470</v>
       </c>
       <c r="D203" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E203" t="s">
         <v>471</v>
       </c>
       <c r="F203" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G203">
-        <v>530</v>
+        <v>548</v>
       </c>
       <c r="J203">
-        <v>250000000</v>
+        <v>1000000000</v>
       </c>
       <c r="S203">
-        <v>0.1342</v>
+        <v>0.1386</v>
       </c>
       <c r="V203">
-        <v>0.1342</v>
+        <v>0.1386</v>
       </c>
       <c r="Y203">
         <v>1</v>
       </c>
       <c r="AA203">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AB203">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AC203" t="s">
         <v>66</v>
       </c>
       <c r="AF203">
-        <v>0.35</v>
+        <v>0.42</v>
       </c>
       <c r="AI203">
-        <v>0.04</v>
+        <v>0.042</v>
       </c>
       <c r="BI203">
         <v>11</v>
@@ -11987,7 +11987,7 @@
     </row>
     <row r="204" spans="1:65">
       <c r="A204">
-        <v>65528</v>
+        <v>65529</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -11996,43 +11996,43 @@
         <v>472</v>
       </c>
       <c r="D204" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E204" t="s">
         <v>473</v>
       </c>
       <c r="F204" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G204">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="J204">
-        <v>1000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="S204">
-        <v>0.1386</v>
+        <v>0.1431</v>
       </c>
       <c r="V204">
-        <v>0.1386</v>
+        <v>0.1431</v>
       </c>
       <c r="Y204">
         <v>1</v>
       </c>
       <c r="AA204">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AB204">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AC204" t="s">
         <v>66</v>
       </c>
       <c r="AF204">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="AI204">
-        <v>0.042</v>
+        <v>0.044</v>
       </c>
       <c r="BI204">
         <v>11</v>
@@ -12040,7 +12040,7 @@
     </row>
     <row r="205" spans="1:65">
       <c r="A205">
-        <v>65529</v>
+        <v>65530</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -12049,43 +12049,46 @@
         <v>474</v>
       </c>
       <c r="D205" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E205" t="s">
         <v>475</v>
       </c>
       <c r="F205" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G205">
-        <v>566</v>
+        <v>584</v>
       </c>
       <c r="J205">
-        <v>2000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="S205">
-        <v>0.1431</v>
+        <v>0.1475</v>
       </c>
       <c r="V205">
-        <v>0.1431</v>
+        <v>0.1475</v>
       </c>
       <c r="Y205">
         <v>1</v>
       </c>
       <c r="AA205">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AB205">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AC205" t="s">
         <v>66</v>
       </c>
       <c r="AF205">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AI205">
-        <v>0.044</v>
+        <v>0.048</v>
+      </c>
+      <c r="AL205">
+        <v>1</v>
       </c>
       <c r="BI205">
         <v>11</v>
@@ -12093,7 +12096,7 @@
     </row>
     <row r="206" spans="1:65">
       <c r="A206">
-        <v>65530</v>
+        <v>65531</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -12102,54 +12105,54 @@
         <v>476</v>
       </c>
       <c r="D206" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E206" t="s">
         <v>477</v>
       </c>
       <c r="F206" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G206">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="J206">
-        <v>2100000000</v>
+        <v>2200000000</v>
       </c>
       <c r="S206">
-        <v>0.1475</v>
+        <v>0.152</v>
       </c>
       <c r="V206">
-        <v>0.1475</v>
+        <v>0.152</v>
       </c>
       <c r="Y206">
         <v>1</v>
       </c>
       <c r="AA206">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AB206">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AC206" t="s">
         <v>66</v>
       </c>
       <c r="AF206">
-        <v>0.53</v>
+        <v>0.56</v>
       </c>
       <c r="AI206">
-        <v>0.048</v>
+        <v>0.05</v>
       </c>
       <c r="AL206">
         <v>1</v>
       </c>
       <c r="BI206">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:65">
       <c r="A207">
-        <v>65531</v>
+        <v>65532</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -12158,54 +12161,54 @@
         <v>478</v>
       </c>
       <c r="D207" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E207" t="s">
         <v>479</v>
       </c>
       <c r="F207" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G207">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="J207">
-        <v>2200000000</v>
+        <v>2300000000</v>
       </c>
       <c r="S207">
-        <v>0.152</v>
+        <v>0.1565</v>
       </c>
       <c r="V207">
-        <v>0.152</v>
+        <v>0.1565</v>
       </c>
       <c r="Y207">
         <v>1</v>
       </c>
       <c r="AA207">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AB207">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="AC207" t="s">
         <v>66</v>
       </c>
       <c r="AF207">
-        <v>0.56</v>
+        <v>0.58</v>
       </c>
       <c r="AI207">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="AL207">
         <v>1</v>
       </c>
       <c r="BI207">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:65">
       <c r="A208">
-        <v>65532</v>
+        <v>65533</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -12214,31 +12217,31 @@
         <v>480</v>
       </c>
       <c r="D208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E208" t="s">
         <v>481</v>
       </c>
       <c r="F208" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G208">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="J208">
-        <v>2300000000</v>
+        <v>2400000000</v>
       </c>
       <c r="S208">
-        <v>0.1565</v>
+        <v>0.1609</v>
       </c>
       <c r="V208">
-        <v>0.1565</v>
+        <v>0.1609</v>
       </c>
       <c r="Y208">
         <v>1</v>
       </c>
       <c r="AA208">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AB208">
         <v>250</v>
@@ -12247,10 +12250,10 @@
         <v>66</v>
       </c>
       <c r="AF208">
-        <v>0.58</v>
+        <v>0.63</v>
       </c>
       <c r="AI208">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="AL208">
         <v>1</v>
@@ -12261,7 +12264,7 @@
     </row>
     <row r="209" spans="1:65">
       <c r="A209">
-        <v>65533</v>
+        <v>94273</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -12270,54 +12273,54 @@
         <v>482</v>
       </c>
       <c r="D209" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E209" t="s">
         <v>483</v>
       </c>
       <c r="F209" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G209">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="J209">
-        <v>2400000000</v>
+        <v>2800000000</v>
       </c>
       <c r="S209">
-        <v>0.1609</v>
+        <v>0.1654</v>
       </c>
       <c r="V209">
-        <v>0.1609</v>
+        <v>0.1654</v>
       </c>
       <c r="Y209">
         <v>1</v>
       </c>
       <c r="AA209">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AB209">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="AC209" t="s">
         <v>66</v>
       </c>
       <c r="AF209">
-        <v>0.63</v>
+        <v>0.68</v>
       </c>
       <c r="AI209">
-        <v>0.054</v>
+        <v>0.058</v>
       </c>
       <c r="AL209">
         <v>1</v>
       </c>
       <c r="BI209">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:65">
       <c r="A210">
-        <v>94273</v>
+        <v>94275</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -12326,31 +12329,31 @@
         <v>484</v>
       </c>
       <c r="D210" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E210" t="s">
         <v>485</v>
       </c>
       <c r="F210" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G210">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="J210">
-        <v>2800000000</v>
+        <v>3300000000</v>
       </c>
       <c r="S210">
-        <v>0.1654</v>
+        <v>0.1698</v>
       </c>
       <c r="V210">
-        <v>0.1654</v>
+        <v>0.1698</v>
       </c>
       <c r="Y210">
         <v>1</v>
       </c>
       <c r="AA210">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="AB210">
         <v>270</v>
@@ -12359,10 +12362,10 @@
         <v>66</v>
       </c>
       <c r="AF210">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="AI210">
-        <v>0.058</v>
+        <v>0.065</v>
       </c>
       <c r="AL210">
         <v>1</v>
@@ -12373,7 +12376,7 @@
     </row>
     <row r="211" spans="1:65">
       <c r="A211">
-        <v>94275</v>
+        <v>155214</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -12382,31 +12385,31 @@
         <v>486</v>
       </c>
       <c r="D211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E211" t="s">
         <v>487</v>
       </c>
       <c r="F211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G211">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="J211">
-        <v>3300000000</v>
+        <v>3500000000</v>
       </c>
       <c r="S211">
-        <v>0.1698</v>
+        <v>0.1743</v>
       </c>
       <c r="V211">
-        <v>0.1698</v>
+        <v>0.1743</v>
       </c>
       <c r="Y211">
         <v>1</v>
       </c>
       <c r="AA211">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="AB211">
         <v>270</v>
@@ -12415,10 +12418,10 @@
         <v>66</v>
       </c>
       <c r="AF211">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AI211">
-        <v>0.065</v>
+        <v>0.068</v>
       </c>
       <c r="AL211">
         <v>1</v>
@@ -12429,7 +12432,7 @@
     </row>
     <row r="212" spans="1:65">
       <c r="A212">
-        <v>155214</v>
+        <v>94277</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -12438,43 +12441,43 @@
         <v>488</v>
       </c>
       <c r="D212" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E212" t="s">
         <v>489</v>
       </c>
       <c r="F212" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G212">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="J212">
-        <v>3500000000</v>
+        <v>3700000000</v>
       </c>
       <c r="S212">
-        <v>0.1743</v>
+        <v>0.1787</v>
       </c>
       <c r="V212">
-        <v>0.1743</v>
+        <v>0.1787</v>
       </c>
       <c r="Y212">
         <v>1</v>
       </c>
       <c r="AA212">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AB212">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AC212" t="s">
         <v>66</v>
       </c>
       <c r="AF212">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="AI212">
-        <v>0.068</v>
+        <v>0.073</v>
       </c>
       <c r="AL212">
         <v>1</v>
@@ -12485,7 +12488,7 @@
     </row>
     <row r="213" spans="1:65">
       <c r="A213">
-        <v>94277</v>
+        <v>296184</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -12494,54 +12497,54 @@
         <v>490</v>
       </c>
       <c r="D213" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E213" t="s">
         <v>491</v>
       </c>
       <c r="F213" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G213">
-        <v>711</v>
+        <v>729</v>
       </c>
       <c r="J213">
-        <v>3700000000</v>
+        <v>4200000000</v>
       </c>
       <c r="S213">
-        <v>0.1787</v>
+        <v>0.1832</v>
       </c>
       <c r="V213">
-        <v>0.1787</v>
+        <v>0.1832</v>
       </c>
       <c r="Y213">
         <v>1</v>
       </c>
       <c r="AA213">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AB213">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AC213" t="s">
         <v>66</v>
       </c>
       <c r="AF213">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="AI213">
-        <v>0.073</v>
+        <v>0.075</v>
       </c>
       <c r="AL213">
         <v>1</v>
       </c>
       <c r="BI213">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:65">
       <c r="A214">
-        <v>296184</v>
+        <v>94279</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -12550,43 +12553,43 @@
         <v>492</v>
       </c>
       <c r="D214" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E214" t="s">
         <v>493</v>
       </c>
       <c r="F214" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G214">
-        <v>729</v>
+        <v>747</v>
       </c>
       <c r="J214">
-        <v>4200000000</v>
+        <v>4400000000</v>
       </c>
       <c r="S214">
-        <v>0.1832</v>
+        <v>0.1876</v>
       </c>
       <c r="V214">
-        <v>0.1832</v>
+        <v>0.1876</v>
       </c>
       <c r="Y214">
         <v>1</v>
       </c>
       <c r="AA214">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AB214">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AC214" t="s">
         <v>66</v>
       </c>
       <c r="AF214">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="AI214">
-        <v>0.075</v>
+        <v>0.078</v>
       </c>
       <c r="AL214">
         <v>1</v>
@@ -12597,7 +12600,7 @@
     </row>
     <row r="215" spans="1:65">
       <c r="A215">
-        <v>94279</v>
+        <v>94280</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -12606,54 +12609,54 @@
         <v>494</v>
       </c>
       <c r="D215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E215" t="s">
         <v>495</v>
       </c>
       <c r="F215" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G215">
-        <v>747</v>
+        <v>765</v>
       </c>
       <c r="J215">
-        <v>4400000000</v>
+        <v>4600000000</v>
       </c>
       <c r="S215">
-        <v>0.1876</v>
+        <v>0.1921</v>
       </c>
       <c r="V215">
-        <v>0.1876</v>
+        <v>0.1921</v>
       </c>
       <c r="Y215">
         <v>1</v>
       </c>
       <c r="AA215">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AB215">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AC215" t="s">
         <v>66</v>
       </c>
       <c r="AF215">
-        <v>0.98</v>
+        <v>1.02</v>
       </c>
       <c r="AI215">
-        <v>0.078</v>
+        <v>0.083</v>
       </c>
       <c r="AL215">
         <v>1</v>
       </c>
       <c r="BI215">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:65">
       <c r="A216">
-        <v>94280</v>
+        <v>94281</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -12662,43 +12665,43 @@
         <v>496</v>
       </c>
       <c r="D216" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E216" t="s">
         <v>497</v>
       </c>
       <c r="F216" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G216">
-        <v>765</v>
+        <v>783</v>
       </c>
       <c r="J216">
-        <v>4600000000</v>
+        <v>5000000000</v>
       </c>
       <c r="S216">
-        <v>0.1921</v>
+        <v>0.1965</v>
       </c>
       <c r="V216">
-        <v>0.1921</v>
+        <v>0.1965</v>
       </c>
       <c r="Y216">
         <v>1</v>
       </c>
       <c r="AA216">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AB216">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AC216" t="s">
         <v>66</v>
       </c>
       <c r="AF216">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AI216">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="AL216">
         <v>1</v>
@@ -12709,7 +12712,7 @@
     </row>
     <row r="217" spans="1:65">
       <c r="A217">
-        <v>94281</v>
+        <v>165646</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -12718,31 +12721,31 @@
         <v>498</v>
       </c>
       <c r="D217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E217" t="s">
         <v>499</v>
       </c>
       <c r="F217" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G217">
-        <v>783</v>
+        <v>801</v>
       </c>
       <c r="J217">
-        <v>5000000000</v>
+        <v>5300000000</v>
       </c>
       <c r="S217">
-        <v>0.1965</v>
+        <v>0.201</v>
       </c>
       <c r="V217">
-        <v>0.1965</v>
+        <v>0.201</v>
       </c>
       <c r="Y217">
         <v>1</v>
       </c>
       <c r="AA217">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AB217">
         <v>320</v>
@@ -12751,10 +12754,10 @@
         <v>66</v>
       </c>
       <c r="AF217">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="AI217">
-        <v>0.082</v>
+        <v>0.084</v>
       </c>
       <c r="AL217">
         <v>1</v>
@@ -12765,7 +12768,7 @@
     </row>
     <row r="218" spans="1:65">
       <c r="A218">
-        <v>165646</v>
+        <v>165647</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -12774,54 +12777,54 @@
         <v>500</v>
       </c>
       <c r="D218" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E218" t="s">
         <v>501</v>
       </c>
       <c r="F218" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G218">
-        <v>801</v>
+        <v>819</v>
       </c>
       <c r="J218">
-        <v>5300000000</v>
+        <v>5600000000</v>
       </c>
       <c r="S218">
-        <v>0.201</v>
+        <v>0.2055</v>
       </c>
       <c r="V218">
-        <v>0.201</v>
+        <v>0.2055</v>
       </c>
       <c r="Y218">
         <v>1</v>
       </c>
       <c r="AA218">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="AB218">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AC218" t="s">
         <v>66</v>
       </c>
       <c r="AF218">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="AI218">
-        <v>0.084</v>
+        <v>0.088</v>
       </c>
       <c r="AL218">
         <v>1</v>
       </c>
       <c r="BI218">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="219" spans="1:65">
       <c r="A219">
-        <v>165647</v>
+        <v>94284</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -12830,43 +12833,43 @@
         <v>502</v>
       </c>
       <c r="D219" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E219" t="s">
         <v>503</v>
       </c>
       <c r="F219" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G219">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="J219">
-        <v>5600000000</v>
+        <v>5800000000</v>
       </c>
       <c r="S219">
-        <v>0.2055</v>
+        <v>0.2099</v>
       </c>
       <c r="V219">
-        <v>0.2055</v>
+        <v>0.2099</v>
       </c>
       <c r="Y219">
         <v>1</v>
       </c>
       <c r="AA219">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="AB219">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AC219" t="s">
         <v>66</v>
       </c>
       <c r="AF219">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AI219">
-        <v>0.088</v>
+        <v>0.092</v>
       </c>
       <c r="AL219">
         <v>1</v>
@@ -12877,7 +12880,7 @@
     </row>
     <row r="220" spans="1:65">
       <c r="A220">
-        <v>94284</v>
+        <v>94285</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -12886,54 +12889,54 @@
         <v>504</v>
       </c>
       <c r="D220" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E220" t="s">
         <v>505</v>
       </c>
       <c r="F220" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G220">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="J220">
-        <v>5800000000</v>
+        <v>6000000000</v>
       </c>
       <c r="S220">
-        <v>0.2099</v>
+        <v>0.2144</v>
       </c>
       <c r="V220">
-        <v>0.2099</v>
+        <v>0.2144</v>
       </c>
       <c r="Y220">
         <v>1</v>
       </c>
       <c r="AA220">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AB220">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AC220" t="s">
         <v>66</v>
       </c>
       <c r="AF220">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="AI220">
-        <v>0.092</v>
+        <v>0.094</v>
       </c>
       <c r="AL220">
         <v>1</v>
       </c>
       <c r="BI220">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="221" spans="1:65">
       <c r="A221">
-        <v>94285</v>
+        <v>165648</v>
       </c>
       <c r="B221">
         <v>1</v>
@@ -12942,43 +12945,46 @@
         <v>506</v>
       </c>
       <c r="D221" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E221" t="s">
         <v>507</v>
       </c>
       <c r="F221" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G221">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="J221">
-        <v>6000000000</v>
+        <v>6300000000</v>
+      </c>
+      <c r="Q221">
+        <v>1.9</v>
       </c>
       <c r="S221">
-        <v>0.2144</v>
+        <v>0.2188</v>
       </c>
       <c r="V221">
-        <v>0.2144</v>
+        <v>0.2188</v>
       </c>
       <c r="Y221">
         <v>1</v>
       </c>
       <c r="AA221">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AB221">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AC221" t="s">
         <v>66</v>
       </c>
       <c r="AF221">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AI221">
-        <v>0.094</v>
+        <v>0.096</v>
       </c>
       <c r="AL221">
         <v>1</v>
@@ -12989,7 +12995,7 @@
     </row>
     <row r="222" spans="1:65">
       <c r="A222">
-        <v>165648</v>
+        <v>165649</v>
       </c>
       <c r="B222">
         <v>1</v>
@@ -12998,57 +13004,54 @@
         <v>508</v>
       </c>
       <c r="D222" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E222" t="s">
         <v>509</v>
       </c>
       <c r="F222" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G222">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="J222">
-        <v>6300000000</v>
-      </c>
-      <c r="Q222">
-        <v>1.9</v>
+        <v>10000000000</v>
       </c>
       <c r="S222">
-        <v>0.2188</v>
+        <v>0.2233</v>
       </c>
       <c r="V222">
-        <v>0.2188</v>
+        <v>0.2233</v>
       </c>
       <c r="Y222">
         <v>1</v>
       </c>
       <c r="AA222">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AB222">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AC222" t="s">
         <v>66</v>
       </c>
       <c r="AF222">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AI222">
-        <v>0.096</v>
+        <v>0.098</v>
       </c>
       <c r="AL222">
         <v>1</v>
       </c>
       <c r="BI222">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="223" spans="1:65">
       <c r="A223">
-        <v>165649</v>
+        <v>94288</v>
       </c>
       <c r="B223">
         <v>1</v>
@@ -13057,43 +13060,43 @@
         <v>510</v>
       </c>
       <c r="D223" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E223" t="s">
-        <v>511</v>
+        <v>165</v>
       </c>
       <c r="F223" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G223">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="J223">
-        <v>10000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="S223">
-        <v>0.2233</v>
+        <v>0.2277</v>
       </c>
       <c r="V223">
-        <v>0.2233</v>
+        <v>0.2277</v>
       </c>
       <c r="Y223">
         <v>1</v>
       </c>
       <c r="AA223">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AB223">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AC223" t="s">
         <v>66</v>
       </c>
       <c r="AF223">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AI223">
-        <v>0.098</v>
+        <v>0.1</v>
       </c>
       <c r="AL223">
         <v>1</v>
@@ -13104,40 +13107,40 @@
     </row>
     <row r="224" spans="1:65">
       <c r="A224">
-        <v>94288</v>
+        <v>296248</v>
       </c>
       <c r="B224">
         <v>1</v>
       </c>
       <c r="C224" t="s">
+        <v>511</v>
+      </c>
+      <c r="D224" t="s">
+        <v>411</v>
+      </c>
+      <c r="E224" t="s">
         <v>512</v>
       </c>
-      <c r="D224" t="s">
-        <v>413</v>
-      </c>
-      <c r="E224" t="s">
-        <v>165</v>
-      </c>
       <c r="F224" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G224">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="J224">
-        <v>12000000000</v>
+        <v>16000000000</v>
       </c>
       <c r="S224">
-        <v>0.2277</v>
+        <v>0.2322</v>
       </c>
       <c r="V224">
-        <v>0.2277</v>
+        <v>0.2322</v>
       </c>
       <c r="Y224">
         <v>1</v>
       </c>
       <c r="AA224">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AB224">
         <v>380</v>
@@ -13146,10 +13149,10 @@
         <v>66</v>
       </c>
       <c r="AF224">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AI224">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="AL224">
         <v>1</v>
@@ -13160,7 +13163,7 @@
     </row>
     <row r="225" spans="1:65">
       <c r="A225">
-        <v>296248</v>
+        <v>296249</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -13169,31 +13172,31 @@
         <v>513</v>
       </c>
       <c r="D225" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E225" t="s">
         <v>514</v>
       </c>
       <c r="F225" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G225">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="J225">
-        <v>16000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="S225">
-        <v>0.2322</v>
+        <v>0.2366</v>
       </c>
       <c r="V225">
-        <v>0.2322</v>
+        <v>0.2366</v>
       </c>
       <c r="Y225">
         <v>1</v>
       </c>
       <c r="AA225">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AB225">
         <v>380</v>
@@ -13202,10 +13205,10 @@
         <v>66</v>
       </c>
       <c r="AF225">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AI225">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="AL225">
         <v>1</v>
@@ -13216,7 +13219,7 @@
     </row>
     <row r="226" spans="1:65">
       <c r="A226">
-        <v>296249</v>
+        <v>296250</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -13225,54 +13228,54 @@
         <v>515</v>
       </c>
       <c r="D226" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E226" t="s">
         <v>516</v>
       </c>
       <c r="F226" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G226">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="J226">
-        <v>18000000000</v>
+        <v>22000000000</v>
       </c>
       <c r="S226">
-        <v>0.2366</v>
+        <v>0.2411</v>
       </c>
       <c r="V226">
-        <v>0.2366</v>
+        <v>0.2411</v>
       </c>
       <c r="Y226">
         <v>1</v>
       </c>
       <c r="AA226">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AB226">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AC226" t="s">
         <v>66</v>
       </c>
       <c r="AF226">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AI226">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="AL226">
         <v>1</v>
       </c>
       <c r="BI226">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="227" spans="1:65">
       <c r="A227">
-        <v>296250</v>
+        <v>296251</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -13281,43 +13284,43 @@
         <v>517</v>
       </c>
       <c r="D227" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E227" t="s">
         <v>518</v>
       </c>
       <c r="F227" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G227">
-        <v>964</v>
+        <v>982</v>
       </c>
       <c r="J227">
-        <v>22000000000</v>
+        <v>24000000000</v>
       </c>
       <c r="S227">
-        <v>0.2411</v>
+        <v>0.2455</v>
       </c>
       <c r="V227">
-        <v>0.2411</v>
+        <v>0.2455</v>
       </c>
       <c r="Y227">
         <v>1</v>
       </c>
       <c r="AA227">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AB227">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AC227" t="s">
         <v>66</v>
       </c>
       <c r="AF227">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AI227">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="AL227">
         <v>1</v>
@@ -13328,7 +13331,7 @@
     </row>
     <row r="228" spans="1:65">
       <c r="A228">
-        <v>296251</v>
+        <v>296252</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -13337,104 +13340,48 @@
         <v>519</v>
       </c>
       <c r="D228" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E228" t="s">
         <v>520</v>
       </c>
       <c r="F228" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G228">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="J228">
-        <v>24000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="S228">
-        <v>0.2455</v>
+        <v>0.25</v>
       </c>
       <c r="V228">
-        <v>0.2455</v>
+        <v>0.25</v>
       </c>
       <c r="Y228">
         <v>1</v>
       </c>
       <c r="AA228">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="AB228">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AC228" t="s">
         <v>66</v>
       </c>
       <c r="AF228">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AI228">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="AL228">
         <v>1</v>
       </c>
       <c r="BI228">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229" spans="1:65">
-      <c r="A229">
-        <v>296252</v>
-      </c>
-      <c r="B229">
-        <v>1</v>
-      </c>
-      <c r="C229" t="s">
-        <v>521</v>
-      </c>
-      <c r="D229" t="s">
-        <v>413</v>
-      </c>
-      <c r="E229" t="s">
-        <v>522</v>
-      </c>
-      <c r="F229" t="s">
-        <v>413</v>
-      </c>
-      <c r="G229">
-        <v>1000</v>
-      </c>
-      <c r="J229">
-        <v>26000000000</v>
-      </c>
-      <c r="S229">
-        <v>0.25</v>
-      </c>
-      <c r="V229">
-        <v>0.25</v>
-      </c>
-      <c r="Y229">
-        <v>1</v>
-      </c>
-      <c r="AA229">
-        <v>400</v>
-      </c>
-      <c r="AB229">
-        <v>401</v>
-      </c>
-      <c r="AC229" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF229">
-        <v>1.38</v>
-      </c>
-      <c r="AI229">
-        <v>0.22</v>
-      </c>
-      <c r="AL229">
-        <v>1</v>
-      </c>
-      <c r="BI229">
         <v>20</v>
       </c>
     </row>
